--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F70938-DF01-4A9B-AC6D-1C1381D4A842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63FD8F3-3A12-49CF-BDFF-4D7CE66F5B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34890" yWindow="3240" windowWidth="20400" windowHeight="12675" firstSheet="1" activeTab="7" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="34890" yWindow="3240" windowWidth="20400" windowHeight="12675" firstSheet="2" activeTab="7" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref" sheetId="10" r:id="rId1"/>
-    <sheet name="Equipment" sheetId="1" r:id="rId2"/>
-    <sheet name="Building" sheetId="2" r:id="rId3"/>
-    <sheet name="Trader" sheetId="6" r:id="rId4"/>
-    <sheet name="TextTag" sheetId="4" r:id="rId5"/>
-    <sheet name="Quest" sheetId="7" r:id="rId6"/>
-    <sheet name="Expedition" sheetId="11" r:id="rId7"/>
-    <sheet name="RewardProb" sheetId="12" r:id="rId8"/>
+    <sheet name="TextTag" sheetId="4" r:id="rId2"/>
+    <sheet name="Item" sheetId="13" r:id="rId3"/>
+    <sheet name="MergeItem" sheetId="1" r:id="rId4"/>
+    <sheet name="Building" sheetId="2" r:id="rId5"/>
+    <sheet name="Trader" sheetId="6" r:id="rId6"/>
+    <sheet name="Quest" sheetId="7" r:id="rId7"/>
+    <sheet name="Expedition" sheetId="11" r:id="rId8"/>
+    <sheet name="RewardProb" sheetId="12" r:id="rId9"/>
+    <sheet name="Hero" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>Equipment_Name_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +368,30 @@
   </si>
   <si>
     <t>prob12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~아이템 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~상인 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -910,84 +936,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5F6F4D-65E2-42F1-89B1-3A28518D62CE}">
-  <dimension ref="A1:F3"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12FA702-3FDA-4873-9476-2B23FDC79A93}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <f>VLOOKUP(B2,TextTag!$A:$B,2,0)</f>
-        <v>녹슨 검</v>
+      <c r="C2" s="1">
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>VLOOKUP(B3,TextTag!$A:$B,2,0)</f>
-        <v>덜 녹슨 검</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -996,285 +986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA3DF29-7E31-401A-BBF8-E5BBCFA00E79}">
-  <dimension ref="A1:Q3"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f>VLOOKUP(D2,TextTag!$A:$B,2,0)</f>
-        <v>마법대</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f>VLOOKUP(F2,Ref!$A:$B,2,0)</f>
-        <v>아이템 개수</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K2" s="1" t="str">
-        <f>VLOOKUP(J2,Ref!$A:$B,2,0)</f>
-        <v>없음</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O2" s="1" t="str">
-        <f>VLOOKUP(N2,Ref!$A:$B,2,0)</f>
-        <v>없음</v>
-      </c>
-      <c r="P2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E3" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBD2E0F-4C9A-484F-93A0-063395D8574E}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>VLOOKUP(B2,TextTag!$A:$B,2,0)</f>
-        <v>드레이코 왕국 보급관</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f>VLOOKUP(E2,Ref!$A:$B,2,0)</f>
-        <v>아이템 개수</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <f>VLOOKUP(I2,Ref!$A:$B,2,0)</f>
-        <v>없음</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <f>VLOOKUP(M2,Ref!$A:$B,2,0)</f>
-        <v>없음</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375FEDA8-0451-4789-BF9C-DBB1721B45C7}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1383,7 +1095,557 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEAE22-5922-41C3-8363-1D72AEC2DD20}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>VLOOKUP(D2,TextTag!$A:$B,2,0)</f>
+        <v>녹슨 검</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>VLOOKUP(F2,TextTag!$A:$B,2,0)</f>
+        <v>처음 시작하는 모험가를 위해</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>VLOOKUP(D3,TextTag!$A:$B,2,0)</f>
+        <v>덜 녹슨 검</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>VLOOKUP(F3,TextTag!$A:$B,2,0)</f>
+        <v>덜 녹슨 검</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5F6F4D-65E2-42F1-89B1-3A28518D62CE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA3DF29-7E31-401A-BBF8-E5BBCFA00E79}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
+        <v>마법대</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>VLOOKUP(E2,Ref!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>VLOOKUP(I2,Ref!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f>VLOOKUP(M2,Ref!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
+        <v>마법대</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>VLOOKUP(E3,Ref!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>VLOOKUP(I3,Ref!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>VLOOKUP(M3,Ref!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBD2E0F-4C9A-484F-93A0-063395D8574E}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
+        <v>드레이코 왕국 보급관</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
+        <v>드레이코 왕국 보급관</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>VLOOKUP(H2,Ref!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f>VLOOKUP(L2,Ref!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <f>VLOOKUP(P2,Ref!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF15104-731A-4C98-BA74-8497E4F21D42}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
@@ -1615,12 +1877,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1629,17 +1891,17 @@
     <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -1656,46 +1918,46 @@
         <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -1713,49 +1975,49 @@
         <v>20</v>
       </c>
       <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <f>VLOOKUP(E2,Ref!$A:$B,2,0)</f>
+      <c r="H2" s="1" t="str">
+        <f>VLOOKUP(G2,Ref!$A:$B,2,0)</f>
         <v>아이템 개수</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
         <v>1000</v>
       </c>
-      <c r="I2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <f>VLOOKUP(I2,Ref!$A:$B,2,0)</f>
+      <c r="K2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>VLOOKUP(K2,Ref!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
         <v>1000</v>
       </c>
-      <c r="M2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <f>VLOOKUP(M2,Ref!$A:$B,2,0)</f>
+      <c r="O2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f>VLOOKUP(O2,Ref!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="O2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>-1</v>
-      </c>
       <c r="Q2" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="R2" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1764,12 +2026,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E275678-4570-4CA2-A5D1-8566AA5F2680}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63FD8F3-3A12-49CF-BDFF-4D7CE66F5B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AB9441-25F7-487D-A4A8-98C33F65C049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34890" yWindow="3240" windowWidth="20400" windowHeight="12675" firstSheet="2" activeTab="7" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="34890" yWindow="3240" windowWidth="20400" windowHeight="12675" firstSheet="2" activeTab="8" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref" sheetId="10" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="Trader" sheetId="6" r:id="rId6"/>
     <sheet name="Quest" sheetId="7" r:id="rId7"/>
     <sheet name="Expedition" sheetId="11" r:id="rId8"/>
-    <sheet name="RewardProb" sheetId="12" r:id="rId9"/>
-    <sheet name="Hero" sheetId="14" r:id="rId10"/>
+    <sheet name="Lv" sheetId="15" r:id="rId9"/>
+    <sheet name="RewardProb" sheetId="12" r:id="rId10"/>
+    <sheet name="Hero" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>Equipment_Name_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,6 +393,10 @@
   </si>
   <si>
     <t>~상인 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,6 +942,104 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E275678-4570-4CA2-A5D1-8566AA5F2680}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12FA702-3FDA-4873-9476-2B23FDC79A93}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1205,7 +1308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5F6F4D-65E2-42F1-89B1-3A28518D62CE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1881,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2027,95 +2132,37 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E275678-4570-4CA2-A5D1-8566AA5F2680}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90F1975-8DB0-44C6-A265-CFA567B2CE61}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1">
-        <v>40</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AB9441-25F7-487D-A4A8-98C33F65C049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36E846E-3B63-4084-A786-57D6527357ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34890" yWindow="3240" windowWidth="20400" windowHeight="12675" firstSheet="2" activeTab="8" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
   <si>
     <t>Equipment_Name_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,34 @@
   </si>
   <si>
     <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expedition_State_Progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정 진행 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expedition_State_Reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 대기 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expedition_State_End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expeditionTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,15 +1119,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375FEDA8-0451-4789-BF9C-DBB1721B45C7}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
   </cols>
@@ -1189,6 +1217,39 @@
         <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1984,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1997,19 +2058,20 @@
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -2026,46 +2088,49 @@
         <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2086,42 +2151,45 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="str">
-        <f>VLOOKUP(G2,Ref!$A:$B,2,0)</f>
+      <c r="I2" s="1" t="str">
+        <f>VLOOKUP(H2,Ref!$A:$B,2,0)</f>
         <v>아이템 개수</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
       <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
         <v>1000</v>
       </c>
-      <c r="K2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <f>VLOOKUP(K2,Ref!$A:$B,2,0)</f>
+      <c r="L2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f>VLOOKUP(L2,Ref!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
       <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
         <v>1000</v>
       </c>
-      <c r="O2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P2" s="1" t="str">
-        <f>VLOOKUP(O2,Ref!$A:$B,2,0)</f>
+      <c r="P2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <f>VLOOKUP(P2,Ref!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="Q2" s="1">
-        <v>-1</v>
-      </c>
       <c r="R2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="1">
         <v>-1</v>
       </c>
     </row>
@@ -2135,7 +2203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90F1975-8DB0-44C6-A265-CFA567B2CE61}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36E846E-3B63-4084-A786-57D6527357ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E9C04C-081A-42C8-B6D5-9529B1A37A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ref" sheetId="10" r:id="rId1"/>
+    <sheet name="Reference" sheetId="10" r:id="rId1"/>
     <sheet name="TextTag" sheetId="4" r:id="rId2"/>
     <sheet name="Item" sheetId="13" r:id="rId3"/>
     <sheet name="MergeItem" sheetId="1" r:id="rId4"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="256">
   <si>
     <t>Equipment_Name_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,6 +426,498 @@
   <si>
     <t>expeditionTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머지 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~아이템 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Name_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_3</t>
+  </si>
+  <si>
+    <t>Equipment_Res_3</t>
+  </si>
+  <si>
+    <t>Equipment_Name_4</t>
+  </si>
+  <si>
+    <t>Equipment_Res_4</t>
+  </si>
+  <si>
+    <t>Equipment_Name_5</t>
+  </si>
+  <si>
+    <t>Equipment_Res_5</t>
+  </si>
+  <si>
+    <t>Equipment_Name_6</t>
+  </si>
+  <si>
+    <t>Equipment_Res_6</t>
+  </si>
+  <si>
+    <t>Equipment_Name_7</t>
+  </si>
+  <si>
+    <t>Equipment_Res_7</t>
+  </si>
+  <si>
+    <t>Equipment_Name_8</t>
+  </si>
+  <si>
+    <t>Equipment_Res_8</t>
+  </si>
+  <si>
+    <t>Equipment_Name_9</t>
+  </si>
+  <si>
+    <t>Equipment_Res_9</t>
+  </si>
+  <si>
+    <t>Equipment_Name_10</t>
+  </si>
+  <si>
+    <t>Equipment_Res_10</t>
+  </si>
+  <si>
+    <t>Equipment_Name_11</t>
+  </si>
+  <si>
+    <t>Equipment_Res_11</t>
+  </si>
+  <si>
+    <t>Equipment_Name_12</t>
+  </si>
+  <si>
+    <t>Equipment_Res_12</t>
+  </si>
+  <si>
+    <t>Equipment_Name_13</t>
+  </si>
+  <si>
+    <t>Equipment_Res_13</t>
+  </si>
+  <si>
+    <t>Equipment_Name_14</t>
+  </si>
+  <si>
+    <t>Equipment_Res_14</t>
+  </si>
+  <si>
+    <t>Equipment_Name_15</t>
+  </si>
+  <si>
+    <t>Equipment_Res_15</t>
+  </si>
+  <si>
+    <t>Equipment_Name_16</t>
+  </si>
+  <si>
+    <t>Equipment_Res_16</t>
+  </si>
+  <si>
+    <t>Equipment_Name_17</t>
+  </si>
+  <si>
+    <t>Equipment_Res_17</t>
+  </si>
+  <si>
+    <t>Equipment_Name_18</t>
+  </si>
+  <si>
+    <t>Equipment_Res_18</t>
+  </si>
+  <si>
+    <t>Equipment_Name_19</t>
+  </si>
+  <si>
+    <t>Equipment_Res_19</t>
+  </si>
+  <si>
+    <t>Equipment_Name_20</t>
+  </si>
+  <si>
+    <t>Equipment_Res_20</t>
+  </si>
+  <si>
+    <t>Equipment_Name_21</t>
+  </si>
+  <si>
+    <t>Equipment_Res_21</t>
+  </si>
+  <si>
+    <t>Equipment_Name_22</t>
+  </si>
+  <si>
+    <t>Equipment_Res_22</t>
+  </si>
+  <si>
+    <t>Equipment_Name_23</t>
+  </si>
+  <si>
+    <t>Equipment_Res_23</t>
+  </si>
+  <si>
+    <t>Equipment_Name_24</t>
+  </si>
+  <si>
+    <t>Equipment_Res_24</t>
+  </si>
+  <si>
+    <t>Equipment_Name_25</t>
+  </si>
+  <si>
+    <t>Equipment_Res_25</t>
+  </si>
+  <si>
+    <t>Equipment_Name_26</t>
+  </si>
+  <si>
+    <t>Equipment_Res_26</t>
+  </si>
+  <si>
+    <t>Equipment_Name_27</t>
+  </si>
+  <si>
+    <t>Equipment_Res_27</t>
+  </si>
+  <si>
+    <t>Equipment_Name_28</t>
+  </si>
+  <si>
+    <t>Equipment_Res_28</t>
+  </si>
+  <si>
+    <t>Equipment_Name_29</t>
+  </si>
+  <si>
+    <t>Equipment_Res_29</t>
+  </si>
+  <si>
+    <t>Equipment_Name_30</t>
+  </si>
+  <si>
+    <t>Equipment_Res_30</t>
+  </si>
+  <si>
+    <t>Equipment_Name_31</t>
+  </si>
+  <si>
+    <t>Equipment_Res_31</t>
+  </si>
+  <si>
+    <t>Equipment_Name_32</t>
+  </si>
+  <si>
+    <t>Equipment_Res_32</t>
+  </si>
+  <si>
+    <t>Equipment_Name_33</t>
+  </si>
+  <si>
+    <t>Equipment_Res_33</t>
+  </si>
+  <si>
+    <t>Equipment_Name_34</t>
+  </si>
+  <si>
+    <t>Equipment_Res_34</t>
+  </si>
+  <si>
+    <t>Equipment_Name_35</t>
+  </si>
+  <si>
+    <t>Equipment_Res_35</t>
+  </si>
+  <si>
+    <t>Equipment_Name_36</t>
+  </si>
+  <si>
+    <t>Equipment_Res_36</t>
+  </si>
+  <si>
+    <t>Equipment_Name_37</t>
+  </si>
+  <si>
+    <t>Equipment_Res_37</t>
+  </si>
+  <si>
+    <t>Equipment_Name_38</t>
+  </si>
+  <si>
+    <t>Equipment_Res_38</t>
+  </si>
+  <si>
+    <t>Equipment_Name_39</t>
+  </si>
+  <si>
+    <t>Equipment_Res_39</t>
+  </si>
+  <si>
+    <t>Equipment_Name_40</t>
+  </si>
+  <si>
+    <t>Equipment_Res_40</t>
+  </si>
+  <si>
+    <t>Equipment_Name_41</t>
+  </si>
+  <si>
+    <t>Equipment_Res_41</t>
+  </si>
+  <si>
+    <t>Equipment_Name_42</t>
+  </si>
+  <si>
+    <t>Equipment_Res_42</t>
+  </si>
+  <si>
+    <t>Equipment_Name_43</t>
+  </si>
+  <si>
+    <t>Equipment_Res_43</t>
+  </si>
+  <si>
+    <t>Equipment_Name_44</t>
+  </si>
+  <si>
+    <t>Equipment_Res_44</t>
+  </si>
+  <si>
+    <t>Equipment_Name_45</t>
+  </si>
+  <si>
+    <t>Equipment_Res_45</t>
+  </si>
+  <si>
+    <t>Equipment_Name_46</t>
+  </si>
+  <si>
+    <t>Equipment_Res_46</t>
+  </si>
+  <si>
+    <t>Equipment_Name_47</t>
+  </si>
+  <si>
+    <t>Equipment_Res_47</t>
+  </si>
+  <si>
+    <t>Equipment_Name_48</t>
+  </si>
+  <si>
+    <t>Equipment_Res_48</t>
+  </si>
+  <si>
+    <t>Equipment_Name_49</t>
+  </si>
+  <si>
+    <t>Equipment_Res_49</t>
+  </si>
+  <si>
+    <t>Equipment_Name_50</t>
+  </si>
+  <si>
+    <t>Equipment_Res_50</t>
+  </si>
+  <si>
+    <t>Equipment_Name_51</t>
+  </si>
+  <si>
+    <t>Equipment_Res_51</t>
+  </si>
+  <si>
+    <t>Equipment_Name_52</t>
+  </si>
+  <si>
+    <t>Equipment_Res_52</t>
+  </si>
+  <si>
+    <t>Equipment_Name_53</t>
+  </si>
+  <si>
+    <t>Equipment_Res_53</t>
+  </si>
+  <si>
+    <t>Equipment_Name_54</t>
+  </si>
+  <si>
+    <t>Equipment_Res_54</t>
+  </si>
+  <si>
+    <t>Equipment_Name_55</t>
+  </si>
+  <si>
+    <t>Equipment_Res_55</t>
+  </si>
+  <si>
+    <t>Equipment_Name_56</t>
+  </si>
+  <si>
+    <t>Equipment_Res_56</t>
+  </si>
+  <si>
+    <t>Equipment_Name_57</t>
+  </si>
+  <si>
+    <t>Equipment_Res_57</t>
+  </si>
+  <si>
+    <t>Equipment_Name_58</t>
+  </si>
+  <si>
+    <t>Equipment_Res_58</t>
+  </si>
+  <si>
+    <t>Equipment_Name_59</t>
+  </si>
+  <si>
+    <t>Equipment_Res_59</t>
+  </si>
+  <si>
+    <t>Equipment_Name_60</t>
+  </si>
+  <si>
+    <t>Equipment_Res_60</t>
+  </si>
+  <si>
+    <t>Equipment_Name_61</t>
+  </si>
+  <si>
+    <t>Equipment_Res_61</t>
+  </si>
+  <si>
+    <t>Equipment_Name_62</t>
+  </si>
+  <si>
+    <t>Equipment_Res_62</t>
+  </si>
+  <si>
+    <t>Equipment_Name_63</t>
+  </si>
+  <si>
+    <t>Equipment_Res_63</t>
+  </si>
+  <si>
+    <t>Equipment_Name_64</t>
+  </si>
+  <si>
+    <t>Equipment_Res_64</t>
+  </si>
+  <si>
+    <t>Equipment_Name_65</t>
+  </si>
+  <si>
+    <t>Equipment_Res_65</t>
+  </si>
+  <si>
+    <t>Equipment_Name_66</t>
+  </si>
+  <si>
+    <t>Equipment_Res_66</t>
+  </si>
+  <si>
+    <t>Equipment_Name_67</t>
+  </si>
+  <si>
+    <t>Equipment_Res_67</t>
+  </si>
+  <si>
+    <t>Equipment_Name_68</t>
+  </si>
+  <si>
+    <t>Equipment_Res_68</t>
+  </si>
+  <si>
+    <t>Equipment_Name_69</t>
+  </si>
+  <si>
+    <t>Equipment_Res_69</t>
+  </si>
+  <si>
+    <t>Equipment_Name_70</t>
+  </si>
+  <si>
+    <t>Equipment_Res_70</t>
+  </si>
+  <si>
+    <t>Equipment_Name_71</t>
+  </si>
+  <si>
+    <t>Equipment_Res_71</t>
+  </si>
+  <si>
+    <t>Equipment_Name_72</t>
+  </si>
+  <si>
+    <t>Equipment_Res_72</t>
+  </si>
+  <si>
+    <t>Equipment_Name_73</t>
+  </si>
+  <si>
+    <t>Equipment_Res_73</t>
+  </si>
+  <si>
+    <t>Equipment_Name_74</t>
+  </si>
+  <si>
+    <t>Equipment_Res_74</t>
+  </si>
+  <si>
+    <t>Equipment_Name_75</t>
+  </si>
+  <si>
+    <t>Equipment_Res_75</t>
+  </si>
+  <si>
+    <t>Equipment_Name_76</t>
+  </si>
+  <si>
+    <t>Equipment_Res_76</t>
+  </si>
+  <si>
+    <t>Equipment_Name_77</t>
+  </si>
+  <si>
+    <t>Equipment_Res_77</t>
+  </si>
+  <si>
+    <t>Equipment_Name_78</t>
+  </si>
+  <si>
+    <t>Equipment_Res_78</t>
   </si>
 </sst>
 </file>
@@ -904,13 +1396,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D1" sqref="D1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -920,8 +1414,12 @@
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -930,8 +1428,12 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -940,8 +1442,12 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -950,8 +1456,12 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1119,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375FEDA8-0451-4789-BF9C-DBB1721B45C7}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1145,21 +1655,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>2</v>
@@ -1167,21 +1677,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
@@ -1189,10 +1699,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>16</v>
@@ -1200,10 +1710,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>16</v>
@@ -1211,10 +1721,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
@@ -1222,10 +1732,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>16</v>
@@ -1233,10 +1743,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>16</v>
@@ -1244,12 +1754,23 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1261,23 +1782,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEAE22-5922-41C3-8363-1D72AEC2DD20}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -1288,24 +1812,27 @@
         <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1313,51 +1840,2556 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(C2,Reference!$D:$E,2,0)</f>
+        <v>돈</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
+        <v>돈</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>VLOOKUP(G2,TextTag!$A:$B,2,0)</f>
+        <v>처음 시작하는 모험가를 위해</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(C3,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <f>VLOOKUP(D2,TextTag!$A:$B,2,0)</f>
+      <c r="F3" s="1" t="str">
+        <f>VLOOKUP(E3,TextTag!$A:$B,2,0)</f>
         <v>녹슨 검</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>VLOOKUP(G3,TextTag!$A:$B,2,0)</f>
+        <v>녹슨 검</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(C4,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>VLOOKUP(E4,TextTag!$A:$B,2,0)</f>
+        <v>덜 녹슨 검</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>VLOOKUP(G4,TextTag!$A:$B,2,0)</f>
+        <v>덜 녹슨 검</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(C5,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="1" t="e">
+        <f>VLOOKUP(E5,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="1" t="e">
+        <f>VLOOKUP(G5,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(C6,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="1" t="e">
+        <f>VLOOKUP(E6,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="1" t="e">
+        <f>VLOOKUP(G6,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(C7,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f>VLOOKUP(E7,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="1" t="e">
+        <f>VLOOKUP(G7,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>VLOOKUP(C8,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="1" t="e">
+        <f>VLOOKUP(E8,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="1" t="e">
+        <f>VLOOKUP(G8,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>VLOOKUP(C9,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="1" t="e">
+        <f>VLOOKUP(E9,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="1" t="e">
+        <f>VLOOKUP(G9,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>VLOOKUP(C10,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="1" t="e">
+        <f>VLOOKUP(E10,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="1" t="e">
+        <f>VLOOKUP(G10,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>VLOOKUP(C11,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="1" t="e">
+        <f>VLOOKUP(E11,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="1" t="e">
+        <f>VLOOKUP(G11,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(C12,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="1" t="e">
+        <f>VLOOKUP(E12,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="1" t="e">
+        <f>VLOOKUP(G12,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>VLOOKUP(C13,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f>VLOOKUP(E13,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="1" t="e">
+        <f>VLOOKUP(G13,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(C14,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="1" t="e">
+        <f>VLOOKUP(E14,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="1" t="e">
+        <f>VLOOKUP(G14,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(C15,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="1" t="e">
+        <f>VLOOKUP(E15,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="1" t="e">
+        <f>VLOOKUP(G15,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>VLOOKUP(C16,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="1" t="e">
+        <f>VLOOKUP(E16,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="1" t="e">
+        <f>VLOOKUP(G16,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>VLOOKUP(C17,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="1" t="e">
+        <f>VLOOKUP(E17,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="1" t="e">
+        <f>VLOOKUP(G17,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>VLOOKUP(C18,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="1" t="e">
+        <f>VLOOKUP(E18,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="1" t="e">
+        <f>VLOOKUP(G18,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>VLOOKUP(C19,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f>VLOOKUP(E19,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="1" t="e">
+        <f>VLOOKUP(G19,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>VLOOKUP(C20,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="1" t="e">
+        <f>VLOOKUP(E20,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="1" t="e">
+        <f>VLOOKUP(G20,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>VLOOKUP(C21,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="1" t="e">
+        <f>VLOOKUP(E21,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="1" t="e">
+        <f>VLOOKUP(G21,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>VLOOKUP(C22,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="1" t="e">
+        <f>VLOOKUP(E22,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="1" t="e">
+        <f>VLOOKUP(G22,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>VLOOKUP(C23,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="1" t="e">
+        <f>VLOOKUP(E23,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="1" t="e">
+        <f>VLOOKUP(G23,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>VLOOKUP(C24,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="1" t="e">
+        <f>VLOOKUP(E24,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="1" t="e">
+        <f>VLOOKUP(G24,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>VLOOKUP(C25,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f>VLOOKUP(E25,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="1" t="e">
+        <f>VLOOKUP(G25,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>VLOOKUP(C26,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="1" t="e">
+        <f>VLOOKUP(E26,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="1" t="e">
+        <f>VLOOKUP(G26,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f>VLOOKUP(F2,TextTag!$A:$B,2,0)</f>
-        <v>처음 시작하는 모험가를 위해</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f>VLOOKUP(D3,TextTag!$A:$B,2,0)</f>
-        <v>덜 녹슨 검</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f>VLOOKUP(F3,TextTag!$A:$B,2,0)</f>
-        <v>덜 녹슨 검</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>VLOOKUP(C27,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="1" t="e">
+        <f>VLOOKUP(E27,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="1" t="e">
+        <f>VLOOKUP(G27,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>VLOOKUP(C28,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="1" t="e">
+        <f>VLOOKUP(E28,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="1" t="e">
+        <f>VLOOKUP(G28,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>VLOOKUP(C29,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="1" t="e">
+        <f>VLOOKUP(E29,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="1" t="e">
+        <f>VLOOKUP(G29,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>VLOOKUP(C30,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="1" t="e">
+        <f>VLOOKUP(E30,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="1" t="e">
+        <f>VLOOKUP(G30,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>VLOOKUP(C31,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f>VLOOKUP(E31,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="1" t="e">
+        <f>VLOOKUP(G31,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>VLOOKUP(C32,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="1" t="e">
+        <f>VLOOKUP(E32,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="1" t="e">
+        <f>VLOOKUP(G32,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>VLOOKUP(C33,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="1" t="e">
+        <f>VLOOKUP(E33,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="1" t="e">
+        <f>VLOOKUP(G33,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>VLOOKUP(C34,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="1" t="e">
+        <f>VLOOKUP(E34,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="1" t="e">
+        <f>VLOOKUP(G34,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>VLOOKUP(C35,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="1" t="e">
+        <f>VLOOKUP(E35,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="1" t="e">
+        <f>VLOOKUP(G35,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>VLOOKUP(C36,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="1" t="e">
+        <f>VLOOKUP(E36,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="1" t="e">
+        <f>VLOOKUP(G36,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>VLOOKUP(C37,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="1" t="e">
+        <f>VLOOKUP(E37,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" s="1" t="e">
+        <f>VLOOKUP(G37,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>VLOOKUP(C38,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="1" t="e">
+        <f>VLOOKUP(E38,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="1" t="e">
+        <f>VLOOKUP(G38,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>VLOOKUP(C39,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" s="1" t="e">
+        <f>VLOOKUP(E39,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H39" s="1" t="e">
+        <f>VLOOKUP(G39,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>VLOOKUP(C40,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="1" t="e">
+        <f>VLOOKUP(E40,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" s="1" t="e">
+        <f>VLOOKUP(G40,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>VLOOKUP(C41,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="1" t="e">
+        <f>VLOOKUP(E41,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="1" t="e">
+        <f>VLOOKUP(G41,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>VLOOKUP(C42,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="1" t="e">
+        <f>VLOOKUP(E42,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="1" t="e">
+        <f>VLOOKUP(G42,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>VLOOKUP(C43,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="1" t="e">
+        <f>VLOOKUP(E43,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H43" s="1" t="e">
+        <f>VLOOKUP(G43,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>VLOOKUP(C44,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="1" t="e">
+        <f>VLOOKUP(E44,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="1" t="e">
+        <f>VLOOKUP(G44,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>VLOOKUP(C45,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" s="1" t="e">
+        <f>VLOOKUP(E45,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="1" t="e">
+        <f>VLOOKUP(G45,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>VLOOKUP(C46,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" s="1" t="e">
+        <f>VLOOKUP(E46,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="1" t="e">
+        <f>VLOOKUP(G46,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f>VLOOKUP(C47,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="1" t="e">
+        <f>VLOOKUP(E47,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" s="1" t="e">
+        <f>VLOOKUP(G47,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f>VLOOKUP(C48,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="1" t="e">
+        <f>VLOOKUP(E48,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H48" s="1" t="e">
+        <f>VLOOKUP(G48,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>VLOOKUP(C49,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" s="1" t="e">
+        <f>VLOOKUP(E49,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H49" s="1" t="e">
+        <f>VLOOKUP(G49,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f>VLOOKUP(C50,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="1" t="e">
+        <f>VLOOKUP(E50,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H50" s="1" t="e">
+        <f>VLOOKUP(G50,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>VLOOKUP(C51,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="1" t="e">
+        <f>VLOOKUP(E51,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H51" s="1" t="e">
+        <f>VLOOKUP(G51,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f>VLOOKUP(C52,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F52" s="1" t="e">
+        <f>VLOOKUP(E52,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H52" s="1" t="e">
+        <f>VLOOKUP(G52,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f>VLOOKUP(C53,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" s="1" t="e">
+        <f>VLOOKUP(E53,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H53" s="1" t="e">
+        <f>VLOOKUP(G53,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f>VLOOKUP(C54,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" s="1" t="e">
+        <f>VLOOKUP(E54,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H54" s="1" t="e">
+        <f>VLOOKUP(G54,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>VLOOKUP(C55,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" s="1" t="e">
+        <f>VLOOKUP(E55,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H55" s="1" t="e">
+        <f>VLOOKUP(G55,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f>VLOOKUP(C56,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" s="1" t="e">
+        <f>VLOOKUP(E56,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H56" s="1" t="e">
+        <f>VLOOKUP(G56,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f>VLOOKUP(C57,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" s="1" t="e">
+        <f>VLOOKUP(E57,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H57" s="1" t="e">
+        <f>VLOOKUP(G57,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f>VLOOKUP(C58,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F58" s="1" t="e">
+        <f>VLOOKUP(E58,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H58" s="1" t="e">
+        <f>VLOOKUP(G58,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f>VLOOKUP(C59,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="1" t="e">
+        <f>VLOOKUP(E59,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H59" s="1" t="e">
+        <f>VLOOKUP(G59,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f>VLOOKUP(C60,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="1" t="e">
+        <f>VLOOKUP(E60,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H60" s="1" t="e">
+        <f>VLOOKUP(G60,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f>VLOOKUP(C61,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" s="1" t="e">
+        <f>VLOOKUP(E61,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H61" s="1" t="e">
+        <f>VLOOKUP(G61,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f>VLOOKUP(C62,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="1" t="e">
+        <f>VLOOKUP(E62,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H62" s="1" t="e">
+        <f>VLOOKUP(G62,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>61</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f>VLOOKUP(C63,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F63" s="1" t="e">
+        <f>VLOOKUP(E63,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H63" s="1" t="e">
+        <f>VLOOKUP(G63,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>62</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f>VLOOKUP(C64,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F64" s="1" t="e">
+        <f>VLOOKUP(E64,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H64" s="1" t="e">
+        <f>VLOOKUP(G64,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>63</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f>VLOOKUP(C65,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F65" s="1" t="e">
+        <f>VLOOKUP(E65,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H65" s="1" t="e">
+        <f>VLOOKUP(G65,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>64</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f>VLOOKUP(C66,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" s="1" t="e">
+        <f>VLOOKUP(E66,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H66" s="1" t="e">
+        <f>VLOOKUP(G66,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>65</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f>VLOOKUP(C67,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F67" s="1" t="e">
+        <f>VLOOKUP(E67,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H67" s="1" t="e">
+        <f>VLOOKUP(G67,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f>VLOOKUP(C68,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F68" s="1" t="e">
+        <f>VLOOKUP(E68,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H68" s="1" t="e">
+        <f>VLOOKUP(G68,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>67</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f>VLOOKUP(C69,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F69" s="1" t="e">
+        <f>VLOOKUP(E69,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H69" s="1" t="e">
+        <f>VLOOKUP(G69,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>68</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f>VLOOKUP(C70,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F70" s="1" t="e">
+        <f>VLOOKUP(E70,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H70" s="1" t="e">
+        <f>VLOOKUP(G70,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>69</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f>VLOOKUP(C71,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F71" s="1" t="e">
+        <f>VLOOKUP(E71,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H71" s="1" t="e">
+        <f>VLOOKUP(G71,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>70</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f>VLOOKUP(C72,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F72" s="1" t="e">
+        <f>VLOOKUP(E72,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H72" s="1" t="e">
+        <f>VLOOKUP(G72,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>71</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f>VLOOKUP(C73,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" s="1" t="e">
+        <f>VLOOKUP(E73,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H73" s="1" t="e">
+        <f>VLOOKUP(G73,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>72</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f>VLOOKUP(C74,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F74" s="1" t="e">
+        <f>VLOOKUP(E74,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H74" s="1" t="e">
+        <f>VLOOKUP(G74,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>73</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f>VLOOKUP(C75,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F75" s="1" t="e">
+        <f>VLOOKUP(E75,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H75" s="1" t="e">
+        <f>VLOOKUP(G75,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>74</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f>VLOOKUP(C76,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F76" s="1" t="e">
+        <f>VLOOKUP(E76,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H76" s="1" t="e">
+        <f>VLOOKUP(G76,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>75</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f>VLOOKUP(C77,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F77" s="1" t="e">
+        <f>VLOOKUP(E77,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H77" s="1" t="e">
+        <f>VLOOKUP(G77,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>76</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f>VLOOKUP(C78,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F78" s="1" t="e">
+        <f>VLOOKUP(E78,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H78" s="1" t="e">
+        <f>VLOOKUP(G78,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>77</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f>VLOOKUP(C79,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F79" s="1" t="e">
+        <f>VLOOKUP(E79,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H79" s="1" t="e">
+        <f>VLOOKUP(G79,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f>VLOOKUP(C80,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F80" s="1" t="e">
+        <f>VLOOKUP(E80,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H80" s="1" t="e">
+        <f>VLOOKUP(G80,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1367,40 +4399,1122 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5F6F4D-65E2-42F1-89B1-3A28518D62CE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>7800</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +5528,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1524,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>VLOOKUP(E2,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(E2,Reference!$A:$B,2,0)</f>
         <v>아이템 개수</v>
       </c>
       <c r="G2" s="1">
@@ -1537,7 +5651,7 @@
         <v>-1</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f>VLOOKUP(I2,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(I2,Reference!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
       <c r="K2" s="1">
@@ -1550,7 +5664,7 @@
         <v>-1</v>
       </c>
       <c r="N2" s="1" t="str">
-        <f>VLOOKUP(M2,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(M2,Reference!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
       <c r="O2" s="1">
@@ -1596,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>VLOOKUP(E3,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(E3,Reference!$A:$B,2,0)</f>
         <v>아이템 개수</v>
       </c>
       <c r="G3" s="1">
@@ -1609,7 +5723,7 @@
         <v>-1</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f>VLOOKUP(I3,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(I3,Reference!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
       <c r="K3" s="1">
@@ -1622,7 +5736,7 @@
         <v>-1</v>
       </c>
       <c r="N3" s="1" t="str">
-        <f>VLOOKUP(M3,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(M3,Reference!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
       <c r="O3" s="1">
@@ -1769,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>VLOOKUP(H2,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(H2,Reference!$A:$B,2,0)</f>
         <v>아이템 개수</v>
       </c>
       <c r="J2" s="1">
@@ -1782,7 +5896,7 @@
         <v>-1</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f>VLOOKUP(L2,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(L2,Reference!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
       <c r="N2" s="1">
@@ -1795,7 +5909,7 @@
         <v>-1</v>
       </c>
       <c r="Q2" s="1" t="str">
-        <f>VLOOKUP(P2,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(P2,Reference!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
       <c r="R2" s="1">
@@ -1965,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>VLOOKUP(G2,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(G2,Reference!$A:$B,2,0)</f>
         <v>아이템 개수</v>
       </c>
       <c r="I2" s="1">
@@ -1978,7 +6092,7 @@
         <v>-1</v>
       </c>
       <c r="L2" s="1" t="str">
-        <f>VLOOKUP(K2,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(K2,Reference!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
       <c r="M2" s="1">
@@ -1991,7 +6105,7 @@
         <v>-1</v>
       </c>
       <c r="P2" s="1" t="str">
-        <f>VLOOKUP(O2,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(O2,Reference!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
       <c r="Q2" s="1">
@@ -2047,7 +6161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2157,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>VLOOKUP(H2,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(H2,Reference!$A:$B,2,0)</f>
         <v>아이템 개수</v>
       </c>
       <c r="J2" s="1">
@@ -2170,7 +6284,7 @@
         <v>-1</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f>VLOOKUP(L2,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(L2,Reference!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
       <c r="N2" s="1">
@@ -2183,7 +6297,7 @@
         <v>-1</v>
       </c>
       <c r="Q2" s="1" t="str">
-        <f>VLOOKUP(P2,Ref!$A:$B,2,0)</f>
+        <f>VLOOKUP(P2,Reference!$A:$B,2,0)</f>
         <v>없음</v>
       </c>
       <c r="R2" s="1">

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy05\OneDrive\문서\GitHub\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E9C04C-081A-42C8-B6D5-9529B1A37A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EDF76C-C85C-42B3-B7AB-E471FE103035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="260">
   <si>
     <t>Equipment_Name_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -918,6 +918,22 @@
   </si>
   <si>
     <t>Equipment_Res_78</t>
+  </si>
+  <si>
+    <t>원정 조건 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정 조건 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1393,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5073855D-C842-4656-A833-2B6B73AA17C6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1405,9 +1421,10 @@
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="7" max="8" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1420,8 +1437,14 @@
       <c r="E1" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>-1</v>
       </c>
@@ -1434,8 +1457,14 @@
       <c r="E2" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1448,8 +1477,14 @@
       <c r="E3" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1462,8 +1497,14 @@
       <c r="E4" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1472,6 +1513,50 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1631,7 +1716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375FEDA8-0451-4789-BF9C-DBB1721B45C7}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1784,7 +1869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEAE22-5922-41C3-8363-1D72AEC2DD20}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
@@ -5929,7 +6014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF15104-731A-4C98-BA74-8497E4F21D42}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6159,10 +6244,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6307,9 +6392,73 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(B3,TextTag!$A:$B,2,0)</f>
+        <v>던전1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>VLOOKUP(H3,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f>VLOOKUP(L3,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f>VLOOKUP(P3,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy05\OneDrive\문서\GitHub\DesktopEquipmentMerge\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EDF76C-C85C-42B3-B7AB-E471FE103035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102AD7B1-E821-4B32-902E-335DCF7246C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="7440" yWindow="780" windowWidth="20400" windowHeight="12675" firstSheet="1" activeTab="8" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="315">
   <si>
     <t>Equipment_Name_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>덜 녹슨 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Equipment_Res_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Expedition_State_Progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -933,6 +925,200 @@
   </si>
   <si>
     <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missionConditionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expedition_Name_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_Sword_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_Sword_2</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Sword_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민병의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_Sword_3</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Sword_4</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Sword_5</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Sword_6</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Sword_7</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Sword_8</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Sword_9</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Sword_10</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Sword_11</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Sword_12</t>
+  </si>
+  <si>
+    <t>신입 보병의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련 보병의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 기사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급 기사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후작의검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공작의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_Axe_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹슨 도끼</t>
+  </si>
+  <si>
+    <t>민병의 도끼</t>
+  </si>
+  <si>
+    <t>신입 보병의 도끼</t>
+  </si>
+  <si>
+    <t>숙련 보병의 도끼</t>
+  </si>
+  <si>
+    <t>하급 기사의 도끼</t>
+  </si>
+  <si>
+    <t>기사의 도끼</t>
+  </si>
+  <si>
+    <t>상급 기사의 도끼</t>
+  </si>
+  <si>
+    <t>후작의도끼</t>
+  </si>
+  <si>
+    <t>공작의 도끼</t>
+  </si>
+  <si>
+    <t>왕자의 도끼</t>
+  </si>
+  <si>
+    <t>왕의 도끼</t>
+  </si>
+  <si>
+    <t>전설의 도끼</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Axe_2</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Axe_3</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Axe_4</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Axe_5</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Axe_6</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Axe_7</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Axe_8</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Axe_9</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Axe_10</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Axe_11</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Axe_12</t>
+  </si>
+  <si>
+    <t>Quest_Name_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_Desc_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 번째 퀘스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음이 아닌 모험가를 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1411,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5073855D-C842-4656-A833-2B6B73AA17C6}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1426,22 +1612,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1449,19 +1635,19 @@
         <v>-1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1469,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1489,19 +1675,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1509,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1576,43 +1762,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1680,16 +1866,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1714,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375FEDA8-0451-4789-BF9C-DBB1721B45C7}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1729,29 +1915,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1762,10 +1948,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
@@ -1773,90 +1959,365 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>265</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>279</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>90</v>
+        <v>271</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>93</v>
+        <v>272</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1869,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEAE22-5922-41C3-8363-1D72AEC2DD20}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1879,7 +2340,7 @@
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.75" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
@@ -1888,31 +2349,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1930,26 +2391,26 @@
         <v>돈</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
         <v>돈</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>VLOOKUP(G2,TextTag!$A:$B,2,0)</f>
         <v>처음 시작하는 모험가를 위해</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1962,7 +2423,7 @@
         <v>머지 아이템</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>VLOOKUP(E3,TextTag!$A:$B,2,0)</f>
@@ -1971,17 +2432,17 @@
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="1" t="e">
         <f>VLOOKUP(G3,TextTag!$A:$B,2,0)</f>
-        <v>녹슨 검</v>
+        <v>#N/A</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1994,26 +2455,26 @@
         <v>머지 아이템</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>262</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>VLOOKUP(E4,TextTag!$A:$B,2,0)</f>
-        <v>덜 녹슨 검</v>
+        <v>민병의 검</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="1" t="e">
         <f>VLOOKUP(G4,TextTag!$A:$B,2,0)</f>
-        <v>덜 녹슨 검</v>
+        <v>#N/A</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2026,26 +2487,26 @@
         <v>머지 아이템</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="1" t="e">
+        <v>265</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <f>VLOOKUP(E5,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>신입 보병의 검</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1" t="e">
         <f>VLOOKUP(G5,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -2058,26 +2519,26 @@
         <v>머지 아이템</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="1" t="e">
+        <v>266</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <f>VLOOKUP(E6,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>숙련 보병의 검</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H6" s="1" t="e">
         <f>VLOOKUP(G6,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -2090,26 +2551,26 @@
         <v>머지 아이템</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>267</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <f>VLOOKUP(E7,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>하급 기사의 검</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H7" s="1" t="e">
         <f>VLOOKUP(G7,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -2122,26 +2583,26 @@
         <v>머지 아이템</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="1" t="e">
+        <v>268</v>
+      </c>
+      <c r="F8" s="1" t="str">
         <f>VLOOKUP(E8,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>기사의 검</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H8" s="1" t="e">
         <f>VLOOKUP(G8,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -2154,26 +2615,26 @@
         <v>머지 아이템</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="1" t="e">
+        <v>269</v>
+      </c>
+      <c r="F9" s="1" t="str">
         <f>VLOOKUP(E9,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>상급 기사의 검</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H9" s="1" t="e">
         <f>VLOOKUP(G9,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -2186,26 +2647,26 @@
         <v>머지 아이템</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="1" t="e">
+        <v>270</v>
+      </c>
+      <c r="F10" s="1" t="str">
         <f>VLOOKUP(E10,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>후작의검</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H10" s="1" t="e">
         <f>VLOOKUP(G10,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -2218,26 +2679,26 @@
         <v>머지 아이템</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="1" t="e">
+        <v>271</v>
+      </c>
+      <c r="F11" s="1" t="str">
         <f>VLOOKUP(E11,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>공작의 검</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H11" s="1" t="e">
         <f>VLOOKUP(G11,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -2250,26 +2711,26 @@
         <v>머지 아이템</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="1" t="e">
+        <v>272</v>
+      </c>
+      <c r="F12" s="1" t="str">
         <f>VLOOKUP(E12,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>왕자의 검</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H12" s="1" t="e">
         <f>VLOOKUP(G12,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -2282,26 +2743,26 @@
         <v>머지 아이템</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>273</v>
+      </c>
+      <c r="F13" s="1" t="str">
         <f>VLOOKUP(E13,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>왕의 검</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H13" s="1" t="e">
         <f>VLOOKUP(G13,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -2314,29 +2775,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="1" t="e">
+        <v>274</v>
+      </c>
+      <c r="F14" s="1" t="str">
         <f>VLOOKUP(E14,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>전설의 검</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H14" s="1" t="e">
         <f>VLOOKUP(G14,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -2346,29 +2807,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="1" t="e">
+        <v>285</v>
+      </c>
+      <c r="F15" s="1" t="str">
         <f>VLOOKUP(E15,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>녹슨 도끼</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H15" s="1" t="e">
         <f>VLOOKUP(G15,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -2378,29 +2839,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="1" t="e">
+        <v>298</v>
+      </c>
+      <c r="F16" s="1" t="str">
         <f>VLOOKUP(E16,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>민병의 도끼</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H16" s="1" t="e">
         <f>VLOOKUP(G16,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -2410,29 +2871,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="1" t="e">
+        <v>299</v>
+      </c>
+      <c r="F17" s="1" t="str">
         <f>VLOOKUP(E17,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>신입 보병의 도끼</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H17" s="1" t="e">
         <f>VLOOKUP(G17,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -2442,29 +2903,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="1" t="e">
+        <v>300</v>
+      </c>
+      <c r="F18" s="1" t="str">
         <f>VLOOKUP(E18,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>숙련 보병의 도끼</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H18" s="1" t="e">
         <f>VLOOKUP(G18,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="B19" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -2474,29 +2935,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="1" t="e">
+        <v>301</v>
+      </c>
+      <c r="F19" s="1" t="str">
         <f>VLOOKUP(E19,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>하급 기사의 도끼</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H19" s="1" t="e">
         <f>VLOOKUP(G19,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -2506,29 +2967,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="1" t="e">
+        <v>302</v>
+      </c>
+      <c r="F20" s="1" t="str">
         <f>VLOOKUP(E20,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>기사의 도끼</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H20" s="1" t="e">
         <f>VLOOKUP(G20,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -2538,29 +2999,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="1" t="e">
+        <v>303</v>
+      </c>
+      <c r="F21" s="1" t="str">
         <f>VLOOKUP(E21,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>상급 기사의 도끼</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H21" s="1" t="e">
         <f>VLOOKUP(G21,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="B22" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -2570,29 +3031,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="1" t="e">
+        <v>304</v>
+      </c>
+      <c r="F22" s="1" t="str">
         <f>VLOOKUP(E22,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>후작의도끼</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H22" s="1" t="e">
         <f>VLOOKUP(G22,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="B23" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -2602,29 +3063,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="1" t="e">
+        <v>305</v>
+      </c>
+      <c r="F23" s="1" t="str">
         <f>VLOOKUP(E23,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>공작의 도끼</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H23" s="1" t="e">
         <f>VLOOKUP(G23,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B24" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -2634,29 +3095,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="1" t="e">
+        <v>306</v>
+      </c>
+      <c r="F24" s="1" t="str">
         <f>VLOOKUP(E24,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>왕자의 도끼</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H24" s="1" t="e">
         <f>VLOOKUP(G24,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -2666,29 +3127,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="1" t="e">
+        <v>307</v>
+      </c>
+      <c r="F25" s="1" t="str">
         <f>VLOOKUP(E25,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>왕의 도끼</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H25" s="1" t="e">
         <f>VLOOKUP(G25,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -2698,29 +3159,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="1" t="e">
+        <v>308</v>
+      </c>
+      <c r="F26" s="1" t="str">
         <f>VLOOKUP(E26,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>전설의 도끼</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H26" s="1" t="e">
         <f>VLOOKUP(G26,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="B27" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -2730,29 +3191,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F27" s="1" t="e">
         <f>VLOOKUP(E27,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H27" s="1" t="e">
         <f>VLOOKUP(G27,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="B28" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -2762,29 +3223,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F28" s="1" t="e">
         <f>VLOOKUP(E28,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H28" s="1" t="e">
         <f>VLOOKUP(G28,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="B29" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2794,29 +3255,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F29" s="1" t="e">
         <f>VLOOKUP(E29,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H29" s="1" t="e">
         <f>VLOOKUP(G29,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B30" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -2826,29 +3287,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F30" s="1" t="e">
         <f>VLOOKUP(E30,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H30" s="1" t="e">
         <f>VLOOKUP(G30,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="B31" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -2858,29 +3319,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F31" s="1" t="e">
         <f>VLOOKUP(E31,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H31" s="1" t="e">
         <f>VLOOKUP(G31,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="B32" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2890,29 +3351,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F32" s="1" t="e">
         <f>VLOOKUP(E32,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H32" s="1" t="e">
         <f>VLOOKUP(G32,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="B33" s="1">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -2922,29 +3383,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F33" s="1" t="e">
         <f>VLOOKUP(E33,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H33" s="1" t="e">
         <f>VLOOKUP(G33,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="B34" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -2954,29 +3415,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F34" s="1" t="e">
         <f>VLOOKUP(E34,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H34" s="1" t="e">
         <f>VLOOKUP(G34,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="B35" s="1">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -2986,29 +3447,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F35" s="1" t="e">
         <f>VLOOKUP(E35,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H35" s="1" t="e">
         <f>VLOOKUP(G35,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="B36" s="1">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -3018,29 +3479,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F36" s="1" t="e">
         <f>VLOOKUP(E36,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H36" s="1" t="e">
         <f>VLOOKUP(G36,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="B37" s="1">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -3050,29 +3511,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F37" s="1" t="e">
         <f>VLOOKUP(E37,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H37" s="1" t="e">
         <f>VLOOKUP(G37,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="B38" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -3082,29 +3543,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F38" s="1" t="e">
         <f>VLOOKUP(E38,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H38" s="1" t="e">
         <f>VLOOKUP(G38,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="B39" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -3114,29 +3575,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F39" s="1" t="e">
         <f>VLOOKUP(E39,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H39" s="1" t="e">
         <f>VLOOKUP(G39,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="B40" s="1">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -3146,29 +3607,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F40" s="1" t="e">
         <f>VLOOKUP(E40,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H40" s="1" t="e">
         <f>VLOOKUP(G40,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="B41" s="1">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -3178,29 +3639,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F41" s="1" t="e">
         <f>VLOOKUP(E41,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H41" s="1" t="e">
         <f>VLOOKUP(G41,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="B42" s="1">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -3210,29 +3671,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F42" s="1" t="e">
         <f>VLOOKUP(E42,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H42" s="1" t="e">
         <f>VLOOKUP(G42,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="B43" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -3242,29 +3703,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F43" s="1" t="e">
         <f>VLOOKUP(E43,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H43" s="1" t="e">
         <f>VLOOKUP(G43,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="B44" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -3274,29 +3735,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F44" s="1" t="e">
         <f>VLOOKUP(E44,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H44" s="1" t="e">
         <f>VLOOKUP(G44,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -3306,29 +3767,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F45" s="1" t="e">
         <f>VLOOKUP(E45,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H45" s="1" t="e">
         <f>VLOOKUP(G45,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -3338,29 +3799,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F46" s="1" t="e">
         <f>VLOOKUP(E46,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H46" s="1" t="e">
         <f>VLOOKUP(G46,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="B47" s="1">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -3370,29 +3831,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F47" s="1" t="e">
         <f>VLOOKUP(E47,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H47" s="1" t="e">
         <f>VLOOKUP(G47,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="B48" s="1">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -3402,29 +3863,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F48" s="1" t="e">
         <f>VLOOKUP(E48,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H48" s="1" t="e">
         <f>VLOOKUP(G48,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="B49" s="1">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -3434,29 +3895,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F49" s="1" t="e">
         <f>VLOOKUP(E49,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H49" s="1" t="e">
         <f>VLOOKUP(G49,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="B50" s="1">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -3466,29 +3927,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F50" s="1" t="e">
         <f>VLOOKUP(E50,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H50" s="1" t="e">
         <f>VLOOKUP(G50,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="B51" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -3498,29 +3959,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F51" s="1" t="e">
         <f>VLOOKUP(E51,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H51" s="1" t="e">
         <f>VLOOKUP(G51,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="B52" s="1">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -3530,29 +3991,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F52" s="1" t="e">
         <f>VLOOKUP(E52,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H52" s="1" t="e">
         <f>VLOOKUP(G52,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="B53" s="1">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -3562,29 +4023,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F53" s="1" t="e">
         <f>VLOOKUP(E53,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H53" s="1" t="e">
         <f>VLOOKUP(G53,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="B54" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -3594,29 +4055,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F54" s="1" t="e">
         <f>VLOOKUP(E54,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H54" s="1" t="e">
         <f>VLOOKUP(G54,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="B55" s="1">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -3626,29 +4087,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F55" s="1" t="e">
         <f>VLOOKUP(E55,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H55" s="1" t="e">
         <f>VLOOKUP(G55,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -3658,29 +4119,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F56" s="1" t="e">
         <f>VLOOKUP(E56,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H56" s="1" t="e">
         <f>VLOOKUP(G56,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="B57" s="1">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -3690,29 +4151,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F57" s="1" t="e">
         <f>VLOOKUP(E57,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H57" s="1" t="e">
         <f>VLOOKUP(G57,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="B58" s="1">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -3722,29 +4183,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F58" s="1" t="e">
         <f>VLOOKUP(E58,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H58" s="1" t="e">
         <f>VLOOKUP(G58,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="B59" s="1">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -3754,29 +4215,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F59" s="1" t="e">
         <f>VLOOKUP(E59,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H59" s="1" t="e">
         <f>VLOOKUP(G59,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="B60" s="1">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -3786,29 +4247,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F60" s="1" t="e">
         <f>VLOOKUP(E60,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H60" s="1" t="e">
         <f>VLOOKUP(G60,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="B61" s="1">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -3818,29 +4279,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F61" s="1" t="e">
         <f>VLOOKUP(E61,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H61" s="1" t="e">
         <f>VLOOKUP(G61,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="B62" s="1">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -3850,29 +4311,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F62" s="1" t="e">
         <f>VLOOKUP(E62,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H62" s="1" t="e">
         <f>VLOOKUP(G62,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="B63" s="1">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -3882,29 +4343,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F63" s="1" t="e">
         <f>VLOOKUP(E63,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H63" s="1" t="e">
         <f>VLOOKUP(G63,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B64" s="1">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -3914,29 +4375,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F64" s="1" t="e">
         <f>VLOOKUP(E64,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H64" s="1" t="e">
         <f>VLOOKUP(G64,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="B65" s="1">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -3946,29 +4407,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F65" s="1" t="e">
         <f>VLOOKUP(E65,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H65" s="1" t="e">
         <f>VLOOKUP(G65,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="B66" s="1">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -3978,29 +4439,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F66" s="1" t="e">
         <f>VLOOKUP(E66,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H66" s="1" t="e">
         <f>VLOOKUP(G66,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="B67" s="1">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -4010,29 +4471,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F67" s="1" t="e">
         <f>VLOOKUP(E67,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H67" s="1" t="e">
         <f>VLOOKUP(G67,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="B68" s="1">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -4042,29 +4503,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F68" s="1" t="e">
         <f>VLOOKUP(E68,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H68" s="1" t="e">
         <f>VLOOKUP(G68,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="B69" s="1">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -4074,29 +4535,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F69" s="1" t="e">
         <f>VLOOKUP(E69,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H69" s="1" t="e">
         <f>VLOOKUP(G69,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="B70" s="1">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -4106,29 +4567,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F70" s="1" t="e">
         <f>VLOOKUP(E70,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H70" s="1" t="e">
         <f>VLOOKUP(G70,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="B71" s="1">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -4138,29 +4599,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F71" s="1" t="e">
         <f>VLOOKUP(E71,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H71" s="1" t="e">
         <f>VLOOKUP(G71,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="B72" s="1">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -4170,29 +4631,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F72" s="1" t="e">
         <f>VLOOKUP(E72,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H72" s="1" t="e">
         <f>VLOOKUP(G72,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="B73" s="1">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -4202,29 +4663,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F73" s="1" t="e">
         <f>VLOOKUP(E73,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H73" s="1" t="e">
         <f>VLOOKUP(G73,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="B74" s="1">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -4234,29 +4695,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F74" s="1" t="e">
         <f>VLOOKUP(E74,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H74" s="1" t="e">
         <f>VLOOKUP(G74,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="B75" s="1">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -4266,29 +4727,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F75" s="1" t="e">
         <f>VLOOKUP(E75,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H75" s="1" t="e">
         <f>VLOOKUP(G75,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="B76" s="1">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -4298,29 +4759,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F76" s="1" t="e">
         <f>VLOOKUP(E76,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H76" s="1" t="e">
         <f>VLOOKUP(G76,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="B77" s="1">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -4330,29 +4791,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F77" s="1" t="e">
         <f>VLOOKUP(E77,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H77" s="1" t="e">
         <f>VLOOKUP(G77,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="B78" s="1">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -4362,29 +4823,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F78" s="1" t="e">
         <f>VLOOKUP(E78,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H78" s="1" t="e">
         <f>VLOOKUP(G78,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="B79" s="1">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -4394,29 +4855,29 @@
         <v>머지 아이템</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F79" s="1" t="e">
         <f>VLOOKUP(E79,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H79" s="1" t="e">
         <f>VLOOKUP(G79,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="B80" s="1">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -4426,21 +4887,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F80" s="1" t="e">
         <f>VLOOKUP(E80,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H80" s="1" t="e">
         <f>VLOOKUP(G80,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -4498,16 +4959,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5639,70 +6100,70 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="Q1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -5713,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
@@ -5785,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
@@ -5883,61 +6344,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -5948,21 +6409,21 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
         <v>드레이코 왕국 보급관</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
         <v>드레이코 왕국 보급관</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -6012,9 +6473,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF15104-731A-4C98-BA74-8497E4F21D42}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6049,94 +6512,94 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -6147,14 +6610,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
         <v>첫 시작</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
@@ -6168,10 +6631,10 @@
         <v>아이템 개수</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="K2" s="1">
         <v>-1</v>
@@ -6233,6 +6696,103 @@
         <v>-1</v>
       </c>
       <c r="AD2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
+        <v>두 번째 퀘스트</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>VLOOKUP(E3,TextTag!$A:$B,2,0)</f>
+        <v>처음이 아닌 모험가를 위해</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>VLOOKUP(G3,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>100</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f>VLOOKUP(K3,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f>VLOOKUP(O3,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD3" s="1">
         <v>-1</v>
       </c>
     </row>
@@ -6244,10 +6804,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6259,89 +6819,93 @@
     <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>VLOOKUP(B2,TextTag!$A:$B,2,0)</f>
         <v>던전1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
@@ -6353,58 +6917,61 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f>VLOOKUP(H2,Reference!$A:$B,2,0)</f>
-        <v>아이템 개수</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>VLOOKUP(I2,Reference!$G:$H,2,0)</f>
+        <v>없음</v>
       </c>
       <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
         <v>1000</v>
       </c>
-      <c r="L2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <f>VLOOKUP(L2,Reference!$A:$B,2,0)</f>
+      <c r="M2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f>VLOOKUP(M2,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
       <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
         <v>1000</v>
       </c>
-      <c r="P2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q2" s="1" t="str">
-        <f>VLOOKUP(P2,Reference!$A:$B,2,0)</f>
+      <c r="Q2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f>VLOOKUP(Q2,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="R2" s="1">
-        <v>-1</v>
-      </c>
       <c r="S2" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(B3,TextTag!$A:$B,2,0)</f>
-        <v>던전1</v>
+        <v>던전2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -6418,40 +6985,43 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="str">
-        <f>VLOOKUP(H3,Reference!$A:$B,2,0)</f>
-        <v>아이템 개수</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>VLOOKUP(I3,Reference!$G:$H,2,0)</f>
+        <v>직업</v>
       </c>
       <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>VLOOKUP(M3,Reference!$G:$H,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
         <v>1000</v>
       </c>
-      <c r="L3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="1" t="str">
-        <f>VLOOKUP(L3,Reference!$A:$B,2,0)</f>
+      <c r="Q3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f>VLOOKUP(Q3,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q3" s="1" t="str">
-        <f>VLOOKUP(P3,Reference!$A:$B,2,0)</f>
-        <v>없음</v>
-      </c>
-      <c r="R3" s="1">
-        <v>-1</v>
-      </c>
       <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="1">
         <v>-1</v>
       </c>
     </row>
@@ -6464,36 +7034,100 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90F1975-8DB0-44C6-A265-CFA567B2CE61}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>400</v>
+      </c>
+      <c r="C4" s="1">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>600</v>
+      </c>
+      <c r="C5" s="1">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>800</v>
+      </c>
+      <c r="C6" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1399</v>
       </c>
     </row>
   </sheetData>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102AD7B1-E821-4B32-902E-335DCF7246C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1341F2CA-6F87-4CC5-A5FC-7065E0D5F31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="780" windowWidth="20400" windowHeight="12675" firstSheet="1" activeTab="8" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="7" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="323">
   <si>
     <t>Equipment_Name_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>descTag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>traderId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1119,6 +1115,42 @@
   </si>
   <si>
     <t>expMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroConditionType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroCondition1Value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroCondition1Value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroConditionType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroCondition2Value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroCondition2Value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroConditionType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroCondition3Value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroCondition3Value2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1618,16 +1650,16 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1641,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -1661,13 +1693,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1681,13 +1713,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1765,40 +1797,40 @@
         <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1850,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12FA702-3FDA-4873-9476-2B23FDC79A93}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1869,18 +1901,18 @@
         <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1890,6 +1922,62 @@
       </c>
       <c r="D2" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1926,18 +2014,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1948,10 +2036,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
@@ -1959,10 +2047,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>2</v>
@@ -1970,10 +2058,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>2</v>
@@ -1981,10 +2069,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>2</v>
@@ -1992,10 +2080,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>2</v>
@@ -2003,10 +2091,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>2</v>
@@ -2014,10 +2102,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>2</v>
@@ -2025,10 +2113,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>2</v>
@@ -2036,10 +2124,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>2</v>
@@ -2047,10 +2135,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>2</v>
@@ -2058,10 +2146,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>2</v>
@@ -2069,10 +2157,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>2</v>
@@ -2080,10 +2168,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>2</v>
@@ -2091,10 +2179,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>2</v>
@@ -2102,10 +2190,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>2</v>
@@ -2113,10 +2201,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>2</v>
@@ -2124,10 +2212,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>2</v>
@@ -2135,10 +2223,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>2</v>
@@ -2146,10 +2234,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>2</v>
@@ -2157,10 +2245,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>2</v>
@@ -2168,10 +2256,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>2</v>
@@ -2179,10 +2267,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>2</v>
@@ -2190,10 +2278,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>2</v>
@@ -2245,10 +2333,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>15</v>
@@ -2256,10 +2344,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>15</v>
@@ -2278,10 +2366,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>15</v>
@@ -2289,10 +2377,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>15</v>
@@ -2300,10 +2388,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>15</v>
@@ -2311,10 +2399,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>15</v>
@@ -2330,7 +2418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEAE22-5922-41C3-8363-1D72AEC2DD20}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15:E26"/>
     </sheetView>
   </sheetViews>
@@ -2358,7 +2446,7 @@
         <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>35</v>
@@ -2367,10 +2455,10 @@
         <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>37</v>
@@ -2391,7 +2479,7 @@
         <v>돈</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
@@ -2423,7 +2511,7 @@
         <v>머지 아이템</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>VLOOKUP(E3,TextTag!$A:$B,2,0)</f>
@@ -2455,7 +2543,7 @@
         <v>머지 아이템</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>VLOOKUP(E4,TextTag!$A:$B,2,0)</f>
@@ -2487,21 +2575,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>VLOOKUP(E5,TextTag!$A:$B,2,0)</f>
         <v>신입 보병의 검</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" s="1" t="e">
         <f>VLOOKUP(G5,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2519,21 +2607,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>VLOOKUP(E6,TextTag!$A:$B,2,0)</f>
         <v>숙련 보병의 검</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="1" t="e">
         <f>VLOOKUP(G6,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2551,21 +2639,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>VLOOKUP(E7,TextTag!$A:$B,2,0)</f>
         <v>하급 기사의 검</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" s="1" t="e">
         <f>VLOOKUP(G7,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2583,21 +2671,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>VLOOKUP(E8,TextTag!$A:$B,2,0)</f>
         <v>기사의 검</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="1" t="e">
         <f>VLOOKUP(G8,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2615,21 +2703,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>VLOOKUP(E9,TextTag!$A:$B,2,0)</f>
         <v>상급 기사의 검</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H9" s="1" t="e">
         <f>VLOOKUP(G9,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2647,21 +2735,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>VLOOKUP(E10,TextTag!$A:$B,2,0)</f>
         <v>후작의검</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" s="1" t="e">
         <f>VLOOKUP(G10,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2679,21 +2767,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>VLOOKUP(E11,TextTag!$A:$B,2,0)</f>
         <v>공작의 검</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H11" s="1" t="e">
         <f>VLOOKUP(G11,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2711,21 +2799,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>VLOOKUP(E12,TextTag!$A:$B,2,0)</f>
         <v>왕자의 검</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="1" t="e">
         <f>VLOOKUP(G12,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2743,21 +2831,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>VLOOKUP(E13,TextTag!$A:$B,2,0)</f>
         <v>왕의 검</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" s="1" t="e">
         <f>VLOOKUP(G13,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2775,21 +2863,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>VLOOKUP(E14,TextTag!$A:$B,2,0)</f>
         <v>전설의 검</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" s="1" t="e">
         <f>VLOOKUP(G14,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2807,21 +2895,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>VLOOKUP(E15,TextTag!$A:$B,2,0)</f>
         <v>녹슨 도끼</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H15" s="1" t="e">
         <f>VLOOKUP(G15,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2839,21 +2927,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>VLOOKUP(E16,TextTag!$A:$B,2,0)</f>
         <v>민병의 도끼</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" s="1" t="e">
         <f>VLOOKUP(G16,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2871,21 +2959,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>VLOOKUP(E17,TextTag!$A:$B,2,0)</f>
         <v>신입 보병의 도끼</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H17" s="1" t="e">
         <f>VLOOKUP(G17,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2903,21 +2991,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>VLOOKUP(E18,TextTag!$A:$B,2,0)</f>
         <v>숙련 보병의 도끼</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18" s="1" t="e">
         <f>VLOOKUP(G18,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2935,21 +3023,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>VLOOKUP(E19,TextTag!$A:$B,2,0)</f>
         <v>하급 기사의 도끼</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H19" s="1" t="e">
         <f>VLOOKUP(G19,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2967,21 +3055,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>VLOOKUP(E20,TextTag!$A:$B,2,0)</f>
         <v>기사의 도끼</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H20" s="1" t="e">
         <f>VLOOKUP(G20,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2999,21 +3087,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>VLOOKUP(E21,TextTag!$A:$B,2,0)</f>
         <v>상급 기사의 도끼</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H21" s="1" t="e">
         <f>VLOOKUP(G21,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3031,21 +3119,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>VLOOKUP(E22,TextTag!$A:$B,2,0)</f>
         <v>후작의도끼</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H22" s="1" t="e">
         <f>VLOOKUP(G22,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3063,21 +3151,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>VLOOKUP(E23,TextTag!$A:$B,2,0)</f>
         <v>공작의 도끼</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" s="1" t="e">
         <f>VLOOKUP(G23,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -3095,21 +3183,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>VLOOKUP(E24,TextTag!$A:$B,2,0)</f>
         <v>왕자의 도끼</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H24" s="1" t="e">
         <f>VLOOKUP(G24,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3127,21 +3215,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>VLOOKUP(E25,TextTag!$A:$B,2,0)</f>
         <v>왕의 도끼</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H25" s="1" t="e">
         <f>VLOOKUP(G25,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -3159,21 +3247,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>VLOOKUP(E26,TextTag!$A:$B,2,0)</f>
         <v>전설의 도끼</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H26" s="1" t="e">
         <f>VLOOKUP(G26,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -3191,21 +3279,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" s="1" t="e">
         <f>VLOOKUP(E27,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H27" s="1" t="e">
         <f>VLOOKUP(G27,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3223,21 +3311,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F28" s="1" t="e">
         <f>VLOOKUP(E28,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H28" s="1" t="e">
         <f>VLOOKUP(G28,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3255,21 +3343,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F29" s="1" t="e">
         <f>VLOOKUP(E29,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H29" s="1" t="e">
         <f>VLOOKUP(G29,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3287,21 +3375,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F30" s="1" t="e">
         <f>VLOOKUP(E30,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H30" s="1" t="e">
         <f>VLOOKUP(G30,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3319,21 +3407,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F31" s="1" t="e">
         <f>VLOOKUP(E31,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H31" s="1" t="e">
         <f>VLOOKUP(G31,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3351,21 +3439,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F32" s="1" t="e">
         <f>VLOOKUP(E32,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H32" s="1" t="e">
         <f>VLOOKUP(G32,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -3383,21 +3471,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F33" s="1" t="e">
         <f>VLOOKUP(E33,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H33" s="1" t="e">
         <f>VLOOKUP(G33,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -3415,21 +3503,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" s="1" t="e">
         <f>VLOOKUP(E34,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H34" s="1" t="e">
         <f>VLOOKUP(G34,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3447,21 +3535,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35" s="1" t="e">
         <f>VLOOKUP(E35,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H35" s="1" t="e">
         <f>VLOOKUP(G35,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -3479,21 +3567,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F36" s="1" t="e">
         <f>VLOOKUP(E36,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H36" s="1" t="e">
         <f>VLOOKUP(G36,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -3511,21 +3599,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F37" s="1" t="e">
         <f>VLOOKUP(E37,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H37" s="1" t="e">
         <f>VLOOKUP(G37,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -3543,21 +3631,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F38" s="1" t="e">
         <f>VLOOKUP(E38,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H38" s="1" t="e">
         <f>VLOOKUP(G38,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -3575,21 +3663,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F39" s="1" t="e">
         <f>VLOOKUP(E39,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H39" s="1" t="e">
         <f>VLOOKUP(G39,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -3607,21 +3695,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F40" s="1" t="e">
         <f>VLOOKUP(E40,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H40" s="1" t="e">
         <f>VLOOKUP(G40,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -3639,21 +3727,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F41" s="1" t="e">
         <f>VLOOKUP(E41,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H41" s="1" t="e">
         <f>VLOOKUP(G41,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -3671,21 +3759,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F42" s="1" t="e">
         <f>VLOOKUP(E42,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H42" s="1" t="e">
         <f>VLOOKUP(G42,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -3703,21 +3791,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F43" s="1" t="e">
         <f>VLOOKUP(E43,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H43" s="1" t="e">
         <f>VLOOKUP(G43,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -3735,21 +3823,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F44" s="1" t="e">
         <f>VLOOKUP(E44,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H44" s="1" t="e">
         <f>VLOOKUP(G44,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -3767,21 +3855,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F45" s="1" t="e">
         <f>VLOOKUP(E45,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H45" s="1" t="e">
         <f>VLOOKUP(G45,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -3799,21 +3887,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F46" s="1" t="e">
         <f>VLOOKUP(E46,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H46" s="1" t="e">
         <f>VLOOKUP(G46,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -3831,21 +3919,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F47" s="1" t="e">
         <f>VLOOKUP(E47,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H47" s="1" t="e">
         <f>VLOOKUP(G47,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -3863,21 +3951,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F48" s="1" t="e">
         <f>VLOOKUP(E48,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H48" s="1" t="e">
         <f>VLOOKUP(G48,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -3895,21 +3983,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F49" s="1" t="e">
         <f>VLOOKUP(E49,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H49" s="1" t="e">
         <f>VLOOKUP(G49,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -3927,21 +4015,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F50" s="1" t="e">
         <f>VLOOKUP(E50,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H50" s="1" t="e">
         <f>VLOOKUP(G50,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -3959,21 +4047,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F51" s="1" t="e">
         <f>VLOOKUP(E51,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H51" s="1" t="e">
         <f>VLOOKUP(G51,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -3991,21 +4079,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F52" s="1" t="e">
         <f>VLOOKUP(E52,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H52" s="1" t="e">
         <f>VLOOKUP(G52,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -4023,21 +4111,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F53" s="1" t="e">
         <f>VLOOKUP(E53,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H53" s="1" t="e">
         <f>VLOOKUP(G53,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -4055,21 +4143,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F54" s="1" t="e">
         <f>VLOOKUP(E54,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H54" s="1" t="e">
         <f>VLOOKUP(G54,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -4087,21 +4175,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F55" s="1" t="e">
         <f>VLOOKUP(E55,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H55" s="1" t="e">
         <f>VLOOKUP(G55,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -4119,21 +4207,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F56" s="1" t="e">
         <f>VLOOKUP(E56,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H56" s="1" t="e">
         <f>VLOOKUP(G56,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -4151,21 +4239,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F57" s="1" t="e">
         <f>VLOOKUP(E57,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H57" s="1" t="e">
         <f>VLOOKUP(G57,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -4183,21 +4271,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F58" s="1" t="e">
         <f>VLOOKUP(E58,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H58" s="1" t="e">
         <f>VLOOKUP(G58,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -4215,21 +4303,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F59" s="1" t="e">
         <f>VLOOKUP(E59,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H59" s="1" t="e">
         <f>VLOOKUP(G59,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -4247,21 +4335,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F60" s="1" t="e">
         <f>VLOOKUP(E60,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H60" s="1" t="e">
         <f>VLOOKUP(G60,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -4279,21 +4367,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F61" s="1" t="e">
         <f>VLOOKUP(E61,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H61" s="1" t="e">
         <f>VLOOKUP(G61,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -4311,21 +4399,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F62" s="1" t="e">
         <f>VLOOKUP(E62,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H62" s="1" t="e">
         <f>VLOOKUP(G62,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -4343,21 +4431,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F63" s="1" t="e">
         <f>VLOOKUP(E63,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H63" s="1" t="e">
         <f>VLOOKUP(G63,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -4375,21 +4463,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F64" s="1" t="e">
         <f>VLOOKUP(E64,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H64" s="1" t="e">
         <f>VLOOKUP(G64,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -4407,21 +4495,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F65" s="1" t="e">
         <f>VLOOKUP(E65,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H65" s="1" t="e">
         <f>VLOOKUP(G65,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -4439,21 +4527,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F66" s="1" t="e">
         <f>VLOOKUP(E66,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H66" s="1" t="e">
         <f>VLOOKUP(G66,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -4471,21 +4559,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F67" s="1" t="e">
         <f>VLOOKUP(E67,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H67" s="1" t="e">
         <f>VLOOKUP(G67,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -4503,21 +4591,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F68" s="1" t="e">
         <f>VLOOKUP(E68,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H68" s="1" t="e">
         <f>VLOOKUP(G68,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -4535,21 +4623,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F69" s="1" t="e">
         <f>VLOOKUP(E69,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H69" s="1" t="e">
         <f>VLOOKUP(G69,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -4567,21 +4655,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F70" s="1" t="e">
         <f>VLOOKUP(E70,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H70" s="1" t="e">
         <f>VLOOKUP(G70,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -4599,21 +4687,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F71" s="1" t="e">
         <f>VLOOKUP(E71,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H71" s="1" t="e">
         <f>VLOOKUP(G71,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -4631,21 +4719,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F72" s="1" t="e">
         <f>VLOOKUP(E72,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H72" s="1" t="e">
         <f>VLOOKUP(G72,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -4663,21 +4751,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F73" s="1" t="e">
         <f>VLOOKUP(E73,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H73" s="1" t="e">
         <f>VLOOKUP(G73,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -4695,21 +4783,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F74" s="1" t="e">
         <f>VLOOKUP(E74,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H74" s="1" t="e">
         <f>VLOOKUP(G74,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -4727,21 +4815,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F75" s="1" t="e">
         <f>VLOOKUP(E75,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H75" s="1" t="e">
         <f>VLOOKUP(G75,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -4759,21 +4847,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F76" s="1" t="e">
         <f>VLOOKUP(E76,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H76" s="1" t="e">
         <f>VLOOKUP(G76,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -4791,21 +4879,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F77" s="1" t="e">
         <f>VLOOKUP(E77,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H77" s="1" t="e">
         <f>VLOOKUP(G77,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -4823,21 +4911,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F78" s="1" t="e">
         <f>VLOOKUP(E78,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H78" s="1" t="e">
         <f>VLOOKUP(G78,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -4855,21 +4943,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F79" s="1" t="e">
         <f>VLOOKUP(E79,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H79" s="1" t="e">
         <f>VLOOKUP(G79,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -4887,21 +4975,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F80" s="1" t="e">
         <f>VLOOKUP(E80,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H80" s="1" t="e">
         <f>VLOOKUP(G80,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -4965,7 +5053,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>38</v>
@@ -6148,22 +6236,22 @@
         <v>48</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -6321,12 +6409,12 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="3.5" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
@@ -6356,10 +6444,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>37</v>
@@ -6476,7 +6564,7 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6515,7 +6603,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>35</v>
@@ -6524,7 +6612,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>21</v>
@@ -6566,48 +6654,48 @@
         <v>48</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
@@ -6624,17 +6712,17 @@
         <v>처음 시작하는 모험가를 위해</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>VLOOKUP(G2,Reference!$A:$B,2,0)</f>
-        <v>아이템 개수</v>
+        <v>없음</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2" s="1">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="K2" s="1">
         <v>-1</v>
@@ -6644,10 +6732,10 @@
         <v>없음</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N2" s="1">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="O2" s="1">
         <v>-1</v>
@@ -6663,10 +6751,10 @@
         <v>-1</v>
       </c>
       <c r="S2" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="T2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1">
         <v>-1</v>
@@ -6701,37 +6789,37 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
         <v>두 번째 퀘스트</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>VLOOKUP(E3,TextTag!$A:$B,2,0)</f>
         <v>처음이 아닌 모험가를 위해</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="str">
         <f>VLOOKUP(G3,Reference!$A:$B,2,0)</f>
-        <v>아이템 개수</v>
+        <v>미션 클리어</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>-1</v>
@@ -6741,10 +6829,10 @@
         <v>없음</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N3" s="1">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="O3" s="1">
         <v>-1</v>
@@ -6806,9 +6894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6820,15 +6906,15 @@
     <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -6845,57 +6931,57 @@
         <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>48</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -6930,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
         <v>-1</v>
@@ -6961,10 +7047,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(B3,TextTag!$A:$B,2,0)</f>
@@ -7036,7 +7122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90F1975-8DB0-44C6-A265-CFA567B2CE61}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -7047,10 +7133,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1341F2CA-6F87-4CC5-A5FC-7065E0D5F31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194F1C89-9620-4272-BF5E-DF5E41E406D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="7" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="9" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="346">
   <si>
     <t>Equipment_Name_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1152,6 +1152,76 @@
   <si>
     <t>heroCondition3Value2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_79</t>
+  </si>
+  <si>
+    <t>Equipment_Res_79</t>
+  </si>
+  <si>
+    <t>Equipment_Name_80</t>
+  </si>
+  <si>
+    <t>Equipment_Res_80</t>
+  </si>
+  <si>
+    <t>Equipment_Name_81</t>
+  </si>
+  <si>
+    <t>Equipment_Res_81</t>
+  </si>
+  <si>
+    <t>Equipment_Name_82</t>
+  </si>
+  <si>
+    <t>Equipment_Res_82</t>
+  </si>
+  <si>
+    <t>Equipment_Name_83</t>
+  </si>
+  <si>
+    <t>Equipment_Res_83</t>
+  </si>
+  <si>
+    <t>Equipment_Name_84</t>
+  </si>
+  <si>
+    <t>Equipment_Res_84</t>
+  </si>
+  <si>
+    <t>Equipment_Name_85</t>
+  </si>
+  <si>
+    <t>Equipment_Res_85</t>
+  </si>
+  <si>
+    <t>type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type2</t>
+  </si>
+  <si>
+    <t>type3</t>
+  </si>
+  <si>
+    <t>type4</t>
+  </si>
+  <si>
+    <t>type5</t>
+  </si>
+  <si>
+    <t>type6</t>
+  </si>
+  <si>
+    <t>type7</t>
+  </si>
+  <si>
+    <t>type8</t>
+  </si>
+  <si>
+    <t>type9</t>
   </si>
 </sst>
 </file>
@@ -1784,56 +1854,83 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E275678-4570-4CA2-A5D1-8566AA5F2680}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1841,36 +1938,63 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
         <v>20</v>
       </c>
-      <c r="D2" s="1">
+      <c r="M2" s="1">
         <v>30</v>
       </c>
-      <c r="E2" s="1">
+      <c r="N2" s="1">
         <v>40</v>
       </c>
-      <c r="F2" s="1">
+      <c r="O2" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
+      <c r="P2" s="1">
         <v>20</v>
       </c>
-      <c r="H2" s="1">
+      <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="I2" s="1">
+      <c r="R2" s="1">
         <v>40</v>
       </c>
-      <c r="J2" s="1">
+      <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="K2" s="1">
+      <c r="T2" s="1">
         <v>20</v>
       </c>
-      <c r="L2" s="1">
+      <c r="U2" s="1">
         <v>30</v>
       </c>
-      <c r="M2" s="1">
+      <c r="V2" s="1">
         <v>40</v>
       </c>
     </row>
@@ -2416,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEAE22-5922-41C3-8363-1D72AEC2DD20}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E26"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2498,7 +2622,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>1001</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2530,7 +2654,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>1002</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2562,7 +2686,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>102</v>
+        <v>1003</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2594,7 +2718,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>103</v>
+        <v>1004</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -2626,7 +2750,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>104</v>
+        <v>1005</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -2658,7 +2782,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>105</v>
+        <v>1006</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -2690,7 +2814,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>106</v>
+        <v>1007</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -2722,7 +2846,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>107</v>
+        <v>1008</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -2754,7 +2878,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>108</v>
+        <v>1009</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -2786,7 +2910,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>109</v>
+        <v>1010</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -2818,7 +2942,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>110</v>
+        <v>1011</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -2850,7 +2974,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>111</v>
+        <v>1012</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -2882,7 +3006,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>112</v>
+        <v>1101</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -2914,7 +3038,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>113</v>
+        <v>1102</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -2946,7 +3070,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>114</v>
+        <v>1103</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -2978,7 +3102,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>115</v>
+        <v>1104</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -3010,7 +3134,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>116</v>
+        <v>1105</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
@@ -3042,7 +3166,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>117</v>
+        <v>1106</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
@@ -3074,7 +3198,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>118</v>
+        <v>1107</v>
       </c>
       <c r="B21" s="1">
         <v>7</v>
@@ -3106,7 +3230,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>119</v>
+        <v>1108</v>
       </c>
       <c r="B22" s="1">
         <v>8</v>
@@ -3138,7 +3262,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>120</v>
+        <v>1109</v>
       </c>
       <c r="B23" s="1">
         <v>9</v>
@@ -3170,7 +3294,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>121</v>
+        <v>1110</v>
       </c>
       <c r="B24" s="1">
         <v>10</v>
@@ -3202,7 +3326,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>122</v>
+        <v>1111</v>
       </c>
       <c r="B25" s="1">
         <v>11</v>
@@ -3234,7 +3358,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>123</v>
+        <v>1112</v>
       </c>
       <c r="B26" s="1">
         <v>12</v>
@@ -3266,7 +3390,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>124</v>
+        <v>1201</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -3298,7 +3422,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>125</v>
+        <v>1202</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -3330,7 +3454,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>126</v>
+        <v>1203</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
@@ -3362,7 +3486,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>127</v>
+        <v>1204</v>
       </c>
       <c r="B30" s="1">
         <v>4</v>
@@ -3394,7 +3518,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>128</v>
+        <v>1205</v>
       </c>
       <c r="B31" s="1">
         <v>5</v>
@@ -3426,7 +3550,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>129</v>
+        <v>1206</v>
       </c>
       <c r="B32" s="1">
         <v>6</v>
@@ -3458,7 +3582,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>130</v>
+        <v>1207</v>
       </c>
       <c r="B33" s="1">
         <v>7</v>
@@ -3490,7 +3614,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>131</v>
+        <v>1208</v>
       </c>
       <c r="B34" s="1">
         <v>8</v>
@@ -3522,7 +3646,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>132</v>
+        <v>1209</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
@@ -3554,7 +3678,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>133</v>
+        <v>1210</v>
       </c>
       <c r="B36" s="1">
         <v>10</v>
@@ -3586,7 +3710,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>134</v>
+        <v>1211</v>
       </c>
       <c r="B37" s="1">
         <v>11</v>
@@ -3618,7 +3742,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>135</v>
+        <v>1212</v>
       </c>
       <c r="B38" s="1">
         <v>12</v>
@@ -3650,7 +3774,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>136</v>
+        <v>1301</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -3682,7 +3806,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>137</v>
+        <v>1302</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -3714,7 +3838,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>138</v>
+        <v>1303</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -3746,7 +3870,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>139</v>
+        <v>1304</v>
       </c>
       <c r="B42" s="1">
         <v>4</v>
@@ -3778,7 +3902,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>140</v>
+        <v>1305</v>
       </c>
       <c r="B43" s="1">
         <v>5</v>
@@ -3810,7 +3934,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>141</v>
+        <v>1306</v>
       </c>
       <c r="B44" s="1">
         <v>6</v>
@@ -3842,7 +3966,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>142</v>
+        <v>1307</v>
       </c>
       <c r="B45" s="1">
         <v>7</v>
@@ -3874,7 +3998,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>143</v>
+        <v>1308</v>
       </c>
       <c r="B46" s="1">
         <v>8</v>
@@ -3906,7 +4030,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>144</v>
+        <v>1309</v>
       </c>
       <c r="B47" s="1">
         <v>9</v>
@@ -3938,7 +4062,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>145</v>
+        <v>1310</v>
       </c>
       <c r="B48" s="1">
         <v>10</v>
@@ -3970,7 +4094,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>146</v>
+        <v>1311</v>
       </c>
       <c r="B49" s="1">
         <v>11</v>
@@ -4002,7 +4126,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>147</v>
+        <v>1312</v>
       </c>
       <c r="B50" s="1">
         <v>12</v>
@@ -4034,7 +4158,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>148</v>
+        <v>1401</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -4066,7 +4190,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>149</v>
+        <v>1402</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
@@ -4098,7 +4222,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>150</v>
+        <v>1403</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
@@ -4130,7 +4254,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>151</v>
+        <v>1404</v>
       </c>
       <c r="B54" s="1">
         <v>4</v>
@@ -4162,7 +4286,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>152</v>
+        <v>1405</v>
       </c>
       <c r="B55" s="1">
         <v>5</v>
@@ -4194,7 +4318,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>153</v>
+        <v>1406</v>
       </c>
       <c r="B56" s="1">
         <v>6</v>
@@ -4226,7 +4350,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>154</v>
+        <v>1407</v>
       </c>
       <c r="B57" s="1">
         <v>7</v>
@@ -4258,7 +4382,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>155</v>
+        <v>1408</v>
       </c>
       <c r="B58" s="1">
         <v>8</v>
@@ -4290,7 +4414,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>156</v>
+        <v>1409</v>
       </c>
       <c r="B59" s="1">
         <v>9</v>
@@ -4322,7 +4446,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>157</v>
+        <v>1410</v>
       </c>
       <c r="B60" s="1">
         <v>10</v>
@@ -4354,7 +4478,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>158</v>
+        <v>1411</v>
       </c>
       <c r="B61" s="1">
         <v>11</v>
@@ -4386,7 +4510,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>159</v>
+        <v>1412</v>
       </c>
       <c r="B62" s="1">
         <v>12</v>
@@ -4418,7 +4542,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>160</v>
+        <v>1501</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
@@ -4450,7 +4574,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>161</v>
+        <v>1502</v>
       </c>
       <c r="B64" s="1">
         <v>2</v>
@@ -4482,7 +4606,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>162</v>
+        <v>1503</v>
       </c>
       <c r="B65" s="1">
         <v>3</v>
@@ -4514,7 +4638,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>163</v>
+        <v>1504</v>
       </c>
       <c r="B66" s="1">
         <v>4</v>
@@ -4546,7 +4670,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>164</v>
+        <v>1505</v>
       </c>
       <c r="B67" s="1">
         <v>5</v>
@@ -4578,7 +4702,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>165</v>
+        <v>1506</v>
       </c>
       <c r="B68" s="1">
         <v>6</v>
@@ -4610,7 +4734,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>166</v>
+        <v>1507</v>
       </c>
       <c r="B69" s="1">
         <v>7</v>
@@ -4642,7 +4766,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>167</v>
+        <v>1508</v>
       </c>
       <c r="B70" s="1">
         <v>8</v>
@@ -4674,7 +4798,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>168</v>
+        <v>1509</v>
       </c>
       <c r="B71" s="1">
         <v>9</v>
@@ -4706,7 +4830,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>169</v>
+        <v>1510</v>
       </c>
       <c r="B72" s="1">
         <v>10</v>
@@ -4738,7 +4862,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>170</v>
+        <v>1511</v>
       </c>
       <c r="B73" s="1">
         <v>11</v>
@@ -4770,7 +4894,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>171</v>
+        <v>1512</v>
       </c>
       <c r="B74" s="1">
         <v>12</v>
@@ -4802,7 +4926,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>172</v>
+        <v>1601</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
@@ -4834,7 +4958,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>173</v>
+        <v>1602</v>
       </c>
       <c r="B76" s="1">
         <v>2</v>
@@ -4866,7 +4990,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>174</v>
+        <v>1603</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -4898,10 +5022,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>175</v>
+        <v>1604</v>
       </c>
       <c r="B78" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -4930,10 +5054,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>176</v>
+        <v>1605</v>
       </c>
       <c r="B79" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -4962,10 +5086,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>177</v>
+        <v>1606</v>
       </c>
       <c r="B80" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -4993,37 +5117,772 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="A81" s="1">
+        <v>1607</v>
+      </c>
+      <c r="B81" s="1">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f>VLOOKUP(C81,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F81" s="1" t="e">
+        <f>VLOOKUP(E81,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H81" s="1" t="e">
+        <f>VLOOKUP(G81,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="A82" s="1">
+        <v>1608</v>
+      </c>
+      <c r="B82" s="1">
+        <v>8</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f>VLOOKUP(C82,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F82" s="1" t="e">
+        <f>VLOOKUP(E82,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H82" s="1" t="e">
+        <f>VLOOKUP(G82,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="A83" s="1">
+        <v>1609</v>
+      </c>
+      <c r="B83" s="1">
+        <v>9</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f>VLOOKUP(C83,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F83" s="1" t="e">
+        <f>VLOOKUP(E83,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H83" s="1" t="e">
+        <f>VLOOKUP(G83,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>1610</v>
+      </c>
+      <c r="B84" s="1">
+        <v>10</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f>VLOOKUP(C84,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F84" s="1" t="e">
+        <f>VLOOKUP(E84,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H84" s="1" t="e">
+        <f>VLOOKUP(G84,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>1611</v>
+      </c>
+      <c r="B85" s="1">
+        <v>11</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f>VLOOKUP(C85,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F85" s="1" t="e">
+        <f>VLOOKUP(E85,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H85" s="1" t="e">
+        <f>VLOOKUP(G85,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>1612</v>
+      </c>
+      <c r="B86" s="1">
+        <v>12</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f>VLOOKUP(C86,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F86" s="1" t="e">
+        <f>VLOOKUP(E86,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H86" s="1" t="e">
+        <f>VLOOKUP(G86,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>1701</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <f>VLOOKUP(C87,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F87" s="1" t="e">
+        <f>VLOOKUP(E87,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H87" s="1" t="e">
+        <f>VLOOKUP(G87,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>1702</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="str">
+        <f>VLOOKUP(C88,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F88" s="1" t="e">
+        <f>VLOOKUP(E88,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H88" s="1" t="e">
+        <f>VLOOKUP(G88,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>1703</v>
+      </c>
+      <c r="B89" s="1">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <f>VLOOKUP(C89,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F89" s="1" t="e">
+        <f>VLOOKUP(E89,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H89" s="1" t="e">
+        <f>VLOOKUP(G89,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>1704</v>
+      </c>
+      <c r="B90" s="1">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="str">
+        <f>VLOOKUP(C90,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F90" s="1" t="e">
+        <f>VLOOKUP(E90,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H90" s="1" t="e">
+        <f>VLOOKUP(G90,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>1705</v>
+      </c>
+      <c r="B91" s="1">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="str">
+        <f>VLOOKUP(C91,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F91" s="1" t="e">
+        <f>VLOOKUP(E91,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H91" s="1" t="e">
+        <f>VLOOKUP(G91,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>1706</v>
+      </c>
+      <c r="B92" s="1">
+        <v>6</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <f>VLOOKUP(C92,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F92" s="1" t="e">
+        <f>VLOOKUP(E92,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H92" s="1" t="e">
+        <f>VLOOKUP(G92,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>1707</v>
+      </c>
+      <c r="B93" s="1">
+        <v>7</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <f>VLOOKUP(C93,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F93" s="1" t="e">
+        <f>VLOOKUP(E93,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H93" s="1" t="e">
+        <f>VLOOKUP(G93,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>1708</v>
+      </c>
+      <c r="B94" s="1">
+        <v>8</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1" t="str">
+        <f>VLOOKUP(C94,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F94" s="1" t="e">
+        <f>VLOOKUP(E94,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H94" s="1" t="e">
+        <f>VLOOKUP(G94,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>1709</v>
+      </c>
+      <c r="B95" s="1">
+        <v>9</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1" t="str">
+        <f>VLOOKUP(C95,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F95" s="1" t="e">
+        <f>VLOOKUP(E95,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H95" s="1" t="e">
+        <f>VLOOKUP(G95,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>1710</v>
+      </c>
+      <c r="B96" s="1">
+        <v>10</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f>VLOOKUP(C96,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F96" s="1" t="e">
+        <f>VLOOKUP(E96,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H96" s="1" t="e">
+        <f>VLOOKUP(G96,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>1711</v>
+      </c>
+      <c r="B97" s="1">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f>VLOOKUP(C97,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F97" s="1" t="e">
+        <f>VLOOKUP(E97,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H97" s="1" t="e">
+        <f>VLOOKUP(G97,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>1712</v>
+      </c>
+      <c r="B98" s="1">
+        <v>12</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <f>VLOOKUP(C98,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F98" s="1" t="e">
+        <f>VLOOKUP(E98,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H98" s="1" t="e">
+        <f>VLOOKUP(G98,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>1801</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f>VLOOKUP(C99,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F99" s="1" t="e">
+        <f>VLOOKUP(E99,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H99" s="1" t="e">
+        <f>VLOOKUP(G99,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>1802</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f>VLOOKUP(C100,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F100" s="1" t="e">
+        <f>VLOOKUP(E100,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H100" s="1" t="e">
+        <f>VLOOKUP(G100,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>1803</v>
+      </c>
+      <c r="B101" s="1">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f>VLOOKUP(C101,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F101" s="1" t="e">
+        <f>VLOOKUP(E101,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H101" s="1" t="e">
+        <f>VLOOKUP(G101,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>1901</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f>VLOOKUP(C102,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F102" s="1" t="e">
+        <f>VLOOKUP(E102,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H102" s="1" t="e">
+        <f>VLOOKUP(G102,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>1902</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f>VLOOKUP(C103,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F103" s="1" t="e">
+        <f>VLOOKUP(E103,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H103" s="1" t="e">
+        <f>VLOOKUP(G103,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>1903</v>
+      </c>
+      <c r="B104" s="1">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f>VLOOKUP(C104,Reference!$D:$E,2,0)</f>
+        <v>머지 아이템</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F104" s="1" t="e">
+        <f>VLOOKUP(E104,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H104" s="1" t="e">
+        <f>VLOOKUP(G104,TextTag!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>336</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5033,19 +5892,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5F6F4D-65E2-42F1-89B1-3A28518D62CE}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -5056,12 +5915,16 @@
         <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <f>1000+(B2)*100+D2</f>
+        <v>1001</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -5070,12 +5933,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <f t="shared" ref="A3:A66" si="0">1000+(B3)*100+D3</f>
+        <v>1002</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -5084,12 +5951,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1003</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -5098,12 +5969,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1004</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -5112,12 +5987,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1005</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -5126,12 +6005,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1006</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -5140,12 +6023,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1007</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -5154,12 +6041,16 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>1008</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -5168,12 +6059,16 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>1009</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -5182,12 +6077,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1010</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -5196,12 +6095,16 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>1011</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -5210,12 +6113,16 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>1012</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -5224,12 +6131,16 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>1101</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -5238,12 +6149,16 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>1102</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -5252,12 +6167,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>1103</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -5266,12 +6185,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>1104</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -5280,12 +6203,16 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>1105</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -5294,12 +6221,16 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>1106</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -5308,12 +6239,16 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
         <v>1800</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>1107</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -5322,12 +6257,16 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>1108</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -5336,12 +6275,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>1109</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -5350,12 +6293,16 @@
         <v>0</v>
       </c>
       <c r="D22" s="1">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>1110</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -5364,12 +6311,16 @@
         <v>0</v>
       </c>
       <c r="D23" s="1">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
         <v>2200</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>1111</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -5378,12 +6329,16 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>1112</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -5392,12 +6347,16 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
         <v>2400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>1201</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -5406,12 +6365,16 @@
         <v>1</v>
       </c>
       <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>1202</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -5420,12 +6383,16 @@
         <v>1</v>
       </c>
       <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
         <v>2600</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>1203</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -5434,12 +6401,16 @@
         <v>1</v>
       </c>
       <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
         <v>2700</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>1204</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -5448,12 +6419,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
         <v>2800</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>1205</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -5462,12 +6437,16 @@
         <v>1</v>
       </c>
       <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
         <v>2900</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>1206</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -5476,12 +6455,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>1207</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -5490,12 +6473,16 @@
         <v>1</v>
       </c>
       <c r="D32" s="1">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>1208</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
@@ -5504,12 +6491,16 @@
         <v>1</v>
       </c>
       <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>1209</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -5518,12 +6509,16 @@
         <v>1</v>
       </c>
       <c r="D34" s="1">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
         <v>3300</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>1210</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -5532,12 +6527,16 @@
         <v>1</v>
       </c>
       <c r="D35" s="1">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1">
         <v>3400</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>1211</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -5546,12 +6545,16 @@
         <v>1</v>
       </c>
       <c r="D36" s="1">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>1212</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -5560,12 +6563,16 @@
         <v>1</v>
       </c>
       <c r="D37" s="1">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1">
         <v>3600</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>1301</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -5574,12 +6581,16 @@
         <v>1</v>
       </c>
       <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
         <v>3700</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>1302</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -5588,12 +6599,16 @@
         <v>1</v>
       </c>
       <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
         <v>3800</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>1303</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
@@ -5602,12 +6617,16 @@
         <v>1</v>
       </c>
       <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
         <v>3900</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>1304</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -5616,12 +6635,16 @@
         <v>1</v>
       </c>
       <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>1305</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
@@ -5630,12 +6653,16 @@
         <v>1</v>
       </c>
       <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
         <v>4100</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>1306</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
@@ -5644,12 +6671,16 @@
         <v>1</v>
       </c>
       <c r="D43" s="1">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>1307</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
@@ -5658,12 +6689,16 @@
         <v>1</v>
       </c>
       <c r="D44" s="1">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1">
         <v>4300</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>1308</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
@@ -5672,12 +6707,16 @@
         <v>1</v>
       </c>
       <c r="D45" s="1">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>1309</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -5686,12 +6725,16 @@
         <v>1</v>
       </c>
       <c r="D46" s="1">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1">
         <v>4500</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>1310</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
@@ -5700,12 +6743,16 @@
         <v>1</v>
       </c>
       <c r="D47" s="1">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1">
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>1311</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
@@ -5714,12 +6761,16 @@
         <v>1</v>
       </c>
       <c r="D48" s="1">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1">
         <v>4700</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>1312</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
@@ -5728,12 +6779,16 @@
         <v>1</v>
       </c>
       <c r="D49" s="1">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>1401</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>
@@ -5742,12 +6797,16 @@
         <v>2</v>
       </c>
       <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
         <v>4900</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>1402</v>
       </c>
       <c r="B51" s="1">
         <v>4</v>
@@ -5756,12 +6815,16 @@
         <v>2</v>
       </c>
       <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>1403</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
@@ -5770,12 +6833,16 @@
         <v>2</v>
       </c>
       <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
         <v>5100</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>1404</v>
       </c>
       <c r="B53" s="1">
         <v>4</v>
@@ -5784,12 +6851,16 @@
         <v>2</v>
       </c>
       <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1">
         <v>5200</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>1405</v>
       </c>
       <c r="B54" s="1">
         <v>4</v>
@@ -5798,12 +6869,16 @@
         <v>2</v>
       </c>
       <c r="D54" s="1">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>54</v>
+        <f t="shared" si="0"/>
+        <v>1406</v>
       </c>
       <c r="B55" s="1">
         <v>4</v>
@@ -5812,12 +6887,16 @@
         <v>2</v>
       </c>
       <c r="D55" s="1">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1">
         <v>5400</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>1407</v>
       </c>
       <c r="B56" s="1">
         <v>4</v>
@@ -5826,12 +6905,16 @@
         <v>2</v>
       </c>
       <c r="D56" s="1">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1">
         <v>5500</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>1408</v>
       </c>
       <c r="B57" s="1">
         <v>4</v>
@@ -5840,12 +6923,16 @@
         <v>2</v>
       </c>
       <c r="D57" s="1">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
         <v>5600</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>57</v>
+        <f t="shared" si="0"/>
+        <v>1409</v>
       </c>
       <c r="B58" s="1">
         <v>4</v>
@@ -5854,12 +6941,16 @@
         <v>2</v>
       </c>
       <c r="D58" s="1">
+        <v>9</v>
+      </c>
+      <c r="E58" s="1">
         <v>5700</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>1410</v>
       </c>
       <c r="B59" s="1">
         <v>4</v>
@@ -5868,12 +6959,16 @@
         <v>2</v>
       </c>
       <c r="D59" s="1">
+        <v>10</v>
+      </c>
+      <c r="E59" s="1">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>1411</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -5882,12 +6977,16 @@
         <v>2</v>
       </c>
       <c r="D60" s="1">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1">
         <v>5900</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>1412</v>
       </c>
       <c r="B61" s="1">
         <v>4</v>
@@ -5896,12 +6995,16 @@
         <v>2</v>
       </c>
       <c r="D61" s="1">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1">
         <v>6000</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>1501</v>
       </c>
       <c r="B62" s="1">
         <v>5</v>
@@ -5910,12 +7013,16 @@
         <v>2</v>
       </c>
       <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
         <v>6100</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>1502</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -5924,12 +7031,16 @@
         <v>2</v>
       </c>
       <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
         <v>6200</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>1503</v>
       </c>
       <c r="B64" s="1">
         <v>5</v>
@@ -5938,12 +7049,16 @@
         <v>2</v>
       </c>
       <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1">
         <v>6300</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>1504</v>
       </c>
       <c r="B65" s="1">
         <v>5</v>
@@ -5952,12 +7067,16 @@
         <v>2</v>
       </c>
       <c r="D65" s="1">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1">
         <v>6400</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>1505</v>
       </c>
       <c r="B66" s="1">
         <v>5</v>
@@ -5966,12 +7085,16 @@
         <v>2</v>
       </c>
       <c r="D66" s="1">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1">
         <v>6500</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>66</v>
+        <f t="shared" ref="A67:A103" si="1">1000+(B67)*100+D67</f>
+        <v>1506</v>
       </c>
       <c r="B67" s="1">
         <v>5</v>
@@ -5980,12 +7103,16 @@
         <v>2</v>
       </c>
       <c r="D67" s="1">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1">
         <v>6600</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>1507</v>
       </c>
       <c r="B68" s="1">
         <v>5</v>
@@ -5994,12 +7121,16 @@
         <v>2</v>
       </c>
       <c r="D68" s="1">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1">
         <v>6700</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>1508</v>
       </c>
       <c r="B69" s="1">
         <v>5</v>
@@ -6008,12 +7139,16 @@
         <v>2</v>
       </c>
       <c r="D69" s="1">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1">
         <v>6800</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>1509</v>
       </c>
       <c r="B70" s="1">
         <v>5</v>
@@ -6022,12 +7157,16 @@
         <v>2</v>
       </c>
       <c r="D70" s="1">
+        <v>9</v>
+      </c>
+      <c r="E70" s="1">
         <v>6900</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>1510</v>
       </c>
       <c r="B71" s="1">
         <v>5</v>
@@ -6036,12 +7175,16 @@
         <v>2</v>
       </c>
       <c r="D71" s="1">
+        <v>10</v>
+      </c>
+      <c r="E71" s="1">
         <v>7000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>71</v>
+        <f t="shared" si="1"/>
+        <v>1511</v>
       </c>
       <c r="B72" s="1">
         <v>5</v>
@@ -6050,12 +7193,16 @@
         <v>2</v>
       </c>
       <c r="D72" s="1">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1">
         <v>7100</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>1512</v>
       </c>
       <c r="B73" s="1">
         <v>5</v>
@@ -6064,91 +7211,550 @@
         <v>2</v>
       </c>
       <c r="D73" s="1">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1">
         <v>7200</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>1601</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
       </c>
       <c r="C74" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
         <v>7300</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>1602</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
       </c>
       <c r="C75" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1">
         <v>7400</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>1603</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
       </c>
       <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>1604</v>
+      </c>
+      <c r="B77" s="1">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>4</v>
+      </c>
+      <c r="E77" s="1">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>1605</v>
+      </c>
+      <c r="B78" s="1">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>1606</v>
+      </c>
+      <c r="B79" s="1">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>6</v>
+      </c>
+      <c r="E79" s="1">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>1607</v>
+      </c>
+      <c r="B80" s="1">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>1608</v>
+      </c>
+      <c r="B81" s="1">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>1609</v>
+      </c>
+      <c r="B82" s="1">
+        <v>6</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>1610</v>
+      </c>
+      <c r="B83" s="1">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1">
+        <v>10</v>
+      </c>
+      <c r="E83" s="1">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>1611</v>
+      </c>
+      <c r="B84" s="1">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>1612</v>
+      </c>
+      <c r="B85" s="1">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1">
+        <v>12</v>
+      </c>
+      <c r="E85" s="1">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>1701</v>
+      </c>
+      <c r="B86" s="1">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>1702</v>
+      </c>
+      <c r="B87" s="1">
+        <v>7</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>1703</v>
+      </c>
+      <c r="B88" s="1">
+        <v>7</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>1704</v>
+      </c>
+      <c r="B89" s="1">
+        <v>7</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>1705</v>
+      </c>
+      <c r="B90" s="1">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>5</v>
+      </c>
+      <c r="E90" s="1">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <f t="shared" si="1"/>
+        <v>1706</v>
+      </c>
+      <c r="B91" s="1">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <f t="shared" si="1"/>
+        <v>1707</v>
+      </c>
+      <c r="B92" s="1">
+        <v>7</v>
+      </c>
+      <c r="C92" s="1">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1">
+        <v>7</v>
+      </c>
+      <c r="E92" s="1">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <f t="shared" si="1"/>
+        <v>1708</v>
+      </c>
+      <c r="B93" s="1">
+        <v>7</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <v>8</v>
+      </c>
+      <c r="E93" s="1">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <f t="shared" si="1"/>
+        <v>1709</v>
+      </c>
+      <c r="B94" s="1">
+        <v>7</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1">
+        <v>9</v>
+      </c>
+      <c r="E94" s="1">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <f t="shared" si="1"/>
+        <v>1710</v>
+      </c>
+      <c r="B95" s="1">
+        <v>7</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1">
+        <v>10</v>
+      </c>
+      <c r="E95" s="1">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <f t="shared" si="1"/>
+        <v>1711</v>
+      </c>
+      <c r="B96" s="1">
+        <v>7</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1">
+        <v>11</v>
+      </c>
+      <c r="E96" s="1">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <f t="shared" si="1"/>
+        <v>1712</v>
+      </c>
+      <c r="B97" s="1">
+        <v>7</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1">
+        <v>12</v>
+      </c>
+      <c r="E97" s="1">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <f t="shared" si="1"/>
+        <v>1801</v>
+      </c>
+      <c r="B98" s="1">
+        <v>8</v>
+      </c>
+      <c r="C98" s="1">
         <v>-1</v>
       </c>
-      <c r="D76" s="1">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77" s="1">
-        <v>7</v>
-      </c>
-      <c r="C77" s="1">
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <f t="shared" si="1"/>
+        <v>1802</v>
+      </c>
+      <c r="B99" s="1">
+        <v>8</v>
+      </c>
+      <c r="C99" s="1">
         <v>-1</v>
       </c>
-      <c r="D77" s="1">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78" s="1">
-        <v>7</v>
-      </c>
-      <c r="C78" s="1">
+      <c r="D99" s="1">
+        <v>2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <f t="shared" si="1"/>
+        <v>1803</v>
+      </c>
+      <c r="B100" s="1">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1">
         <v>-1</v>
       </c>
-      <c r="D78" s="1">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="B79" s="1">
-        <v>7</v>
-      </c>
-      <c r="C79" s="1">
+      <c r="D100" s="1">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <f t="shared" si="1"/>
+        <v>1901</v>
+      </c>
+      <c r="B101" s="1">
+        <v>9</v>
+      </c>
+      <c r="C101" s="1">
         <v>-1</v>
       </c>
-      <c r="D79" s="1">
-        <v>7800</v>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <f t="shared" si="1"/>
+        <v>1902</v>
+      </c>
+      <c r="B102" s="1">
+        <v>9</v>
+      </c>
+      <c r="C102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <f t="shared" si="1"/>
+        <v>1903</v>
+      </c>
+      <c r="B103" s="1">
+        <v>9</v>
+      </c>
+      <c r="C103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1">
+        <v>9600</v>
       </c>
     </row>
   </sheetData>
@@ -6894,7 +8500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy05\OneDrive\문서\GitHub\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194F1C89-9620-4272-BF5E-DF5E41E406D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6068BAE8-88A4-4D98-8B1B-886175BABF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="9" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="6" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -37,8 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1856,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E275678-4570-4CA2-A5D1-8566AA5F2680}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2542,7 +2540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEAE22-5922-41C3-8363-1D72AEC2DD20}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
@@ -5895,7 +5893,7 @@
   <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8169,8 +8167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF15104-731A-4C98-BA74-8497E4F21D42}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8357,10 +8355,10 @@
         <v>-1</v>
       </c>
       <c r="S2" s="1">
-        <v>100</v>
+        <v>1001</v>
       </c>
       <c r="T2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" s="1">
         <v>-1</v>
@@ -8375,10 +8373,10 @@
         <v>-1</v>
       </c>
       <c r="Y2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="AA2" s="1">
         <v>-1</v>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy05\OneDrive\문서\GitHub\DesktopEquipmentMerge\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6068BAE8-88A4-4D98-8B1B-886175BABF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8638E87-777F-4E5D-B23B-7A208AC9D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="6" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="7440" yWindow="780" windowWidth="20400" windowHeight="12675" firstSheet="2" activeTab="7" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="365">
   <si>
     <t>Equipment_Name_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1220,6 +1220,78 @@
   </si>
   <si>
     <t>type9</t>
+  </si>
+  <si>
+    <t>Building_Name_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Building_Name_1</t>
+  </si>
+  <si>
+    <t>Building_Name_2</t>
+  </si>
+  <si>
+    <t>Building_Name_3</t>
+  </si>
+  <si>
+    <t>Building_Name_4</t>
+  </si>
+  <si>
+    <t>Storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길드홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guildhall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정대 캠프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Camp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tader_Name_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traderExpMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traderExpMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1855,7 +1927,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1933,67 +2005,67 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K2" s="1">
         <v>10</v>
       </c>
       <c r="L2" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2110,17 +2182,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375FEDA8-0451-4789-BF9C-DBB1721B45C7}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -2411,7 +2483,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>14</v>
@@ -2422,65 +2494,65 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>15</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>22</v>
+        <v>348</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>23</v>
+        <v>357</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>15</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>24</v>
+        <v>349</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>25</v>
+        <v>353</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>15</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>15</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>15</v>
@@ -2488,10 +2560,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>15</v>
@@ -2499,10 +2571,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>15</v>
@@ -2510,10 +2582,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>87</v>
+        <v>308</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>15</v>
@@ -2521,12 +2593,67 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2541,7 +2668,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2620,7 +2747,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1001</v>
+        <v>10001</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2652,7 +2779,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1002</v>
+        <v>10002</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2684,7 +2811,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1003</v>
+        <v>10003</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2716,7 +2843,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1004</v>
+        <v>10004</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -2748,7 +2875,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1005</v>
+        <v>10005</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -2780,7 +2907,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1006</v>
+        <v>10006</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -2812,7 +2939,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1007</v>
+        <v>10007</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -2844,7 +2971,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1008</v>
+        <v>10008</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -2876,7 +3003,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1009</v>
+        <v>10009</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -2908,7 +3035,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>1010</v>
+        <v>10010</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -2940,7 +3067,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>1011</v>
+        <v>10011</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -2972,7 +3099,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>1012</v>
+        <v>10012</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -3004,7 +3131,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>1101</v>
+        <v>10101</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -3036,7 +3163,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1102</v>
+        <v>10102</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -3068,7 +3195,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>1103</v>
+        <v>10103</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -3100,7 +3227,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>1104</v>
+        <v>10104</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -3132,7 +3259,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>1105</v>
+        <v>10105</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
@@ -3164,7 +3291,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>1106</v>
+        <v>10106</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
@@ -3196,7 +3323,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>1107</v>
+        <v>10107</v>
       </c>
       <c r="B21" s="1">
         <v>7</v>
@@ -3228,7 +3355,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>1108</v>
+        <v>10108</v>
       </c>
       <c r="B22" s="1">
         <v>8</v>
@@ -3260,7 +3387,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>1109</v>
+        <v>10109</v>
       </c>
       <c r="B23" s="1">
         <v>9</v>
@@ -3292,7 +3419,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>1110</v>
+        <v>10110</v>
       </c>
       <c r="B24" s="1">
         <v>10</v>
@@ -3324,7 +3451,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>1111</v>
+        <v>10111</v>
       </c>
       <c r="B25" s="1">
         <v>11</v>
@@ -3356,7 +3483,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>1112</v>
+        <v>10112</v>
       </c>
       <c r="B26" s="1">
         <v>12</v>
@@ -3388,7 +3515,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>1201</v>
+        <v>10201</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -3420,7 +3547,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>1202</v>
+        <v>10202</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -3452,7 +3579,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>1203</v>
+        <v>10203</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
@@ -3484,7 +3611,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>1204</v>
+        <v>10204</v>
       </c>
       <c r="B30" s="1">
         <v>4</v>
@@ -3516,7 +3643,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>1205</v>
+        <v>10205</v>
       </c>
       <c r="B31" s="1">
         <v>5</v>
@@ -3548,7 +3675,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>1206</v>
+        <v>10206</v>
       </c>
       <c r="B32" s="1">
         <v>6</v>
@@ -3580,7 +3707,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>1207</v>
+        <v>10207</v>
       </c>
       <c r="B33" s="1">
         <v>7</v>
@@ -3612,7 +3739,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>1208</v>
+        <v>10208</v>
       </c>
       <c r="B34" s="1">
         <v>8</v>
@@ -3644,7 +3771,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>1209</v>
+        <v>10209</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
@@ -3676,7 +3803,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>1210</v>
+        <v>10210</v>
       </c>
       <c r="B36" s="1">
         <v>10</v>
@@ -3708,7 +3835,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>1211</v>
+        <v>10211</v>
       </c>
       <c r="B37" s="1">
         <v>11</v>
@@ -3740,7 +3867,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>1212</v>
+        <v>10212</v>
       </c>
       <c r="B38" s="1">
         <v>12</v>
@@ -3772,7 +3899,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>1301</v>
+        <v>10301</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -3804,7 +3931,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>1302</v>
+        <v>10302</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -3836,7 +3963,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>1303</v>
+        <v>10303</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -3868,7 +3995,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>1304</v>
+        <v>10304</v>
       </c>
       <c r="B42" s="1">
         <v>4</v>
@@ -3900,7 +4027,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>1305</v>
+        <v>10305</v>
       </c>
       <c r="B43" s="1">
         <v>5</v>
@@ -3932,7 +4059,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>1306</v>
+        <v>10306</v>
       </c>
       <c r="B44" s="1">
         <v>6</v>
@@ -3964,7 +4091,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>1307</v>
+        <v>10307</v>
       </c>
       <c r="B45" s="1">
         <v>7</v>
@@ -3996,7 +4123,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>1308</v>
+        <v>10308</v>
       </c>
       <c r="B46" s="1">
         <v>8</v>
@@ -4028,7 +4155,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>1309</v>
+        <v>10309</v>
       </c>
       <c r="B47" s="1">
         <v>9</v>
@@ -4060,7 +4187,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>1310</v>
+        <v>10310</v>
       </c>
       <c r="B48" s="1">
         <v>10</v>
@@ -4092,7 +4219,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>1311</v>
+        <v>10311</v>
       </c>
       <c r="B49" s="1">
         <v>11</v>
@@ -4124,7 +4251,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>1312</v>
+        <v>10312</v>
       </c>
       <c r="B50" s="1">
         <v>12</v>
@@ -4156,7 +4283,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>1401</v>
+        <v>10401</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -4188,7 +4315,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>1402</v>
+        <v>10402</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
@@ -4220,7 +4347,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>1403</v>
+        <v>10403</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
@@ -4252,7 +4379,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>1404</v>
+        <v>10404</v>
       </c>
       <c r="B54" s="1">
         <v>4</v>
@@ -4284,7 +4411,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>1405</v>
+        <v>10405</v>
       </c>
       <c r="B55" s="1">
         <v>5</v>
@@ -4316,7 +4443,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>1406</v>
+        <v>10406</v>
       </c>
       <c r="B56" s="1">
         <v>6</v>
@@ -4348,7 +4475,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>1407</v>
+        <v>10407</v>
       </c>
       <c r="B57" s="1">
         <v>7</v>
@@ -4380,7 +4507,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>1408</v>
+        <v>10408</v>
       </c>
       <c r="B58" s="1">
         <v>8</v>
@@ -4412,7 +4539,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>1409</v>
+        <v>10409</v>
       </c>
       <c r="B59" s="1">
         <v>9</v>
@@ -4444,7 +4571,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>1410</v>
+        <v>10410</v>
       </c>
       <c r="B60" s="1">
         <v>10</v>
@@ -4476,7 +4603,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>1411</v>
+        <v>10411</v>
       </c>
       <c r="B61" s="1">
         <v>11</v>
@@ -4508,7 +4635,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>1412</v>
+        <v>10412</v>
       </c>
       <c r="B62" s="1">
         <v>12</v>
@@ -4540,7 +4667,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>1501</v>
+        <v>10501</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
@@ -4572,7 +4699,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>1502</v>
+        <v>10502</v>
       </c>
       <c r="B64" s="1">
         <v>2</v>
@@ -4604,7 +4731,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>1503</v>
+        <v>10503</v>
       </c>
       <c r="B65" s="1">
         <v>3</v>
@@ -4636,7 +4763,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>1504</v>
+        <v>10504</v>
       </c>
       <c r="B66" s="1">
         <v>4</v>
@@ -4668,7 +4795,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>1505</v>
+        <v>10505</v>
       </c>
       <c r="B67" s="1">
         <v>5</v>
@@ -4700,7 +4827,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>1506</v>
+        <v>10506</v>
       </c>
       <c r="B68" s="1">
         <v>6</v>
@@ -4732,7 +4859,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>1507</v>
+        <v>10507</v>
       </c>
       <c r="B69" s="1">
         <v>7</v>
@@ -4764,7 +4891,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>1508</v>
+        <v>10508</v>
       </c>
       <c r="B70" s="1">
         <v>8</v>
@@ -4796,7 +4923,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>1509</v>
+        <v>10509</v>
       </c>
       <c r="B71" s="1">
         <v>9</v>
@@ -4828,7 +4955,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>1510</v>
+        <v>10510</v>
       </c>
       <c r="B72" s="1">
         <v>10</v>
@@ -4860,7 +4987,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>1511</v>
+        <v>10511</v>
       </c>
       <c r="B73" s="1">
         <v>11</v>
@@ -4892,7 +5019,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>1512</v>
+        <v>10512</v>
       </c>
       <c r="B74" s="1">
         <v>12</v>
@@ -4924,7 +5051,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>1601</v>
+        <v>10601</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
@@ -4956,7 +5083,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>1602</v>
+        <v>10602</v>
       </c>
       <c r="B76" s="1">
         <v>2</v>
@@ -4988,7 +5115,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>1603</v>
+        <v>10603</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -5020,7 +5147,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>1604</v>
+        <v>10604</v>
       </c>
       <c r="B78" s="1">
         <v>4</v>
@@ -5052,7 +5179,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>1605</v>
+        <v>10605</v>
       </c>
       <c r="B79" s="1">
         <v>5</v>
@@ -5084,7 +5211,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>1606</v>
+        <v>10606</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
@@ -5116,7 +5243,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>1607</v>
+        <v>10607</v>
       </c>
       <c r="B81" s="1">
         <v>7</v>
@@ -5148,7 +5275,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>1608</v>
+        <v>10608</v>
       </c>
       <c r="B82" s="1">
         <v>8</v>
@@ -5180,7 +5307,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>1609</v>
+        <v>10609</v>
       </c>
       <c r="B83" s="1">
         <v>9</v>
@@ -5212,7 +5339,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>1610</v>
+        <v>10610</v>
       </c>
       <c r="B84" s="1">
         <v>10</v>
@@ -5244,7 +5371,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>1611</v>
+        <v>10611</v>
       </c>
       <c r="B85" s="1">
         <v>11</v>
@@ -5276,7 +5403,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>1612</v>
+        <v>10612</v>
       </c>
       <c r="B86" s="1">
         <v>12</v>
@@ -5308,7 +5435,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>1701</v>
+        <v>10701</v>
       </c>
       <c r="B87" s="1">
         <v>1</v>
@@ -5340,7 +5467,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>1702</v>
+        <v>10702</v>
       </c>
       <c r="B88" s="1">
         <v>2</v>
@@ -5372,7 +5499,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>1703</v>
+        <v>10703</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -5404,7 +5531,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>1704</v>
+        <v>10704</v>
       </c>
       <c r="B90" s="1">
         <v>4</v>
@@ -5436,7 +5563,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>1705</v>
+        <v>10705</v>
       </c>
       <c r="B91" s="1">
         <v>5</v>
@@ -5468,7 +5595,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>1706</v>
+        <v>10706</v>
       </c>
       <c r="B92" s="1">
         <v>6</v>
@@ -5500,7 +5627,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>1707</v>
+        <v>10707</v>
       </c>
       <c r="B93" s="1">
         <v>7</v>
@@ -5532,7 +5659,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>1708</v>
+        <v>10708</v>
       </c>
       <c r="B94" s="1">
         <v>8</v>
@@ -5564,7 +5691,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>1709</v>
+        <v>10709</v>
       </c>
       <c r="B95" s="1">
         <v>9</v>
@@ -5596,7 +5723,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>1710</v>
+        <v>10710</v>
       </c>
       <c r="B96" s="1">
         <v>10</v>
@@ -5628,7 +5755,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>1711</v>
+        <v>10711</v>
       </c>
       <c r="B97" s="1">
         <v>11</v>
@@ -5660,7 +5787,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>1712</v>
+        <v>10712</v>
       </c>
       <c r="B98" s="1">
         <v>12</v>
@@ -5692,7 +5819,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>1801</v>
+        <v>10801</v>
       </c>
       <c r="B99" s="1">
         <v>1</v>
@@ -5724,7 +5851,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>1802</v>
+        <v>10802</v>
       </c>
       <c r="B100" s="1">
         <v>2</v>
@@ -5756,7 +5883,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>1803</v>
+        <v>10803</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -5788,7 +5915,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>1901</v>
+        <v>10901</v>
       </c>
       <c r="B102" s="1">
         <v>1</v>
@@ -5820,7 +5947,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>1902</v>
+        <v>10902</v>
       </c>
       <c r="B103" s="1">
         <v>2</v>
@@ -5852,7 +5979,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>1903</v>
+        <v>10903</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -5892,8 +6019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5F6F4D-65E2-42F1-89B1-3A28518D62CE}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E2"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5921,8 +6048,8 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <f>1000+(B2)*100+D2</f>
-        <v>1001</v>
+        <f>10000+(B2)*100+D2</f>
+        <v>10001</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -5939,8 +6066,8 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A66" si="0">1000+(B3)*100+D3</f>
-        <v>1002</v>
+        <f t="shared" ref="A3:A66" si="0">10000+(B3)*100+D3</f>
+        <v>10002</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -5958,7 +6085,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
-        <v>1003</v>
+        <v>10003</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -5976,7 +6103,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>1004</v>
+        <v>10004</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -5994,7 +6121,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>1005</v>
+        <v>10005</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -6012,7 +6139,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>1006</v>
+        <v>10006</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -6030,7 +6157,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>1007</v>
+        <v>10007</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -6048,7 +6175,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>1008</v>
+        <v>10008</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -6066,7 +6193,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>1009</v>
+        <v>10009</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -6084,7 +6211,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>1010</v>
+        <v>10010</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -6102,7 +6229,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>1011</v>
+        <v>10011</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -6120,7 +6247,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
-        <v>1012</v>
+        <v>10012</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -6138,7 +6265,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
-        <v>1101</v>
+        <v>10101</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -6156,7 +6283,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
-        <v>1102</v>
+        <v>10102</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -6174,7 +6301,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
-        <v>1103</v>
+        <v>10103</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -6192,7 +6319,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>1104</v>
+        <v>10104</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -6210,7 +6337,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>1105</v>
+        <v>10105</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -6228,7 +6355,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>1106</v>
+        <v>10106</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -6246,7 +6373,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>1107</v>
+        <v>10107</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -6264,7 +6391,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>1108</v>
+        <v>10108</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -6282,7 +6409,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>1109</v>
+        <v>10109</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -6300,7 +6427,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
-        <v>1110</v>
+        <v>10110</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -6318,7 +6445,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>1111</v>
+        <v>10111</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -6336,7 +6463,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
-        <v>1112</v>
+        <v>10112</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -6354,7 +6481,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>1201</v>
+        <v>10201</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -6372,7 +6499,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
-        <v>1202</v>
+        <v>10202</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -6390,7 +6517,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
-        <v>1203</v>
+        <v>10203</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -6408,7 +6535,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>1204</v>
+        <v>10204</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -6426,7 +6553,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>1205</v>
+        <v>10205</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -6444,7 +6571,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
-        <v>1206</v>
+        <v>10206</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -6462,7 +6589,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
-        <v>1207</v>
+        <v>10207</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -6480,7 +6607,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
-        <v>1208</v>
+        <v>10208</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
@@ -6498,7 +6625,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>1209</v>
+        <v>10209</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -6516,7 +6643,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>1210</v>
+        <v>10210</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -6534,7 +6661,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
-        <v>1211</v>
+        <v>10211</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -6552,7 +6679,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
-        <v>1212</v>
+        <v>10212</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -6570,7 +6697,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
-        <v>1301</v>
+        <v>10301</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -6588,7 +6715,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
-        <v>1302</v>
+        <v>10302</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -6606,7 +6733,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
-        <v>1303</v>
+        <v>10303</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
@@ -6624,7 +6751,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
-        <v>1304</v>
+        <v>10304</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -6642,7 +6769,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
-        <v>1305</v>
+        <v>10305</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
@@ -6660,7 +6787,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
-        <v>1306</v>
+        <v>10306</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
@@ -6678,7 +6805,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
-        <v>1307</v>
+        <v>10307</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
@@ -6696,7 +6823,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
-        <v>1308</v>
+        <v>10308</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
@@ -6714,7 +6841,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
-        <v>1309</v>
+        <v>10309</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -6732,7 +6859,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
-        <v>1310</v>
+        <v>10310</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
@@ -6750,7 +6877,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
-        <v>1311</v>
+        <v>10311</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
@@ -6768,7 +6895,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
-        <v>1312</v>
+        <v>10312</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
@@ -6786,7 +6913,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
-        <v>1401</v>
+        <v>10401</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>
@@ -6804,7 +6931,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
-        <v>1402</v>
+        <v>10402</v>
       </c>
       <c r="B51" s="1">
         <v>4</v>
@@ -6822,7 +6949,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
-        <v>1403</v>
+        <v>10403</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
@@ -6840,7 +6967,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
-        <v>1404</v>
+        <v>10404</v>
       </c>
       <c r="B53" s="1">
         <v>4</v>
@@ -6858,7 +6985,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
-        <v>1405</v>
+        <v>10405</v>
       </c>
       <c r="B54" s="1">
         <v>4</v>
@@ -6876,7 +7003,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
-        <v>1406</v>
+        <v>10406</v>
       </c>
       <c r="B55" s="1">
         <v>4</v>
@@ -6894,7 +7021,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
-        <v>1407</v>
+        <v>10407</v>
       </c>
       <c r="B56" s="1">
         <v>4</v>
@@ -6912,7 +7039,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
-        <v>1408</v>
+        <v>10408</v>
       </c>
       <c r="B57" s="1">
         <v>4</v>
@@ -6930,7 +7057,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
-        <v>1409</v>
+        <v>10409</v>
       </c>
       <c r="B58" s="1">
         <v>4</v>
@@ -6948,7 +7075,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
-        <v>1410</v>
+        <v>10410</v>
       </c>
       <c r="B59" s="1">
         <v>4</v>
@@ -6966,7 +7093,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
-        <v>1411</v>
+        <v>10411</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -6984,7 +7111,7 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>10412</v>
       </c>
       <c r="B61" s="1">
         <v>4</v>
@@ -7002,7 +7129,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
-        <v>1501</v>
+        <v>10501</v>
       </c>
       <c r="B62" s="1">
         <v>5</v>
@@ -7020,7 +7147,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
-        <v>1502</v>
+        <v>10502</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -7038,7 +7165,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
-        <v>1503</v>
+        <v>10503</v>
       </c>
       <c r="B64" s="1">
         <v>5</v>
@@ -7056,7 +7183,7 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
-        <v>1504</v>
+        <v>10504</v>
       </c>
       <c r="B65" s="1">
         <v>5</v>
@@ -7074,7 +7201,7 @@
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
-        <v>1505</v>
+        <v>10505</v>
       </c>
       <c r="B66" s="1">
         <v>5</v>
@@ -7091,8 +7218,8 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <f t="shared" ref="A67:A103" si="1">1000+(B67)*100+D67</f>
-        <v>1506</v>
+        <f t="shared" ref="A67:A103" si="1">10000+(B67)*100+D67</f>
+        <v>10506</v>
       </c>
       <c r="B67" s="1">
         <v>5</v>
@@ -7110,7 +7237,7 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" si="1"/>
-        <v>1507</v>
+        <v>10507</v>
       </c>
       <c r="B68" s="1">
         <v>5</v>
@@ -7128,7 +7255,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" si="1"/>
-        <v>1508</v>
+        <v>10508</v>
       </c>
       <c r="B69" s="1">
         <v>5</v>
@@ -7146,7 +7273,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" si="1"/>
-        <v>1509</v>
+        <v>10509</v>
       </c>
       <c r="B70" s="1">
         <v>5</v>
@@ -7164,7 +7291,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" si="1"/>
-        <v>1510</v>
+        <v>10510</v>
       </c>
       <c r="B71" s="1">
         <v>5</v>
@@ -7182,7 +7309,7 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" si="1"/>
-        <v>1511</v>
+        <v>10511</v>
       </c>
       <c r="B72" s="1">
         <v>5</v>
@@ -7200,7 +7327,7 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" si="1"/>
-        <v>1512</v>
+        <v>10512</v>
       </c>
       <c r="B73" s="1">
         <v>5</v>
@@ -7218,7 +7345,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" si="1"/>
-        <v>1601</v>
+        <v>10601</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
@@ -7236,7 +7363,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" si="1"/>
-        <v>1602</v>
+        <v>10602</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
@@ -7254,7 +7381,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" si="1"/>
-        <v>1603</v>
+        <v>10603</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -7272,7 +7399,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f t="shared" si="1"/>
-        <v>1604</v>
+        <v>10604</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
@@ -7290,7 +7417,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f t="shared" si="1"/>
-        <v>1605</v>
+        <v>10605</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
@@ -7308,7 +7435,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f t="shared" si="1"/>
-        <v>1606</v>
+        <v>10606</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
@@ -7326,7 +7453,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" si="1"/>
-        <v>1607</v>
+        <v>10607</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
@@ -7344,7 +7471,7 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" si="1"/>
-        <v>1608</v>
+        <v>10608</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
@@ -7362,7 +7489,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" si="1"/>
-        <v>1609</v>
+        <v>10609</v>
       </c>
       <c r="B82" s="1">
         <v>6</v>
@@ -7380,7 +7507,7 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" si="1"/>
-        <v>1610</v>
+        <v>10610</v>
       </c>
       <c r="B83" s="1">
         <v>6</v>
@@ -7398,7 +7525,7 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" si="1"/>
-        <v>1611</v>
+        <v>10611</v>
       </c>
       <c r="B84" s="1">
         <v>6</v>
@@ -7416,7 +7543,7 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" si="1"/>
-        <v>1612</v>
+        <v>10612</v>
       </c>
       <c r="B85" s="1">
         <v>6</v>
@@ -7434,7 +7561,7 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" si="1"/>
-        <v>1701</v>
+        <v>10701</v>
       </c>
       <c r="B86" s="1">
         <v>7</v>
@@ -7452,7 +7579,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" si="1"/>
-        <v>1702</v>
+        <v>10702</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -7470,7 +7597,7 @@
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" si="1"/>
-        <v>1703</v>
+        <v>10703</v>
       </c>
       <c r="B88" s="1">
         <v>7</v>
@@ -7488,7 +7615,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" si="1"/>
-        <v>1704</v>
+        <v>10704</v>
       </c>
       <c r="B89" s="1">
         <v>7</v>
@@ -7506,7 +7633,7 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" si="1"/>
-        <v>1705</v>
+        <v>10705</v>
       </c>
       <c r="B90" s="1">
         <v>7</v>
@@ -7524,7 +7651,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" si="1"/>
-        <v>1706</v>
+        <v>10706</v>
       </c>
       <c r="B91" s="1">
         <v>7</v>
@@ -7542,7 +7669,7 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" si="1"/>
-        <v>1707</v>
+        <v>10707</v>
       </c>
       <c r="B92" s="1">
         <v>7</v>
@@ -7560,7 +7687,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" si="1"/>
-        <v>1708</v>
+        <v>10708</v>
       </c>
       <c r="B93" s="1">
         <v>7</v>
@@ -7578,7 +7705,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" si="1"/>
-        <v>1709</v>
+        <v>10709</v>
       </c>
       <c r="B94" s="1">
         <v>7</v>
@@ -7596,7 +7723,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" si="1"/>
-        <v>1710</v>
+        <v>10710</v>
       </c>
       <c r="B95" s="1">
         <v>7</v>
@@ -7614,7 +7741,7 @@
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" si="1"/>
-        <v>1711</v>
+        <v>10711</v>
       </c>
       <c r="B96" s="1">
         <v>7</v>
@@ -7632,7 +7759,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
-        <v>1712</v>
+        <v>10712</v>
       </c>
       <c r="B97" s="1">
         <v>7</v>
@@ -7650,7 +7777,7 @@
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f t="shared" si="1"/>
-        <v>1801</v>
+        <v>10801</v>
       </c>
       <c r="B98" s="1">
         <v>8</v>
@@ -7668,7 +7795,7 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" si="1"/>
-        <v>1802</v>
+        <v>10802</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -7686,7 +7813,7 @@
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f t="shared" si="1"/>
-        <v>1803</v>
+        <v>10803</v>
       </c>
       <c r="B100" s="1">
         <v>8</v>
@@ -7704,7 +7831,7 @@
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <f t="shared" si="1"/>
-        <v>1901</v>
+        <v>10901</v>
       </c>
       <c r="B101" s="1">
         <v>9</v>
@@ -7722,7 +7849,7 @@
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f t="shared" si="1"/>
-        <v>1902</v>
+        <v>10902</v>
       </c>
       <c r="B102" s="1">
         <v>9</v>
@@ -7740,7 +7867,7 @@
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f t="shared" si="1"/>
-        <v>1903</v>
+        <v>10903</v>
       </c>
       <c r="B103" s="1">
         <v>9</v>
@@ -7763,10 +7890,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA3DF29-7E31-401A-BBF8-E5BBCFA00E79}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7863,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
@@ -7880,10 +8007,10 @@
         <v>아이템 개수</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
         <v>-1</v>
@@ -7935,10 +8062,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
@@ -7952,10 +8079,10 @@
         <v>아이템 개수</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1">
         <v>-1</v>
@@ -7999,6 +8126,942 @@
         <v>-1</v>
       </c>
       <c r="V3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(C4,TextTag!$A:$B,2,0)</f>
+        <v>마법대</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>VLOOKUP(E4,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>VLOOKUP(I4,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f>VLOOKUP(M4,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(C5,TextTag!$A:$B,2,0)</f>
+        <v>창고</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>VLOOKUP(E5,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>VLOOKUP(I5,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f>VLOOKUP(M5,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(C6,TextTag!$A:$B,2,0)</f>
+        <v>창고</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>VLOOKUP(E6,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f>VLOOKUP(I6,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f>VLOOKUP(M6,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(C7,TextTag!$A:$B,2,0)</f>
+        <v>창고</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>VLOOKUP(E7,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f>VLOOKUP(I7,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f>VLOOKUP(M7,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>VLOOKUP(C8,TextTag!$A:$B,2,0)</f>
+        <v>창고</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>VLOOKUP(E8,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f>VLOOKUP(I8,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f>VLOOKUP(M8,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>VLOOKUP(C9,TextTag!$A:$B,2,0)</f>
+        <v>창고</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f>VLOOKUP(E9,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f>VLOOKUP(I9,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f>VLOOKUP(M9,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>VLOOKUP(C10,TextTag!$A:$B,2,0)</f>
+        <v>창고</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>VLOOKUP(E10,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f>VLOOKUP(I10,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f>VLOOKUP(M10,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>VLOOKUP(C11,TextTag!$A:$B,2,0)</f>
+        <v>창고</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>VLOOKUP(E11,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f>VLOOKUP(I11,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f>VLOOKUP(M11,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(C12,TextTag!$A:$B,2,0)</f>
+        <v>창고</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f>VLOOKUP(E12,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>100</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f>VLOOKUP(I12,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f>VLOOKUP(M12,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>VLOOKUP(C13,TextTag!$A:$B,2,0)</f>
+        <v>창고</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f>VLOOKUP(E13,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f>VLOOKUP(I13,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f>VLOOKUP(M13,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(C14,TextTag!$A:$B,2,0)</f>
+        <v>창고</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>VLOOKUP(E14,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>VLOOKUP(I14,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f>VLOOKUP(M14,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(C15,TextTag!$A:$B,2,0)</f>
+        <v>창고</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>VLOOKUP(E15,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>VLOOKUP(I15,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f>VLOOKUP(M15,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>VLOOKUP(C16,TextTag!$A:$B,2,0)</f>
+        <v>창고</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>VLOOKUP(E16,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>VLOOKUP(I16,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f>VLOOKUP(M16,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V16" s="1">
         <v>-1</v>
       </c>
     </row>
@@ -8010,10 +9073,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBD2E0F-4C9A-484F-93A0-063395D8574E}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8024,14 +9087,16 @@
     <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -8101,34 +9166,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>359</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
-        <v>드레이코 왕국 보급관</v>
+        <v>관리인</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>359</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
-        <v>드레이코 왕국 보급관</v>
+        <v>관리인</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>VLOOKUP(H2,Reference!$A:$B,2,0)</f>
-        <v>아이템 개수</v>
+        <v>없음</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K2" s="1">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="L2" s="1">
         <v>-1</v>
@@ -8154,6 +9219,70 @@
         <v>-1</v>
       </c>
       <c r="S2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
+        <v>드레이코 왕국 보급관</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>VLOOKUP(E3,TextTag!$A:$B,2,0)</f>
+        <v>드레이코 왕국 보급관</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>VLOOKUP(H3,Reference!$A:$B,2,0)</f>
+        <v>아이템 개수</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f>VLOOKUP(L3,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f>VLOOKUP(P3,Reference!$A:$B,2,0)</f>
+        <v>없음</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="1">
         <v>-1</v>
       </c>
     </row>
@@ -8167,8 +9296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF15104-731A-4C98-BA74-8497E4F21D42}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8355,7 +9484,7 @@
         <v>-1</v>
       </c>
       <c r="S2" s="1">
-        <v>1001</v>
+        <v>10001</v>
       </c>
       <c r="T2" s="1">
         <v>2</v>
@@ -8496,9 +9625,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8510,18 +9641,19 @@
     <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -8547,43 +9679,46 @@
         <v>257</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -8601,7 +9736,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -8610,46 +9745,49 @@
         <v>-1</v>
       </c>
       <c r="I2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <f>VLOOKUP(I2,Reference!$G:$H,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>VLOOKUP(J2,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M2" s="1">
         <v>-1</v>
       </c>
-      <c r="N2" s="1" t="str">
-        <f>VLOOKUP(M2,Reference!$G:$H,2,0)</f>
+      <c r="N2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="1" t="str">
+        <f>VLOOKUP(N2,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
       <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
         <v>1000</v>
       </c>
-      <c r="Q2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R2" s="1" t="str">
-        <f>VLOOKUP(Q2,Reference!$G:$H,2,0)</f>
+      <c r="R2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="1" t="str">
+        <f>VLOOKUP(R2,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="S2" s="1">
-        <v>-1</v>
-      </c>
       <c r="T2" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8664,10 +9802,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -8676,42 +9814,45 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <f>VLOOKUP(I3,Reference!$G:$H,2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>VLOOKUP(J3,Reference!$G:$H,2,0)</f>
         <v>직업</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
       <c r="L3" s="1">
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="1" t="str">
-        <f>VLOOKUP(M3,Reference!$G:$H,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f>VLOOKUP(N3,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
       <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
         <v>1000</v>
       </c>
-      <c r="Q3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R3" s="1" t="str">
-        <f>VLOOKUP(Q3,Reference!$G:$H,2,0)</f>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="1" t="str">
+        <f>VLOOKUP(R3,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="S3" s="1">
-        <v>-1</v>
-      </c>
       <c r="T3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="1">
         <v>-1</v>
       </c>
     </row>
@@ -8724,15 +9865,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90F1975-8DB0-44C6-A265-CFA567B2CE61}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -8742,8 +9887,14 @@
       <c r="C1" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8753,8 +9904,14 @@
       <c r="C2" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8764,8 +9921,14 @@
       <c r="C3" s="1">
         <v>399</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8775,8 +9938,14 @@
       <c r="C4" s="1">
         <v>599</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8786,8 +9955,14 @@
       <c r="C5" s="1">
         <v>799</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>90</v>
+      </c>
+      <c r="E5" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8797,8 +9972,14 @@
       <c r="C6" s="1">
         <v>999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8808,8 +9989,14 @@
       <c r="C7" s="1">
         <v>1199</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>150</v>
+      </c>
+      <c r="E7" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8818,6 +10005,12 @@
       </c>
       <c r="C8" s="1">
         <v>1399</v>
+      </c>
+      <c r="D8" s="1">
+        <v>180</v>
+      </c>
+      <c r="E8" s="1">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8638E87-777F-4E5D-B23B-7A208AC9D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DF5BF1-B905-46C7-997A-CFBD11960A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="780" windowWidth="20400" windowHeight="12675" firstSheet="2" activeTab="7" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="366">
   <si>
     <t>Equipment_Name_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1291,6 +1291,10 @@
   </si>
   <si>
     <t>traderExpMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardTraderExp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9294,10 +9298,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF15104-731A-4C98-BA74-8497E4F21D42}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9329,9 +9333,10 @@
     <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -9422,8 +9427,11 @@
       <c r="AD1" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE1" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9519,8 +9527,11 @@
       <c r="AD2" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9615,6 +9626,9 @@
       </c>
       <c r="AD3" s="1">
         <v>-1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -9627,7 +9641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DF5BF1-B905-46C7-997A-CFBD11960A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184B01B2-1143-46F2-8B2D-D1009104B772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="30390" yWindow="2565" windowWidth="20400" windowHeight="12675" activeTab="3" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -6023,8 +6023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5F6F4D-65E2-42F1-89B1-3A28518D62CE}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A103"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7793,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="1">
-        <v>9600</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -7811,7 +7811,7 @@
         <v>2</v>
       </c>
       <c r="E99" s="1">
-        <v>9600</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -7829,7 +7829,7 @@
         <v>3</v>
       </c>
       <c r="E100" s="1">
-        <v>9600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -7847,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="1">
-        <v>9600</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -7865,7 +7865,7 @@
         <v>2</v>
       </c>
       <c r="E102" s="1">
-        <v>9600</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -7883,7 +7883,7 @@
         <v>3</v>
       </c>
       <c r="E103" s="1">
-        <v>9600</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -9300,7 +9300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF15104-731A-4C98-BA74-8497E4F21D42}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184B01B2-1143-46F2-8B2D-D1009104B772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842389AC-6875-4AA1-929F-A3722051846F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="2565" windowWidth="20400" windowHeight="12675" activeTab="3" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="30390" yWindow="2565" windowWidth="20400" windowHeight="12675" firstSheet="2" activeTab="7" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Lv" sheetId="15" r:id="rId9"/>
     <sheet name="RewardProb" sheetId="12" r:id="rId10"/>
     <sheet name="Hero" sheetId="14" r:id="rId11"/>
+    <sheet name="Dialog" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="383">
   <si>
     <t>Equipment_Name_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,54 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prob1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tagDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1295,6 +1248,115 @@
   </si>
   <si>
     <t>rewardTraderExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_No_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구신지요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who are you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probType3</t>
+  </si>
+  <si>
+    <t>probType4</t>
+  </si>
+  <si>
+    <t>probType5</t>
+  </si>
+  <si>
+    <t>probType6</t>
+  </si>
+  <si>
+    <t>probType7</t>
+  </si>
+  <si>
+    <t>probType8</t>
+  </si>
+  <si>
+    <t>probType9</t>
+  </si>
+  <si>
+    <t>probType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probGrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probGrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probGrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probGrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probGrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probGrade6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probGrade7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probGrade8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probGrade9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probGrade10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probGrade11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probGrade12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1415,7 +1477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1435,6 +1497,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1794,16 +1862,16 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1817,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -1837,13 +1905,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1857,13 +1925,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1928,83 +1996,113 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E275678-4570-4CA2-A5D1-8566AA5F2680}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="19" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>67</v>
+        <v>362</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>68</v>
+        <v>370</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>69</v>
+        <v>363</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>70</v>
+        <v>364</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>71</v>
+        <v>365</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>72</v>
+        <v>366</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>73</v>
+        <v>367</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>74</v>
+        <v>368</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>75</v>
+        <v>369</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2039,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -2063,12 +2161,39 @@
         <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U2" s="1">
         <v>0</v>
       </c>
       <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2099,13 +2224,13 @@
         <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2176,6 +2301,63 @@
       </c>
       <c r="D6" s="1">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06657BE-31C1-48D2-ADE5-9F6992BF0CAC}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(B2,TextTag!$A:$B,2,0)</f>
+        <v>???</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>VLOOKUP(D2,TextTag!$A:$B,2,0)</f>
+        <v>누구신지요?</v>
       </c>
     </row>
   </sheetData>
@@ -2186,10 +2368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375FEDA8-0451-4789-BF9C-DBB1721B45C7}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2200,30 +2382,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -2234,10 +2416,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
@@ -2245,10 +2427,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>2</v>
@@ -2256,10 +2438,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>2</v>
@@ -2267,10 +2449,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>2</v>
@@ -2278,10 +2460,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>2</v>
@@ -2289,10 +2471,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>2</v>
@@ -2300,10 +2482,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>2</v>
@@ -2311,10 +2493,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>2</v>
@@ -2322,10 +2504,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>2</v>
@@ -2333,10 +2515,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>2</v>
@@ -2344,10 +2526,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>2</v>
@@ -2355,10 +2537,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>2</v>
@@ -2366,10 +2548,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>2</v>
@@ -2377,10 +2559,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>2</v>
@@ -2388,10 +2570,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>2</v>
@@ -2399,10 +2581,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>2</v>
@@ -2410,10 +2592,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>2</v>
@@ -2421,10 +2603,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>2</v>
@@ -2432,10 +2614,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>2</v>
@@ -2443,10 +2625,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>2</v>
@@ -2454,10 +2636,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>2</v>
@@ -2465,10 +2647,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>2</v>
@@ -2476,10 +2658,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>2</v>
@@ -2487,7 +2669,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>14</v>
@@ -2498,57 +2680,57 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2586,10 +2768,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>15</v>
@@ -2597,10 +2779,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>15</v>
@@ -2619,10 +2801,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>15</v>
@@ -2630,10 +2812,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>15</v>
@@ -2641,10 +2823,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>15</v>
@@ -2652,13 +2834,35 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -2671,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEAE22-5922-41C3-8363-1D72AEC2DD20}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2699,7 +2903,7 @@
         <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>35</v>
@@ -2708,10 +2912,10 @@
         <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>37</v>
@@ -2732,7 +2936,7 @@
         <v>돈</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
@@ -2764,7 +2968,7 @@
         <v>머지 아이템</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>VLOOKUP(E3,TextTag!$A:$B,2,0)</f>
@@ -2796,7 +3000,7 @@
         <v>머지 아이템</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>VLOOKUP(E4,TextTag!$A:$B,2,0)</f>
@@ -2828,21 +3032,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>VLOOKUP(E5,TextTag!$A:$B,2,0)</f>
         <v>신입 보병의 검</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H5" s="1" t="e">
         <f>VLOOKUP(G5,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2860,21 +3064,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>VLOOKUP(E6,TextTag!$A:$B,2,0)</f>
         <v>숙련 보병의 검</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H6" s="1" t="e">
         <f>VLOOKUP(G6,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2892,21 +3096,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>VLOOKUP(E7,TextTag!$A:$B,2,0)</f>
         <v>하급 기사의 검</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H7" s="1" t="e">
         <f>VLOOKUP(G7,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2924,21 +3128,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>VLOOKUP(E8,TextTag!$A:$B,2,0)</f>
         <v>기사의 검</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H8" s="1" t="e">
         <f>VLOOKUP(G8,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2956,21 +3160,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>VLOOKUP(E9,TextTag!$A:$B,2,0)</f>
         <v>상급 기사의 검</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H9" s="1" t="e">
         <f>VLOOKUP(G9,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2988,21 +3192,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>VLOOKUP(E10,TextTag!$A:$B,2,0)</f>
         <v>후작의검</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H10" s="1" t="e">
         <f>VLOOKUP(G10,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3020,21 +3224,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>VLOOKUP(E11,TextTag!$A:$B,2,0)</f>
         <v>공작의 검</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="H11" s="1" t="e">
         <f>VLOOKUP(G11,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3052,21 +3256,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>VLOOKUP(E12,TextTag!$A:$B,2,0)</f>
         <v>왕자의 검</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H12" s="1" t="e">
         <f>VLOOKUP(G12,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3084,21 +3288,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>VLOOKUP(E13,TextTag!$A:$B,2,0)</f>
         <v>왕의 검</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="H13" s="1" t="e">
         <f>VLOOKUP(G13,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3116,21 +3320,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>VLOOKUP(E14,TextTag!$A:$B,2,0)</f>
         <v>전설의 검</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H14" s="1" t="e">
         <f>VLOOKUP(G14,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3148,21 +3352,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>VLOOKUP(E15,TextTag!$A:$B,2,0)</f>
         <v>녹슨 도끼</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H15" s="1" t="e">
         <f>VLOOKUP(G15,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3180,21 +3384,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>VLOOKUP(E16,TextTag!$A:$B,2,0)</f>
         <v>민병의 도끼</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H16" s="1" t="e">
         <f>VLOOKUP(G16,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3212,21 +3416,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>VLOOKUP(E17,TextTag!$A:$B,2,0)</f>
         <v>신입 보병의 도끼</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H17" s="1" t="e">
         <f>VLOOKUP(G17,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -3244,21 +3448,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>VLOOKUP(E18,TextTag!$A:$B,2,0)</f>
         <v>숙련 보병의 도끼</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H18" s="1" t="e">
         <f>VLOOKUP(G18,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -3276,21 +3480,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>VLOOKUP(E19,TextTag!$A:$B,2,0)</f>
         <v>하급 기사의 도끼</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H19" s="1" t="e">
         <f>VLOOKUP(G19,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -3308,21 +3512,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>VLOOKUP(E20,TextTag!$A:$B,2,0)</f>
         <v>기사의 도끼</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H20" s="1" t="e">
         <f>VLOOKUP(G20,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -3340,21 +3544,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>VLOOKUP(E21,TextTag!$A:$B,2,0)</f>
         <v>상급 기사의 도끼</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H21" s="1" t="e">
         <f>VLOOKUP(G21,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3372,21 +3576,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>VLOOKUP(E22,TextTag!$A:$B,2,0)</f>
         <v>후작의도끼</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H22" s="1" t="e">
         <f>VLOOKUP(G22,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3404,21 +3608,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>VLOOKUP(E23,TextTag!$A:$B,2,0)</f>
         <v>공작의 도끼</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H23" s="1" t="e">
         <f>VLOOKUP(G23,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -3436,21 +3640,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>VLOOKUP(E24,TextTag!$A:$B,2,0)</f>
         <v>왕자의 도끼</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H24" s="1" t="e">
         <f>VLOOKUP(G24,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3468,21 +3672,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>VLOOKUP(E25,TextTag!$A:$B,2,0)</f>
         <v>왕의 도끼</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H25" s="1" t="e">
         <f>VLOOKUP(G25,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -3500,21 +3704,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>VLOOKUP(E26,TextTag!$A:$B,2,0)</f>
         <v>전설의 도끼</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H26" s="1" t="e">
         <f>VLOOKUP(G26,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -3532,21 +3736,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F27" s="1" t="e">
         <f>VLOOKUP(E27,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="H27" s="1" t="e">
         <f>VLOOKUP(G27,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3564,21 +3768,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F28" s="1" t="e">
         <f>VLOOKUP(E28,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H28" s="1" t="e">
         <f>VLOOKUP(G28,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3596,21 +3800,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F29" s="1" t="e">
         <f>VLOOKUP(E29,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H29" s="1" t="e">
         <f>VLOOKUP(G29,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3628,21 +3832,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F30" s="1" t="e">
         <f>VLOOKUP(E30,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H30" s="1" t="e">
         <f>VLOOKUP(G30,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3660,21 +3864,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F31" s="1" t="e">
         <f>VLOOKUP(E31,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H31" s="1" t="e">
         <f>VLOOKUP(G31,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3692,21 +3896,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F32" s="1" t="e">
         <f>VLOOKUP(E32,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H32" s="1" t="e">
         <f>VLOOKUP(G32,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -3724,21 +3928,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F33" s="1" t="e">
         <f>VLOOKUP(E33,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H33" s="1" t="e">
         <f>VLOOKUP(G33,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -3756,21 +3960,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F34" s="1" t="e">
         <f>VLOOKUP(E34,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H34" s="1" t="e">
         <f>VLOOKUP(G34,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3788,21 +3992,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F35" s="1" t="e">
         <f>VLOOKUP(E35,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H35" s="1" t="e">
         <f>VLOOKUP(G35,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -3820,21 +4024,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F36" s="1" t="e">
         <f>VLOOKUP(E36,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H36" s="1" t="e">
         <f>VLOOKUP(G36,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -3852,21 +4056,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F37" s="1" t="e">
         <f>VLOOKUP(E37,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H37" s="1" t="e">
         <f>VLOOKUP(G37,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -3884,21 +4088,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F38" s="1" t="e">
         <f>VLOOKUP(E38,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H38" s="1" t="e">
         <f>VLOOKUP(G38,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -3916,21 +4120,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F39" s="1" t="e">
         <f>VLOOKUP(E39,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H39" s="1" t="e">
         <f>VLOOKUP(G39,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -3948,21 +4152,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F40" s="1" t="e">
         <f>VLOOKUP(E40,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H40" s="1" t="e">
         <f>VLOOKUP(G40,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -3980,21 +4184,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F41" s="1" t="e">
         <f>VLOOKUP(E41,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H41" s="1" t="e">
         <f>VLOOKUP(G41,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -4012,21 +4216,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F42" s="1" t="e">
         <f>VLOOKUP(E42,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H42" s="1" t="e">
         <f>VLOOKUP(G42,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -4044,21 +4248,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F43" s="1" t="e">
         <f>VLOOKUP(E43,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H43" s="1" t="e">
         <f>VLOOKUP(G43,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -4076,21 +4280,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F44" s="1" t="e">
         <f>VLOOKUP(E44,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H44" s="1" t="e">
         <f>VLOOKUP(G44,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -4108,21 +4312,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F45" s="1" t="e">
         <f>VLOOKUP(E45,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H45" s="1" t="e">
         <f>VLOOKUP(G45,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -4140,21 +4344,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F46" s="1" t="e">
         <f>VLOOKUP(E46,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H46" s="1" t="e">
         <f>VLOOKUP(G46,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -4172,21 +4376,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F47" s="1" t="e">
         <f>VLOOKUP(E47,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H47" s="1" t="e">
         <f>VLOOKUP(G47,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -4204,21 +4408,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F48" s="1" t="e">
         <f>VLOOKUP(E48,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H48" s="1" t="e">
         <f>VLOOKUP(G48,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -4236,21 +4440,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F49" s="1" t="e">
         <f>VLOOKUP(E49,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H49" s="1" t="e">
         <f>VLOOKUP(G49,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -4268,21 +4472,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F50" s="1" t="e">
         <f>VLOOKUP(E50,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H50" s="1" t="e">
         <f>VLOOKUP(G50,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -4300,21 +4504,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F51" s="1" t="e">
         <f>VLOOKUP(E51,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="H51" s="1" t="e">
         <f>VLOOKUP(G51,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -4332,21 +4536,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F52" s="1" t="e">
         <f>VLOOKUP(E52,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H52" s="1" t="e">
         <f>VLOOKUP(G52,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -4364,21 +4568,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F53" s="1" t="e">
         <f>VLOOKUP(E53,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H53" s="1" t="e">
         <f>VLOOKUP(G53,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -4396,21 +4600,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F54" s="1" t="e">
         <f>VLOOKUP(E54,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H54" s="1" t="e">
         <f>VLOOKUP(G54,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -4428,21 +4632,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F55" s="1" t="e">
         <f>VLOOKUP(E55,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="H55" s="1" t="e">
         <f>VLOOKUP(G55,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -4460,21 +4664,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F56" s="1" t="e">
         <f>VLOOKUP(E56,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H56" s="1" t="e">
         <f>VLOOKUP(G56,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -4492,21 +4696,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F57" s="1" t="e">
         <f>VLOOKUP(E57,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H57" s="1" t="e">
         <f>VLOOKUP(G57,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -4524,21 +4728,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F58" s="1" t="e">
         <f>VLOOKUP(E58,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H58" s="1" t="e">
         <f>VLOOKUP(G58,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -4556,21 +4760,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F59" s="1" t="e">
         <f>VLOOKUP(E59,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H59" s="1" t="e">
         <f>VLOOKUP(G59,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -4588,21 +4792,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F60" s="1" t="e">
         <f>VLOOKUP(E60,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H60" s="1" t="e">
         <f>VLOOKUP(G60,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -4620,21 +4824,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F61" s="1" t="e">
         <f>VLOOKUP(E61,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="H61" s="1" t="e">
         <f>VLOOKUP(G61,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -4652,21 +4856,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F62" s="1" t="e">
         <f>VLOOKUP(E62,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H62" s="1" t="e">
         <f>VLOOKUP(G62,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -4684,21 +4888,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F63" s="1" t="e">
         <f>VLOOKUP(E63,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="H63" s="1" t="e">
         <f>VLOOKUP(G63,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -4716,21 +4920,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F64" s="1" t="e">
         <f>VLOOKUP(E64,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H64" s="1" t="e">
         <f>VLOOKUP(G64,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -4748,21 +4952,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F65" s="1" t="e">
         <f>VLOOKUP(E65,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="H65" s="1" t="e">
         <f>VLOOKUP(G65,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -4780,21 +4984,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F66" s="1" t="e">
         <f>VLOOKUP(E66,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="H66" s="1" t="e">
         <f>VLOOKUP(G66,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -4812,21 +5016,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F67" s="1" t="e">
         <f>VLOOKUP(E67,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H67" s="1" t="e">
         <f>VLOOKUP(G67,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -4844,21 +5048,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F68" s="1" t="e">
         <f>VLOOKUP(E68,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H68" s="1" t="e">
         <f>VLOOKUP(G68,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -4876,21 +5080,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F69" s="1" t="e">
         <f>VLOOKUP(E69,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="H69" s="1" t="e">
         <f>VLOOKUP(G69,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -4908,21 +5112,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F70" s="1" t="e">
         <f>VLOOKUP(E70,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H70" s="1" t="e">
         <f>VLOOKUP(G70,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -4940,21 +5144,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F71" s="1" t="e">
         <f>VLOOKUP(E71,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="H71" s="1" t="e">
         <f>VLOOKUP(G71,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -4972,21 +5176,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F72" s="1" t="e">
         <f>VLOOKUP(E72,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H72" s="1" t="e">
         <f>VLOOKUP(G72,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -5004,21 +5208,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F73" s="1" t="e">
         <f>VLOOKUP(E73,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H73" s="1" t="e">
         <f>VLOOKUP(G73,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -5036,21 +5240,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F74" s="1" t="e">
         <f>VLOOKUP(E74,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="H74" s="1" t="e">
         <f>VLOOKUP(G74,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -5068,21 +5272,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F75" s="1" t="e">
         <f>VLOOKUP(E75,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H75" s="1" t="e">
         <f>VLOOKUP(G75,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -5100,21 +5304,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F76" s="1" t="e">
         <f>VLOOKUP(E76,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="H76" s="1" t="e">
         <f>VLOOKUP(G76,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -5132,21 +5336,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F77" s="1" t="e">
         <f>VLOOKUP(E77,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="H77" s="1" t="e">
         <f>VLOOKUP(G77,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -5164,21 +5368,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F78" s="1" t="e">
         <f>VLOOKUP(E78,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H78" s="1" t="e">
         <f>VLOOKUP(G78,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -5196,21 +5400,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F79" s="1" t="e">
         <f>VLOOKUP(E79,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H79" s="1" t="e">
         <f>VLOOKUP(G79,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -5228,21 +5432,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F80" s="1" t="e">
         <f>VLOOKUP(E80,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="H80" s="1" t="e">
         <f>VLOOKUP(G80,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5260,21 +5464,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F81" s="1" t="e">
         <f>VLOOKUP(E81,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="H81" s="1" t="e">
         <f>VLOOKUP(G81,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -5292,21 +5496,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F82" s="1" t="e">
         <f>VLOOKUP(E82,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="H82" s="1" t="e">
         <f>VLOOKUP(G82,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5324,21 +5528,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F83" s="1" t="e">
         <f>VLOOKUP(E83,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H83" s="1" t="e">
         <f>VLOOKUP(G83,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5356,21 +5560,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F84" s="1" t="e">
         <f>VLOOKUP(E84,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="H84" s="1" t="e">
         <f>VLOOKUP(G84,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -5388,21 +5592,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F85" s="1" t="e">
         <f>VLOOKUP(E85,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H85" s="1" t="e">
         <f>VLOOKUP(G85,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -5420,21 +5624,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F86" s="1" t="e">
         <f>VLOOKUP(E86,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H86" s="1" t="e">
         <f>VLOOKUP(G86,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -5452,21 +5656,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F87" s="1" t="e">
         <f>VLOOKUP(E87,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H87" s="1" t="e">
         <f>VLOOKUP(G87,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -5484,21 +5688,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F88" s="1" t="e">
         <f>VLOOKUP(E88,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H88" s="1" t="e">
         <f>VLOOKUP(G88,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -5516,21 +5720,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F89" s="1" t="e">
         <f>VLOOKUP(E89,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H89" s="1" t="e">
         <f>VLOOKUP(G89,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -5548,21 +5752,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F90" s="1" t="e">
         <f>VLOOKUP(E90,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H90" s="1" t="e">
         <f>VLOOKUP(G90,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -5580,21 +5784,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F91" s="1" t="e">
         <f>VLOOKUP(E91,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H91" s="1" t="e">
         <f>VLOOKUP(G91,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -5612,21 +5816,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F92" s="1" t="e">
         <f>VLOOKUP(E92,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H92" s="1" t="e">
         <f>VLOOKUP(G92,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -5644,21 +5848,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F93" s="1" t="e">
         <f>VLOOKUP(E93,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H93" s="1" t="e">
         <f>VLOOKUP(G93,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -5676,21 +5880,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F94" s="1" t="e">
         <f>VLOOKUP(E94,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H94" s="1" t="e">
         <f>VLOOKUP(G94,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -5708,21 +5912,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F95" s="1" t="e">
         <f>VLOOKUP(E95,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H95" s="1" t="e">
         <f>VLOOKUP(G95,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -5740,21 +5944,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F96" s="1" t="e">
         <f>VLOOKUP(E96,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H96" s="1" t="e">
         <f>VLOOKUP(G96,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -5772,21 +5976,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F97" s="1" t="e">
         <f>VLOOKUP(E97,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H97" s="1" t="e">
         <f>VLOOKUP(G97,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -5804,21 +6008,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F98" s="1" t="e">
         <f>VLOOKUP(E98,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H98" s="1" t="e">
         <f>VLOOKUP(G98,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -5836,21 +6040,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F99" s="1" t="e">
         <f>VLOOKUP(E99,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H99" s="1" t="e">
         <f>VLOOKUP(G99,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -5868,21 +6072,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F100" s="1" t="e">
         <f>VLOOKUP(E100,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H100" s="1" t="e">
         <f>VLOOKUP(G100,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -5900,21 +6104,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F101" s="1" t="e">
         <f>VLOOKUP(E101,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H101" s="1" t="e">
         <f>VLOOKUP(G101,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -5932,21 +6136,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F102" s="1" t="e">
         <f>VLOOKUP(E102,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H102" s="1" t="e">
         <f>VLOOKUP(G102,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -5964,21 +6168,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F103" s="1" t="e">
         <f>VLOOKUP(E103,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H103" s="1" t="e">
         <f>VLOOKUP(G103,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -5996,21 +6200,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F104" s="1" t="e">
         <f>VLOOKUP(E104,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H104" s="1" t="e">
         <f>VLOOKUP(G104,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -6023,8 +6227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5F6F4D-65E2-42F1-89B1-3A28518D62CE}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6041,7 +6245,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>36</v>
@@ -7897,7 +8101,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7997,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
@@ -8069,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
@@ -8141,7 +8345,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,TextTag!$A:$B,2,0)</f>
@@ -9117,10 +9321,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>37</v>
@@ -9170,14 +9374,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
@@ -9350,7 +9554,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>21</v>
@@ -9428,7 +9632,7 @@
         <v>64</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -9539,14 +9743,14 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
         <v>두 번째 퀘스트</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>VLOOKUP(E3,TextTag!$A:$B,2,0)</f>
@@ -9641,8 +9845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9684,52 +9888,52 @@
         <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -9806,7 +10010,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(B3,TextTag!$A:$B,2,0)</f>
@@ -9896,16 +10100,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy05\OneDrive\문서\GitHub\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842389AC-6875-4AA1-929F-A3722051846F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AB3721-4D4A-4FA1-90C8-A1FA26E1657B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="2565" windowWidth="20400" windowHeight="12675" firstSheet="2" activeTab="7" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="-28860" yWindow="3630" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="1" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="447">
   <si>
     <t>Equipment_Name_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,14 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Equipment_Res_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipment_Res_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_Name_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,33 +394,18 @@
     <t>Equipment_Name_3</t>
   </si>
   <si>
-    <t>Equipment_Res_3</t>
-  </si>
-  <si>
     <t>Equipment_Name_4</t>
   </si>
   <si>
-    <t>Equipment_Res_4</t>
-  </si>
-  <si>
     <t>Equipment_Name_5</t>
   </si>
   <si>
-    <t>Equipment_Res_5</t>
-  </si>
-  <si>
     <t>Equipment_Name_6</t>
   </si>
   <si>
-    <t>Equipment_Res_6</t>
-  </si>
-  <si>
     <t>Equipment_Name_7</t>
   </si>
   <si>
-    <t>Equipment_Res_7</t>
-  </si>
-  <si>
     <t>Equipment_Name_8</t>
   </si>
   <si>
@@ -1358,6 +1331,263 @@
   <si>
     <t>probGrade12</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_Bow_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썩은 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_Bow_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_Bow_3</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Bow_4</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Bow_5</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Bow_6</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Bow_7</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Bow_8</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Bow_9</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Bow_10</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Bow_11</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Bow_12</t>
+  </si>
+  <si>
+    <t>신참 사냥꾼의 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁병의 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련 사냥꾼의 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입 궁병의 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련 궁병의 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후작의 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공작의 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕자의 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕의 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설의 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_Crossbow_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_Crossbow_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹슨 석궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신참 사냥꾼의 석궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 석궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_Crossbow_3</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Crossbow_4</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Crossbow_5</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Crossbow_6</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Crossbow_7</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Crossbow_8</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Crossbow_9</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Crossbow_10</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Crossbow_11</t>
+  </si>
+  <si>
+    <t>Equipment_Name_Crossbow_12</t>
+  </si>
+  <si>
+    <t>숙련 사냥꾼의 석궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입 궁병의 석궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁병의 석궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련 궁병의 석궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후작의 석궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공작의 석궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕자의 석궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕의 석궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설의 석궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_MoneyBag_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_MoneyBag_2</t>
+  </si>
+  <si>
+    <t>Equipment_Name_MoneyBag_3</t>
+  </si>
+  <si>
+    <t>작은 금화 주머니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금화 주머니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 금화 주머니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_ExpBook_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치열한 전투 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생사가 걸린 전투 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res_Sword_1</t>
+  </si>
+  <si>
+    <t>Res_Sword_2</t>
+  </si>
+  <si>
+    <t>Res_Sword_3</t>
+  </si>
+  <si>
+    <t>Res_Sword_4</t>
+  </si>
+  <si>
+    <t>Res_Sword_5</t>
+  </si>
+  <si>
+    <t>Res_Sword_6</t>
+  </si>
+  <si>
+    <t>Res_Sword_7</t>
+  </si>
+  <si>
+    <t>Res_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Desc_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Name_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔히 거래에 사용되는 돈이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment_Name_ExpBook_2</t>
+  </si>
+  <si>
+    <t>Equipment_Name_ExpBook_3</t>
   </si>
 </sst>
 </file>
@@ -1856,22 +2086,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1879,19 +2109,19 @@
         <v>-1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1899,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1919,19 +2149,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1939,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2009,97 +2239,97 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -2221,16 +2451,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2326,19 +2556,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2346,14 +2576,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>VLOOKUP(B2,TextTag!$A:$B,2,0)</f>
         <v>???</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>VLOOKUP(D2,TextTag!$A:$B,2,0)</f>
@@ -2368,44 +2598,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375FEDA8-0451-4789-BF9C-DBB1721B45C7}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.625" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
     <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>87</v>
+        <v>442</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>443</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -2416,10 +2646,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
@@ -2427,10 +2657,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>2</v>
@@ -2438,10 +2668,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>2</v>
@@ -2449,10 +2679,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>2</v>
@@ -2460,10 +2690,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>2</v>
@@ -2471,10 +2701,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>2</v>
@@ -2482,10 +2712,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>2</v>
@@ -2493,10 +2723,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>2</v>
@@ -2504,10 +2734,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>2</v>
@@ -2515,10 +2745,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>2</v>
@@ -2526,10 +2756,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>2</v>
@@ -2537,10 +2767,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>2</v>
@@ -2548,10 +2778,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>2</v>
@@ -2559,10 +2789,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>2</v>
@@ -2570,10 +2800,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>2</v>
@@ -2581,10 +2811,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>2</v>
@@ -2592,10 +2822,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>2</v>
@@ -2603,10 +2833,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>2</v>
@@ -2614,10 +2844,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>2</v>
@@ -2625,10 +2855,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>2</v>
@@ -2636,10 +2866,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>2</v>
@@ -2647,10 +2877,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>2</v>
@@ -2658,10 +2888,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>2</v>
@@ -2669,200 +2899,541 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>14</v>
+        <v>376</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>339</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>346</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>342</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>344</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>349</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>17</v>
+        <v>382</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>18</v>
+        <v>393</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>22</v>
+        <v>383</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>23</v>
+        <v>394</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>24</v>
+        <v>384</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>25</v>
+        <v>395</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>298</v>
+        <v>385</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>297</v>
+        <v>386</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>299</v>
+        <v>397</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>27</v>
+        <v>387</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>28</v>
+        <v>398</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>246</v>
+        <v>399</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>247</v>
+        <v>401</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>73</v>
+        <v>400</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>358</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>361</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2875,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEAE22-5922-41C3-8363-1D72AEC2DD20}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2894,31 +3465,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2936,21 +3507,21 @@
         <v>돈</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>442</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
-        <v>돈</v>
+        <v>금화</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>VLOOKUP(G2,TextTag!$A:$B,2,0)</f>
         <v>처음 시작하는 모험가를 위해</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2968,7 +3539,7 @@
         <v>머지 아이템</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>VLOOKUP(E3,TextTag!$A:$B,2,0)</f>
@@ -2982,7 +3553,7 @@
         <v>#N/A</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3000,7 +3571,7 @@
         <v>머지 아이템</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>VLOOKUP(E4,TextTag!$A:$B,2,0)</f>
@@ -3014,7 +3585,7 @@
         <v>#N/A</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>5</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3032,21 +3603,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>VLOOKUP(E5,TextTag!$A:$B,2,0)</f>
         <v>신입 보병의 검</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H5" s="1" t="e">
         <f>VLOOKUP(G5,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>90</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3064,21 +3635,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>VLOOKUP(E6,TextTag!$A:$B,2,0)</f>
         <v>숙련 보병의 검</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="e">
         <f>VLOOKUP(G6,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>92</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3096,21 +3667,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>VLOOKUP(E7,TextTag!$A:$B,2,0)</f>
         <v>하급 기사의 검</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H7" s="1" t="e">
         <f>VLOOKUP(G7,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>94</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3128,21 +3699,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>VLOOKUP(E8,TextTag!$A:$B,2,0)</f>
         <v>기사의 검</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H8" s="1" t="e">
         <f>VLOOKUP(G8,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>96</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3160,21 +3731,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>VLOOKUP(E9,TextTag!$A:$B,2,0)</f>
         <v>상급 기사의 검</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H9" s="1" t="e">
         <f>VLOOKUP(G9,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>98</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3192,21 +3763,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>VLOOKUP(E10,TextTag!$A:$B,2,0)</f>
         <v>후작의검</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="e">
         <f>VLOOKUP(G10,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3224,21 +3795,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>VLOOKUP(E11,TextTag!$A:$B,2,0)</f>
         <v>공작의 검</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H11" s="1" t="e">
         <f>VLOOKUP(G11,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3256,21 +3827,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>VLOOKUP(E12,TextTag!$A:$B,2,0)</f>
         <v>왕자의 검</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H12" s="1" t="e">
         <f>VLOOKUP(G12,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3288,21 +3859,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>VLOOKUP(E13,TextTag!$A:$B,2,0)</f>
         <v>왕의 검</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H13" s="1" t="e">
         <f>VLOOKUP(G13,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3320,21 +3891,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>VLOOKUP(E14,TextTag!$A:$B,2,0)</f>
         <v>전설의 검</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H14" s="1" t="e">
         <f>VLOOKUP(G14,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3352,21 +3923,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>VLOOKUP(E15,TextTag!$A:$B,2,0)</f>
         <v>녹슨 도끼</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H15" s="1" t="e">
         <f>VLOOKUP(G15,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3384,21 +3955,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>VLOOKUP(E16,TextTag!$A:$B,2,0)</f>
         <v>민병의 도끼</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H16" s="1" t="e">
         <f>VLOOKUP(G16,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3416,21 +3987,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>VLOOKUP(E17,TextTag!$A:$B,2,0)</f>
         <v>신입 보병의 도끼</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H17" s="1" t="e">
         <f>VLOOKUP(G17,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -3448,21 +4019,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>VLOOKUP(E18,TextTag!$A:$B,2,0)</f>
         <v>숙련 보병의 도끼</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H18" s="1" t="e">
         <f>VLOOKUP(G18,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -3480,21 +4051,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>VLOOKUP(E19,TextTag!$A:$B,2,0)</f>
         <v>하급 기사의 도끼</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H19" s="1" t="e">
         <f>VLOOKUP(G19,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -3512,21 +4083,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>VLOOKUP(E20,TextTag!$A:$B,2,0)</f>
         <v>기사의 도끼</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H20" s="1" t="e">
         <f>VLOOKUP(G20,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -3544,21 +4115,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>VLOOKUP(E21,TextTag!$A:$B,2,0)</f>
         <v>상급 기사의 도끼</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H21" s="1" t="e">
         <f>VLOOKUP(G21,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3576,21 +4147,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>VLOOKUP(E22,TextTag!$A:$B,2,0)</f>
         <v>후작의도끼</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H22" s="1" t="e">
         <f>VLOOKUP(G22,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3608,21 +4179,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>VLOOKUP(E23,TextTag!$A:$B,2,0)</f>
         <v>공작의 도끼</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H23" s="1" t="e">
         <f>VLOOKUP(G23,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -3640,21 +4211,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>VLOOKUP(E24,TextTag!$A:$B,2,0)</f>
         <v>왕자의 도끼</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H24" s="1" t="e">
         <f>VLOOKUP(G24,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3672,21 +4243,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>VLOOKUP(E25,TextTag!$A:$B,2,0)</f>
         <v>왕의 도끼</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H25" s="1" t="e">
         <f>VLOOKUP(G25,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -3704,21 +4275,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>VLOOKUP(E26,TextTag!$A:$B,2,0)</f>
         <v>전설의 도끼</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H26" s="1" t="e">
         <f>VLOOKUP(G26,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -3736,21 +4307,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F27" s="1" t="e">
         <f>VLOOKUP(E27,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H27" s="1" t="e">
         <f>VLOOKUP(G27,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3768,21 +4339,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F28" s="1" t="e">
         <f>VLOOKUP(E28,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H28" s="1" t="e">
         <f>VLOOKUP(G28,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3800,21 +4371,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F29" s="1" t="e">
         <f>VLOOKUP(E29,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H29" s="1" t="e">
         <f>VLOOKUP(G29,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3832,21 +4403,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F30" s="1" t="e">
         <f>VLOOKUP(E30,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H30" s="1" t="e">
         <f>VLOOKUP(G30,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3864,21 +4435,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F31" s="1" t="e">
         <f>VLOOKUP(E31,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H31" s="1" t="e">
         <f>VLOOKUP(G31,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3896,21 +4467,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F32" s="1" t="e">
         <f>VLOOKUP(E32,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H32" s="1" t="e">
         <f>VLOOKUP(G32,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -3928,21 +4499,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F33" s="1" t="e">
         <f>VLOOKUP(E33,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H33" s="1" t="e">
         <f>VLOOKUP(G33,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -3960,21 +4531,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F34" s="1" t="e">
         <f>VLOOKUP(E34,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H34" s="1" t="e">
         <f>VLOOKUP(G34,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3992,21 +4563,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F35" s="1" t="e">
         <f>VLOOKUP(E35,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H35" s="1" t="e">
         <f>VLOOKUP(G35,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -4024,21 +4595,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F36" s="1" t="e">
         <f>VLOOKUP(E36,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H36" s="1" t="e">
         <f>VLOOKUP(G36,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -4056,21 +4627,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F37" s="1" t="e">
         <f>VLOOKUP(E37,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H37" s="1" t="e">
         <f>VLOOKUP(G37,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -4088,21 +4659,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F38" s="1" t="e">
         <f>VLOOKUP(E38,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H38" s="1" t="e">
         <f>VLOOKUP(G38,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -4120,21 +4691,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F39" s="1" t="e">
         <f>VLOOKUP(E39,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H39" s="1" t="e">
         <f>VLOOKUP(G39,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -4152,21 +4723,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F40" s="1" t="e">
         <f>VLOOKUP(E40,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H40" s="1" t="e">
         <f>VLOOKUP(G40,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -4184,21 +4755,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F41" s="1" t="e">
         <f>VLOOKUP(E41,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H41" s="1" t="e">
         <f>VLOOKUP(G41,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -4216,21 +4787,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F42" s="1" t="e">
         <f>VLOOKUP(E42,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H42" s="1" t="e">
         <f>VLOOKUP(G42,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -4248,21 +4819,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F43" s="1" t="e">
         <f>VLOOKUP(E43,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H43" s="1" t="e">
         <f>VLOOKUP(G43,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -4280,21 +4851,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F44" s="1" t="e">
         <f>VLOOKUP(E44,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H44" s="1" t="e">
         <f>VLOOKUP(G44,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -4312,21 +4883,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F45" s="1" t="e">
         <f>VLOOKUP(E45,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H45" s="1" t="e">
         <f>VLOOKUP(G45,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -4344,21 +4915,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F46" s="1" t="e">
         <f>VLOOKUP(E46,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H46" s="1" t="e">
         <f>VLOOKUP(G46,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -4376,21 +4947,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F47" s="1" t="e">
         <f>VLOOKUP(E47,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H47" s="1" t="e">
         <f>VLOOKUP(G47,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -4408,21 +4979,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F48" s="1" t="e">
         <f>VLOOKUP(E48,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H48" s="1" t="e">
         <f>VLOOKUP(G48,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -4440,21 +5011,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F49" s="1" t="e">
         <f>VLOOKUP(E49,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H49" s="1" t="e">
         <f>VLOOKUP(G49,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -4472,21 +5043,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F50" s="1" t="e">
         <f>VLOOKUP(E50,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H50" s="1" t="e">
         <f>VLOOKUP(G50,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -4504,21 +5075,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F51" s="1" t="e">
         <f>VLOOKUP(E51,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H51" s="1" t="e">
         <f>VLOOKUP(G51,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -4536,21 +5107,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F52" s="1" t="e">
         <f>VLOOKUP(E52,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H52" s="1" t="e">
         <f>VLOOKUP(G52,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -4568,21 +5139,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F53" s="1" t="e">
         <f>VLOOKUP(E53,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H53" s="1" t="e">
         <f>VLOOKUP(G53,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -4600,21 +5171,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F54" s="1" t="e">
         <f>VLOOKUP(E54,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H54" s="1" t="e">
         <f>VLOOKUP(G54,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -4632,21 +5203,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F55" s="1" t="e">
         <f>VLOOKUP(E55,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H55" s="1" t="e">
         <f>VLOOKUP(G55,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -4664,21 +5235,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F56" s="1" t="e">
         <f>VLOOKUP(E56,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H56" s="1" t="e">
         <f>VLOOKUP(G56,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -4696,21 +5267,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F57" s="1" t="e">
         <f>VLOOKUP(E57,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H57" s="1" t="e">
         <f>VLOOKUP(G57,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -4728,21 +5299,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F58" s="1" t="e">
         <f>VLOOKUP(E58,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H58" s="1" t="e">
         <f>VLOOKUP(G58,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -4760,21 +5331,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F59" s="1" t="e">
         <f>VLOOKUP(E59,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H59" s="1" t="e">
         <f>VLOOKUP(G59,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -4792,21 +5363,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F60" s="1" t="e">
         <f>VLOOKUP(E60,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H60" s="1" t="e">
         <f>VLOOKUP(G60,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -4824,21 +5395,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F61" s="1" t="e">
         <f>VLOOKUP(E61,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H61" s="1" t="e">
         <f>VLOOKUP(G61,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -4856,21 +5427,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F62" s="1" t="e">
         <f>VLOOKUP(E62,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H62" s="1" t="e">
         <f>VLOOKUP(G62,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -4888,21 +5459,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F63" s="1" t="e">
         <f>VLOOKUP(E63,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H63" s="1" t="e">
         <f>VLOOKUP(G63,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -4920,21 +5491,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F64" s="1" t="e">
         <f>VLOOKUP(E64,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H64" s="1" t="e">
         <f>VLOOKUP(G64,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -4952,21 +5523,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F65" s="1" t="e">
         <f>VLOOKUP(E65,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H65" s="1" t="e">
         <f>VLOOKUP(G65,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -4984,21 +5555,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F66" s="1" t="e">
         <f>VLOOKUP(E66,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H66" s="1" t="e">
         <f>VLOOKUP(G66,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -5016,21 +5587,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F67" s="1" t="e">
         <f>VLOOKUP(E67,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H67" s="1" t="e">
         <f>VLOOKUP(G67,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -5048,21 +5619,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F68" s="1" t="e">
         <f>VLOOKUP(E68,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H68" s="1" t="e">
         <f>VLOOKUP(G68,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -5080,21 +5651,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F69" s="1" t="e">
         <f>VLOOKUP(E69,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H69" s="1" t="e">
         <f>VLOOKUP(G69,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -5112,21 +5683,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F70" s="1" t="e">
         <f>VLOOKUP(E70,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H70" s="1" t="e">
         <f>VLOOKUP(G70,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -5144,21 +5715,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F71" s="1" t="e">
         <f>VLOOKUP(E71,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H71" s="1" t="e">
         <f>VLOOKUP(G71,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -5176,21 +5747,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F72" s="1" t="e">
         <f>VLOOKUP(E72,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H72" s="1" t="e">
         <f>VLOOKUP(G72,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -5208,21 +5779,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F73" s="1" t="e">
         <f>VLOOKUP(E73,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H73" s="1" t="e">
         <f>VLOOKUP(G73,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -5240,21 +5811,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F74" s="1" t="e">
         <f>VLOOKUP(E74,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H74" s="1" t="e">
         <f>VLOOKUP(G74,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -5272,21 +5843,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F75" s="1" t="e">
         <f>VLOOKUP(E75,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H75" s="1" t="e">
         <f>VLOOKUP(G75,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -5304,21 +5875,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F76" s="1" t="e">
         <f>VLOOKUP(E76,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H76" s="1" t="e">
         <f>VLOOKUP(G76,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -5336,21 +5907,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F77" s="1" t="e">
         <f>VLOOKUP(E77,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H77" s="1" t="e">
         <f>VLOOKUP(G77,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -5368,21 +5939,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F78" s="1" t="e">
         <f>VLOOKUP(E78,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H78" s="1" t="e">
         <f>VLOOKUP(G78,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -5400,21 +5971,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F79" s="1" t="e">
         <f>VLOOKUP(E79,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H79" s="1" t="e">
         <f>VLOOKUP(G79,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -5432,21 +6003,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F80" s="1" t="e">
         <f>VLOOKUP(E80,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H80" s="1" t="e">
         <f>VLOOKUP(G80,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5464,21 +6035,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F81" s="1" t="e">
         <f>VLOOKUP(E81,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H81" s="1" t="e">
         <f>VLOOKUP(G81,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -5496,21 +6067,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F82" s="1" t="e">
         <f>VLOOKUP(E82,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H82" s="1" t="e">
         <f>VLOOKUP(G82,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5528,21 +6099,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F83" s="1" t="e">
         <f>VLOOKUP(E83,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H83" s="1" t="e">
         <f>VLOOKUP(G83,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5560,21 +6131,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F84" s="1" t="e">
         <f>VLOOKUP(E84,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H84" s="1" t="e">
         <f>VLOOKUP(G84,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -5592,21 +6163,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F85" s="1" t="e">
         <f>VLOOKUP(E85,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H85" s="1" t="e">
         <f>VLOOKUP(G85,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -5624,21 +6195,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F86" s="1" t="e">
         <f>VLOOKUP(E86,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H86" s="1" t="e">
         <f>VLOOKUP(G86,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -5656,21 +6227,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F87" s="1" t="e">
         <f>VLOOKUP(E87,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H87" s="1" t="e">
         <f>VLOOKUP(G87,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -5688,21 +6259,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F88" s="1" t="e">
         <f>VLOOKUP(E88,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H88" s="1" t="e">
         <f>VLOOKUP(G88,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -5720,21 +6291,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F89" s="1" t="e">
         <f>VLOOKUP(E89,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H89" s="1" t="e">
         <f>VLOOKUP(G89,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -5752,21 +6323,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F90" s="1" t="e">
         <f>VLOOKUP(E90,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H90" s="1" t="e">
         <f>VLOOKUP(G90,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -5784,21 +6355,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F91" s="1" t="e">
         <f>VLOOKUP(E91,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H91" s="1" t="e">
         <f>VLOOKUP(G91,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -5816,21 +6387,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F92" s="1" t="e">
         <f>VLOOKUP(E92,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H92" s="1" t="e">
         <f>VLOOKUP(G92,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -5848,21 +6419,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F93" s="1" t="e">
         <f>VLOOKUP(E93,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H93" s="1" t="e">
         <f>VLOOKUP(G93,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -5880,21 +6451,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F94" s="1" t="e">
         <f>VLOOKUP(E94,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H94" s="1" t="e">
         <f>VLOOKUP(G94,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -5912,21 +6483,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F95" s="1" t="e">
         <f>VLOOKUP(E95,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H95" s="1" t="e">
         <f>VLOOKUP(G95,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -5944,21 +6515,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F96" s="1" t="e">
         <f>VLOOKUP(E96,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H96" s="1" t="e">
         <f>VLOOKUP(G96,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -5976,21 +6547,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F97" s="1" t="e">
         <f>VLOOKUP(E97,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H97" s="1" t="e">
         <f>VLOOKUP(G97,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -6008,21 +6579,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F98" s="1" t="e">
         <f>VLOOKUP(E98,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H98" s="1" t="e">
         <f>VLOOKUP(G98,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -6040,21 +6611,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F99" s="1" t="e">
         <f>VLOOKUP(E99,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H99" s="1" t="e">
         <f>VLOOKUP(G99,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -6072,21 +6643,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F100" s="1" t="e">
         <f>VLOOKUP(E100,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H100" s="1" t="e">
         <f>VLOOKUP(G100,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -6104,21 +6675,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F101" s="1" t="e">
         <f>VLOOKUP(E101,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H101" s="1" t="e">
         <f>VLOOKUP(G101,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -6136,21 +6707,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F102" s="1" t="e">
         <f>VLOOKUP(E102,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H102" s="1" t="e">
         <f>VLOOKUP(G102,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -6168,21 +6739,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F103" s="1" t="e">
         <f>VLOOKUP(E103,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H103" s="1" t="e">
         <f>VLOOKUP(G103,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -6200,21 +6771,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F104" s="1" t="e">
         <f>VLOOKUP(E104,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H104" s="1" t="e">
         <f>VLOOKUP(G104,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -6239,19 +6810,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -8101,7 +8672,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8127,70 +8698,70 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="Q1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -8201,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
@@ -8273,7 +8844,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
@@ -8345,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,TextTag!$A:$B,2,0)</f>
@@ -8417,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(C5,TextTag!$A:$B,2,0)</f>
@@ -8489,7 +9060,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(C6,TextTag!$A:$B,2,0)</f>
@@ -8561,7 +9132,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>VLOOKUP(C7,TextTag!$A:$B,2,0)</f>
@@ -8633,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(C8,TextTag!$A:$B,2,0)</f>
@@ -8705,7 +9276,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(C9,TextTag!$A:$B,2,0)</f>
@@ -8777,7 +9348,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP(C10,TextTag!$A:$B,2,0)</f>
@@ -8849,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>VLOOKUP(C11,TextTag!$A:$B,2,0)</f>
@@ -8921,7 +9492,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>VLOOKUP(C12,TextTag!$A:$B,2,0)</f>
@@ -8993,7 +9564,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(C13,TextTag!$A:$B,2,0)</f>
@@ -9065,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>VLOOKUP(C14,TextTag!$A:$B,2,0)</f>
@@ -9137,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>VLOOKUP(C15,TextTag!$A:$B,2,0)</f>
@@ -9209,7 +9780,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>VLOOKUP(C16,TextTag!$A:$B,2,0)</f>
@@ -9309,61 +9880,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -9374,21 +9945,21 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1">
         <v>-1</v>
@@ -9438,21 +10009,21 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
         <v>드레이코 왕국 보급관</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>VLOOKUP(E3,TextTag!$A:$B,2,0)</f>
         <v>드레이코 왕국 보급관</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -9497,6 +10068,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9542,97 +10114,97 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AE1" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -9643,14 +10215,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
         <v>첫 시작</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
@@ -9743,14 +10315,14 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
         <v>두 번째 퀘스트</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>VLOOKUP(E3,TextTag!$A:$B,2,0)</f>
@@ -9845,8 +10417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9859,7 +10431,7 @@
     <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="20.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="22.75" bestFit="1" customWidth="1"/>
@@ -9873,67 +10445,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -9941,14 +10513,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>VLOOKUP(B2,TextTag!$A:$B,2,0)</f>
         <v>던전1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
@@ -10010,14 +10582,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(B3,TextTag!$A:$B,2,0)</f>
         <v>던전2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
         <v>15</v>
@@ -10097,19 +10669,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy05\OneDrive\문서\GitHub\DesktopEquipmentMerge\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14DC5EA-99F1-446F-905C-2FBD98964054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8836F2BD-95D0-4048-9763-A7EF70D58368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="4470" yWindow="3945" windowWidth="20400" windowHeight="12675" firstSheet="1" activeTab="1" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="767">
   <si>
     <t>녹슨 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1281,11 +1281,6 @@
   </si>
   <si>
     <t>첫 거래</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비를 만드는 법을 알았으니 이걸로 뭘 할 수 있는지 알려주겠네.
-나에게 주면 그만한 돈을 챙겨주도록 하지.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1452,14 +1447,6 @@
     <t>Res_Axe_12</t>
   </si>
   <si>
-    <t>Item_Desc_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipment_Desc_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오래되어 녹슨 검이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2725,6 +2712,91 @@
   </si>
   <si>
     <t>traderType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 준 문양을 받았나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 문양과 돈이 있어야 다른 건물도 지을 수 있다네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일종의 허가증 같은 거라고 할 수 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 나머지 건물들도 지어보겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Desc_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Name_20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Desc_20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물을 건설하기 위해 필요한 왕국의 문장이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕국의 문장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고에 있던 장비가 바닥을 드러냈군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비를 구하기 위해선 사람을 보내야 해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 일에 능숙한 사람을 찾아볼까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비를 만드는 법을 알았으니 이걸로 뭘 할 수 있는지 알려주겠네.
+나에게 주면 필요한 걸 좀 챙겨주지.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3213,7 +3285,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="A12:E18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3318,8 +3390,12 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>754</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -4595,14 +4671,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(B3,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>VLOOKUP(D3,TextTag!$A:$B,2,0)</f>
@@ -4621,7 +4697,7 @@
         <v>???</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>VLOOKUP(D4,TextTag!$A:$B,2,0)</f>
@@ -4633,14 +4709,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B5,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>VLOOKUP(D5,TextTag!$A:$B,2,0)</f>
@@ -4652,14 +4728,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>VLOOKUP(B6,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>VLOOKUP(D6,TextTag!$A:$B,2,0)</f>
@@ -4671,14 +4747,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>VLOOKUP(B7,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>VLOOKUP(D7,TextTag!$A:$B,2,0)</f>
@@ -4690,14 +4766,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>VLOOKUP(B8,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>VLOOKUP(D8,TextTag!$A:$B,2,0)</f>
@@ -4709,14 +4785,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>VLOOKUP(B9,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>VLOOKUP(D9,TextTag!$A:$B,2,0)</f>
@@ -4728,14 +4804,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>VLOOKUP(B10,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>VLOOKUP(D10,TextTag!$A:$B,2,0)</f>
@@ -4747,14 +4823,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>VLOOKUP(B11,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>VLOOKUP(D11,TextTag!$A:$B,2,0)</f>
@@ -4766,14 +4842,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>VLOOKUP(B12,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>VLOOKUP(D12,TextTag!$A:$B,2,0)</f>
@@ -4785,14 +4861,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>VLOOKUP(B13,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>VLOOKUP(D13,TextTag!$A:$B,2,0)</f>
@@ -4804,14 +4880,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>VLOOKUP(B14,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP(D14,TextTag!$A:$B,2,0)</f>
@@ -4823,14 +4899,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>VLOOKUP(B15,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>VLOOKUP(D15,TextTag!$A:$B,2,0)</f>
@@ -4843,14 +4919,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>VLOOKUP(B16,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP(D16,TextTag!$A:$B,2,0)</f>
@@ -4862,14 +4938,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>VLOOKUP(B17,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>VLOOKUP(D17,TextTag!$A:$B,2,0)</f>
@@ -4881,14 +4957,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>VLOOKUP(B18,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>VLOOKUP(D18,TextTag!$A:$B,2,0)</f>
@@ -4900,14 +4976,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>VLOOKUP(B19,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>VLOOKUP(D19,TextTag!$A:$B,2,0)</f>
@@ -4919,14 +4995,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>VLOOKUP(B20,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>VLOOKUP(D20,TextTag!$A:$B,2,0)</f>
@@ -4938,14 +5014,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>VLOOKUP(B21,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>VLOOKUP(D21,TextTag!$A:$B,2,0)</f>
@@ -4957,14 +5033,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>VLOOKUP(B22,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>VLOOKUP(D22,TextTag!$A:$B,2,0)</f>
@@ -4976,14 +5052,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>VLOOKUP(B23,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E23" s="1" t="str">
         <f>VLOOKUP(D23,TextTag!$A:$B,2,0)</f>
@@ -4998,10 +5074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375FEDA8-0451-4789-BF9C-DBB1721B45C7}">
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5035,21 +5111,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>145</v>
+        <v>756</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>1</v>
@@ -5057,10 +5133,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>1</v>
@@ -5068,10 +5144,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>1</v>
@@ -5079,10 +5155,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>1</v>
@@ -5090,10 +5166,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>1</v>
@@ -5101,10 +5177,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>1</v>
@@ -5112,10 +5188,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>1</v>
@@ -5123,10 +5199,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>1</v>
@@ -5134,10 +5210,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>1</v>
@@ -5145,10 +5221,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>1</v>
@@ -5156,10 +5232,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>1</v>
@@ -5167,10 +5243,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
@@ -5178,10 +5254,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>1</v>
@@ -5189,10 +5265,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>1</v>
@@ -5200,10 +5276,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
@@ -5211,10 +5287,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>1</v>
@@ -5222,10 +5298,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>1</v>
@@ -5233,10 +5309,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>1</v>
@@ -5244,10 +5320,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>1</v>
@@ -5255,10 +5331,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1</v>
@@ -5266,10 +5342,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>1</v>
@@ -5277,10 +5353,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>180</v>
+        <v>190</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>1</v>
@@ -5288,10 +5364,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>1</v>
@@ -5299,10 +5375,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>1</v>
@@ -5310,10 +5386,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>1</v>
@@ -5321,10 +5397,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>1</v>
@@ -5332,10 +5408,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>1</v>
@@ -5343,10 +5419,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>1</v>
@@ -5354,10 +5430,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1</v>
@@ -5365,10 +5441,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>1</v>
@@ -5376,10 +5452,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>1</v>
@@ -5387,10 +5463,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>1</v>
@@ -5398,10 +5474,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>1</v>
@@ -5409,10 +5485,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>299</v>
+        <v>287</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>1</v>
@@ -5420,10 +5496,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>1</v>
@@ -5431,10 +5507,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>1</v>
@@ -5442,10 +5518,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>1</v>
@@ -5453,10 +5529,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>1</v>
@@ -5464,10 +5540,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>1</v>
@@ -5475,10 +5551,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>1</v>
@@ -5486,10 +5562,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>1</v>
@@ -5497,10 +5573,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>1</v>
@@ -5508,10 +5584,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>1</v>
@@ -5519,10 +5595,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>1</v>
@@ -5530,10 +5606,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>1</v>
@@ -5541,10 +5617,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>323</v>
+        <v>313</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>1</v>
@@ -5552,10 +5628,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>1</v>
@@ -5563,10 +5639,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>1</v>
@@ -5574,10 +5650,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>1</v>
@@ -5585,10 +5661,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>1</v>
@@ -5596,10 +5672,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>1</v>
@@ -5607,10 +5683,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>1</v>
@@ -5618,10 +5694,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>711</v>
+        <v>333</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>1</v>
@@ -5629,448 +5705,446 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>344</v>
+        <v>708</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>412</v>
+        <v>755</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C58" s="6"/>
+        <v>344</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>413</v>
+        <v>757</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>399</v>
+        <v>758</v>
       </c>
       <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C62" s="6"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C63" s="6"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C66" s="6"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C68" s="6"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C69" s="6"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>563</v>
+        <v>421</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>570</v>
+        <v>407</v>
       </c>
       <c r="C72" s="6"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>571</v>
+        <v>408</v>
       </c>
       <c r="C73" s="6"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C74" s="6"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C75" s="6"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C76" s="6"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C77" s="6"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C78" s="6"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="C79" s="6"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C80" s="6"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C81" s="6"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C82" s="6"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C83" s="6"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C84" s="6"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C85" s="6"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>488</v>
+        <v>579</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>491</v>
+        <v>586</v>
       </c>
       <c r="C86" s="6"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>489</v>
+        <v>580</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>492</v>
+        <v>587</v>
       </c>
       <c r="C87" s="6"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C88" s="6"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C89" s="6"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>646</v>
+        <v>487</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C90" s="6"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>647</v>
+        <v>490</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>591</v>
+        <v>491</v>
       </c>
       <c r="C91" s="6"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>229</v>
+        <v>643</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="C92" s="6"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>230</v>
+        <v>644</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>234</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="C93" s="6"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>724</v>
+        <v>232</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>725</v>
+        <v>233</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>363</v>
+        <v>238</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>728</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>727</v>
+        <v>243</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>729</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>17</v>
+        <v>722</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>349</v>
+        <v>723</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>724</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>11</v>
+        <v>726</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>357</v>
+        <v>766</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>11</v>
@@ -6078,18 +6152,18 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>351</v>
+        <v>193</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>355</v>
+        <v>194</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>356</v>
@@ -6100,21 +6174,21 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>592</v>
+        <v>355</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>11</v>
@@ -6122,21 +6196,21 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>498</v>
+        <v>358</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>497</v>
+        <v>361</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>499</v>
+        <v>360</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>500</v>
+        <v>589</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>11</v>
@@ -6144,10 +6218,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>11</v>
@@ -6155,10 +6229,10 @@
     </row>
     <row r="111" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>11</v>
@@ -6166,10 +6240,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>11</v>
@@ -6177,10 +6251,10 @@
     </row>
     <row r="113" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>11</v>
@@ -6188,21 +6262,21 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>11</v>
@@ -6210,21 +6284,21 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>11</v>
@@ -6232,10 +6306,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>11</v>
@@ -6243,10 +6317,10 @@
     </row>
     <row r="119" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>11</v>
@@ -6254,10 +6328,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>11</v>
@@ -6265,10 +6339,10 @@
     </row>
     <row r="121" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>11</v>
@@ -6276,10 +6350,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>11</v>
@@ -6287,10 +6361,10 @@
     </row>
     <row r="123" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>11</v>
@@ -6298,10 +6372,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>11</v>
@@ -6309,10 +6383,10 @@
     </row>
     <row r="125" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>11</v>
@@ -6320,10 +6394,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>11</v>
@@ -6331,10 +6405,10 @@
     </row>
     <row r="127" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>11</v>
@@ -6342,10 +6416,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>11</v>
@@ -6353,10 +6427,10 @@
     </row>
     <row r="129" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>11</v>
@@ -6364,10 +6438,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>671</v>
+        <v>533</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>11</v>
@@ -6375,10 +6449,10 @@
     </row>
     <row r="131" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>11</v>
@@ -6386,10 +6460,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>593</v>
+        <v>668</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>11</v>
@@ -6397,10 +6471,10 @@
     </row>
     <row r="133" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>11</v>
@@ -6408,10 +6482,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>672</v>
+        <v>538</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>590</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>11</v>
@@ -6419,10 +6493,10 @@
     </row>
     <row r="135" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>677</v>
+        <v>591</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>11</v>
@@ -6430,18 +6504,18 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>674</v>
@@ -6452,21 +6526,21 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>11</v>
@@ -6474,21 +6548,21 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>11</v>
@@ -6496,10 +6570,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>11</v>
@@ -6507,10 +6581,10 @@
     </row>
     <row r="143" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>11</v>
@@ -6518,21 +6592,21 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>11</v>
@@ -6540,21 +6614,21 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>11</v>
@@ -6562,10 +6636,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>11</v>
@@ -6573,10 +6647,10 @@
     </row>
     <row r="149" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>11</v>
@@ -6584,10 +6658,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>679</v>
+        <v>553</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>11</v>
@@ -6595,10 +6669,10 @@
     </row>
     <row r="151" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>680</v>
+        <v>554</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>11</v>
@@ -6606,21 +6680,21 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>11</v>
@@ -6628,21 +6702,21 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>11</v>
@@ -6650,21 +6724,21 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>11</v>
@@ -6672,21 +6746,21 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>11</v>
@@ -6694,21 +6768,21 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>364</v>
+        <v>686</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>678</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>373</v>
+        <v>687</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>679</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>11</v>
@@ -6716,10 +6790,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>11</v>
@@ -6727,10 +6801,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>366</v>
+        <v>144</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>11</v>
@@ -6738,10 +6812,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>11</v>
@@ -6749,10 +6823,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>11</v>
@@ -6760,10 +6834,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>11</v>
@@ -6771,10 +6845,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>11</v>
@@ -6782,10 +6856,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>11</v>
@@ -6793,10 +6867,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>11</v>
@@ -6804,10 +6878,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>64</v>
+        <v>370</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>65</v>
+        <v>379</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>11</v>
@@ -6815,10 +6889,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>66</v>
+        <v>371</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>67</v>
+        <v>380</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>11</v>
@@ -6826,10 +6900,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>11</v>
@@ -6837,43 +6911,43 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>252</v>
+        <v>66</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>254</v>
+        <v>68</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>712</v>
+        <v>69</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>383</v>
+        <v>252</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>595</v>
+        <v>253</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>596</v>
+        <v>709</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>255</v>
@@ -6881,10 +6955,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>597</v>
+        <v>382</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>255</v>
@@ -6892,10 +6966,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>599</v>
+        <v>381</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>255</v>
@@ -6903,10 +6977,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>723</v>
+        <v>595</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>255</v>
@@ -6914,10 +6988,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>255</v>
@@ -6925,10 +6999,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>610</v>
+        <v>720</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>255</v>
@@ -6936,10 +7010,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>255</v>
@@ -6947,10 +7021,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>255</v>
@@ -6958,10 +7032,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>255</v>
@@ -6969,10 +7043,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>255</v>
@@ -6980,10 +7054,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>255</v>
@@ -6991,32 +7065,32 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>731</v>
+        <v>611</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>619</v>
+        <v>605</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>612</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>620</v>
+        <v>613</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>728</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>255</v>
@@ -7024,32 +7098,32 @@
     </row>
     <row r="190" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>255</v>
@@ -7057,10 +7131,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>255</v>
@@ -7068,10 +7142,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>736</v>
+        <v>622</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>737</v>
+        <v>623</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>255</v>
@@ -7079,10 +7153,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>741</v>
+        <v>624</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>744</v>
+        <v>625</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>255</v>
@@ -7090,12 +7164,111 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C196" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7107,10 +7280,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEAE22-5922-41C3-8363-1D72AEC2DD20}">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7177,11 +7350,11 @@
         <v>금화</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H2" s="1" t="e">
+        <v>755</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <f>VLOOKUP(G2,TextTag!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>흔히 거래에 사용되는 돈이다.</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>341</v>
@@ -7209,7 +7382,7 @@
         <v>녹슨 검</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H3" s="1" t="str">
         <f>VLOOKUP(G3,TextTag!$A:$B,2,0)</f>
@@ -7241,7 +7414,7 @@
         <v>민병의 검</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H4" s="1" t="str">
         <f>VLOOKUP(G4,TextTag!$A:$B,2,0)</f>
@@ -7273,7 +7446,7 @@
         <v>신입 보병의 검</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>VLOOKUP(G5,TextTag!$A:$B,2,0)</f>
@@ -7305,7 +7478,7 @@
         <v>숙련 보병의 검</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>VLOOKUP(G6,TextTag!$A:$B,2,0)</f>
@@ -7337,7 +7510,7 @@
         <v>하급 기사의 검</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>VLOOKUP(G7,TextTag!$A:$B,2,0)</f>
@@ -7369,7 +7542,7 @@
         <v>기사의 검</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>VLOOKUP(G8,TextTag!$A:$B,2,0)</f>
@@ -7401,7 +7574,7 @@
         <v>상급 기사의 검</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>VLOOKUP(G9,TextTag!$A:$B,2,0)</f>
@@ -7433,14 +7606,14 @@
         <v>후작의검</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H10" s="1" t="e">
         <f>VLOOKUP(G10,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -7465,14 +7638,14 @@
         <v>공작의 검</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H11" s="1" t="e">
         <f>VLOOKUP(G11,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -7497,14 +7670,14 @@
         <v>왕자의 검</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H12" s="1" t="e">
         <f>VLOOKUP(G12,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -7529,14 +7702,14 @@
         <v>왕의 검</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H13" s="1" t="e">
         <f>VLOOKUP(G13,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -7561,14 +7734,14 @@
         <v>전설의 검</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H14" s="1" t="e">
         <f>VLOOKUP(G14,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -7593,14 +7766,14 @@
         <v>녹슨 도끼</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>VLOOKUP(G15,TextTag!$A:$B,2,0)</f>
         <v>오래되어 녹슨 도끼다.</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -7625,14 +7798,14 @@
         <v>민병의 도끼</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H16" s="1" t="str">
         <f>VLOOKUP(G16,TextTag!$A:$B,2,0)</f>
         <v>민병들이 사용하는 도끼다.</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -7657,14 +7830,14 @@
         <v>신입 보병의 도끼</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H17" s="1" t="str">
         <f>VLOOKUP(G17,TextTag!$A:$B,2,0)</f>
         <v>신입 보병이 사용하는 도끼다.</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -7689,14 +7862,14 @@
         <v>숙련 보병의 도끼</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>VLOOKUP(G18,TextTag!$A:$B,2,0)</f>
         <v>숙련 보병이 사용하는 도끼다.</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -7721,14 +7894,14 @@
         <v>하급 기사의 도끼</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>VLOOKUP(G19,TextTag!$A:$B,2,0)</f>
         <v>하급 기사가 사용하는 도끼다.</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -7753,14 +7926,14 @@
         <v>기사의 도끼</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H20" s="1" t="str">
         <f>VLOOKUP(G20,TextTag!$A:$B,2,0)</f>
         <v>기사가 사용하는 도끼다.</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -7785,14 +7958,14 @@
         <v>상급 기사의 도끼</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H21" s="1" t="str">
         <f>VLOOKUP(G21,TextTag!$A:$B,2,0)</f>
         <v>상급 기사가 사용하는 도끼다.</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -7817,14 +7990,14 @@
         <v>후작의도끼</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H22" s="1" t="e">
         <f>VLOOKUP(G22,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -7849,14 +8022,14 @@
         <v>공작의 도끼</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H23" s="1" t="e">
         <f>VLOOKUP(G23,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -7881,14 +8054,14 @@
         <v>왕자의 도끼</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H24" s="1" t="e">
         <f>VLOOKUP(G24,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -7913,14 +8086,14 @@
         <v>왕의 도끼</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H25" s="1" t="e">
         <f>VLOOKUP(G25,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -7945,14 +8118,14 @@
         <v>전설의 도끼</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H26" s="1" t="e">
         <f>VLOOKUP(G26,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -7977,14 +8150,14 @@
         <v>썩은 활</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H27" s="1" t="str">
         <f>VLOOKUP(G27,TextTag!$A:$B,2,0)</f>
         <v>활대가 상해 위력이 약한 활이다.</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -8002,21 +8175,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>VLOOKUP(E28,TextTag!$A:$B,2,0)</f>
         <v>신참 사냥꾼의 활</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H28" s="1" t="str">
         <f>VLOOKUP(G28,TextTag!$A:$B,2,0)</f>
         <v>신참 사냥꾼이 사용하는 활이다.</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -8041,14 +8214,14 @@
         <v>사냥꾼의 활</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>VLOOKUP(G29,TextTag!$A:$B,2,0)</f>
         <v>사낭꾼이 사용하는 활이다.</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -8073,14 +8246,14 @@
         <v>숙련 사냥꾼의 활</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H30" s="1" t="str">
         <f>VLOOKUP(G30,TextTag!$A:$B,2,0)</f>
         <v>숙련된 사낭꾼이 사용하는 활이다.</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -8105,14 +8278,14 @@
         <v>신입 궁병의 활</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H31" s="1" t="str">
         <f>VLOOKUP(G31,TextTag!$A:$B,2,0)</f>
         <v>신입 궁병이 사용하는 활이다.</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -8137,14 +8310,14 @@
         <v>궁병의 활</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H32" s="1" t="str">
         <f>VLOOKUP(G32,TextTag!$A:$B,2,0)</f>
         <v>궁병이 사용하는 활이다.</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -8169,14 +8342,14 @@
         <v>숙련 궁병의 활</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H33" s="1" t="str">
         <f>VLOOKUP(G33,TextTag!$A:$B,2,0)</f>
         <v>숙련 궁병이 사용하는 활이다.</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -8201,14 +8374,14 @@
         <v>후작의 활</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H34" s="1" t="e">
         <f>VLOOKUP(G34,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -8233,14 +8406,14 @@
         <v>공작의 활</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H35" s="1" t="e">
         <f>VLOOKUP(G35,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -8265,14 +8438,14 @@
         <v>왕자의 활</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H36" s="1" t="e">
         <f>VLOOKUP(G36,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -8297,14 +8470,14 @@
         <v>왕의 활</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H37" s="1" t="e">
         <f>VLOOKUP(G37,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -8329,14 +8502,14 @@
         <v>전설의 활</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="H38" s="1" t="e">
         <f>VLOOKUP(G38,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -8361,14 +8534,14 @@
         <v>녹슨 석궁</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H39" s="1" t="str">
         <f>VLOOKUP(G39,TextTag!$A:$B,2,0)</f>
         <v>녹이 슬어 위력이 약해진 석궁이다.</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -8386,21 +8559,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F40" s="1" t="str">
         <f>VLOOKUP(E40,TextTag!$A:$B,2,0)</f>
         <v>신참 사냥꾼의 석궁</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H40" s="1" t="str">
         <f>VLOOKUP(G40,TextTag!$A:$B,2,0)</f>
         <v>신참 사냥꾼이 사용하는 석궁이다.</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -8425,14 +8598,14 @@
         <v>사냥꾼의 석궁</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H41" s="1" t="str">
         <f>VLOOKUP(G41,TextTag!$A:$B,2,0)</f>
         <v>사낭꾼이 사용하는 석궁이다.</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -8457,14 +8630,14 @@
         <v>숙련 사냥꾼의 석궁</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H42" s="1" t="str">
         <f>VLOOKUP(G42,TextTag!$A:$B,2,0)</f>
         <v>숙련된 사낭꾼이 사용하는 석궁이다.</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -8489,14 +8662,14 @@
         <v>신입 궁병의 석궁</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H43" s="1" t="str">
         <f>VLOOKUP(G43,TextTag!$A:$B,2,0)</f>
         <v>신입 궁병이 사용하는 석궁이다.</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -8521,14 +8694,14 @@
         <v>궁병의 석궁</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H44" s="1" t="str">
         <f>VLOOKUP(G44,TextTag!$A:$B,2,0)</f>
         <v>궁병이 사용하는 석궁이다.</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -8553,14 +8726,14 @@
         <v>숙련 궁병의 석궁</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H45" s="1" t="str">
         <f>VLOOKUP(G45,TextTag!$A:$B,2,0)</f>
         <v>숙련 궁병이 사용하는 석궁이다.</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -8585,14 +8758,14 @@
         <v>후작의 석궁</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H46" s="1" t="e">
         <f>VLOOKUP(G46,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -8617,14 +8790,14 @@
         <v>공작의 석궁</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H47" s="1" t="e">
         <f>VLOOKUP(G47,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -8649,14 +8822,14 @@
         <v>왕자의 석궁</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H48" s="1" t="e">
         <f>VLOOKUP(G48,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -8681,14 +8854,14 @@
         <v>왕의 석궁</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H49" s="1" t="e">
         <f>VLOOKUP(G49,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -8713,14 +8886,14 @@
         <v>전설의 석궁</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H50" s="1" t="e">
         <f>VLOOKUP(G50,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -10281,14 +10454,14 @@
         <v>전투 기록</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H99" s="1" t="str">
         <f>VLOOKUP(G99,TextTag!$A:$B,2,0)</f>
         <v>용병의 경험치를 조금 올려주는 전투 기록이다.</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -10313,14 +10486,14 @@
         <v>치열한 전투 기록</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H100" s="1" t="str">
         <f>VLOOKUP(G100,TextTag!$A:$B,2,0)</f>
         <v>용병의 경험치를 적당히 올려주는 전투 기록이다.</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -10345,14 +10518,14 @@
         <v>생사를 다툰 전투 기록</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H101" s="1" t="str">
         <f>VLOOKUP(G101,TextTag!$A:$B,2,0)</f>
         <v>용병의 경험치를 많이 올려주는 전투 기록이다.</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -10377,14 +10550,14 @@
         <v>작은 금화 주머니</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H102" s="1" t="str">
         <f>VLOOKUP(G102,TextTag!$A:$B,2,0)</f>
         <v>금이 담긴 자루다.</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -10409,14 +10582,14 @@
         <v>금화 주머니</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H103" s="1" t="str">
         <f>VLOOKUP(G103,TextTag!$A:$B,2,0)</f>
         <v>금이 많이 담긴 자루다.</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -10441,14 +10614,46 @@
         <v>큰 금화 주머니</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H104" s="1" t="str">
         <f>VLOOKUP(G104,TextTag!$A:$B,2,0)</f>
         <v>금이 꽉찬 자루다.</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f>VLOOKUP(C105,Reference!$D:$E,2,0)</f>
+        <v>퀘스트 아이템</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f>VLOOKUP(E105,TextTag!$A:$B,2,0)</f>
+        <v>큰 금화 주머니</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H105" s="1" t="str">
+        <f>VLOOKUP(G105,TextTag!$A:$B,2,0)</f>
+        <v>금이 꽉찬 자루다.</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -10461,8 +10666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5F6F4D-65E2-42F1-89B1-3A28518D62CE}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12334,8 +12539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA3DF29-7E31-401A-BBF8-E5BBCFA00E79}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12867,7 +13072,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(C8,TextTag!$A:$B,2,0)</f>
@@ -12939,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(C9,TextTag!$A:$B,2,0)</f>
@@ -13011,7 +13216,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP(C10,TextTag!$A:$B,2,0)</f>
@@ -13083,24 +13288,24 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>VLOOKUP(C11,TextTag!$A:$B,2,0)</f>
         <v>여관</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>VLOOKUP(E11,Reference!$A:$B,2,0)</f>
-        <v>미션 클리어</v>
+        <v>건물 레벨</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
         <v>-1</v>
@@ -13155,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>VLOOKUP(C12,TextTag!$A:$B,2,0)</f>
@@ -13227,7 +13432,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(C13,TextTag!$A:$B,2,0)</f>
@@ -13299,7 +13504,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>VLOOKUP(C14,TextTag!$A:$B,2,0)</f>
@@ -13371,7 +13576,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>VLOOKUP(C15,TextTag!$A:$B,2,0)</f>
@@ -13443,7 +13648,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>VLOOKUP(C16,TextTag!$A:$B,2,0)</f>
@@ -13608,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
@@ -13622,7 +13827,7 @@
         <v>#N/A</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="H2" s="1">
         <v>-1</v>
@@ -13672,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
@@ -13686,7 +13891,7 @@
         <v>#N/A</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -13736,7 +13941,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,TextTag!$A:$B,2,0)</f>
@@ -13750,7 +13955,7 @@
         <v>#N/A</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -13800,7 +14005,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(C5,TextTag!$A:$B,2,0)</f>
@@ -13814,7 +14019,7 @@
         <v>#N/A</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -13864,7 +14069,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(C6,TextTag!$A:$B,2,0)</f>
@@ -13878,7 +14083,7 @@
         <v>#N/A</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -13931,8 +14136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF15104-731A-4C98-BA74-8497E4F21D42}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13972,7 +14177,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>27</v>
@@ -14082,7 +14287,7 @@
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
         <v>장비를 만드는 법을 알았으니 이걸로 뭘 할 수 있는지 알려주겠네.
-나에게 주면 그만한 돈을 챙겨주도록 하지.</v>
+나에게 주면 필요한 걸 좀 챙겨주지.</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -14142,16 +14347,16 @@
         <v>-1</v>
       </c>
       <c r="Y2" s="1">
-        <v>0</v>
+        <v>20001</v>
       </c>
       <c r="Z2" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="1">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="AC2" s="1">
         <v>-1</v>
@@ -14271,14 +14476,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,TextTag!$A:$B,2,0)</f>
         <v>소개</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>VLOOKUP(E4,TextTag!$A:$B,2,0)</f>
@@ -14373,14 +14578,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(C5,TextTag!$A:$B,2,0)</f>
         <v>보급 요청 1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>VLOOKUP(E5,TextTag!$A:$B,2,0)</f>
@@ -14475,14 +14680,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(C6,TextTag!$A:$B,2,0)</f>
         <v>보급 요청 2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>VLOOKUP(E6,TextTag!$A:$B,2,0)</f>
@@ -14576,14 +14781,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>VLOOKUP(C7,TextTag!$A:$B,2,0)</f>
         <v>신참 보급</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>VLOOKUP(E7,TextTag!$A:$B,2,0)</f>
@@ -14677,14 +14882,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(C8,TextTag!$A:$B,2,0)</f>
         <v>원정 준비</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>VLOOKUP(E8,TextTag!$A:$B,2,0)</f>
@@ -14777,14 +14982,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(C9,TextTag!$A:$B,2,0)</f>
         <v>소문</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>VLOOKUP(E9,TextTag!$A:$B,2,0)</f>
@@ -14878,14 +15083,14 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP(C10,TextTag!$A:$B,2,0)</f>
         <v>추가 검증</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>VLOOKUP(E10,TextTag!$A:$B,2,0)</f>
@@ -14979,14 +15184,14 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>VLOOKUP(C11,TextTag!$A:$B,2,0)</f>
         <v>추가 검증 2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>VLOOKUP(E11,TextTag!$A:$B,2,0)</f>
@@ -15080,14 +15285,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>VLOOKUP(C12,TextTag!$A:$B,2,0)</f>
         <v>추가 검증 3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>VLOOKUP(E12,TextTag!$A:$B,2,0)</f>
@@ -15181,14 +15386,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(C13,TextTag!$A:$B,2,0)</f>
         <v>활 부족</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>VLOOKUP(E13,TextTag!$A:$B,2,0)</f>
@@ -15281,14 +15486,14 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>VLOOKUP(C14,TextTag!$A:$B,2,0)</f>
         <v>검 부족</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>VLOOKUP(E14,TextTag!$A:$B,2,0)</f>
@@ -15381,14 +15586,14 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>VLOOKUP(C15,TextTag!$A:$B,2,0)</f>
         <v>전투 임박</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>VLOOKUP(E15,TextTag!$A:$B,2,0)</f>
@@ -15481,14 +15686,14 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>VLOOKUP(C16,TextTag!$A:$B,2,0)</f>
         <v>석궁에 대하여</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>VLOOKUP(E16,TextTag!$A:$B,2,0)</f>
@@ -15581,14 +15786,14 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>VLOOKUP(C17,TextTag!$A:$B,2,0)</f>
         <v>흥미</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>VLOOKUP(E17,TextTag!$A:$B,2,0)</f>
@@ -15681,14 +15886,14 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>VLOOKUP(C18,TextTag!$A:$B,2,0)</f>
         <v>더 좋은 석궁</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>VLOOKUP(E18,TextTag!$A:$B,2,0)</f>
@@ -15781,14 +15986,14 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>VLOOKUP(C19,TextTag!$A:$B,2,0)</f>
         <v>대규모 요청</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>VLOOKUP(E19,TextTag!$A:$B,2,0)</f>
@@ -15882,14 +16087,14 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>VLOOKUP(C20,TextTag!$A:$B,2,0)</f>
         <v>보급 요청 3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>VLOOKUP(E20,TextTag!$A:$B,2,0)</f>
@@ -15982,14 +16187,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>VLOOKUP(C21,TextTag!$A:$B,2,0)</f>
         <v>대결 구도</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>VLOOKUP(E21,TextTag!$A:$B,2,0)</f>
@@ -16084,14 +16289,14 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>VLOOKUP(C22,TextTag!$A:$B,2,0)</f>
         <v>대규모 요청 2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>VLOOKUP(E22,TextTag!$A:$B,2,0)</f>
@@ -16185,14 +16390,14 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>VLOOKUP(C23,TextTag!$A:$B,2,0)</f>
         <v>대규모 요청 3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>VLOOKUP(E23,TextTag!$A:$B,2,0)</f>
@@ -16286,14 +16491,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D24" s="1" t="str">
         <f>VLOOKUP(C24,TextTag!$A:$B,2,0)</f>
         <v>대결 구도 2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>VLOOKUP(E24,TextTag!$A:$B,2,0)</f>
@@ -16388,14 +16593,14 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>VLOOKUP(C25,TextTag!$A:$B,2,0)</f>
         <v>개전</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>VLOOKUP(E25,TextTag!$A:$B,2,0)</f>
@@ -16489,14 +16694,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D26" s="1" t="str">
         <f>VLOOKUP(C26,TextTag!$A:$B,2,0)</f>
         <v>손실 보충</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>VLOOKUP(E26,TextTag!$A:$B,2,0)</f>
@@ -16590,14 +16795,14 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D27" s="1" t="str">
         <f>VLOOKUP(C27,TextTag!$A:$B,2,0)</f>
         <v>손실 보충 2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>VLOOKUP(E27,TextTag!$A:$B,2,0)</f>
@@ -16691,14 +16896,14 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D28" s="1" t="str">
         <f>VLOOKUP(C28,TextTag!$A:$B,2,0)</f>
         <v>원정 보충</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>VLOOKUP(E28,TextTag!$A:$B,2,0)</f>
@@ -16793,14 +16998,14 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D29" s="1" t="str">
         <f>VLOOKUP(C29,TextTag!$A:$B,2,0)</f>
         <v>손실 보충 3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F29" s="1" t="str">
         <f>VLOOKUP(E29,TextTag!$A:$B,2,0)</f>
@@ -16894,14 +17099,14 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>VLOOKUP(C30,TextTag!$A:$B,2,0)</f>
         <v>선물</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F30" s="1" t="str">
         <f>VLOOKUP(E30,TextTag!$A:$B,2,0)</f>
@@ -16996,14 +17201,14 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D31" s="1" t="str">
         <f>VLOOKUP(C31,TextTag!$A:$B,2,0)</f>
         <v>선물 2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F31" s="1" t="str">
         <f>VLOOKUP(E31,TextTag!$A:$B,2,0)</f>
@@ -17332,7 +17537,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>VLOOKUP(B4,TextTag!$A:$B,2,0)</f>
@@ -17401,7 +17606,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B5,TextTag!$A:$B,2,0)</f>
@@ -17470,7 +17675,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>VLOOKUP(B6,TextTag!$A:$B,2,0)</f>
@@ -17539,7 +17744,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>VLOOKUP(B7,TextTag!$A:$B,2,0)</f>
@@ -17608,7 +17813,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>VLOOKUP(B8,TextTag!$A:$B,2,0)</f>
@@ -17677,7 +17882,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>VLOOKUP(B9,TextTag!$A:$B,2,0)</f>
@@ -17746,7 +17951,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>VLOOKUP(B10,TextTag!$A:$B,2,0)</f>
@@ -17815,7 +18020,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>VLOOKUP(B11,TextTag!$A:$B,2,0)</f>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy05\OneDrive\문서\GitHub\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8836F2BD-95D0-4048-9763-A7EF70D58368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD17BE-FDA2-49E2-B584-6B01E46BE5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="3945" windowWidth="20400" windowHeight="12675" firstSheet="1" activeTab="1" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -632,10 +632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>후작의검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공작의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,9 +671,6 @@
   </si>
   <si>
     <t>상급 기사의 도끼</t>
-  </si>
-  <si>
-    <t>후작의도끼</t>
   </si>
   <si>
     <t>공작의 도끼</t>
@@ -2797,6 +2790,14 @@
   <si>
     <t>장비를 만드는 법을 알았으니 이걸로 뭘 할 수 있는지 알려주겠네.
 나에게 주면 필요한 걸 좀 챙겨주지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후작의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후작의 도끼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3394,7 +3395,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3461,94 +3462,94 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -4638,13 +4639,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4652,14 +4653,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>VLOOKUP(B2,TextTag!$A:$B,2,0)</f>
         <v>???</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>VLOOKUP(D2,TextTag!$A:$B,2,0)</f>
@@ -4671,14 +4672,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(B3,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>VLOOKUP(D3,TextTag!$A:$B,2,0)</f>
@@ -4690,14 +4691,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>VLOOKUP(B4,TextTag!$A:$B,2,0)</f>
         <v>???</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>VLOOKUP(D4,TextTag!$A:$B,2,0)</f>
@@ -4709,14 +4710,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B5,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>VLOOKUP(D5,TextTag!$A:$B,2,0)</f>
@@ -4728,14 +4729,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>VLOOKUP(B6,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>VLOOKUP(D6,TextTag!$A:$B,2,0)</f>
@@ -4747,14 +4748,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>VLOOKUP(B7,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>VLOOKUP(D7,TextTag!$A:$B,2,0)</f>
@@ -4766,14 +4767,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>VLOOKUP(B8,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>VLOOKUP(D8,TextTag!$A:$B,2,0)</f>
@@ -4785,14 +4786,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>VLOOKUP(B9,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>VLOOKUP(D9,TextTag!$A:$B,2,0)</f>
@@ -4804,14 +4805,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>VLOOKUP(B10,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>VLOOKUP(D10,TextTag!$A:$B,2,0)</f>
@@ -4823,14 +4824,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>VLOOKUP(B11,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>VLOOKUP(D11,TextTag!$A:$B,2,0)</f>
@@ -4842,14 +4843,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>VLOOKUP(B12,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>VLOOKUP(D12,TextTag!$A:$B,2,0)</f>
@@ -4861,14 +4862,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>VLOOKUP(B13,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>VLOOKUP(D13,TextTag!$A:$B,2,0)</f>
@@ -4880,14 +4881,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>VLOOKUP(B14,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP(D14,TextTag!$A:$B,2,0)</f>
@@ -4899,14 +4900,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>VLOOKUP(B15,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>VLOOKUP(D15,TextTag!$A:$B,2,0)</f>
@@ -4919,14 +4920,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>VLOOKUP(B16,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP(D16,TextTag!$A:$B,2,0)</f>
@@ -4938,14 +4939,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>VLOOKUP(B17,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>VLOOKUP(D17,TextTag!$A:$B,2,0)</f>
@@ -4957,14 +4958,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>VLOOKUP(B18,TextTag!$A:$B,2,0)</f>
         <v>매그</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>VLOOKUP(D18,TextTag!$A:$B,2,0)</f>
@@ -4976,14 +4977,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>VLOOKUP(B19,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>VLOOKUP(D19,TextTag!$A:$B,2,0)</f>
@@ -4995,14 +4996,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>VLOOKUP(B20,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>VLOOKUP(D20,TextTag!$A:$B,2,0)</f>
@@ -5014,14 +5015,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>VLOOKUP(B21,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>VLOOKUP(D21,TextTag!$A:$B,2,0)</f>
@@ -5033,14 +5034,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>VLOOKUP(B22,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>VLOOKUP(D22,TextTag!$A:$B,2,0)</f>
@@ -5052,14 +5053,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>VLOOKUP(B23,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E23" s="1" t="str">
         <f>VLOOKUP(D23,TextTag!$A:$B,2,0)</f>
@@ -5076,8 +5077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375FEDA8-0451-4789-BF9C-DBB1721B45C7}">
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5100,10 +5101,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>78</v>
@@ -5111,10 +5112,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>78</v>
@@ -5202,7 +5203,7 @@
         <v>154</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>164</v>
+        <v>765</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>1</v>
@@ -5213,7 +5214,7 @@
         <v>155</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>1</v>
@@ -5224,7 +5225,7 @@
         <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>1</v>
@@ -5235,7 +5236,7 @@
         <v>157</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>1</v>
@@ -5246,7 +5247,7 @@
         <v>158</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
@@ -5254,10 +5255,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>1</v>
@@ -5265,10 +5266,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>1</v>
@@ -5276,10 +5277,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
@@ -5287,10 +5288,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>1</v>
@@ -5298,10 +5299,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>1</v>
@@ -5309,10 +5310,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>1</v>
@@ -5320,10 +5321,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>1</v>
@@ -5331,10 +5332,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>177</v>
+        <v>766</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1</v>
@@ -5342,10 +5343,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>1</v>
@@ -5353,10 +5354,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>1</v>
@@ -5364,10 +5365,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>1</v>
@@ -5375,10 +5376,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>1</v>
@@ -5386,10 +5387,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>1</v>
@@ -5397,10 +5398,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>1</v>
@@ -5408,10 +5409,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>1</v>
@@ -5419,10 +5420,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>1</v>
@@ -5430,10 +5431,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1</v>
@@ -5441,10 +5442,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>1</v>
@@ -5452,10 +5453,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>1</v>
@@ -5463,10 +5464,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>1</v>
@@ -5474,10 +5475,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>1</v>
@@ -5485,10 +5486,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>1</v>
@@ -5496,10 +5497,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>1</v>
@@ -5507,10 +5508,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>1</v>
@@ -5518,10 +5519,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>1</v>
@@ -5529,10 +5530,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>304</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>1</v>
@@ -5540,10 +5541,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>1</v>
@@ -5551,10 +5552,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>1</v>
@@ -5562,10 +5563,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>1</v>
@@ -5573,10 +5574,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>1</v>
@@ -5584,10 +5585,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>1</v>
@@ -5595,10 +5596,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>1</v>
@@ -5606,10 +5607,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>1</v>
@@ -5617,10 +5618,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>1</v>
@@ -5628,10 +5629,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>1</v>
@@ -5639,10 +5640,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>1</v>
@@ -5650,10 +5651,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>1</v>
@@ -5661,10 +5662,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>1</v>
@@ -5672,10 +5673,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>1</v>
@@ -5683,10 +5684,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>1</v>
@@ -5694,10 +5695,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>1</v>
@@ -5705,10 +5706,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>1</v>
@@ -5716,10 +5717,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>78</v>
@@ -5727,322 +5728,322 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C62" s="6"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C63" s="6"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C66" s="6"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C68" s="6"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C69" s="6"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C72" s="6"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C73" s="6"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C74" s="6"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C75" s="6"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C76" s="6"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C77" s="6"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C78" s="6"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C79" s="6"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C80" s="6"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C81" s="6"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C82" s="6"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C83" s="6"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C84" s="6"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C85" s="6"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C86" s="6"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C87" s="6"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C88" s="6"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C89" s="6"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C90" s="6"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C91" s="6"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C92" s="6"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C93" s="6"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>10</v>
@@ -6053,79 +6054,79 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B101" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>724</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -6133,7 +6134,7 @@
         <v>17</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>11</v>
@@ -6144,7 +6145,7 @@
         <v>18</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>11</v>
@@ -6152,10 +6153,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>11</v>
@@ -6163,10 +6164,10 @@
     </row>
     <row r="105" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>11</v>
@@ -6174,10 +6175,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>11</v>
@@ -6185,10 +6186,10 @@
     </row>
     <row r="107" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>11</v>
@@ -6196,10 +6197,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>11</v>
@@ -6207,10 +6208,10 @@
     </row>
     <row r="109" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>11</v>
@@ -6218,10 +6219,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>11</v>
@@ -6229,10 +6230,10 @@
     </row>
     <row r="111" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>11</v>
@@ -6240,10 +6241,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>11</v>
@@ -6251,10 +6252,10 @@
     </row>
     <row r="113" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>11</v>
@@ -6262,10 +6263,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>11</v>
@@ -6273,10 +6274,10 @@
     </row>
     <row r="115" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>11</v>
@@ -6284,10 +6285,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>505</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>11</v>
@@ -6295,10 +6296,10 @@
     </row>
     <row r="117" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>504</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>506</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>11</v>
@@ -6306,10 +6307,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>512</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>11</v>
@@ -6317,10 +6318,10 @@
     </row>
     <row r="119" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>511</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>513</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>11</v>
@@ -6328,10 +6329,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>11</v>
@@ -6339,10 +6340,10 @@
     </row>
     <row r="121" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>11</v>
@@ -6350,10 +6351,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>11</v>
@@ -6361,10 +6362,10 @@
     </row>
     <row r="123" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>11</v>
@@ -6372,10 +6373,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>11</v>
@@ -6383,10 +6384,10 @@
     </row>
     <row r="125" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>11</v>
@@ -6394,10 +6395,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>11</v>
@@ -6405,10 +6406,10 @@
     </row>
     <row r="127" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>11</v>
@@ -6416,10 +6417,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>11</v>
@@ -6427,10 +6428,10 @@
     </row>
     <row r="129" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>11</v>
@@ -6438,10 +6439,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>11</v>
@@ -6449,10 +6450,10 @@
     </row>
     <row r="131" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>11</v>
@@ -6460,10 +6461,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>11</v>
@@ -6471,10 +6472,10 @@
     </row>
     <row r="133" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>11</v>
@@ -6482,10 +6483,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>11</v>
@@ -6493,10 +6494,10 @@
     </row>
     <row r="135" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>11</v>
@@ -6504,10 +6505,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>11</v>
@@ -6515,10 +6516,10 @@
     </row>
     <row r="137" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>11</v>
@@ -6526,10 +6527,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>11</v>
@@ -6537,10 +6538,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>11</v>
@@ -6548,10 +6549,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>11</v>
@@ -6559,10 +6560,10 @@
     </row>
     <row r="141" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>11</v>
@@ -6570,10 +6571,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>11</v>
@@ -6581,10 +6582,10 @@
     </row>
     <row r="143" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>11</v>
@@ -6592,10 +6593,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>11</v>
@@ -6603,10 +6604,10 @@
     </row>
     <row r="145" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>11</v>
@@ -6614,10 +6615,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>11</v>
@@ -6625,10 +6626,10 @@
     </row>
     <row r="147" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>11</v>
@@ -6636,10 +6637,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>11</v>
@@ -6647,10 +6648,10 @@
     </row>
     <row r="149" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>11</v>
@@ -6658,10 +6659,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>11</v>
@@ -6669,10 +6670,10 @@
     </row>
     <row r="151" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>11</v>
@@ -6680,10 +6681,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>11</v>
@@ -6691,10 +6692,10 @@
     </row>
     <row r="153" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>11</v>
@@ -6702,10 +6703,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>11</v>
@@ -6713,10 +6714,10 @@
     </row>
     <row r="155" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>11</v>
@@ -6724,10 +6725,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>11</v>
@@ -6735,10 +6736,10 @@
     </row>
     <row r="157" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>11</v>
@@ -6746,10 +6747,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>11</v>
@@ -6757,10 +6758,10 @@
     </row>
     <row r="159" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>11</v>
@@ -6768,10 +6769,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>11</v>
@@ -6779,10 +6780,10 @@
     </row>
     <row r="161" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>11</v>
@@ -6793,7 +6794,7 @@
         <v>20</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>11</v>
@@ -6804,7 +6805,7 @@
         <v>144</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>11</v>
@@ -6812,10 +6813,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>11</v>
@@ -6823,10 +6824,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>11</v>
@@ -6834,10 +6835,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>11</v>
@@ -6845,10 +6846,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>11</v>
@@ -6856,10 +6857,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>11</v>
@@ -6867,10 +6868,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>11</v>
@@ -6878,10 +6879,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>11</v>
@@ -6889,10 +6890,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>11</v>
@@ -6933,343 +6934,343 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B190" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="B190" s="9" t="s">
-        <v>616</v>
-      </c>
       <c r="C190" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B191" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="B191" s="9" t="s">
-        <v>617</v>
-      </c>
       <c r="C191" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -7283,7 +7284,7 @@
   <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7343,21 +7344,21 @@
         <v>돈</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
         <v>금화</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>VLOOKUP(G2,TextTag!$A:$B,2,0)</f>
         <v>흔히 거래에 사용되는 돈이다.</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -7382,14 +7383,14 @@
         <v>녹슨 검</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H3" s="1" t="str">
         <f>VLOOKUP(G3,TextTag!$A:$B,2,0)</f>
         <v>오래되어 녹슨 검이다.</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -7414,14 +7415,14 @@
         <v>민병의 검</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H4" s="1" t="str">
         <f>VLOOKUP(G4,TextTag!$A:$B,2,0)</f>
         <v>민병들이 사용하는 검이다.</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -7446,14 +7447,14 @@
         <v>신입 보병의 검</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>VLOOKUP(G5,TextTag!$A:$B,2,0)</f>
         <v>신입 보병이 사용하는 검이다.</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -7478,14 +7479,14 @@
         <v>숙련 보병의 검</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>VLOOKUP(G6,TextTag!$A:$B,2,0)</f>
         <v>숙련 보병이 사용하는 검이다.</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -7510,14 +7511,14 @@
         <v>하급 기사의 검</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>VLOOKUP(G7,TextTag!$A:$B,2,0)</f>
         <v>하급 기사가 사용하는 검이다.</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -7542,14 +7543,14 @@
         <v>기사의 검</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>VLOOKUP(G8,TextTag!$A:$B,2,0)</f>
         <v>기사가 사용하는 검이다.</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -7574,14 +7575,14 @@
         <v>상급 기사의 검</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>VLOOKUP(G9,TextTag!$A:$B,2,0)</f>
         <v>상급 기사가 사용하는 검이다.</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -7603,17 +7604,17 @@
       </c>
       <c r="F10" s="1" t="str">
         <f>VLOOKUP(E10,TextTag!$A:$B,2,0)</f>
-        <v>후작의검</v>
+        <v>후작의 검</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H10" s="1" t="e">
         <f>VLOOKUP(G10,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -7638,14 +7639,14 @@
         <v>공작의 검</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H11" s="1" t="e">
         <f>VLOOKUP(G11,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -7670,14 +7671,14 @@
         <v>왕자의 검</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H12" s="1" t="e">
         <f>VLOOKUP(G12,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -7702,14 +7703,14 @@
         <v>왕의 검</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H13" s="1" t="e">
         <f>VLOOKUP(G13,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -7734,14 +7735,14 @@
         <v>전설의 검</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H14" s="1" t="e">
         <f>VLOOKUP(G14,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -7759,21 +7760,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>VLOOKUP(E15,TextTag!$A:$B,2,0)</f>
         <v>녹슨 도끼</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>VLOOKUP(G15,TextTag!$A:$B,2,0)</f>
         <v>오래되어 녹슨 도끼다.</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -7791,21 +7792,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>VLOOKUP(E16,TextTag!$A:$B,2,0)</f>
         <v>민병의 도끼</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H16" s="1" t="str">
         <f>VLOOKUP(G16,TextTag!$A:$B,2,0)</f>
         <v>민병들이 사용하는 도끼다.</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -7823,21 +7824,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>VLOOKUP(E17,TextTag!$A:$B,2,0)</f>
         <v>신입 보병의 도끼</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H17" s="1" t="str">
         <f>VLOOKUP(G17,TextTag!$A:$B,2,0)</f>
         <v>신입 보병이 사용하는 도끼다.</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -7855,21 +7856,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>VLOOKUP(E18,TextTag!$A:$B,2,0)</f>
         <v>숙련 보병의 도끼</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>VLOOKUP(G18,TextTag!$A:$B,2,0)</f>
         <v>숙련 보병이 사용하는 도끼다.</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -7887,21 +7888,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>VLOOKUP(E19,TextTag!$A:$B,2,0)</f>
         <v>하급 기사의 도끼</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>VLOOKUP(G19,TextTag!$A:$B,2,0)</f>
         <v>하급 기사가 사용하는 도끼다.</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -7919,21 +7920,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>VLOOKUP(E20,TextTag!$A:$B,2,0)</f>
         <v>기사의 도끼</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H20" s="1" t="str">
         <f>VLOOKUP(G20,TextTag!$A:$B,2,0)</f>
         <v>기사가 사용하는 도끼다.</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -7951,21 +7952,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>VLOOKUP(E21,TextTag!$A:$B,2,0)</f>
         <v>상급 기사의 도끼</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H21" s="1" t="str">
         <f>VLOOKUP(G21,TextTag!$A:$B,2,0)</f>
         <v>상급 기사가 사용하는 도끼다.</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -7983,21 +7984,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>VLOOKUP(E22,TextTag!$A:$B,2,0)</f>
-        <v>후작의도끼</v>
+        <v>후작의 도끼</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H22" s="1" t="e">
         <f>VLOOKUP(G22,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -8015,21 +8016,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>VLOOKUP(E23,TextTag!$A:$B,2,0)</f>
         <v>공작의 도끼</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H23" s="1" t="e">
         <f>VLOOKUP(G23,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -8047,21 +8048,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>VLOOKUP(E24,TextTag!$A:$B,2,0)</f>
         <v>왕자의 도끼</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H24" s="1" t="e">
         <f>VLOOKUP(G24,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -8079,21 +8080,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>VLOOKUP(E25,TextTag!$A:$B,2,0)</f>
         <v>왕의 도끼</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H25" s="1" t="e">
         <f>VLOOKUP(G25,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -8111,21 +8112,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>VLOOKUP(E26,TextTag!$A:$B,2,0)</f>
         <v>전설의 도끼</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H26" s="1" t="e">
         <f>VLOOKUP(G26,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -8143,21 +8144,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>VLOOKUP(E27,TextTag!$A:$B,2,0)</f>
         <v>썩은 활</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H27" s="1" t="str">
         <f>VLOOKUP(G27,TextTag!$A:$B,2,0)</f>
         <v>활대가 상해 위력이 약한 활이다.</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -8175,21 +8176,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>VLOOKUP(E28,TextTag!$A:$B,2,0)</f>
         <v>신참 사냥꾼의 활</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H28" s="1" t="str">
         <f>VLOOKUP(G28,TextTag!$A:$B,2,0)</f>
         <v>신참 사냥꾼이 사용하는 활이다.</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -8207,21 +8208,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F29" s="1" t="str">
         <f>VLOOKUP(E29,TextTag!$A:$B,2,0)</f>
         <v>사냥꾼의 활</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>VLOOKUP(G29,TextTag!$A:$B,2,0)</f>
         <v>사낭꾼이 사용하는 활이다.</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -8239,21 +8240,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F30" s="1" t="str">
         <f>VLOOKUP(E30,TextTag!$A:$B,2,0)</f>
         <v>숙련 사냥꾼의 활</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H30" s="1" t="str">
         <f>VLOOKUP(G30,TextTag!$A:$B,2,0)</f>
         <v>숙련된 사낭꾼이 사용하는 활이다.</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -8271,21 +8272,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F31" s="1" t="str">
         <f>VLOOKUP(E31,TextTag!$A:$B,2,0)</f>
         <v>신입 궁병의 활</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H31" s="1" t="str">
         <f>VLOOKUP(G31,TextTag!$A:$B,2,0)</f>
         <v>신입 궁병이 사용하는 활이다.</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -8303,21 +8304,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F32" s="1" t="str">
         <f>VLOOKUP(E32,TextTag!$A:$B,2,0)</f>
         <v>궁병의 활</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H32" s="1" t="str">
         <f>VLOOKUP(G32,TextTag!$A:$B,2,0)</f>
         <v>궁병이 사용하는 활이다.</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -8335,21 +8336,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F33" s="1" t="str">
         <f>VLOOKUP(E33,TextTag!$A:$B,2,0)</f>
         <v>숙련 궁병의 활</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H33" s="1" t="str">
         <f>VLOOKUP(G33,TextTag!$A:$B,2,0)</f>
         <v>숙련 궁병이 사용하는 활이다.</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -8367,21 +8368,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F34" s="1" t="str">
         <f>VLOOKUP(E34,TextTag!$A:$B,2,0)</f>
         <v>후작의 활</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H34" s="1" t="e">
         <f>VLOOKUP(G34,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -8399,21 +8400,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F35" s="1" t="str">
         <f>VLOOKUP(E35,TextTag!$A:$B,2,0)</f>
         <v>공작의 활</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H35" s="1" t="e">
         <f>VLOOKUP(G35,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -8431,21 +8432,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F36" s="1" t="str">
         <f>VLOOKUP(E36,TextTag!$A:$B,2,0)</f>
         <v>왕자의 활</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H36" s="1" t="e">
         <f>VLOOKUP(G36,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -8463,21 +8464,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F37" s="1" t="str">
         <f>VLOOKUP(E37,TextTag!$A:$B,2,0)</f>
         <v>왕의 활</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H37" s="1" t="e">
         <f>VLOOKUP(G37,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -8495,21 +8496,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F38" s="1" t="str">
         <f>VLOOKUP(E38,TextTag!$A:$B,2,0)</f>
         <v>전설의 활</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H38" s="1" t="e">
         <f>VLOOKUP(G38,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -8527,21 +8528,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F39" s="1" t="str">
         <f>VLOOKUP(E39,TextTag!$A:$B,2,0)</f>
         <v>녹슨 석궁</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H39" s="1" t="str">
         <f>VLOOKUP(G39,TextTag!$A:$B,2,0)</f>
         <v>녹이 슬어 위력이 약해진 석궁이다.</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -8559,21 +8560,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F40" s="1" t="str">
         <f>VLOOKUP(E40,TextTag!$A:$B,2,0)</f>
         <v>신참 사냥꾼의 석궁</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H40" s="1" t="str">
         <f>VLOOKUP(G40,TextTag!$A:$B,2,0)</f>
         <v>신참 사냥꾼이 사용하는 석궁이다.</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -8591,21 +8592,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F41" s="1" t="str">
         <f>VLOOKUP(E41,TextTag!$A:$B,2,0)</f>
         <v>사냥꾼의 석궁</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H41" s="1" t="str">
         <f>VLOOKUP(G41,TextTag!$A:$B,2,0)</f>
         <v>사낭꾼이 사용하는 석궁이다.</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -8623,21 +8624,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F42" s="1" t="str">
         <f>VLOOKUP(E42,TextTag!$A:$B,2,0)</f>
         <v>숙련 사냥꾼의 석궁</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H42" s="1" t="str">
         <f>VLOOKUP(G42,TextTag!$A:$B,2,0)</f>
         <v>숙련된 사낭꾼이 사용하는 석궁이다.</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -8655,21 +8656,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F43" s="1" t="str">
         <f>VLOOKUP(E43,TextTag!$A:$B,2,0)</f>
         <v>신입 궁병의 석궁</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H43" s="1" t="str">
         <f>VLOOKUP(G43,TextTag!$A:$B,2,0)</f>
         <v>신입 궁병이 사용하는 석궁이다.</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -8687,21 +8688,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F44" s="1" t="str">
         <f>VLOOKUP(E44,TextTag!$A:$B,2,0)</f>
         <v>궁병의 석궁</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H44" s="1" t="str">
         <f>VLOOKUP(G44,TextTag!$A:$B,2,0)</f>
         <v>궁병이 사용하는 석궁이다.</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -8719,21 +8720,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F45" s="1" t="str">
         <f>VLOOKUP(E45,TextTag!$A:$B,2,0)</f>
         <v>숙련 궁병의 석궁</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H45" s="1" t="str">
         <f>VLOOKUP(G45,TextTag!$A:$B,2,0)</f>
         <v>숙련 궁병이 사용하는 석궁이다.</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -8751,21 +8752,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F46" s="1" t="str">
         <f>VLOOKUP(E46,TextTag!$A:$B,2,0)</f>
         <v>후작의 석궁</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H46" s="1" t="e">
         <f>VLOOKUP(G46,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -8783,21 +8784,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F47" s="1" t="str">
         <f>VLOOKUP(E47,TextTag!$A:$B,2,0)</f>
         <v>공작의 석궁</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H47" s="1" t="e">
         <f>VLOOKUP(G47,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -8815,21 +8816,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F48" s="1" t="str">
         <f>VLOOKUP(E48,TextTag!$A:$B,2,0)</f>
         <v>왕자의 석궁</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H48" s="1" t="e">
         <f>VLOOKUP(G48,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -8847,21 +8848,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F49" s="1" t="str">
         <f>VLOOKUP(E49,TextTag!$A:$B,2,0)</f>
         <v>왕의 석궁</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H49" s="1" t="e">
         <f>VLOOKUP(G49,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -8879,21 +8880,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F50" s="1" t="str">
         <f>VLOOKUP(E50,TextTag!$A:$B,2,0)</f>
         <v>전설의 석궁</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H50" s="1" t="e">
         <f>VLOOKUP(G50,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -9871,21 +9872,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F81" s="1" t="e">
         <f>VLOOKUP(E81,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H81" s="1" t="e">
         <f>VLOOKUP(G81,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -9903,21 +9904,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F82" s="1" t="e">
         <f>VLOOKUP(E82,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H82" s="1" t="e">
         <f>VLOOKUP(G82,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -9935,21 +9936,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F83" s="1" t="e">
         <f>VLOOKUP(E83,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H83" s="1" t="e">
         <f>VLOOKUP(G83,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -9967,21 +9968,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F84" s="1" t="e">
         <f>VLOOKUP(E84,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H84" s="1" t="e">
         <f>VLOOKUP(G84,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -9999,21 +10000,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F85" s="1" t="e">
         <f>VLOOKUP(E85,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H85" s="1" t="e">
         <f>VLOOKUP(G85,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -10031,21 +10032,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F86" s="1" t="e">
         <f>VLOOKUP(E86,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H86" s="1" t="e">
         <f>VLOOKUP(G86,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -10063,21 +10064,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F87" s="1" t="e">
         <f>VLOOKUP(E87,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H87" s="1" t="e">
         <f>VLOOKUP(G87,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -10095,21 +10096,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F88" s="1" t="e">
         <f>VLOOKUP(E88,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H88" s="1" t="e">
         <f>VLOOKUP(G88,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -10127,21 +10128,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F89" s="1" t="e">
         <f>VLOOKUP(E89,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H89" s="1" t="e">
         <f>VLOOKUP(G89,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -10159,21 +10160,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F90" s="1" t="e">
         <f>VLOOKUP(E90,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H90" s="1" t="e">
         <f>VLOOKUP(G90,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -10191,21 +10192,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F91" s="1" t="e">
         <f>VLOOKUP(E91,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H91" s="1" t="e">
         <f>VLOOKUP(G91,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -10223,21 +10224,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F92" s="1" t="e">
         <f>VLOOKUP(E92,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H92" s="1" t="e">
         <f>VLOOKUP(G92,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -10255,21 +10256,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F93" s="1" t="e">
         <f>VLOOKUP(E93,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H93" s="1" t="e">
         <f>VLOOKUP(G93,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -10287,21 +10288,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F94" s="1" t="e">
         <f>VLOOKUP(E94,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H94" s="1" t="e">
         <f>VLOOKUP(G94,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -10319,21 +10320,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F95" s="1" t="e">
         <f>VLOOKUP(E95,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H95" s="1" t="e">
         <f>VLOOKUP(G95,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -10351,21 +10352,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F96" s="1" t="e">
         <f>VLOOKUP(E96,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H96" s="1" t="e">
         <f>VLOOKUP(G96,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -10383,21 +10384,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F97" s="1" t="e">
         <f>VLOOKUP(E97,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H97" s="1" t="e">
         <f>VLOOKUP(G97,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -10415,21 +10416,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F98" s="1" t="e">
         <f>VLOOKUP(E98,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H98" s="1" t="e">
         <f>VLOOKUP(G98,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -10447,21 +10448,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F99" s="1" t="str">
         <f>VLOOKUP(E99,TextTag!$A:$B,2,0)</f>
         <v>전투 기록</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H99" s="1" t="str">
         <f>VLOOKUP(G99,TextTag!$A:$B,2,0)</f>
         <v>용병의 경험치를 조금 올려주는 전투 기록이다.</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -10479,21 +10480,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F100" s="1" t="str">
         <f>VLOOKUP(E100,TextTag!$A:$B,2,0)</f>
         <v>치열한 전투 기록</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H100" s="1" t="str">
         <f>VLOOKUP(G100,TextTag!$A:$B,2,0)</f>
         <v>용병의 경험치를 적당히 올려주는 전투 기록이다.</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -10511,21 +10512,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F101" s="1" t="str">
         <f>VLOOKUP(E101,TextTag!$A:$B,2,0)</f>
         <v>생사를 다툰 전투 기록</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H101" s="1" t="str">
         <f>VLOOKUP(G101,TextTag!$A:$B,2,0)</f>
         <v>용병의 경험치를 많이 올려주는 전투 기록이다.</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -10543,21 +10544,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F102" s="1" t="str">
         <f>VLOOKUP(E102,TextTag!$A:$B,2,0)</f>
         <v>작은 금화 주머니</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H102" s="1" t="str">
         <f>VLOOKUP(G102,TextTag!$A:$B,2,0)</f>
         <v>금이 담긴 자루다.</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -10575,21 +10576,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F103" s="1" t="str">
         <f>VLOOKUP(E103,TextTag!$A:$B,2,0)</f>
         <v>금화 주머니</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H103" s="1" t="str">
         <f>VLOOKUP(G103,TextTag!$A:$B,2,0)</f>
         <v>금이 많이 담긴 자루다.</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -10607,21 +10608,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F104" s="1" t="str">
         <f>VLOOKUP(E104,TextTag!$A:$B,2,0)</f>
         <v>큰 금화 주머니</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H104" s="1" t="str">
         <f>VLOOKUP(G104,TextTag!$A:$B,2,0)</f>
         <v>금이 꽉찬 자루다.</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -10639,21 +10640,21 @@
         <v>퀘스트 아이템</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F105" s="1" t="str">
         <f>VLOOKUP(E105,TextTag!$A:$B,2,0)</f>
         <v>큰 금화 주머니</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H105" s="1" t="str">
         <f>VLOOKUP(G105,TextTag!$A:$B,2,0)</f>
         <v>금이 꽉찬 자루다.</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -12640,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
@@ -12712,7 +12713,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
@@ -12784,7 +12785,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,TextTag!$A:$B,2,0)</f>
@@ -13072,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(C8,TextTag!$A:$B,2,0)</f>
@@ -13144,7 +13145,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(C9,TextTag!$A:$B,2,0)</f>
@@ -13216,7 +13217,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP(C10,TextTag!$A:$B,2,0)</f>
@@ -13288,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>VLOOKUP(C11,TextTag!$A:$B,2,0)</f>
@@ -13360,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>VLOOKUP(C12,TextTag!$A:$B,2,0)</f>
@@ -13432,7 +13433,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(C13,TextTag!$A:$B,2,0)</f>
@@ -13504,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>VLOOKUP(C14,TextTag!$A:$B,2,0)</f>
@@ -13576,7 +13577,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>VLOOKUP(C15,TextTag!$A:$B,2,0)</f>
@@ -13648,7 +13649,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>VLOOKUP(C16,TextTag!$A:$B,2,0)</f>
@@ -13813,21 +13814,21 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
         <v>관리인</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="1" t="e">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H2" s="1">
         <v>-1</v>
@@ -13877,7 +13878,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
@@ -13891,7 +13892,7 @@
         <v>#N/A</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -13941,7 +13942,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,TextTag!$A:$B,2,0)</f>
@@ -13955,7 +13956,7 @@
         <v>#N/A</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -14005,7 +14006,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(C5,TextTag!$A:$B,2,0)</f>
@@ -14019,7 +14020,7 @@
         <v>#N/A</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -14069,7 +14070,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(C6,TextTag!$A:$B,2,0)</f>
@@ -14083,7 +14084,7 @@
         <v>#N/A</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -14177,7 +14178,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>27</v>
@@ -14264,7 +14265,7 @@
         <v>55</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -14376,14 +14377,14 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
         <v>두 번째 거래</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>VLOOKUP(E3,TextTag!$A:$B,2,0)</f>
@@ -14476,14 +14477,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,TextTag!$A:$B,2,0)</f>
         <v>소개</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>VLOOKUP(E4,TextTag!$A:$B,2,0)</f>
@@ -14578,14 +14579,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(C5,TextTag!$A:$B,2,0)</f>
         <v>보급 요청 1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>VLOOKUP(E5,TextTag!$A:$B,2,0)</f>
@@ -14680,14 +14681,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(C6,TextTag!$A:$B,2,0)</f>
         <v>보급 요청 2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>VLOOKUP(E6,TextTag!$A:$B,2,0)</f>
@@ -14781,14 +14782,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>VLOOKUP(C7,TextTag!$A:$B,2,0)</f>
         <v>신참 보급</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>VLOOKUP(E7,TextTag!$A:$B,2,0)</f>
@@ -14882,14 +14883,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(C8,TextTag!$A:$B,2,0)</f>
         <v>원정 준비</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>VLOOKUP(E8,TextTag!$A:$B,2,0)</f>
@@ -14982,14 +14983,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(C9,TextTag!$A:$B,2,0)</f>
         <v>소문</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>VLOOKUP(E9,TextTag!$A:$B,2,0)</f>
@@ -15083,14 +15084,14 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP(C10,TextTag!$A:$B,2,0)</f>
         <v>추가 검증</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>VLOOKUP(E10,TextTag!$A:$B,2,0)</f>
@@ -15184,14 +15185,14 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>VLOOKUP(C11,TextTag!$A:$B,2,0)</f>
         <v>추가 검증 2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>VLOOKUP(E11,TextTag!$A:$B,2,0)</f>
@@ -15285,14 +15286,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>VLOOKUP(C12,TextTag!$A:$B,2,0)</f>
         <v>추가 검증 3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>VLOOKUP(E12,TextTag!$A:$B,2,0)</f>
@@ -15386,14 +15387,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(C13,TextTag!$A:$B,2,0)</f>
         <v>활 부족</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>VLOOKUP(E13,TextTag!$A:$B,2,0)</f>
@@ -15486,14 +15487,14 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>VLOOKUP(C14,TextTag!$A:$B,2,0)</f>
         <v>검 부족</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>VLOOKUP(E14,TextTag!$A:$B,2,0)</f>
@@ -15586,14 +15587,14 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>VLOOKUP(C15,TextTag!$A:$B,2,0)</f>
         <v>전투 임박</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>VLOOKUP(E15,TextTag!$A:$B,2,0)</f>
@@ -15686,14 +15687,14 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>VLOOKUP(C16,TextTag!$A:$B,2,0)</f>
         <v>석궁에 대하여</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>VLOOKUP(E16,TextTag!$A:$B,2,0)</f>
@@ -15786,14 +15787,14 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>VLOOKUP(C17,TextTag!$A:$B,2,0)</f>
         <v>흥미</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>VLOOKUP(E17,TextTag!$A:$B,2,0)</f>
@@ -15886,14 +15887,14 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>VLOOKUP(C18,TextTag!$A:$B,2,0)</f>
         <v>더 좋은 석궁</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>VLOOKUP(E18,TextTag!$A:$B,2,0)</f>
@@ -15986,14 +15987,14 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>VLOOKUP(C19,TextTag!$A:$B,2,0)</f>
         <v>대규모 요청</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>VLOOKUP(E19,TextTag!$A:$B,2,0)</f>
@@ -16087,14 +16088,14 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>VLOOKUP(C20,TextTag!$A:$B,2,0)</f>
         <v>보급 요청 3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>VLOOKUP(E20,TextTag!$A:$B,2,0)</f>
@@ -16187,14 +16188,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>VLOOKUP(C21,TextTag!$A:$B,2,0)</f>
         <v>대결 구도</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>VLOOKUP(E21,TextTag!$A:$B,2,0)</f>
@@ -16289,14 +16290,14 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>VLOOKUP(C22,TextTag!$A:$B,2,0)</f>
         <v>대규모 요청 2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>VLOOKUP(E22,TextTag!$A:$B,2,0)</f>
@@ -16390,14 +16391,14 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>VLOOKUP(C23,TextTag!$A:$B,2,0)</f>
         <v>대규모 요청 3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>VLOOKUP(E23,TextTag!$A:$B,2,0)</f>
@@ -16491,14 +16492,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D24" s="1" t="str">
         <f>VLOOKUP(C24,TextTag!$A:$B,2,0)</f>
         <v>대결 구도 2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>VLOOKUP(E24,TextTag!$A:$B,2,0)</f>
@@ -16593,14 +16594,14 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>VLOOKUP(C25,TextTag!$A:$B,2,0)</f>
         <v>개전</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>VLOOKUP(E25,TextTag!$A:$B,2,0)</f>
@@ -16694,14 +16695,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D26" s="1" t="str">
         <f>VLOOKUP(C26,TextTag!$A:$B,2,0)</f>
         <v>손실 보충</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>VLOOKUP(E26,TextTag!$A:$B,2,0)</f>
@@ -16795,14 +16796,14 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D27" s="1" t="str">
         <f>VLOOKUP(C27,TextTag!$A:$B,2,0)</f>
         <v>손실 보충 2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>VLOOKUP(E27,TextTag!$A:$B,2,0)</f>
@@ -16896,14 +16897,14 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D28" s="1" t="str">
         <f>VLOOKUP(C28,TextTag!$A:$B,2,0)</f>
         <v>원정 보충</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>VLOOKUP(E28,TextTag!$A:$B,2,0)</f>
@@ -16998,14 +16999,14 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D29" s="1" t="str">
         <f>VLOOKUP(C29,TextTag!$A:$B,2,0)</f>
         <v>손실 보충 3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F29" s="1" t="str">
         <f>VLOOKUP(E29,TextTag!$A:$B,2,0)</f>
@@ -17099,14 +17100,14 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>VLOOKUP(C30,TextTag!$A:$B,2,0)</f>
         <v>선물</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F30" s="1" t="str">
         <f>VLOOKUP(E30,TextTag!$A:$B,2,0)</f>
@@ -17201,14 +17202,14 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D31" s="1" t="str">
         <f>VLOOKUP(C31,TextTag!$A:$B,2,0)</f>
         <v>선물 2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F31" s="1" t="str">
         <f>VLOOKUP(E31,TextTag!$A:$B,2,0)</f>
@@ -17355,43 +17356,43 @@
         <v>143</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -17537,14 +17538,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>VLOOKUP(B4,TextTag!$A:$B,2,0)</f>
         <v>하급 악마 야영지</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E4" s="1">
         <v>8</v>
@@ -17606,14 +17607,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B5,TextTag!$A:$B,2,0)</f>
         <v>소규모 도적단 야영지</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
@@ -17675,14 +17676,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>VLOOKUP(B6,TextTag!$A:$B,2,0)</f>
         <v>동굴 속 던전</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
@@ -17744,14 +17745,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>VLOOKUP(B7,TextTag!$A:$B,2,0)</f>
         <v>고블린 병참 기지</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
@@ -17813,14 +17814,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>VLOOKUP(B8,TextTag!$A:$B,2,0)</f>
         <v>악마 병참 기지</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E8" s="1">
         <v>12</v>
@@ -17882,14 +17883,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>VLOOKUP(B9,TextTag!$A:$B,2,0)</f>
         <v>버려진 성 내 던전</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E9" s="1">
         <v>12</v>
@@ -17951,14 +17952,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>VLOOKUP(B10,TextTag!$A:$B,2,0)</f>
         <v>전쟁 골렘 기지</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E10" s="1">
         <v>14</v>
@@ -18020,14 +18021,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>VLOOKUP(B11,TextTag!$A:$B,2,0)</f>
         <v>악마 격전지</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E11" s="1">
         <v>16</v>
@@ -18110,16 +18111,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy05\OneDrive\문서\GitHub\DesktopEquipmentMerge\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD17BE-FDA2-49E2-B584-6B01E46BE5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7BFC62-A6A6-403D-9CAA-241256A65734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="7665" yWindow="3930" windowWidth="20400" windowHeight="12675" tabRatio="684" firstSheet="2" activeTab="11" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="906">
   <si>
     <t>녹슨 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2708,10 +2708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내가 준 문양을 받았나?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2720,10 +2716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그 문양과 돈이 있어야 다른 건물도 지을 수 있다네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일종의 허가증 같은 거라고 할 수 있지.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2736,10 +2728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그럼 나머지 건물들도 지어보겠나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건물 레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2772,15 +2760,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장비를 구하기 위해선 사람을 보내야 해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2798,6 +2778,528 @@
   </si>
   <si>
     <t>후작의 도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_22</t>
+  </si>
+  <si>
+    <t>괜찮은 장비를 만들어냈군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_23</t>
+  </si>
+  <si>
+    <t>오 성공했구만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_24</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_25</t>
+  </si>
+  <si>
+    <t>만들어진 장비를 나에게 줄 수 있나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그걸로 이 마을을 복구할 물건을 좀 구해오지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_26</t>
+  </si>
+  <si>
+    <t>일단 저 거래소 정리 좀 해주겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_27</t>
+  </si>
+  <si>
+    <t>정리가 끝났으니 안에서 기다리고 있겠네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_28</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_29</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에 있는 나를 선택해주게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_30</t>
+  </si>
+  <si>
+    <t>내가 임무를 줄테니 확인해보게나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용을 확인했다면 임무를 받아주게나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_31</t>
+  </si>
+  <si>
+    <t>방금 만든 장비를 건네주게나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_32</t>
+  </si>
+  <si>
+    <t>잘 받았네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_33</t>
+  </si>
+  <si>
+    <t>이건 마을을 복구하고 성장시키기 위해 필요한 문장일세.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_34</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_35</t>
+  </si>
+  <si>
+    <t>그럼 보상을 받아주게나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_36</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_37</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마 건물 위에 필요한 목록이 보일테야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 목록을 충족한다면 건물을 복구할 수 있네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_38</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_39</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 번 해보겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_40</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_41</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_42</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_43</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 건설한 여관으로 들어가보게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_44</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여관 주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_45</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만입니다 관리인씨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직까지 이곳에 계셨을 줄이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_46</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이곳에 다시 여관을 연다길래 한걸음에 달려왔죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_47</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 사람은 이전 여관 주인의 아들 녀석이라네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_48</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 분이 죽은 마법대를 살려놓았다는 바로 그 분입니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_49</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕분에 여관을 다시 열 수 있게 되어 정말 기쁩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_50</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이야기는 여기까지 하고 사람들은 도착했나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_51</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전처럼 붐비진 않아도 몇 명이 도착했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_52</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이쪽에 모여있으니 한번 고용해보시지요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_53</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name_Inn_Master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name_Hero_Warrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병 전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_54</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음뵙겠습니다. 일거리는 어디있습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일이 급한가 보군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_55</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 같이 캠프로 이동하세나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_56</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 원정은 작은 숲 속에 있는 던전에 다녀오는 것이라네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_57</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_58</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전이라.. 적을 물리치는 일입니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_59</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 물리치고 쓸만한 장비를 가져오게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안에 적은 얼마나 있습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_60</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 괜찮은 일이군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_61</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그다지 많지 않네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_62</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_63</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네라면 충분히 해결할 수 있을 정도야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_64</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 출발하시죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_65</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_66</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_67</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_68</t>
+  </si>
+  <si>
+    <t>원정 멤버에 저를 추가해주십시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 준비하시죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정이 끝났다고 전달받았네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프로 가 어떤 성과를 얻었는지 확인해보지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_69</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_70</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_71</t>
+  </si>
+  <si>
+    <t>다시 합성할 장비를 얻었군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정대를 통해 장비를 얻고 마법대에서 장비를 합성해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_72</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그걸 전달하면 되는거지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_73</t>
+  </si>
+  <si>
+    <t>앞으로도 잘 부탁하네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금까지 해왔던 걸 기억하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_74</t>
+  </si>
+  <si>
+    <t>잘 부탁드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_75</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_Start_75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3395,7 +3897,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4616,17 +5118,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06657BE-31C1-48D2-ADE5-9F6992BF0CAC}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="82.875" customWidth="1"/>
   </cols>
@@ -5065,6 +5567,1032 @@
       <c r="E23" s="1" t="str">
         <f>VLOOKUP(D23,TextTag!$A:$B,2,0)</f>
         <v>장비 중 하나를 드래그 해 다른 장비 위로 올려보게.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>VLOOKUP(B24,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>VLOOKUP(D24,TextTag!$A:$B,2,0)</f>
+        <v>오 성공했구만.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>VLOOKUP(B25,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>VLOOKUP(D25,TextTag!$A:$B,2,0)</f>
+        <v>괜찮은 장비를 만들어냈군.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>VLOOKUP(B26,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>VLOOKUP(D26,TextTag!$A:$B,2,0)</f>
+        <v>만들어진 장비를 나에게 줄 수 있나?</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>VLOOKUP(B27,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>VLOOKUP(D27,TextTag!$A:$B,2,0)</f>
+        <v>그걸로 이 마을을 복구할 물건을 좀 구해오지.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>VLOOKUP(B28,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>VLOOKUP(D28,TextTag!$A:$B,2,0)</f>
+        <v>일단 저 거래소 정리 좀 해주겠나?</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>VLOOKUP(B29,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>VLOOKUP(D29,TextTag!$A:$B,2,0)</f>
+        <v>정리가 끝났으니 안에서 기다리고 있겠네.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>VLOOKUP(B30,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>VLOOKUP(D30,TextTag!$A:$B,2,0)</f>
+        <v>위에 있는 나를 선택해주게.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>VLOOKUP(B31,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>VLOOKUP(D31,TextTag!$A:$B,2,0)</f>
+        <v>내가 임무를 줄테니 확인해보게나.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>VLOOKUP(B32,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>VLOOKUP(D32,TextTag!$A:$B,2,0)</f>
+        <v>내용을 확인했다면 임무를 받아주게나.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>VLOOKUP(B33,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>VLOOKUP(D33,TextTag!$A:$B,2,0)</f>
+        <v>방금 만든 장비를 건네주게나.</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>VLOOKUP(B34,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>VLOOKUP(D34,TextTag!$A:$B,2,0)</f>
+        <v>잘 받았네.</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>VLOOKUP(B35,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>VLOOKUP(D35,TextTag!$A:$B,2,0)</f>
+        <v>이건 마을을 복구하고 성장시키기 위해 필요한 문장일세.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>VLOOKUP(B36,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>VLOOKUP(D36,TextTag!$A:$B,2,0)</f>
+        <v>일종의 허가증 같은 거라고 할 수 있지.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>VLOOKUP(B37,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>VLOOKUP(D37,TextTag!$A:$B,2,0)</f>
+        <v>그럼 보상을 받아주게나.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>VLOOKUP(B38,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f>VLOOKUP(D38,TextTag!$A:$B,2,0)</f>
+        <v>내가 준 문양을 받았나?</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>VLOOKUP(B39,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f>VLOOKUP(D39,TextTag!$A:$B,2,0)</f>
+        <v>아마 건물 위에 필요한 목록이 보일테야.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>VLOOKUP(B40,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f>VLOOKUP(D40,TextTag!$A:$B,2,0)</f>
+        <v>그 목록을 충족한다면 건물을 복구할 수 있네.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>VLOOKUP(B41,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f>VLOOKUP(D41,TextTag!$A:$B,2,0)</f>
+        <v>한 번 해보겠나?</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>VLOOKUP(B42,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>VLOOKUP(D42,TextTag!$A:$B,2,0)</f>
+        <v>창고에 있던 장비가 바닥을 드러냈군.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>VLOOKUP(B43,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>VLOOKUP(D43,TextTag!$A:$B,2,0)</f>
+        <v>장비를 구하기 위해선 사람을 보내야 해.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>VLOOKUP(B44,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>VLOOKUP(D44,TextTag!$A:$B,2,0)</f>
+        <v>이런 일에 능숙한 사람을 찾아볼까.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>VLOOKUP(B45,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>VLOOKUP(D45,TextTag!$A:$B,2,0)</f>
+        <v>방금 건설한 여관으로 들어가보게.</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>VLOOKUP(B46,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>VLOOKUP(D46,TextTag!$A:$B,2,0)</f>
+        <v>오랜만입니다 관리인씨.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>VLOOKUP(B47,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f>VLOOKUP(D47,TextTag!$A:$B,2,0)</f>
+        <v>아직까지 이곳에 계셨을 줄이야.</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>VLOOKUP(B48,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f>VLOOKUP(D48,TextTag!$A:$B,2,0)</f>
+        <v>이곳에 다시 여관을 연다길래 한걸음에 달려왔죠.</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>VLOOKUP(B49,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>VLOOKUP(D49,TextTag!$A:$B,2,0)</f>
+        <v>이 사람은 이전 여관 주인의 아들 녀석이라네.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>VLOOKUP(B50,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f>VLOOKUP(D50,TextTag!$A:$B,2,0)</f>
+        <v>이 분이 죽은 마법대를 살려놓았다는 바로 그 분입니까?</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>VLOOKUP(B51,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f>VLOOKUP(D51,TextTag!$A:$B,2,0)</f>
+        <v>덕분에 여관을 다시 열 수 있게 되어 정말 기쁩니다.</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>VLOOKUP(B52,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f>VLOOKUP(D52,TextTag!$A:$B,2,0)</f>
+        <v>이야기는 여기까지 하고 사람들은 도착했나?</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>VLOOKUP(B53,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f>VLOOKUP(D53,TextTag!$A:$B,2,0)</f>
+        <v>이전처럼 붐비진 않아도 몇 명이 도착했습니다.</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>VLOOKUP(B54,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f>VLOOKUP(D54,TextTag!$A:$B,2,0)</f>
+        <v>이쪽에 모여있으니 한번 고용해보시지요.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>VLOOKUP(B55,TextTag!$A:$B,2,0)</f>
+        <v>용병 전사</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f>VLOOKUP(D55,TextTag!$A:$B,2,0)</f>
+        <v>처음뵙겠습니다. 일거리는 어디있습니까?</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>VLOOKUP(B56,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f>VLOOKUP(D56,TextTag!$A:$B,2,0)</f>
+        <v>일이 급한가 보군.</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f>VLOOKUP(B57,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f>VLOOKUP(D57,TextTag!$A:$B,2,0)</f>
+        <v>그럼 같이 캠프로 이동하세나.</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>VLOOKUP(B58,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f>VLOOKUP(D58,TextTag!$A:$B,2,0)</f>
+        <v>첫 원정은 작은 숲 속에 있는 던전에 다녀오는 것이라네.</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>VLOOKUP(B59,TextTag!$A:$B,2,0)</f>
+        <v>용병 전사</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f>VLOOKUP(D59,TextTag!$A:$B,2,0)</f>
+        <v>던전이라.. 적을 물리치는 일입니까?</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f>VLOOKUP(B60,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f>VLOOKUP(D60,TextTag!$A:$B,2,0)</f>
+        <v>적을 물리치고 쓸만한 장비를 가져오게.</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f>VLOOKUP(B61,TextTag!$A:$B,2,0)</f>
+        <v>용병 전사</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f>VLOOKUP(D61,TextTag!$A:$B,2,0)</f>
+        <v>뭐 괜찮은 일이군요.</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f>VLOOKUP(B62,TextTag!$A:$B,2,0)</f>
+        <v>용병 전사</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f>VLOOKUP(D62,TextTag!$A:$B,2,0)</f>
+        <v>안에 적은 얼마나 있습니까?</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f>VLOOKUP(B63,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f>VLOOKUP(D63,TextTag!$A:$B,2,0)</f>
+        <v>그다지 많지 않네.</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>VLOOKUP(B64,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f>VLOOKUP(D64,TextTag!$A:$B,2,0)</f>
+        <v>자네라면 충분히 해결할 수 있을 정도야.</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>VLOOKUP(B65,TextTag!$A:$B,2,0)</f>
+        <v>용병 전사</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f>VLOOKUP(D65,TextTag!$A:$B,2,0)</f>
+        <v>알겠습니다.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>VLOOKUP(B66,TextTag!$A:$B,2,0)</f>
+        <v>용병 전사</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f>VLOOKUP(D66,TextTag!$A:$B,2,0)</f>
+        <v>그럼 준비하시죠.</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>VLOOKUP(B67,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f>VLOOKUP(D67,TextTag!$A:$B,2,0)</f>
+        <v>원정 멤버에 저를 추가해주십시오.</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f>VLOOKUP(B68,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f>VLOOKUP(D68,TextTag!$A:$B,2,0)</f>
+        <v>그럼 출발하시죠.</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f>VLOOKUP(B69,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f>VLOOKUP(D69,TextTag!$A:$B,2,0)</f>
+        <v>원정이 끝났다고 전달받았네.</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>VLOOKUP(B70,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f>VLOOKUP(D70,TextTag!$A:$B,2,0)</f>
+        <v>캠프로 가 어떤 성과를 얻었는지 확인해보지.</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>VLOOKUP(B71,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f>VLOOKUP(D71,TextTag!$A:$B,2,0)</f>
+        <v>다시 합성할 장비를 얻었군.</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f>VLOOKUP(B72,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f>VLOOKUP(D72,TextTag!$A:$B,2,0)</f>
+        <v>지금까지 해왔던 걸 기억하는가?</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>VLOOKUP(B73,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f>VLOOKUP(D73,TextTag!$A:$B,2,0)</f>
+        <v>원정대를 통해 장비를 얻고 마법대에서 장비를 합성해</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f>VLOOKUP(B74,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f>VLOOKUP(D74,TextTag!$A:$B,2,0)</f>
+        <v>그걸 전달하면 되는거지.</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>VLOOKUP(B75,TextTag!$A:$B,2,0)</f>
+        <v>매그</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f>VLOOKUP(D75,TextTag!$A:$B,2,0)</f>
+        <v>그렇군요.</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>VLOOKUP(B76,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f>VLOOKUP(D76,TextTag!$A:$B,2,0)</f>
+        <v>앞으로도 잘 부탁하네.</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>VLOOKUP(B77,TextTag!$A:$B,2,0)</f>
+        <v>매그</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f>VLOOKUP(D77,TextTag!$A:$B,2,0)</f>
+        <v>잘 부탁드립니다.</v>
       </c>
     </row>
   </sheetData>
@@ -5075,10 +6603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375FEDA8-0451-4789-BF9C-DBB1721B45C7}">
-  <dimension ref="A1:C205"/>
+  <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5112,10 +6640,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>754</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>757</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>78</v>
@@ -5203,7 +6731,7 @@
         <v>154</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>1</v>
@@ -5335,7 +6863,7 @@
         <v>186</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1</v>
@@ -5717,7 +7245,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>342</v>
@@ -5728,10 +7256,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C59" s="6"/>
     </row>
@@ -6145,7 +7673,7 @@
         <v>18</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>11</v>
@@ -6945,10 +8473,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>252</v>
+        <v>380</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>707</v>
+        <v>590</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>253</v>
@@ -6956,32 +8484,28 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>380</v>
+        <v>841</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>253</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="C177" s="6"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>379</v>
+        <v>842</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>253</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="C178" s="6"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>592</v>
+        <v>252</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>593</v>
+        <v>707</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>253</v>
@@ -6989,10 +8513,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>594</v>
+        <v>379</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>253</v>
@@ -7000,10 +8524,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>718</v>
+        <v>593</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>253</v>
@@ -7011,10 +8535,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>253</v>
@@ -7022,10 +8546,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>605</v>
+        <v>718</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>253</v>
@@ -7033,10 +8557,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>253</v>
@@ -7044,10 +8568,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>253</v>
@@ -7055,10 +8579,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>253</v>
@@ -7066,10 +8590,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>253</v>
@@ -7077,10 +8601,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>253</v>
@@ -7088,32 +8612,32 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>726</v>
+        <v>609</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>614</v>
+        <v>603</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>610</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>615</v>
+        <v>611</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>726</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>253</v>
@@ -7121,32 +8645,32 @@
     </row>
     <row r="192" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>253</v>
@@ -7154,10 +8678,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>253</v>
@@ -7165,10 +8689,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>731</v>
+        <v>620</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>732</v>
+        <v>621</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>253</v>
@@ -7176,10 +8700,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>736</v>
+        <v>622</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>739</v>
+        <v>623</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>253</v>
@@ -7187,10 +8711,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>253</v>
@@ -7198,10 +8722,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>253</v>
@@ -7209,10 +8733,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>253</v>
@@ -7220,10 +8744,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>253</v>
@@ -7231,10 +8755,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>253</v>
@@ -7242,10 +8766,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>253</v>
@@ -7253,10 +8777,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>253</v>
@@ -7264,12 +8788,551 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C205" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A212" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A227" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A235" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>253</v>
       </c>
     </row>
@@ -7351,7 +9414,7 @@
         <v>금화</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>VLOOKUP(G2,TextTag!$A:$B,2,0)</f>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7BFC62-A6A6-403D-9CAA-241256A65734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223531E6-C105-4F24-BEA2-FAD944ECEFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="3930" windowWidth="20400" windowHeight="12675" tabRatio="684" firstSheet="2" activeTab="11" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="7665" yWindow="3930" windowWidth="20400" windowHeight="12675" tabRatio="684" firstSheet="4" activeTab="12" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="RewardProb" sheetId="12" r:id="rId10"/>
     <sheet name="Hero" sheetId="14" r:id="rId11"/>
     <sheet name="Dialog" sheetId="16" r:id="rId12"/>
+    <sheet name="InjuryProb" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="885">
   <si>
     <t>녹슨 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -933,10 +934,6 @@
   </si>
   <si>
     <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1395,10 +1392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name_You</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2155,47 +2148,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아니. 이곳으로 이끌려온 것일거외다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무슨 근거로 그렇게 말씀하시는 겁니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_5</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_6</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_7</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_8</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_9</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_10</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_11</t>
-  </si>
-  <si>
     <t>이것은 단순한 우연이 아니야.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2221,18 +2181,6 @@
   </si>
   <si>
     <t>혹시 이곳에 머물면서 마법대 작동을 도와주겠나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2245,31 +2193,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어차피 딱히 갈 곳도 없는 형편일터인데 이 노인네 좀 도와주게.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제가 그 일을 할 수 있을까요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마법대가 그렇게 반응한 걸 봐선 가능할 것 같은데.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2581,36 +2513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_2</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_3</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_4</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_12</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_13</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_14</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_15</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_16</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_17</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_18</t>
-  </si>
-  <si>
     <t>내 이곳을 관리하고 있는데 오늘 밤 마법대에서 빛이 흘러나오는 걸 보고 자네를 발견했네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2658,34 +2560,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_19</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정리가 끝났으니 한 번 들어가보게.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_20</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_21</t>
-  </si>
-  <si>
     <t>Trader_Name_0</t>
   </si>
   <si>
-    <t>Tutorial_Text_Start_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장비 중 하나를 드래그 해 다른 장비 위로 올려보게.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2708,26 +2589,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내가 준 문양을 받았나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일종의 허가증 같은 거라고 할 수 있지.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건물 레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2749,10 +2614,6 @@
   </si>
   <si>
     <t>왕국의 문장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2781,26 +2642,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_22</t>
-  </si>
-  <si>
     <t>괜찮은 장비를 만들어냈군.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_23</t>
-  </si>
-  <si>
     <t>오 성공했구만.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_24</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_25</t>
-  </si>
-  <si>
     <t>만들어진 장비를 나에게 줄 수 있나?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2809,37 +2658,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_26</t>
-  </si>
-  <si>
     <t>일단 저 거래소 정리 좀 해주겠나?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_27</t>
-  </si>
-  <si>
     <t>정리가 끝났으니 안에서 기다리고 있겠네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_28</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_29</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위에 있는 나를 선택해주게.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_30</t>
-  </si>
-  <si>
     <t>내가 임무를 줄테니 확인해보게나.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2848,131 +2678,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_31</t>
-  </si>
-  <si>
     <t>방금 만든 장비를 건네주게나.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_32</t>
-  </si>
-  <si>
     <t>잘 받았네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_33</t>
-  </si>
-  <si>
     <t>이건 마을을 복구하고 성장시키기 위해 필요한 문장일세.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_34</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_35</t>
-  </si>
-  <si>
     <t>그럼 보상을 받아주게나.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_36</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_37</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아마 건물 위에 필요한 목록이 보일테야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그 목록을 충족한다면 건물을 복구할 수 있네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_38</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_39</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한 번 해보겠나?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_40</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_41</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_42</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_43</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방금 건설한 여관으로 들어가보게.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_44</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여관 주인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_45</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오랜만입니다 관리인씨.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2981,90 +2718,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_46</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이곳에 다시 여관을 연다길래 한걸음에 달려왔죠.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_47</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 사람은 이전 여관 주인의 아들 녀석이라네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_48</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 분이 죽은 마법대를 살려놓았다는 바로 그 분입니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_49</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>덕분에 여관을 다시 열 수 있게 되어 정말 기쁩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_50</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이야기는 여기까지 하고 사람들은 도착했나?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_51</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이전처럼 붐비진 않아도 몇 명이 도착했습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_52</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이쪽에 모여있으니 한번 고용해보시지요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_53</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name_Inn_Master</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3077,13 +2758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_54</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>처음뵙겠습니다. 일거리는 어디있습니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3092,53 +2766,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_55</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 같이 캠프로 이동하세나.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_56</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>첫 원정은 작은 숲 속에 있는 던전에 다녀오는 것이라네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_57</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_58</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>던전이라.. 적을 물리치는 일입니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_59</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적을 물리치고 쓸만한 장비를 가져오게.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3147,42 +2782,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_60</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뭐 괜찮은 일이군요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_61</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그다지 많지 않네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_62</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_63</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자네라면 충분히 해결할 수 있을 정도야.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3191,70 +2798,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_64</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그럼 출발하시죠.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_65</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_66</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_67</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_68</t>
-  </si>
-  <si>
     <t>원정 멤버에 저를 추가해주십시오.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그럼 준비하시죠.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원정이 끝났다고 전달받았네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캠프로 가 어떤 성과를 얻었는지 확인해보지.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_69</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_70</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_71</t>
-  </si>
-  <si>
     <t>다시 합성할 장비를 얻었군.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3263,20 +2826,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_72</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그걸 전달하면 되는거지.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_73</t>
-  </si>
-  <si>
     <t>앞으로도 잘 부탁하네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3289,17 +2842,409 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_74</t>
-  </si>
-  <si>
     <t>잘 부탁드립니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial_Text_Start_75</t>
-  </si>
-  <si>
-    <t>Tutorial_Text_Start_75</t>
+    <t>tutorialType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 꺼내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 건물 건설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머지 창 진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 창 진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 수락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여관 건설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여관 진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프 건설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프 진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정 멤버로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정 멤버 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마 다른 건물 위에 필요한 목록이 보일테야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_4</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_5</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_6</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_7</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_8</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_9</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_10</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_11</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_12</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_13</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_14</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_15</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_16</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_17</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_18</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_402</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_403</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_404</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1002</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1003</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1102</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1103</t>
+  </si>
+  <si>
+    <t>내가 준 문장을 받았나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1202</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1203</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1302</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1303</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1304</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1305</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1306</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1307</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1308</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1402</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 먼저 원정 캠프를 복구해야겠군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 지은 원정 캠프에 들어가보겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1602</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1603</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1604</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1605</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1606</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1607</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1608</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_1700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_1901</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text_2001</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_2002</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_2003</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_2004</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_2005</t>
+  </si>
+  <si>
+    <t>Tutorial_Text_2006</t>
+  </si>
+  <si>
+    <t>minorProb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalProb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seriousProb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noProb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3420,7 +3365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3450,6 +3395,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3785,10 +3733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5073855D-C842-4656-A833-2B6B73AA17C6}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3798,9 +3746,11 @@
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="7" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3819,8 +3769,14 @@
       <c r="H1" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>-1</v>
       </c>
@@ -3839,8 +3795,14 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -3859,8 +3821,14 @@
       <c r="H3" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3879,8 +3847,14 @@
       <c r="H4" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3891,52 +3865,180 @@
       <c r="E5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>749</v>
+        <v>710</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" s="1">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" s="1">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" s="1">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" s="1">
+        <v>14</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J17" s="1">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J18" s="1">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J19" s="1">
+        <v>17</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J20" s="1">
+        <v>18</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J21" s="1">
+        <v>19</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J22" s="1">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>797</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3949,7 +4051,7 @@
   <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3991,67 +4093,67 @@
         <v>226</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -5015,7 +5117,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5118,1481 +5220,2443 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06657BE-31C1-48D2-ADE5-9F6992BF0CAC}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.875" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="82.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(B2,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>VLOOKUP(B2,TextTag!$A:$B,2,0)</f>
-        <v>???</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>VLOOKUP(D2,TextTag!$A:$B,2,0)</f>
+        <v>???</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>"Tutorial_Text_"&amp;A2</f>
+        <v>Tutorial_Text_0</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>VLOOKUP(F2,TextTag!$A:$B,2,0)</f>
         <v>당신은 누구신지요?</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>380</v>
+      <c r="B3" s="1">
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>VLOOKUP(B3,TextTag!$A:$B,2,0)</f>
-        <v>매그</v>
+        <f>VLOOKUP(B3,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>VLOOKUP(D3,TextTag!$A:$B,2,0)</f>
+        <v>매그</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F67" si="0">"Tutorial_Text_"&amp;A3</f>
+        <v>Tutorial_Text_1</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>VLOOKUP(F3,TextTag!$A:$B,2,0)</f>
         <v>저는 집을 떠나 떠도는 나그네일 뿐입니다.</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(B4,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>VLOOKUP(B4,TextTag!$A:$B,2,0)</f>
-        <v>???</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>VLOOKUP(D4,TextTag!$A:$B,2,0)</f>
+        <v>???</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_2</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>VLOOKUP(F4,TextTag!$A:$B,2,0)</f>
         <v>아니. 이곳으로 이끌려온 것일거외다.</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>380</v>
+      <c r="B5" s="1">
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>VLOOKUP(B5,TextTag!$A:$B,2,0)</f>
-        <v>매그</v>
+        <f>VLOOKUP(B5,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>709</v>
+        <v>378</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>VLOOKUP(D5,TextTag!$A:$B,2,0)</f>
+        <v>매그</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_3</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>VLOOKUP(F5,TextTag!$A:$B,2,0)</f>
         <v>무슨 근거로 그렇게 말씀하시는 겁니까?</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>719</v>
+      <c r="B6" s="1">
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>VLOOKUP(B6,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B6,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>VLOOKUP(D6,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_4</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>VLOOKUP(F6,TextTag!$A:$B,2,0)</f>
         <v>내 이곳을 관리하고 있는데 오늘 밤 마법대에서 빛이 흘러나오는 걸 보고 자네를 발견했네.</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>719</v>
+      <c r="B7" s="1">
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>VLOOKUP(B7,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B7,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>597</v>
+        <v>690</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>VLOOKUP(D7,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_5</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>VLOOKUP(F7,TextTag!$A:$B,2,0)</f>
         <v>이것은 단순한 우연이 아니야.</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>380</v>
+      <c r="B8" s="1">
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>VLOOKUP(B8,TextTag!$A:$B,2,0)</f>
-        <v>매그</v>
+        <f>VLOOKUP(B8,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>598</v>
+        <v>378</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>VLOOKUP(D8,TextTag!$A:$B,2,0)</f>
+        <v>매그</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_6</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>VLOOKUP(F8,TextTag!$A:$B,2,0)</f>
         <v>그게 대체 무슨 소리입니까?</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>719</v>
+      <c r="B9" s="1">
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>VLOOKUP(B9,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B9,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>599</v>
+        <v>690</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>VLOOKUP(D9,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_7</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>VLOOKUP(F9,TextTag!$A:$B,2,0)</f>
         <v>자네가 가진 마법 능력 때문에 내쫓긴 것이 아닌가?</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>380</v>
+      <c r="B10" s="1">
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>VLOOKUP(B10,TextTag!$A:$B,2,0)</f>
-        <v>매그</v>
+        <f>VLOOKUP(B10,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>600</v>
+        <v>378</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>VLOOKUP(D10,TextTag!$A:$B,2,0)</f>
+        <v>매그</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_8</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>VLOOKUP(F10,TextTag!$A:$B,2,0)</f>
         <v xml:space="preserve">잘 아시는군요. </v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>380</v>
+      <c r="B11" s="1">
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>VLOOKUP(B11,TextTag!$A:$B,2,0)</f>
-        <v>매그</v>
+        <f>VLOOKUP(B11,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>601</v>
+        <v>378</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>VLOOKUP(D11,TextTag!$A:$B,2,0)</f>
+        <v>매그</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_9</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>VLOOKUP(F11,TextTag!$A:$B,2,0)</f>
         <v>이전에도 이런 일이 있었던 겁니까?</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>719</v>
+      <c r="B12" s="1">
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>VLOOKUP(B12,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B12,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>602</v>
+        <v>690</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>VLOOKUP(D12,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_10</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>VLOOKUP(F12,TextTag!$A:$B,2,0)</f>
         <v>그것도 한 20년 전의 이야기지.</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>719</v>
+      <c r="B13" s="1">
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>VLOOKUP(B13,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B13,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>603</v>
+        <v>690</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>VLOOKUP(D13,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_11</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>VLOOKUP(F13,TextTag!$A:$B,2,0)</f>
         <v>혹시 이곳에 머물면서 마법대 작동을 도와주겠나?</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>380</v>
+      <c r="B14" s="1">
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>VLOOKUP(B14,TextTag!$A:$B,2,0)</f>
-        <v>매그</v>
+        <f>VLOOKUP(B14,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>711</v>
+        <v>378</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP(D14,TextTag!$A:$B,2,0)</f>
+        <v>매그</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_12</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>VLOOKUP(F14,TextTag!$A:$B,2,0)</f>
         <v>그 마법대란게 대체 뭡니까?</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>719</v>
+      <c r="B15" s="1">
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>VLOOKUP(B15,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B15,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>VLOOKUP(D15,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_13</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>VLOOKUP(F15,TextTag!$A:$B,2,0)</f>
         <v>작동 원리는 나도 잘 모른다만
 기본적으론 마법으로 장비를 만들어내는 장치야.</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>719</v>
+      <c r="B16" s="1">
+        <v>0</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>VLOOKUP(B16,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B16,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP(D16,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_14</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>VLOOKUP(F16,TextTag!$A:$B,2,0)</f>
         <v>같은 물건을 합쳐서 더 좋은 무언가를 만들어낸다고 하더군.</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>719</v>
+      <c r="B17" s="1">
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>VLOOKUP(B17,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B17,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>VLOOKUP(D17,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_15</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>VLOOKUP(F17,TextTag!$A:$B,2,0)</f>
         <v>어차피 딱히 갈 곳도 없는 형편일터인데 이 노인네 좀 도와주게.</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>380</v>
+      <c r="B18" s="1">
+        <v>0</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>VLOOKUP(B18,TextTag!$A:$B,2,0)</f>
-        <v>매그</v>
+        <f>VLOOKUP(B18,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>715</v>
+        <v>378</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>VLOOKUP(D18,TextTag!$A:$B,2,0)</f>
+        <v>매그</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_16</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>VLOOKUP(F18,TextTag!$A:$B,2,0)</f>
         <v>제가 그 일을 할 수 있을까요?</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>719</v>
+      <c r="B19" s="1">
+        <v>0</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>VLOOKUP(B19,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B19,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>VLOOKUP(D19,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_17</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>VLOOKUP(F19,TextTag!$A:$B,2,0)</f>
         <v>마법대가 그렇게 반응한 걸 봐선 가능할 것 같은데.</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>719</v>
+      <c r="B20" s="1">
+        <v>0</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>VLOOKUP(B20,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B20,Reference!$J:$K,2,0)</f>
+        <v>시작</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>VLOOKUP(D20,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_18</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>VLOOKUP(F20,TextTag!$A:$B,2,0)</f>
         <v>일단 마법대 정리 좀 해주겠나?</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>719</v>
+        <v>100</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>VLOOKUP(B21,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B21,Reference!$J:$K,2,0)</f>
+        <v>머지 창 진입</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>VLOOKUP(D21,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_100</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>VLOOKUP(F21,TextTag!$A:$B,2,0)</f>
         <v>정리가 끝났으니 한 번 들어가보게.</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>735</v>
+        <v>200</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>VLOOKUP(B22,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B22,Reference!$J:$K,2,0)</f>
+        <v>아이템 꺼내기</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>733</v>
+        <v>702</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>VLOOKUP(D22,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_200</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>VLOOKUP(F22,TextTag!$A:$B,2,0)</f>
         <v>위에 있는 상자에서 장비를 두 개 꺼내보게.</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>735</v>
+        <v>300</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>VLOOKUP(B23,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B23,Reference!$J:$K,2,0)</f>
+        <v>아이템 머지</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="E23" s="1" t="str">
         <f>VLOOKUP(D23,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_300</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>VLOOKUP(F23,TextTag!$A:$B,2,0)</f>
         <v>장비 중 하나를 드래그 해 다른 장비 위로 올려보게.</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>735</v>
+        <v>400</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>VLOOKUP(B24,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B24,Reference!$J:$K,2,0)</f>
+        <v>퀘스트 건물 건설</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>762</v>
+        <v>702</v>
       </c>
       <c r="E24" s="1" t="str">
         <f>VLOOKUP(D24,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_400</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>VLOOKUP(F24,TextTag!$A:$B,2,0)</f>
         <v>오 성공했구만.</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>735</v>
+        <v>401</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>VLOOKUP(B25,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B25,Reference!$J:$K,2,0)</f>
+        <v>퀘스트 건물 건설</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>764</v>
+        <v>702</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>VLOOKUP(D25,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_401</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>VLOOKUP(F25,TextTag!$A:$B,2,0)</f>
         <v>괜찮은 장비를 만들어냈군.</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>735</v>
+        <v>402</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>VLOOKUP(B26,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B26,Reference!$J:$K,2,0)</f>
+        <v>퀘스트 건물 건설</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>766</v>
+        <v>702</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>VLOOKUP(D26,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_402</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f>VLOOKUP(F26,TextTag!$A:$B,2,0)</f>
         <v>만들어진 장비를 나에게 줄 수 있나?</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>735</v>
+        <v>403</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>VLOOKUP(B27,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B27,Reference!$J:$K,2,0)</f>
+        <v>퀘스트 건물 건설</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>767</v>
+        <v>702</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>VLOOKUP(D27,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_403</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f>VLOOKUP(F27,TextTag!$A:$B,2,0)</f>
         <v>그걸로 이 마을을 복구할 물건을 좀 구해오지.</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>735</v>
+        <v>404</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>VLOOKUP(B28,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B28,Reference!$J:$K,2,0)</f>
+        <v>퀘스트 건물 건설</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>770</v>
+        <v>702</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>VLOOKUP(D28,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_404</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f>VLOOKUP(F28,TextTag!$A:$B,2,0)</f>
         <v>일단 저 거래소 정리 좀 해주겠나?</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>735</v>
+        <v>500</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>VLOOKUP(B29,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B29,Reference!$J:$K,2,0)</f>
+        <v>퀘스트 창 진입</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>772</v>
+        <v>702</v>
       </c>
       <c r="E29" s="1" t="str">
         <f>VLOOKUP(D29,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_500</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>VLOOKUP(F29,TextTag!$A:$B,2,0)</f>
         <v>정리가 끝났으니 안에서 기다리고 있겠네.</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>735</v>
+        <v>600</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>VLOOKUP(B30,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B30,Reference!$J:$K,2,0)</f>
+        <v>상인 클릭</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>774</v>
+        <v>702</v>
       </c>
       <c r="E30" s="1" t="str">
         <f>VLOOKUP(D30,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_600</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f>VLOOKUP(F30,TextTag!$A:$B,2,0)</f>
         <v>위에 있는 나를 선택해주게.</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>735</v>
+        <v>700</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>VLOOKUP(B31,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B31,Reference!$J:$K,2,0)</f>
+        <v>퀘스트 클릭</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>775</v>
+        <v>702</v>
       </c>
       <c r="E31" s="1" t="str">
         <f>VLOOKUP(D31,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_700</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f>VLOOKUP(F31,TextTag!$A:$B,2,0)</f>
         <v>내가 임무를 줄테니 확인해보게나.</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>735</v>
+        <v>800</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>VLOOKUP(B32,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B32,Reference!$J:$K,2,0)</f>
+        <v>퀘스트 수락</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>778</v>
+        <v>702</v>
       </c>
       <c r="E32" s="1" t="str">
         <f>VLOOKUP(D32,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_800</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f>VLOOKUP(F32,TextTag!$A:$B,2,0)</f>
         <v>내용을 확인했다면 임무를 받아주게나.</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>735</v>
+        <v>900</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>VLOOKUP(B33,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B33,Reference!$J:$K,2,0)</f>
+        <v>퀘스트 제출</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>781</v>
+        <v>702</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>VLOOKUP(D33,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_900</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f>VLOOKUP(F33,TextTag!$A:$B,2,0)</f>
         <v>방금 만든 장비를 건네주게나.</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>735</v>
+        <v>1000</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>VLOOKUP(B34,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B34,Reference!$J:$K,2,0)</f>
+        <v>보상 획득</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>784</v>
+        <v>702</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>VLOOKUP(D34,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1000</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f>VLOOKUP(F34,TextTag!$A:$B,2,0)</f>
         <v>잘 받았네.</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>735</v>
+        <v>1001</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>VLOOKUP(B35,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B35,Reference!$J:$K,2,0)</f>
+        <v>보상 획득</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>786</v>
+        <v>702</v>
       </c>
       <c r="E35" s="1" t="str">
         <f>VLOOKUP(D35,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1001</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f>VLOOKUP(F35,TextTag!$A:$B,2,0)</f>
         <v>이건 마을을 복구하고 성장시키기 위해 필요한 문장일세.</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>735</v>
+        <v>1002</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>VLOOKUP(B36,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B36,Reference!$J:$K,2,0)</f>
+        <v>보상 획득</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>788</v>
+        <v>702</v>
       </c>
       <c r="E36" s="1" t="str">
         <f>VLOOKUP(D36,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1002</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f>VLOOKUP(F36,TextTag!$A:$B,2,0)</f>
         <v>일종의 허가증 같은 거라고 할 수 있지.</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>735</v>
+        <v>1003</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>VLOOKUP(B37,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B37,Reference!$J:$K,2,0)</f>
+        <v>보상 획득</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>789</v>
+        <v>702</v>
       </c>
       <c r="E37" s="1" t="str">
         <f>VLOOKUP(D37,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1003</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f>VLOOKUP(F37,TextTag!$A:$B,2,0)</f>
         <v>그럼 보상을 받아주게나.</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>735</v>
+        <v>1100</v>
+      </c>
+      <c r="B38" s="1">
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f>VLOOKUP(B38,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B38,Reference!$J:$K,2,0)</f>
+        <v>여관 건설</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>791</v>
+        <v>702</v>
       </c>
       <c r="E38" s="1" t="str">
         <f>VLOOKUP(D38,TextTag!$A:$B,2,0)</f>
-        <v>내가 준 문양을 받았나?</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1100</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f>VLOOKUP(F38,TextTag!$A:$B,2,0)</f>
+        <v>내가 준 문장을 받았나?</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>735</v>
+        <v>1101</v>
+      </c>
+      <c r="B39" s="1">
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>VLOOKUP(B39,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B39,Reference!$J:$K,2,0)</f>
+        <v>여관 건설</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>793</v>
+        <v>702</v>
       </c>
       <c r="E39" s="1" t="str">
         <f>VLOOKUP(D39,TextTag!$A:$B,2,0)</f>
-        <v>아마 건물 위에 필요한 목록이 보일테야.</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1101</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f>VLOOKUP(F39,TextTag!$A:$B,2,0)</f>
+        <v>아마 다른 건물 위에 필요한 목록이 보일테야.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>735</v>
+        <v>1102</v>
+      </c>
+      <c r="B40" s="1">
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f>VLOOKUP(B40,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B40,Reference!$J:$K,2,0)</f>
+        <v>여관 건설</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>797</v>
+        <v>702</v>
       </c>
       <c r="E40" s="1" t="str">
         <f>VLOOKUP(D40,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1102</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f>VLOOKUP(F40,TextTag!$A:$B,2,0)</f>
         <v>그 목록을 충족한다면 건물을 복구할 수 있네.</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>735</v>
+        <v>1103</v>
+      </c>
+      <c r="B41" s="1">
+        <v>11</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f>VLOOKUP(B41,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B41,Reference!$J:$K,2,0)</f>
+        <v>여관 건설</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>799</v>
+        <v>702</v>
       </c>
       <c r="E41" s="1" t="str">
         <f>VLOOKUP(D41,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1103</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f>VLOOKUP(F41,TextTag!$A:$B,2,0)</f>
         <v>한 번 해보겠나?</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>735</v>
+        <v>1200</v>
+      </c>
+      <c r="B42" s="1">
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f>VLOOKUP(B42,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B42,Reference!$J:$K,2,0)</f>
+        <v>여관 진입</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>802</v>
+        <v>702</v>
       </c>
       <c r="E42" s="1" t="str">
         <f>VLOOKUP(D42,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1200</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f>VLOOKUP(F42,TextTag!$A:$B,2,0)</f>
         <v>창고에 있던 장비가 바닥을 드러냈군.</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>735</v>
+        <v>1201</v>
+      </c>
+      <c r="B43" s="1">
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f>VLOOKUP(B43,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B43,Reference!$J:$K,2,0)</f>
+        <v>여관 진입</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>804</v>
+        <v>702</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>VLOOKUP(D43,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1201</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f>VLOOKUP(F43,TextTag!$A:$B,2,0)</f>
         <v>장비를 구하기 위해선 사람을 보내야 해.</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>735</v>
+        <v>1202</v>
+      </c>
+      <c r="B44" s="1">
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f>VLOOKUP(B44,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B44,Reference!$J:$K,2,0)</f>
+        <v>여관 진입</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>806</v>
+        <v>702</v>
       </c>
       <c r="E44" s="1" t="str">
         <f>VLOOKUP(D44,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1202</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f>VLOOKUP(F44,TextTag!$A:$B,2,0)</f>
         <v>이런 일에 능숙한 사람을 찾아볼까.</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>735</v>
+        <v>1203</v>
+      </c>
+      <c r="B45" s="1">
+        <v>12</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f>VLOOKUP(B45,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B45,Reference!$J:$K,2,0)</f>
+        <v>여관 진입</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>808</v>
+        <v>702</v>
       </c>
       <c r="E45" s="1" t="str">
         <f>VLOOKUP(D45,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1203</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f>VLOOKUP(F45,TextTag!$A:$B,2,0)</f>
         <v>방금 건설한 여관으로 들어가보게.</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>841</v>
+        <v>1300</v>
+      </c>
+      <c r="B46" s="1">
+        <v>13</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f>VLOOKUP(B46,TextTag!$A:$B,2,0)</f>
-        <v>여관 주인</v>
+        <f>VLOOKUP(B46,Reference!$J:$K,2,0)</f>
+        <v>고용</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>811</v>
+        <v>748</v>
       </c>
       <c r="E46" s="1" t="str">
         <f>VLOOKUP(D46,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1300</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f>VLOOKUP(F46,TextTag!$A:$B,2,0)</f>
         <v>오랜만입니다 관리인씨.</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>841</v>
+        <v>1301</v>
+      </c>
+      <c r="B47" s="1">
+        <v>13</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f>VLOOKUP(B47,TextTag!$A:$B,2,0)</f>
-        <v>여관 주인</v>
+        <f>VLOOKUP(B47,Reference!$J:$K,2,0)</f>
+        <v>고용</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="E47" s="1" t="str">
         <f>VLOOKUP(D47,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1301</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f>VLOOKUP(F47,TextTag!$A:$B,2,0)</f>
         <v>아직까지 이곳에 계셨을 줄이야.</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>841</v>
+        <v>1302</v>
+      </c>
+      <c r="B48" s="1">
+        <v>13</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f>VLOOKUP(B48,TextTag!$A:$B,2,0)</f>
-        <v>여관 주인</v>
+        <f>VLOOKUP(B48,Reference!$J:$K,2,0)</f>
+        <v>고용</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>818</v>
+        <v>748</v>
       </c>
       <c r="E48" s="1" t="str">
         <f>VLOOKUP(D48,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1302</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f>VLOOKUP(F48,TextTag!$A:$B,2,0)</f>
         <v>이곳에 다시 여관을 연다길래 한걸음에 달려왔죠.</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>735</v>
+        <v>1303</v>
+      </c>
+      <c r="B49" s="1">
+        <v>13</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f>VLOOKUP(B49,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B49,Reference!$J:$K,2,0)</f>
+        <v>고용</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>821</v>
+        <v>702</v>
       </c>
       <c r="E49" s="1" t="str">
         <f>VLOOKUP(D49,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1303</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f>VLOOKUP(F49,TextTag!$A:$B,2,0)</f>
         <v>이 사람은 이전 여관 주인의 아들 녀석이라네.</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>841</v>
+        <v>1304</v>
+      </c>
+      <c r="B50" s="1">
+        <v>13</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f>VLOOKUP(B50,TextTag!$A:$B,2,0)</f>
-        <v>여관 주인</v>
+        <f>VLOOKUP(B50,Reference!$J:$K,2,0)</f>
+        <v>고용</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>824</v>
+        <v>748</v>
       </c>
       <c r="E50" s="1" t="str">
         <f>VLOOKUP(D50,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1304</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f>VLOOKUP(F50,TextTag!$A:$B,2,0)</f>
         <v>이 분이 죽은 마법대를 살려놓았다는 바로 그 분입니까?</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>841</v>
+        <v>1305</v>
+      </c>
+      <c r="B51" s="1">
+        <v>13</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f>VLOOKUP(B51,TextTag!$A:$B,2,0)</f>
-        <v>여관 주인</v>
+        <f>VLOOKUP(B51,Reference!$J:$K,2,0)</f>
+        <v>고용</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>827</v>
+        <v>748</v>
       </c>
       <c r="E51" s="1" t="str">
         <f>VLOOKUP(D51,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1305</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f>VLOOKUP(F51,TextTag!$A:$B,2,0)</f>
         <v>덕분에 여관을 다시 열 수 있게 되어 정말 기쁩니다.</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>735</v>
+        <v>1306</v>
+      </c>
+      <c r="B52" s="1">
+        <v>13</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f>VLOOKUP(B52,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B52,Reference!$J:$K,2,0)</f>
+        <v>고용</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
       <c r="E52" s="1" t="str">
         <f>VLOOKUP(D52,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1306</v>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f>VLOOKUP(F52,TextTag!$A:$B,2,0)</f>
         <v>이야기는 여기까지 하고 사람들은 도착했나?</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>841</v>
+        <v>1307</v>
+      </c>
+      <c r="B53" s="1">
+        <v>13</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f>VLOOKUP(B53,TextTag!$A:$B,2,0)</f>
-        <v>여관 주인</v>
+        <f>VLOOKUP(B53,Reference!$J:$K,2,0)</f>
+        <v>고용</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>833</v>
+        <v>748</v>
       </c>
       <c r="E53" s="1" t="str">
         <f>VLOOKUP(D53,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1307</v>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f>VLOOKUP(F53,TextTag!$A:$B,2,0)</f>
         <v>이전처럼 붐비진 않아도 몇 명이 도착했습니다.</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>841</v>
+        <v>1308</v>
+      </c>
+      <c r="B54" s="1">
+        <v>13</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f>VLOOKUP(B54,TextTag!$A:$B,2,0)</f>
-        <v>여관 주인</v>
+        <f>VLOOKUP(B54,Reference!$J:$K,2,0)</f>
+        <v>고용</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>836</v>
+        <v>748</v>
       </c>
       <c r="E54" s="1" t="str">
         <f>VLOOKUP(D54,TextTag!$A:$B,2,0)</f>
+        <v>여관 주인</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1308</v>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f>VLOOKUP(F54,TextTag!$A:$B,2,0)</f>
         <v>이쪽에 모여있으니 한번 고용해보시지요.</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>842</v>
+        <v>1400</v>
+      </c>
+      <c r="B55" s="1">
+        <v>14</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f>VLOOKUP(B55,TextTag!$A:$B,2,0)</f>
-        <v>용병 전사</v>
+        <f>VLOOKUP(B55,Reference!$J:$K,2,0)</f>
+        <v>캠프 건설</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>839</v>
+        <v>749</v>
       </c>
       <c r="E55" s="1" t="str">
         <f>VLOOKUP(D55,TextTag!$A:$B,2,0)</f>
+        <v>용병 전사</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1400</v>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f>VLOOKUP(F55,TextTag!$A:$B,2,0)</f>
         <v>처음뵙겠습니다. 일거리는 어디있습니까?</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>735</v>
+        <v>1401</v>
+      </c>
+      <c r="B56" s="1">
+        <v>14</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f>VLOOKUP(B56,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B56,Reference!$J:$K,2,0)</f>
+        <v>캠프 건설</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>844</v>
+        <v>702</v>
       </c>
       <c r="E56" s="1" t="str">
         <f>VLOOKUP(D56,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1401</v>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f>VLOOKUP(F56,TextTag!$A:$B,2,0)</f>
         <v>일이 급한가 보군.</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>735</v>
+        <v>1402</v>
+      </c>
+      <c r="B57" s="1">
+        <v>14</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f>VLOOKUP(B57,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B57,Reference!$J:$K,2,0)</f>
+        <v>캠프 건설</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>848</v>
+        <v>702</v>
       </c>
       <c r="E57" s="1" t="str">
         <f>VLOOKUP(D57,TextTag!$A:$B,2,0)</f>
-        <v>그럼 같이 캠프로 이동하세나.</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1402</v>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f>VLOOKUP(F57,TextTag!$A:$B,2,0)</f>
+        <v>그럼 먼저 원정 캠프를 복구해야겠군</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>735</v>
+        <v>1500</v>
+      </c>
+      <c r="B58" s="1">
+        <v>15</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f>VLOOKUP(B58,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B58,Reference!$J:$K,2,0)</f>
+        <v>캠프 진입</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>851</v>
+        <v>702</v>
       </c>
       <c r="E58" s="1" t="str">
         <f>VLOOKUP(D58,TextTag!$A:$B,2,0)</f>
-        <v>첫 원정은 작은 숲 속에 있는 던전에 다녀오는 것이라네.</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1500</v>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f>VLOOKUP(F58,TextTag!$A:$B,2,0)</f>
+        <v>방금 지은 원정 캠프에 들어가보겠나?</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>842</v>
+        <v>1600</v>
+      </c>
+      <c r="B59" s="1">
+        <v>16</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f>VLOOKUP(B59,TextTag!$A:$B,2,0)</f>
-        <v>용병 전사</v>
+        <f>VLOOKUP(B59,Reference!$J:$K,2,0)</f>
+        <v>원정 멤버로 이동</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>854</v>
+        <v>702</v>
       </c>
       <c r="E59" s="1" t="str">
         <f>VLOOKUP(D59,TextTag!$A:$B,2,0)</f>
-        <v>던전이라.. 적을 물리치는 일입니까?</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1600</v>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f>VLOOKUP(F59,TextTag!$A:$B,2,0)</f>
+        <v>첫 원정은 작은 숲 속에 있는 던전에 다녀오는 것이라네.</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>735</v>
+        <v>1601</v>
+      </c>
+      <c r="B60" s="1">
+        <v>16</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f>VLOOKUP(B60,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B60,Reference!$J:$K,2,0)</f>
+        <v>원정 멤버로 이동</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>856</v>
+        <v>749</v>
       </c>
       <c r="E60" s="1" t="str">
         <f>VLOOKUP(D60,TextTag!$A:$B,2,0)</f>
-        <v>적을 물리치고 쓸만한 장비를 가져오게.</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>용병 전사</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1601</v>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f>VLOOKUP(F60,TextTag!$A:$B,2,0)</f>
+        <v>던전이라.. 적을 물리치는 일입니까?</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>842</v>
+        <v>1602</v>
+      </c>
+      <c r="B61" s="1">
+        <v>16</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f>VLOOKUP(B61,TextTag!$A:$B,2,0)</f>
-        <v>용병 전사</v>
+        <f>VLOOKUP(B61,Reference!$J:$K,2,0)</f>
+        <v>원정 멤버로 이동</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>859</v>
+        <v>702</v>
       </c>
       <c r="E61" s="1" t="str">
         <f>VLOOKUP(D61,TextTag!$A:$B,2,0)</f>
-        <v>뭐 괜찮은 일이군요.</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1602</v>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f>VLOOKUP(F61,TextTag!$A:$B,2,0)</f>
+        <v>적을 물리치고 쓸만한 장비를 가져오게.</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>842</v>
+        <v>1603</v>
+      </c>
+      <c r="B62" s="1">
+        <v>16</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f>VLOOKUP(B62,TextTag!$A:$B,2,0)</f>
-        <v>용병 전사</v>
+        <f>VLOOKUP(B62,Reference!$J:$K,2,0)</f>
+        <v>원정 멤버로 이동</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>863</v>
+        <v>749</v>
       </c>
       <c r="E62" s="1" t="str">
         <f>VLOOKUP(D62,TextTag!$A:$B,2,0)</f>
-        <v>안에 적은 얼마나 있습니까?</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>용병 전사</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1603</v>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f>VLOOKUP(F62,TextTag!$A:$B,2,0)</f>
+        <v>뭐 괜찮은 일이군요.</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>735</v>
+        <v>1604</v>
+      </c>
+      <c r="B63" s="1">
+        <v>16</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f>VLOOKUP(B63,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B63,Reference!$J:$K,2,0)</f>
+        <v>원정 멤버로 이동</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>866</v>
+        <v>749</v>
       </c>
       <c r="E63" s="1" t="str">
         <f>VLOOKUP(D63,TextTag!$A:$B,2,0)</f>
-        <v>그다지 많지 않네.</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>용병 전사</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1604</v>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f>VLOOKUP(F63,TextTag!$A:$B,2,0)</f>
+        <v>안에 적은 얼마나 있습니까?</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>735</v>
+        <v>1605</v>
+      </c>
+      <c r="B64" s="1">
+        <v>16</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f>VLOOKUP(B64,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B64,Reference!$J:$K,2,0)</f>
+        <v>원정 멤버로 이동</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>869</v>
+        <v>702</v>
       </c>
       <c r="E64" s="1" t="str">
         <f>VLOOKUP(D64,TextTag!$A:$B,2,0)</f>
-        <v>자네라면 충분히 해결할 수 있을 정도야.</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1605</v>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f>VLOOKUP(F64,TextTag!$A:$B,2,0)</f>
+        <v>그다지 많지 않네.</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>842</v>
+        <v>1606</v>
+      </c>
+      <c r="B65" s="1">
+        <v>16</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f>VLOOKUP(B65,TextTag!$A:$B,2,0)</f>
-        <v>용병 전사</v>
+        <f>VLOOKUP(B65,Reference!$J:$K,2,0)</f>
+        <v>원정 멤버로 이동</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>871</v>
+        <v>702</v>
       </c>
       <c r="E65" s="1" t="str">
         <f>VLOOKUP(D65,TextTag!$A:$B,2,0)</f>
-        <v>알겠습니다.</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1606</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f>VLOOKUP(F65,TextTag!$A:$B,2,0)</f>
+        <v>자네라면 충분히 해결할 수 있을 정도야.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>842</v>
+        <v>1607</v>
+      </c>
+      <c r="B66" s="1">
+        <v>16</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f>VLOOKUP(B66,TextTag!$A:$B,2,0)</f>
-        <v>용병 전사</v>
+        <f>VLOOKUP(B66,Reference!$J:$K,2,0)</f>
+        <v>원정 멤버로 이동</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>875</v>
+        <v>749</v>
       </c>
       <c r="E66" s="1" t="str">
         <f>VLOOKUP(D66,TextTag!$A:$B,2,0)</f>
-        <v>그럼 준비하시죠.</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>용병 전사</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1607</v>
+      </c>
+      <c r="G66" s="1" t="str">
+        <f>VLOOKUP(F66,TextTag!$A:$B,2,0)</f>
+        <v>알겠습니다.</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>735</v>
+        <v>1608</v>
+      </c>
+      <c r="B67" s="1">
+        <v>16</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f>VLOOKUP(B67,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B67,Reference!$J:$K,2,0)</f>
+        <v>원정 멤버로 이동</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>878</v>
+        <v>749</v>
       </c>
       <c r="E67" s="1" t="str">
         <f>VLOOKUP(D67,TextTag!$A:$B,2,0)</f>
-        <v>원정 멤버에 저를 추가해주십시오.</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>용병 전사</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tutorial_Text_1608</v>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f>VLOOKUP(F67,TextTag!$A:$B,2,0)</f>
+        <v>그럼 준비하시죠.</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>735</v>
+        <v>1700</v>
+      </c>
+      <c r="B68" s="1">
+        <v>17</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f>VLOOKUP(B68,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B68,Reference!$J:$K,2,0)</f>
+        <v>원정 멤버 선택</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>880</v>
+        <v>749</v>
       </c>
       <c r="E68" s="1" t="str">
         <f>VLOOKUP(D68,TextTag!$A:$B,2,0)</f>
-        <v>그럼 출발하시죠.</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>용병 전사</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f t="shared" ref="F68:F78" si="1">"Tutorial_Text_"&amp;A68</f>
+        <v>Tutorial_Text_1700</v>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f>VLOOKUP(F68,TextTag!$A:$B,2,0)</f>
+        <v>원정 멤버에 저를 추가해주십시오.</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>735</v>
+        <v>1800</v>
+      </c>
+      <c r="B69" s="1">
+        <v>18</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f>VLOOKUP(B69,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B69,Reference!$J:$K,2,0)</f>
+        <v>원정 시작</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>881</v>
+        <v>749</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>VLOOKUP(D69,TextTag!$A:$B,2,0)</f>
-        <v>원정이 끝났다고 전달받았네.</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>용병 전사</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tutorial_Text_1800</v>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f>VLOOKUP(F69,TextTag!$A:$B,2,0)</f>
+        <v>그럼 출발하시죠.</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>735</v>
+        <v>1900</v>
+      </c>
+      <c r="B70" s="1">
+        <v>19</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f>VLOOKUP(B70,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B70,Reference!$J:$K,2,0)</f>
+        <v>원정 보상</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>882</v>
+        <v>702</v>
       </c>
       <c r="E70" s="1" t="str">
         <f>VLOOKUP(D70,TextTag!$A:$B,2,0)</f>
-        <v>캠프로 가 어떤 성과를 얻었는지 확인해보지.</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tutorial_Text_1900</v>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f>VLOOKUP(F70,TextTag!$A:$B,2,0)</f>
+        <v>원정이 끝났다고 전달받았네.</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>735</v>
+        <v>1901</v>
+      </c>
+      <c r="B71" s="1">
+        <v>19</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f>VLOOKUP(B71,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B71,Reference!$J:$K,2,0)</f>
+        <v>원정 보상</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>890</v>
+        <v>702</v>
       </c>
       <c r="E71" s="1" t="str">
         <f>VLOOKUP(D71,TextTag!$A:$B,2,0)</f>
-        <v>다시 합성할 장비를 얻었군.</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tutorial_Text_1901</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f>VLOOKUP(F71,TextTag!$A:$B,2,0)</f>
+        <v>캠프로 가 어떤 성과를 얻었는지 확인해보지.</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>735</v>
+        <v>2000</v>
+      </c>
+      <c r="B72" s="1">
+        <v>20</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f>VLOOKUP(B72,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B72,Reference!$J:$K,2,0)</f>
+        <v>튜토리얼 종료</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>891</v>
+        <v>702</v>
       </c>
       <c r="E72" s="1" t="str">
         <f>VLOOKUP(D72,TextTag!$A:$B,2,0)</f>
-        <v>지금까지 해왔던 걸 기억하는가?</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tutorial_Text_2000</v>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f>VLOOKUP(F72,TextTag!$A:$B,2,0)</f>
+        <v>다시 합성할 장비를 얻었군.</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>735</v>
+        <v>2001</v>
+      </c>
+      <c r="B73" s="1">
+        <v>20</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f>VLOOKUP(B73,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B73,Reference!$J:$K,2,0)</f>
+        <v>튜토리얼 종료</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>892</v>
+        <v>702</v>
       </c>
       <c r="E73" s="1" t="str">
         <f>VLOOKUP(D73,TextTag!$A:$B,2,0)</f>
-        <v>원정대를 통해 장비를 얻고 마법대에서 장비를 합성해</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tutorial_Text_2001</v>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f>VLOOKUP(F73,TextTag!$A:$B,2,0)</f>
+        <v>지금까지 해왔던 걸 기억하는가?</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>735</v>
+        <v>2002</v>
+      </c>
+      <c r="B74" s="1">
+        <v>20</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f>VLOOKUP(B74,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B74,Reference!$J:$K,2,0)</f>
+        <v>튜토리얼 종료</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>895</v>
+        <v>702</v>
       </c>
       <c r="E74" s="1" t="str">
         <f>VLOOKUP(D74,TextTag!$A:$B,2,0)</f>
-        <v>그걸 전달하면 되는거지.</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tutorial_Text_2002</v>
+      </c>
+      <c r="G74" s="1" t="str">
+        <f>VLOOKUP(F74,TextTag!$A:$B,2,0)</f>
+        <v>원정대를 통해 장비를 얻고 마법대에서 장비를 합성해</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>380</v>
+        <v>2003</v>
+      </c>
+      <c r="B75" s="1">
+        <v>20</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f>VLOOKUP(B75,TextTag!$A:$B,2,0)</f>
-        <v>매그</v>
+        <f>VLOOKUP(B75,Reference!$J:$K,2,0)</f>
+        <v>튜토리얼 종료</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>898</v>
+        <v>702</v>
       </c>
       <c r="E75" s="1" t="str">
         <f>VLOOKUP(D75,TextTag!$A:$B,2,0)</f>
-        <v>그렇군요.</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>관리인</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tutorial_Text_2003</v>
+      </c>
+      <c r="G75" s="1" t="str">
+        <f>VLOOKUP(F75,TextTag!$A:$B,2,0)</f>
+        <v>그걸 전달하면 되는거지.</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>735</v>
+        <v>2004</v>
+      </c>
+      <c r="B76" s="1">
+        <v>20</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f>VLOOKUP(B76,TextTag!$A:$B,2,0)</f>
-        <v>관리인</v>
+        <f>VLOOKUP(B76,Reference!$J:$K,2,0)</f>
+        <v>튜토리얼 종료</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>902</v>
+        <v>378</v>
       </c>
       <c r="E76" s="1" t="str">
         <f>VLOOKUP(D76,TextTag!$A:$B,2,0)</f>
-        <v>앞으로도 잘 부탁하네.</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>매그</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tutorial_Text_2004</v>
+      </c>
+      <c r="G76" s="1" t="str">
+        <f>VLOOKUP(F76,TextTag!$A:$B,2,0)</f>
+        <v>그렇군요.</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>380</v>
+        <v>2005</v>
+      </c>
+      <c r="B77" s="1">
+        <v>20</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f>VLOOKUP(B77,TextTag!$A:$B,2,0)</f>
-        <v>매그</v>
+        <f>VLOOKUP(B77,Reference!$J:$K,2,0)</f>
+        <v>튜토리얼 종료</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>904</v>
+        <v>702</v>
       </c>
       <c r="E77" s="1" t="str">
         <f>VLOOKUP(D77,TextTag!$A:$B,2,0)</f>
+        <v>관리인</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tutorial_Text_2005</v>
+      </c>
+      <c r="G77" s="1" t="str">
+        <f>VLOOKUP(F77,TextTag!$A:$B,2,0)</f>
+        <v>앞으로도 잘 부탁하네.</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B78" s="1">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>VLOOKUP(B78,Reference!$J:$K,2,0)</f>
+        <v>튜토리얼 종료</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f>VLOOKUP(D78,TextTag!$A:$B,2,0)</f>
+        <v>매그</v>
+      </c>
+      <c r="F78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Tutorial_Text_2006</v>
+      </c>
+      <c r="G78" s="1" t="str">
+        <f>VLOOKUP(F78,TextTag!$A:$B,2,0)</f>
         <v>잘 부탁드립니다.</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2:F78" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D6872E-B9A4-4D48-A924-92065692162D}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>-10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30</v>
+      </c>
+      <c r="F2" s="10">
+        <f t="shared" ref="F2:F14" si="0">(C2*1+D2*2+E2*4)/(B2+C2+D2+E2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>-9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>-8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>-7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>-6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>2.4166666666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9285714285714286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7272727272727273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <f>(C10*1+D10*2+E10*4)/(B10+C10+D10+E10)</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6603,16 +7667,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375FEDA8-0451-4789-BF9C-DBB1721B45C7}">
-  <dimension ref="A1:C254"/>
+  <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="A255" sqref="A255"/>
+    <sheetView topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.625" customWidth="1"/>
-    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.75" customWidth="1"/>
     <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6629,10 +7693,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>78</v>
@@ -6640,10 +7704,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>751</v>
+        <v>712</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>754</v>
+        <v>715</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>78</v>
@@ -6731,7 +7795,7 @@
         <v>154</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>1</v>
@@ -6863,7 +7927,7 @@
         <v>186</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>761</v>
+        <v>721</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1</v>
@@ -6915,10 +7979,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>1</v>
@@ -6926,10 +7990,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>1</v>
@@ -6937,10 +8001,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>1</v>
@@ -6948,10 +8012,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>1</v>
@@ -6959,10 +8023,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1</v>
@@ -6970,10 +8034,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>1</v>
@@ -6981,10 +8045,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>1</v>
@@ -6992,10 +8056,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>1</v>
@@ -7003,10 +8067,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>1</v>
@@ -7014,10 +8078,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>1</v>
@@ -7025,10 +8089,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>1</v>
@@ -7036,10 +8100,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>1</v>
@@ -7047,10 +8111,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>1</v>
@@ -7058,10 +8122,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>1</v>
@@ -7069,10 +8133,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>1</v>
@@ -7080,10 +8144,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>1</v>
@@ -7091,10 +8155,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>1</v>
@@ -7102,10 +8166,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>1</v>
@@ -7113,10 +8177,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>1</v>
@@ -7124,10 +8188,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>1</v>
@@ -7135,10 +8199,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>1</v>
@@ -7146,10 +8210,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>1</v>
@@ -7157,10 +8221,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>1</v>
@@ -7168,10 +8232,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>1</v>
@@ -7179,10 +8243,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>1</v>
@@ -7190,10 +8254,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>1</v>
@@ -7201,10 +8265,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>1</v>
@@ -7212,10 +8276,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>1</v>
@@ -7223,10 +8287,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>1</v>
@@ -7234,10 +8298,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>1</v>
@@ -7245,10 +8309,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>750</v>
+        <v>711</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>78</v>
@@ -7256,316 +8320,316 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>752</v>
+        <v>713</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>753</v>
+        <v>714</v>
       </c>
       <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C62" s="6"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C63" s="6"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C66" s="6"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C68" s="6"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C69" s="6"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C72" s="6"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C73" s="6"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C74" s="6"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C75" s="6"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C76" s="6"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C77" s="6"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C78" s="6"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C79" s="6"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C80" s="6"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C81" s="6"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C82" s="6"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C83" s="6"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C84" s="6"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C85" s="6"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C86" s="6"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C87" s="6"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C88" s="6"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C89" s="6"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C90" s="6"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C91" s="6"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C92" s="6"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C93" s="6"/>
     </row>
@@ -7626,7 +8690,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>719</v>
+        <v>690</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>241</v>
@@ -7637,24 +8701,24 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>723</v>
+        <v>694</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>721</v>
+        <v>692</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>722</v>
+        <v>693</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>724</v>
+        <v>695</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -7662,18 +8726,18 @@
         <v>17</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>11</v>
@@ -7684,18 +8748,18 @@
         <v>191</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>11</v>
@@ -7703,10 +8767,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>11</v>
@@ -7714,10 +8778,10 @@
     </row>
     <row r="107" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>353</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>11</v>
@@ -7725,21 +8789,21 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>11</v>
@@ -7747,10 +8811,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>11</v>
@@ -7758,10 +8822,10 @@
     </row>
     <row r="111" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>11</v>
@@ -7769,10 +8833,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>11</v>
@@ -7780,10 +8844,10 @@
     </row>
     <row r="113" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>11</v>
@@ -7791,21 +8855,21 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>11</v>
@@ -7813,21 +8877,21 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>503</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>502</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>11</v>
@@ -7835,10 +8899,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>508</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>510</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>11</v>
@@ -7846,10 +8910,10 @@
     </row>
     <row r="119" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>509</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>11</v>
@@ -7857,10 +8921,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>11</v>
@@ -7868,10 +8932,10 @@
     </row>
     <row r="121" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>11</v>
@@ -7879,10 +8943,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>11</v>
@@ -7890,10 +8954,10 @@
     </row>
     <row r="123" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>11</v>
@@ -7901,21 +8965,21 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>11</v>
@@ -7923,21 +8987,21 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>11</v>
@@ -7945,21 +9009,21 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>11</v>
@@ -7967,21 +9031,21 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>11</v>
@@ -7989,10 +9053,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>11</v>
@@ -8000,10 +9064,10 @@
     </row>
     <row r="133" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>11</v>
@@ -8011,21 +9075,21 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>11</v>
@@ -8033,10 +9097,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>11</v>
@@ -8044,10 +9108,10 @@
     </row>
     <row r="137" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>11</v>
@@ -8055,10 +9119,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>11</v>
@@ -8066,10 +9130,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>11</v>
@@ -8077,10 +9141,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>11</v>
@@ -8088,10 +9152,10 @@
     </row>
     <row r="141" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>11</v>
@@ -8099,10 +9163,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>11</v>
@@ -8110,10 +9174,10 @@
     </row>
     <row r="143" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>11</v>
@@ -8121,10 +9185,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>11</v>
@@ -8132,10 +9196,10 @@
     </row>
     <row r="145" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>11</v>
@@ -8143,10 +9207,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>11</v>
@@ -8154,10 +9218,10 @@
     </row>
     <row r="147" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>11</v>
@@ -8165,10 +9229,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>11</v>
@@ -8176,10 +9240,10 @@
     </row>
     <row r="149" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>11</v>
@@ -8187,10 +9251,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>11</v>
@@ -8198,10 +9262,10 @@
     </row>
     <row r="151" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>11</v>
@@ -8209,10 +9273,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>11</v>
@@ -8220,10 +9284,10 @@
     </row>
     <row r="153" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>11</v>
@@ -8231,10 +9295,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>11</v>
@@ -8242,10 +9306,10 @@
     </row>
     <row r="155" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>11</v>
@@ -8253,10 +9317,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>11</v>
@@ -8264,10 +9328,10 @@
     </row>
     <row r="157" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>11</v>
@@ -8275,21 +9339,21 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>11</v>
@@ -8297,21 +9361,21 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>11</v>
@@ -8322,7 +9386,7 @@
         <v>20</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>11</v>
@@ -8333,7 +9397,7 @@
         <v>144</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>11</v>
@@ -8341,10 +9405,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>11</v>
@@ -8352,10 +9416,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>11</v>
@@ -8363,10 +9427,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>11</v>
@@ -8374,10 +9438,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>11</v>
@@ -8385,10 +9449,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>11</v>
@@ -8396,10 +9460,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>11</v>
@@ -8407,10 +9471,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>11</v>
@@ -8418,10 +9482,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>11</v>
@@ -8473,867 +9537,878 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>841</v>
+        <v>748</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>813</v>
+        <v>738</v>
       </c>
       <c r="C177" s="6"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>842</v>
+        <v>749</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>843</v>
+        <v>750</v>
       </c>
       <c r="C178" s="6"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="C179" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>379</v>
+        <v>800</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>592</v>
+        <v>801</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>594</v>
+        <v>802</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>596</v>
+        <v>803</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>718</v>
+        <v>689</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>597</v>
+        <v>804</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>598</v>
+        <v>805</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>599</v>
+        <v>806</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>600</v>
+        <v>807</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>601</v>
+        <v>808</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>602</v>
+        <v>809</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>603</v>
+        <v>810</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>611</v>
+        <v>811</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>612</v>
+        <v>812</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>613</v>
+        <v>813</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>616</v>
+        <v>814</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>618</v>
+        <v>815</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>620</v>
+        <v>816</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>622</v>
+        <v>817</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>731</v>
+        <v>818</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>736</v>
+        <v>819</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>739</v>
+        <v>704</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>737</v>
+        <v>820</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>738</v>
+        <v>703</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>762</v>
+        <v>821</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>765</v>
+        <v>723</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>745</v>
+        <v>822</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>763</v>
+        <v>722</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>747</v>
+        <v>823</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>768</v>
+        <v>724</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>748</v>
+        <v>824</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>769</v>
+        <v>725</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>755</v>
+        <v>825</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>771</v>
+        <v>726</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>772</v>
+        <v>826</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>773</v>
+        <v>727</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
-        <v>774</v>
+        <v>827</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>777</v>
+        <v>728</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>776</v>
+        <v>828</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>779</v>
+        <v>729</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>778</v>
+        <v>829</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>780</v>
+        <v>730</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>783</v>
+        <v>830</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>782</v>
+        <v>731</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
-        <v>784</v>
+        <v>831</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>785</v>
+        <v>732</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>786</v>
+        <v>832</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>787</v>
+        <v>733</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>788</v>
+        <v>833</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>746</v>
+        <v>709</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>789</v>
+        <v>834</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>790</v>
+        <v>734</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
-        <v>792</v>
+        <v>835</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>744</v>
+        <v>839</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>794</v>
+        <v>836</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>798</v>
+        <v>837</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>796</v>
+        <v>735</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
-        <v>800</v>
+        <v>838</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>801</v>
+        <v>736</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
-        <v>803</v>
+        <v>840</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>756</v>
+        <v>716</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>757</v>
+        <v>717</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
-        <v>807</v>
+        <v>842</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>758</v>
+        <v>718</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>810</v>
+        <v>737</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>816</v>
+        <v>739</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>817</v>
+        <v>740</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
-        <v>819</v>
+        <v>846</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>820</v>
+        <v>741</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
-        <v>822</v>
+        <v>847</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>823</v>
+        <v>742</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>826</v>
+        <v>743</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
-        <v>828</v>
+        <v>849</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>829</v>
+        <v>744</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>832</v>
+        <v>745</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>835</v>
+        <v>746</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>838</v>
+        <v>747</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>846</v>
+        <v>751</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>847</v>
+        <v>752</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>858</v>
+        <v>753</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>861</v>
+        <v>754</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>865</v>
+        <v>755</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>862</v>
+        <v>757</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>868</v>
+        <v>756</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>873</v>
+        <v>758</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>874</v>
+        <v>759</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>885</v>
+        <v>760</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>883</v>
+        <v>763</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>877</v>
+        <v>762</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>887</v>
+        <v>761</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>889</v>
+        <v>764</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>893</v>
+        <v>765</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>900</v>
+        <v>766</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>894</v>
+        <v>770</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>897</v>
+        <v>767</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
-        <v>898</v>
+        <v>875</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>901</v>
+        <v>768</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>899</v>
+        <v>771</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>903</v>
+        <v>769</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -9358,7 +10433,7 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
     <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -9407,21 +10482,21 @@
         <v>돈</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(E2,TextTag!$A:$B,2,0)</f>
         <v>금화</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>750</v>
+        <v>711</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>VLOOKUP(G2,TextTag!$A:$B,2,0)</f>
         <v>흔히 거래에 사용되는 돈이다.</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -9446,14 +10521,14 @@
         <v>녹슨 검</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H3" s="1" t="str">
         <f>VLOOKUP(G3,TextTag!$A:$B,2,0)</f>
         <v>오래되어 녹슨 검이다.</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -9478,14 +10553,14 @@
         <v>민병의 검</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H4" s="1" t="str">
         <f>VLOOKUP(G4,TextTag!$A:$B,2,0)</f>
         <v>민병들이 사용하는 검이다.</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -9510,14 +10585,14 @@
         <v>신입 보병의 검</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>VLOOKUP(G5,TextTag!$A:$B,2,0)</f>
         <v>신입 보병이 사용하는 검이다.</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -9542,14 +10617,14 @@
         <v>숙련 보병의 검</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>VLOOKUP(G6,TextTag!$A:$B,2,0)</f>
         <v>숙련 보병이 사용하는 검이다.</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -9574,14 +10649,14 @@
         <v>하급 기사의 검</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>VLOOKUP(G7,TextTag!$A:$B,2,0)</f>
         <v>하급 기사가 사용하는 검이다.</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -9606,14 +10681,14 @@
         <v>기사의 검</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>VLOOKUP(G8,TextTag!$A:$B,2,0)</f>
         <v>기사가 사용하는 검이다.</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -9638,14 +10713,14 @@
         <v>상급 기사의 검</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>VLOOKUP(G9,TextTag!$A:$B,2,0)</f>
         <v>상급 기사가 사용하는 검이다.</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -9670,14 +10745,14 @@
         <v>후작의 검</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H10" s="1" t="e">
         <f>VLOOKUP(G10,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -9702,14 +10777,14 @@
         <v>공작의 검</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H11" s="1" t="e">
         <f>VLOOKUP(G11,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -9734,14 +10809,14 @@
         <v>왕자의 검</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H12" s="1" t="e">
         <f>VLOOKUP(G12,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -9766,14 +10841,14 @@
         <v>왕의 검</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H13" s="1" t="e">
         <f>VLOOKUP(G13,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -9798,14 +10873,14 @@
         <v>전설의 검</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H14" s="1" t="e">
         <f>VLOOKUP(G14,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -9830,14 +10905,14 @@
         <v>녹슨 도끼</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>VLOOKUP(G15,TextTag!$A:$B,2,0)</f>
         <v>오래되어 녹슨 도끼다.</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -9862,14 +10937,14 @@
         <v>민병의 도끼</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H16" s="1" t="str">
         <f>VLOOKUP(G16,TextTag!$A:$B,2,0)</f>
         <v>민병들이 사용하는 도끼다.</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -9894,14 +10969,14 @@
         <v>신입 보병의 도끼</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H17" s="1" t="str">
         <f>VLOOKUP(G17,TextTag!$A:$B,2,0)</f>
         <v>신입 보병이 사용하는 도끼다.</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -9926,14 +11001,14 @@
         <v>숙련 보병의 도끼</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>VLOOKUP(G18,TextTag!$A:$B,2,0)</f>
         <v>숙련 보병이 사용하는 도끼다.</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -9958,14 +11033,14 @@
         <v>하급 기사의 도끼</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>VLOOKUP(G19,TextTag!$A:$B,2,0)</f>
         <v>하급 기사가 사용하는 도끼다.</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -9990,14 +11065,14 @@
         <v>기사의 도끼</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H20" s="1" t="str">
         <f>VLOOKUP(G20,TextTag!$A:$B,2,0)</f>
         <v>기사가 사용하는 도끼다.</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -10022,14 +11097,14 @@
         <v>상급 기사의 도끼</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H21" s="1" t="str">
         <f>VLOOKUP(G21,TextTag!$A:$B,2,0)</f>
         <v>상급 기사가 사용하는 도끼다.</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -10054,14 +11129,14 @@
         <v>후작의 도끼</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H22" s="1" t="e">
         <f>VLOOKUP(G22,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -10086,14 +11161,14 @@
         <v>공작의 도끼</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H23" s="1" t="e">
         <f>VLOOKUP(G23,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -10118,14 +11193,14 @@
         <v>왕자의 도끼</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H24" s="1" t="e">
         <f>VLOOKUP(G24,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -10150,14 +11225,14 @@
         <v>왕의 도끼</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H25" s="1" t="e">
         <f>VLOOKUP(G25,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -10182,14 +11257,14 @@
         <v>전설의 도끼</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H26" s="1" t="e">
         <f>VLOOKUP(G26,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -10207,21 +11282,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>VLOOKUP(E27,TextTag!$A:$B,2,0)</f>
         <v>썩은 활</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H27" s="1" t="str">
         <f>VLOOKUP(G27,TextTag!$A:$B,2,0)</f>
         <v>활대가 상해 위력이 약한 활이다.</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -10239,21 +11314,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>VLOOKUP(E28,TextTag!$A:$B,2,0)</f>
         <v>신참 사냥꾼의 활</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H28" s="1" t="str">
         <f>VLOOKUP(G28,TextTag!$A:$B,2,0)</f>
         <v>신참 사냥꾼이 사용하는 활이다.</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -10271,21 +11346,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F29" s="1" t="str">
         <f>VLOOKUP(E29,TextTag!$A:$B,2,0)</f>
         <v>사냥꾼의 활</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>VLOOKUP(G29,TextTag!$A:$B,2,0)</f>
         <v>사낭꾼이 사용하는 활이다.</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -10303,21 +11378,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F30" s="1" t="str">
         <f>VLOOKUP(E30,TextTag!$A:$B,2,0)</f>
         <v>숙련 사냥꾼의 활</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H30" s="1" t="str">
         <f>VLOOKUP(G30,TextTag!$A:$B,2,0)</f>
         <v>숙련된 사낭꾼이 사용하는 활이다.</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -10335,21 +11410,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F31" s="1" t="str">
         <f>VLOOKUP(E31,TextTag!$A:$B,2,0)</f>
         <v>신입 궁병의 활</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H31" s="1" t="str">
         <f>VLOOKUP(G31,TextTag!$A:$B,2,0)</f>
         <v>신입 궁병이 사용하는 활이다.</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -10367,21 +11442,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F32" s="1" t="str">
         <f>VLOOKUP(E32,TextTag!$A:$B,2,0)</f>
         <v>궁병의 활</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H32" s="1" t="str">
         <f>VLOOKUP(G32,TextTag!$A:$B,2,0)</f>
         <v>궁병이 사용하는 활이다.</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -10399,21 +11474,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F33" s="1" t="str">
         <f>VLOOKUP(E33,TextTag!$A:$B,2,0)</f>
         <v>숙련 궁병의 활</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H33" s="1" t="str">
         <f>VLOOKUP(G33,TextTag!$A:$B,2,0)</f>
         <v>숙련 궁병이 사용하는 활이다.</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -10431,21 +11506,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F34" s="1" t="str">
         <f>VLOOKUP(E34,TextTag!$A:$B,2,0)</f>
         <v>후작의 활</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="H34" s="1" t="e">
         <f>VLOOKUP(G34,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -10463,21 +11538,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F35" s="1" t="str">
         <f>VLOOKUP(E35,TextTag!$A:$B,2,0)</f>
         <v>공작의 활</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="H35" s="1" t="e">
         <f>VLOOKUP(G35,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -10495,21 +11570,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F36" s="1" t="str">
         <f>VLOOKUP(E36,TextTag!$A:$B,2,0)</f>
         <v>왕자의 활</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="H36" s="1" t="e">
         <f>VLOOKUP(G36,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -10527,21 +11602,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F37" s="1" t="str">
         <f>VLOOKUP(E37,TextTag!$A:$B,2,0)</f>
         <v>왕의 활</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="H37" s="1" t="e">
         <f>VLOOKUP(G37,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -10559,21 +11634,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F38" s="1" t="str">
         <f>VLOOKUP(E38,TextTag!$A:$B,2,0)</f>
         <v>전설의 활</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="H38" s="1" t="e">
         <f>VLOOKUP(G38,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -10591,21 +11666,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F39" s="1" t="str">
         <f>VLOOKUP(E39,TextTag!$A:$B,2,0)</f>
         <v>녹슨 석궁</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H39" s="1" t="str">
         <f>VLOOKUP(G39,TextTag!$A:$B,2,0)</f>
         <v>녹이 슬어 위력이 약해진 석궁이다.</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -10623,21 +11698,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="F40" s="1" t="str">
         <f>VLOOKUP(E40,TextTag!$A:$B,2,0)</f>
         <v>신참 사냥꾼의 석궁</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H40" s="1" t="str">
         <f>VLOOKUP(G40,TextTag!$A:$B,2,0)</f>
         <v>신참 사냥꾼이 사용하는 석궁이다.</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -10655,21 +11730,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F41" s="1" t="str">
         <f>VLOOKUP(E41,TextTag!$A:$B,2,0)</f>
         <v>사냥꾼의 석궁</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H41" s="1" t="str">
         <f>VLOOKUP(G41,TextTag!$A:$B,2,0)</f>
         <v>사낭꾼이 사용하는 석궁이다.</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -10687,21 +11762,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F42" s="1" t="str">
         <f>VLOOKUP(E42,TextTag!$A:$B,2,0)</f>
         <v>숙련 사냥꾼의 석궁</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H42" s="1" t="str">
         <f>VLOOKUP(G42,TextTag!$A:$B,2,0)</f>
         <v>숙련된 사낭꾼이 사용하는 석궁이다.</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -10719,21 +11794,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F43" s="1" t="str">
         <f>VLOOKUP(E43,TextTag!$A:$B,2,0)</f>
         <v>신입 궁병의 석궁</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H43" s="1" t="str">
         <f>VLOOKUP(G43,TextTag!$A:$B,2,0)</f>
         <v>신입 궁병이 사용하는 석궁이다.</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -10751,21 +11826,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F44" s="1" t="str">
         <f>VLOOKUP(E44,TextTag!$A:$B,2,0)</f>
         <v>궁병의 석궁</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H44" s="1" t="str">
         <f>VLOOKUP(G44,TextTag!$A:$B,2,0)</f>
         <v>궁병이 사용하는 석궁이다.</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -10783,21 +11858,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F45" s="1" t="str">
         <f>VLOOKUP(E45,TextTag!$A:$B,2,0)</f>
         <v>숙련 궁병의 석궁</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H45" s="1" t="str">
         <f>VLOOKUP(G45,TextTag!$A:$B,2,0)</f>
         <v>숙련 궁병이 사용하는 석궁이다.</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -10815,21 +11890,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F46" s="1" t="str">
         <f>VLOOKUP(E46,TextTag!$A:$B,2,0)</f>
         <v>후작의 석궁</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="H46" s="1" t="e">
         <f>VLOOKUP(G46,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -10847,21 +11922,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F47" s="1" t="str">
         <f>VLOOKUP(E47,TextTag!$A:$B,2,0)</f>
         <v>공작의 석궁</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="H47" s="1" t="e">
         <f>VLOOKUP(G47,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -10879,21 +11954,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F48" s="1" t="str">
         <f>VLOOKUP(E48,TextTag!$A:$B,2,0)</f>
         <v>왕자의 석궁</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="H48" s="1" t="e">
         <f>VLOOKUP(G48,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -10911,21 +11986,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F49" s="1" t="str">
         <f>VLOOKUP(E49,TextTag!$A:$B,2,0)</f>
         <v>왕의 석궁</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="H49" s="1" t="e">
         <f>VLOOKUP(G49,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -10943,21 +12018,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F50" s="1" t="str">
         <f>VLOOKUP(E50,TextTag!$A:$B,2,0)</f>
         <v>전설의 석궁</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="H50" s="1" t="e">
         <f>VLOOKUP(G50,TextTag!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -12511,21 +13586,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F99" s="1" t="str">
         <f>VLOOKUP(E99,TextTag!$A:$B,2,0)</f>
         <v>전투 기록</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H99" s="1" t="str">
         <f>VLOOKUP(G99,TextTag!$A:$B,2,0)</f>
         <v>용병의 경험치를 조금 올려주는 전투 기록이다.</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -12543,21 +13618,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F100" s="1" t="str">
         <f>VLOOKUP(E100,TextTag!$A:$B,2,0)</f>
         <v>치열한 전투 기록</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="H100" s="1" t="str">
         <f>VLOOKUP(G100,TextTag!$A:$B,2,0)</f>
         <v>용병의 경험치를 적당히 올려주는 전투 기록이다.</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -12575,21 +13650,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F101" s="1" t="str">
         <f>VLOOKUP(E101,TextTag!$A:$B,2,0)</f>
         <v>생사를 다툰 전투 기록</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="H101" s="1" t="str">
         <f>VLOOKUP(G101,TextTag!$A:$B,2,0)</f>
         <v>용병의 경험치를 많이 올려주는 전투 기록이다.</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -12607,21 +13682,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F102" s="1" t="str">
         <f>VLOOKUP(E102,TextTag!$A:$B,2,0)</f>
         <v>작은 금화 주머니</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H102" s="1" t="str">
         <f>VLOOKUP(G102,TextTag!$A:$B,2,0)</f>
         <v>금이 담긴 자루다.</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -12639,21 +13714,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F103" s="1" t="str">
         <f>VLOOKUP(E103,TextTag!$A:$B,2,0)</f>
         <v>금화 주머니</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H103" s="1" t="str">
         <f>VLOOKUP(G103,TextTag!$A:$B,2,0)</f>
         <v>금이 많이 담긴 자루다.</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -12671,21 +13746,21 @@
         <v>머지 아이템</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F104" s="1" t="str">
         <f>VLOOKUP(E104,TextTag!$A:$B,2,0)</f>
         <v>큰 금화 주머니</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H104" s="1" t="str">
         <f>VLOOKUP(G104,TextTag!$A:$B,2,0)</f>
         <v>금이 꽉찬 자루다.</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -12703,21 +13778,21 @@
         <v>퀘스트 아이템</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F105" s="1" t="str">
         <f>VLOOKUP(E105,TextTag!$A:$B,2,0)</f>
         <v>큰 금화 주머니</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H105" s="1" t="str">
         <f>VLOOKUP(G105,TextTag!$A:$B,2,0)</f>
         <v>금이 꽉찬 자루다.</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -14603,7 +15678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA3DF29-7E31-401A-BBF8-E5BBCFA00E79}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -15136,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(C8,TextTag!$A:$B,2,0)</f>
@@ -15208,7 +16283,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(C9,TextTag!$A:$B,2,0)</f>
@@ -15280,7 +16355,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP(C10,TextTag!$A:$B,2,0)</f>
@@ -15352,7 +16427,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>VLOOKUP(C11,TextTag!$A:$B,2,0)</f>
@@ -15424,7 +16499,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>VLOOKUP(C12,TextTag!$A:$B,2,0)</f>
@@ -15496,7 +16571,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(C13,TextTag!$A:$B,2,0)</f>
@@ -15568,7 +16643,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>VLOOKUP(C14,TextTag!$A:$B,2,0)</f>
@@ -15640,7 +16715,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>VLOOKUP(C15,TextTag!$A:$B,2,0)</f>
@@ -15712,7 +16787,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>VLOOKUP(C16,TextTag!$A:$B,2,0)</f>
@@ -15877,7 +16952,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>719</v>
+        <v>690</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
@@ -15891,7 +16966,7 @@
         <v>#N/A</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>741</v>
+        <v>706</v>
       </c>
       <c r="H2" s="1">
         <v>-1</v>
@@ -15941,7 +17016,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
@@ -15955,7 +17030,7 @@
         <v>#N/A</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -16005,7 +17080,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,TextTag!$A:$B,2,0)</f>
@@ -16019,7 +17094,7 @@
         <v>#N/A</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -16069,7 +17144,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(C5,TextTag!$A:$B,2,0)</f>
@@ -16083,7 +17158,7 @@
         <v>#N/A</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>742</v>
+        <v>707</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -16133,7 +17208,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(C6,TextTag!$A:$B,2,0)</f>
@@ -16147,7 +17222,7 @@
         <v>#N/A</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>742</v>
+        <v>707</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -16241,7 +17316,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>743</v>
+        <v>708</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>27</v>
@@ -16540,14 +17615,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,TextTag!$A:$B,2,0)</f>
         <v>소개</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>VLOOKUP(E4,TextTag!$A:$B,2,0)</f>
@@ -16642,14 +17717,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(C5,TextTag!$A:$B,2,0)</f>
         <v>보급 요청 1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>VLOOKUP(E5,TextTag!$A:$B,2,0)</f>
@@ -16744,14 +17819,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(C6,TextTag!$A:$B,2,0)</f>
         <v>보급 요청 2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>VLOOKUP(E6,TextTag!$A:$B,2,0)</f>
@@ -16845,14 +17920,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>VLOOKUP(C7,TextTag!$A:$B,2,0)</f>
         <v>신참 보급</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>VLOOKUP(E7,TextTag!$A:$B,2,0)</f>
@@ -16946,14 +18021,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(C8,TextTag!$A:$B,2,0)</f>
         <v>원정 준비</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>VLOOKUP(E8,TextTag!$A:$B,2,0)</f>
@@ -17046,14 +18121,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(C9,TextTag!$A:$B,2,0)</f>
         <v>소문</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>VLOOKUP(E9,TextTag!$A:$B,2,0)</f>
@@ -17147,14 +18222,14 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP(C10,TextTag!$A:$B,2,0)</f>
         <v>추가 검증</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>VLOOKUP(E10,TextTag!$A:$B,2,0)</f>
@@ -17248,14 +18323,14 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>VLOOKUP(C11,TextTag!$A:$B,2,0)</f>
         <v>추가 검증 2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>VLOOKUP(E11,TextTag!$A:$B,2,0)</f>
@@ -17349,14 +18424,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>VLOOKUP(C12,TextTag!$A:$B,2,0)</f>
         <v>추가 검증 3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>VLOOKUP(E12,TextTag!$A:$B,2,0)</f>
@@ -17450,14 +18525,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(C13,TextTag!$A:$B,2,0)</f>
         <v>활 부족</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>VLOOKUP(E13,TextTag!$A:$B,2,0)</f>
@@ -17550,14 +18625,14 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>VLOOKUP(C14,TextTag!$A:$B,2,0)</f>
         <v>검 부족</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>VLOOKUP(E14,TextTag!$A:$B,2,0)</f>
@@ -17650,14 +18725,14 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>VLOOKUP(C15,TextTag!$A:$B,2,0)</f>
         <v>전투 임박</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>VLOOKUP(E15,TextTag!$A:$B,2,0)</f>
@@ -17750,14 +18825,14 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>VLOOKUP(C16,TextTag!$A:$B,2,0)</f>
         <v>석궁에 대하여</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>VLOOKUP(E16,TextTag!$A:$B,2,0)</f>
@@ -17850,14 +18925,14 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>VLOOKUP(C17,TextTag!$A:$B,2,0)</f>
         <v>흥미</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>VLOOKUP(E17,TextTag!$A:$B,2,0)</f>
@@ -17950,14 +19025,14 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>VLOOKUP(C18,TextTag!$A:$B,2,0)</f>
         <v>더 좋은 석궁</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>VLOOKUP(E18,TextTag!$A:$B,2,0)</f>
@@ -18050,14 +19125,14 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>VLOOKUP(C19,TextTag!$A:$B,2,0)</f>
         <v>대규모 요청</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>VLOOKUP(E19,TextTag!$A:$B,2,0)</f>
@@ -18151,14 +19226,14 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>VLOOKUP(C20,TextTag!$A:$B,2,0)</f>
         <v>보급 요청 3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>VLOOKUP(E20,TextTag!$A:$B,2,0)</f>
@@ -18251,14 +19326,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>VLOOKUP(C21,TextTag!$A:$B,2,0)</f>
         <v>대결 구도</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>VLOOKUP(E21,TextTag!$A:$B,2,0)</f>
@@ -18353,14 +19428,14 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>VLOOKUP(C22,TextTag!$A:$B,2,0)</f>
         <v>대규모 요청 2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>VLOOKUP(E22,TextTag!$A:$B,2,0)</f>
@@ -18454,14 +19529,14 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>VLOOKUP(C23,TextTag!$A:$B,2,0)</f>
         <v>대규모 요청 3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>VLOOKUP(E23,TextTag!$A:$B,2,0)</f>
@@ -18555,14 +19630,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D24" s="1" t="str">
         <f>VLOOKUP(C24,TextTag!$A:$B,2,0)</f>
         <v>대결 구도 2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>VLOOKUP(E24,TextTag!$A:$B,2,0)</f>
@@ -18657,14 +19732,14 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>VLOOKUP(C25,TextTag!$A:$B,2,0)</f>
         <v>개전</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>VLOOKUP(E25,TextTag!$A:$B,2,0)</f>
@@ -18758,14 +19833,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D26" s="1" t="str">
         <f>VLOOKUP(C26,TextTag!$A:$B,2,0)</f>
         <v>손실 보충</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>VLOOKUP(E26,TextTag!$A:$B,2,0)</f>
@@ -18859,14 +19934,14 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D27" s="1" t="str">
         <f>VLOOKUP(C27,TextTag!$A:$B,2,0)</f>
         <v>손실 보충 2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>VLOOKUP(E27,TextTag!$A:$B,2,0)</f>
@@ -18960,14 +20035,14 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D28" s="1" t="str">
         <f>VLOOKUP(C28,TextTag!$A:$B,2,0)</f>
         <v>원정 보충</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>VLOOKUP(E28,TextTag!$A:$B,2,0)</f>
@@ -19062,14 +20137,14 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D29" s="1" t="str">
         <f>VLOOKUP(C29,TextTag!$A:$B,2,0)</f>
         <v>손실 보충 3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F29" s="1" t="str">
         <f>VLOOKUP(E29,TextTag!$A:$B,2,0)</f>
@@ -19163,14 +20238,14 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>VLOOKUP(C30,TextTag!$A:$B,2,0)</f>
         <v>선물</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F30" s="1" t="str">
         <f>VLOOKUP(E30,TextTag!$A:$B,2,0)</f>
@@ -19265,14 +20340,14 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D31" s="1" t="str">
         <f>VLOOKUP(C31,TextTag!$A:$B,2,0)</f>
         <v>선물 2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F31" s="1" t="str">
         <f>VLOOKUP(E31,TextTag!$A:$B,2,0)</f>
@@ -19601,14 +20676,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>VLOOKUP(B4,TextTag!$A:$B,2,0)</f>
         <v>하급 악마 야영지</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E4" s="1">
         <v>8</v>
@@ -19670,14 +20745,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B5,TextTag!$A:$B,2,0)</f>
         <v>소규모 도적단 야영지</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
@@ -19739,14 +20814,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>VLOOKUP(B6,TextTag!$A:$B,2,0)</f>
         <v>동굴 속 던전</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
@@ -19808,14 +20883,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>VLOOKUP(B7,TextTag!$A:$B,2,0)</f>
         <v>고블린 병참 기지</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
@@ -19877,14 +20952,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>VLOOKUP(B8,TextTag!$A:$B,2,0)</f>
         <v>악마 병참 기지</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E8" s="1">
         <v>12</v>
@@ -19946,14 +21021,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>VLOOKUP(B9,TextTag!$A:$B,2,0)</f>
         <v>버려진 성 내 던전</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E9" s="1">
         <v>12</v>
@@ -20015,14 +21090,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>VLOOKUP(B10,TextTag!$A:$B,2,0)</f>
         <v>전쟁 골렘 기지</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E10" s="1">
         <v>14</v>
@@ -20084,14 +21159,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>VLOOKUP(B11,TextTag!$A:$B,2,0)</f>
         <v>악마 격전지</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E11" s="1">
         <v>16</v>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223531E6-C105-4F24-BEA2-FAD944ECEFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F103480-1D35-4197-A2CF-8362BE9937C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7665" yWindow="3930" windowWidth="20400" windowHeight="12675" tabRatio="684" firstSheet="4" activeTab="12" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="886">
   <si>
     <t>녹슨 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3245,6 +3245,10 @@
   </si>
   <si>
     <t>diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommendLv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7354,7 +7358,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20440,10 +20444,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20457,18 +20461,19 @@
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -20497,43 +20502,46 @@
         <v>243</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -20565,44 +20573,47 @@
       <c r="J2" s="1">
         <v>-1</v>
       </c>
-      <c r="K2" s="1" t="str">
-        <f>VLOOKUP(J2,Reference!$G:$H,2,0)</f>
+      <c r="K2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>VLOOKUP(K2,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="L2" s="1">
-        <v>-1</v>
-      </c>
       <c r="M2" s="1">
         <v>-1</v>
       </c>
       <c r="N2" s="1">
         <v>-1</v>
       </c>
-      <c r="O2" s="1" t="str">
-        <f>VLOOKUP(N2,Reference!$G:$H,2,0)</f>
+      <c r="O2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f>VLOOKUP(O2,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
       <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
         <v>1000</v>
       </c>
-      <c r="R2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S2" s="1" t="str">
-        <f>VLOOKUP(R2,Reference!$G:$H,2,0)</f>
+      <c r="S2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="1" t="str">
+        <f>VLOOKUP(S2,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="T2" s="1">
-        <v>-1</v>
-      </c>
       <c r="U2" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -20632,46 +20643,49 @@
         <v>20</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <f>VLOOKUP(J3,Reference!$G:$H,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f>VLOOKUP(K3,Reference!$G:$H,2,0)</f>
         <v>직업</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O3" s="1" t="str">
-        <f>VLOOKUP(N3,Reference!$G:$H,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f>VLOOKUP(O3,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
       <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
         <v>1000</v>
       </c>
-      <c r="R3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S3" s="1" t="str">
-        <f>VLOOKUP(R3,Reference!$G:$H,2,0)</f>
+      <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <f>VLOOKUP(S3,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="T3" s="1">
-        <v>-1</v>
-      </c>
       <c r="U3" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -20701,46 +20715,49 @@
         <v>30</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="str">
-        <f>VLOOKUP(J4,Reference!$G:$H,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>VLOOKUP(K4,Reference!$G:$H,2,0)</f>
         <v>레벨</v>
       </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
       <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
         <v>3</v>
       </c>
-      <c r="N4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="1" t="str">
-        <f>VLOOKUP(N4,Reference!$G:$H,2,0)</f>
+      <c r="O4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f>VLOOKUP(O4,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
       <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
         <v>1000</v>
       </c>
-      <c r="R4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S4" s="1" t="str">
-        <f>VLOOKUP(R4,Reference!$G:$H,2,0)</f>
+      <c r="S4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f>VLOOKUP(S4,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="T4" s="1">
-        <v>-1</v>
-      </c>
       <c r="U4" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -20770,46 +20787,49 @@
         <v>40</v>
       </c>
       <c r="J5" s="1">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="1" t="e">
-        <f>VLOOKUP(J5,Reference!$G:$H,2,0)</f>
+      <c r="L5" s="1" t="e">
+        <f>VLOOKUP(K5,Reference!$G:$H,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>5</v>
       </c>
-      <c r="N5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O5" s="1" t="str">
-        <f>VLOOKUP(N5,Reference!$G:$H,2,0)</f>
+      <c r="O5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f>VLOOKUP(O5,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
       <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
         <v>1000</v>
       </c>
-      <c r="R5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S5" s="1" t="str">
-        <f>VLOOKUP(R5,Reference!$G:$H,2,0)</f>
+      <c r="S5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f>VLOOKUP(S5,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="T5" s="1">
-        <v>-1</v>
-      </c>
       <c r="U5" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -20839,46 +20859,49 @@
         <v>50</v>
       </c>
       <c r="J6" s="1">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="1" t="e">
-        <f>VLOOKUP(J6,Reference!$G:$H,2,0)</f>
+      <c r="L6" s="1" t="e">
+        <f>VLOOKUP(K6,Reference!$G:$H,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>7</v>
       </c>
-      <c r="N6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O6" s="1" t="str">
-        <f>VLOOKUP(N6,Reference!$G:$H,2,0)</f>
+      <c r="O6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f>VLOOKUP(O6,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
       <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
         <v>1000</v>
       </c>
-      <c r="R6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S6" s="1" t="str">
-        <f>VLOOKUP(R6,Reference!$G:$H,2,0)</f>
+      <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="1" t="str">
+        <f>VLOOKUP(S6,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="T6" s="1">
-        <v>-1</v>
-      </c>
       <c r="U6" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -20908,46 +20931,49 @@
         <v>60</v>
       </c>
       <c r="J7" s="1">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1">
         <v>4</v>
       </c>
-      <c r="K7" s="1" t="e">
-        <f>VLOOKUP(J7,Reference!$G:$H,2,0)</f>
+      <c r="L7" s="1" t="e">
+        <f>VLOOKUP(K7,Reference!$G:$H,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>4</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>9</v>
       </c>
-      <c r="N7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="1" t="str">
-        <f>VLOOKUP(N7,Reference!$G:$H,2,0)</f>
+      <c r="O7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f>VLOOKUP(O7,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
       <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
         <v>1000</v>
       </c>
-      <c r="R7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S7" s="1" t="str">
-        <f>VLOOKUP(R7,Reference!$G:$H,2,0)</f>
+      <c r="S7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="1" t="str">
+        <f>VLOOKUP(S7,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="T7" s="1">
-        <v>-1</v>
-      </c>
       <c r="U7" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -20977,46 +21003,49 @@
         <v>70</v>
       </c>
       <c r="J8" s="1">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="1" t="e">
-        <f>VLOOKUP(J8,Reference!$G:$H,2,0)</f>
+      <c r="L8" s="1" t="e">
+        <f>VLOOKUP(K8,Reference!$G:$H,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>5</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>11</v>
       </c>
-      <c r="N8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O8" s="1" t="str">
-        <f>VLOOKUP(N8,Reference!$G:$H,2,0)</f>
+      <c r="O8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f>VLOOKUP(O8,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
       <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
         <v>1000</v>
       </c>
-      <c r="R8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S8" s="1" t="str">
-        <f>VLOOKUP(R8,Reference!$G:$H,2,0)</f>
+      <c r="S8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f>VLOOKUP(S8,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="T8" s="1">
-        <v>-1</v>
-      </c>
       <c r="U8" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -21046,46 +21075,49 @@
         <v>80</v>
       </c>
       <c r="J9" s="1">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1">
         <v>6</v>
       </c>
-      <c r="K9" s="1" t="e">
-        <f>VLOOKUP(J9,Reference!$G:$H,2,0)</f>
+      <c r="L9" s="1" t="e">
+        <f>VLOOKUP(K9,Reference!$G:$H,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>6</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>13</v>
       </c>
-      <c r="N9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="1" t="str">
-        <f>VLOOKUP(N9,Reference!$G:$H,2,0)</f>
+      <c r="O9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f>VLOOKUP(O9,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
       <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
         <v>1000</v>
       </c>
-      <c r="R9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S9" s="1" t="str">
-        <f>VLOOKUP(R9,Reference!$G:$H,2,0)</f>
+      <c r="S9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="1" t="str">
+        <f>VLOOKUP(S9,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="T9" s="1">
-        <v>-1</v>
-      </c>
       <c r="U9" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V9" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -21115,46 +21147,49 @@
         <v>90</v>
       </c>
       <c r="J10" s="1">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1">
         <v>7</v>
       </c>
-      <c r="K10" s="1" t="e">
-        <f>VLOOKUP(J10,Reference!$G:$H,2,0)</f>
+      <c r="L10" s="1" t="e">
+        <f>VLOOKUP(K10,Reference!$G:$H,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>7</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>15</v>
       </c>
-      <c r="N10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="1" t="str">
-        <f>VLOOKUP(N10,Reference!$G:$H,2,0)</f>
+      <c r="O10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f>VLOOKUP(O10,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
       <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
         <v>1000</v>
       </c>
-      <c r="R10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S10" s="1" t="str">
-        <f>VLOOKUP(R10,Reference!$G:$H,2,0)</f>
+      <c r="S10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="1" t="str">
+        <f>VLOOKUP(S10,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="T10" s="1">
-        <v>-1</v>
-      </c>
       <c r="U10" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -21184,42 +21219,45 @@
         <v>100</v>
       </c>
       <c r="J11" s="1">
+        <v>27</v>
+      </c>
+      <c r="K11" s="1">
         <v>8</v>
       </c>
-      <c r="K11" s="1" t="e">
-        <f>VLOOKUP(J11,Reference!$G:$H,2,0)</f>
+      <c r="L11" s="1" t="e">
+        <f>VLOOKUP(K11,Reference!$G:$H,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>8</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>17</v>
       </c>
-      <c r="N11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="1" t="str">
-        <f>VLOOKUP(N11,Reference!$G:$H,2,0)</f>
+      <c r="O11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f>VLOOKUP(O11,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="P11" s="1">
-        <v>1</v>
-      </c>
       <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
         <v>1000</v>
       </c>
-      <c r="R11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S11" s="1" t="str">
-        <f>VLOOKUP(R11,Reference!$G:$H,2,0)</f>
+      <c r="S11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="1" t="str">
+        <f>VLOOKUP(S11,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="T11" s="1">
-        <v>-1</v>
-      </c>
       <c r="U11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="1">
         <v>-1</v>
       </c>
     </row>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F103480-1D35-4197-A2CF-8362BE9937C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A2B049-2F68-405A-83A0-8BE69EC35827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="3930" windowWidth="20400" windowHeight="12675" tabRatio="684" firstSheet="4" activeTab="12" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="684" firstSheet="4" activeTab="4" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="894">
   <si>
     <t>녹슨 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3249,6 +3249,38 @@
   </si>
   <si>
     <t>recommendLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N x N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingValue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~설명1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~설명2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7357,7 +7389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D6872E-B9A4-4D48-A924-92065692162D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -15680,10 +15712,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA3DF29-7E31-401A-BBF8-E5BBCFA00E79}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15705,9 +15737,13 @@
     <col min="20" max="20" width="19.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" customWidth="1"/>
+    <col min="25" max="25" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -15774,8 +15810,20 @@
       <c r="V1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W1" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -15846,8 +15894,20 @@
       <c r="V2" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W2" s="1">
+        <v>3</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -15918,8 +15978,20 @@
       <c r="V3" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="1">
+        <v>4</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -15990,8 +16062,20 @@
       <c r="V4" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" s="1">
+        <v>5</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -16062,8 +16146,20 @@
       <c r="V5" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="1">
+        <v>32</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -16134,8 +16230,20 @@
       <c r="V6" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" s="1">
+        <v>48</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -16206,8 +16314,20 @@
       <c r="V7" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7" s="1">
+        <v>64</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -16278,8 +16398,20 @@
       <c r="V8" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -16350,8 +16482,20 @@
       <c r="V9" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -16422,8 +16566,20 @@
       <c r="V10" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -16494,8 +16650,20 @@
       <c r="V11" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11" s="1">
+        <v>4</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -16566,8 +16734,20 @@
       <c r="V12" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12" s="1">
+        <v>6</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -16638,8 +16818,20 @@
       <c r="V13" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W13" s="1">
+        <v>8</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -16710,8 +16902,20 @@
       <c r="V14" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -16782,8 +16986,20 @@
       <c r="V15" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -16853,6 +17069,18 @@
       </c>
       <c r="V16" s="1">
         <v>-1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A2B049-2F68-405A-83A0-8BE69EC35827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B313C691-0DAE-46FB-ADA6-16D0C64F29E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="684" firstSheet="4" activeTab="4" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="975" yWindow="1800" windowWidth="20400" windowHeight="12675" tabRatio="684" firstSheet="4" activeTab="10" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="894">
   <si>
     <t>녹슨 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5150,10 +5150,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12FA702-3FDA-4873-9476-2B23FDC79A93}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5162,9 +5162,10 @@
     <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -5177,8 +5178,11 @@
       <c r="D1" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5191,8 +5195,11 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5205,8 +5212,11 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5219,8 +5229,11 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5233,8 +5246,11 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5245,6 +5261,9 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
         <v>4</v>
       </c>
     </row>
@@ -15714,7 +15733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA3DF29-7E31-401A-BBF8-E5BBCFA00E79}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildSpace\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B313C691-0DAE-46FB-ADA6-16D0C64F29E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2613C5B-6343-4BB2-BDD2-A0BD2B172A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1800" windowWidth="20400" windowHeight="12675" tabRatio="684" firstSheet="4" activeTab="10" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="975" yWindow="1800" windowWidth="20400" windowHeight="12675" tabRatio="684" activeTab="4" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="898">
   <si>
     <t>녹슨 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2382,10 +2382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내가 보내준 검을 보고 마음에 들었나보더군. 몇 자루 더 요청하던데 가능한가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Quest_Name_27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3281,6 +3277,27 @@
   </si>
   <si>
     <t>~설명2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arbalest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 보내준 검을 보고 마음에 들었나보더군. 몇 자루 더 요청하던데 가능한가?
+(DEMO 마지막 임무입니다)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3806,10 +3823,10 @@
         <v>140</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -3835,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3861,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3887,7 +3904,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3905,7 +3922,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3913,7 +3930,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3921,7 +3938,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3933,7 +3950,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3945,7 +3962,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3957,7 +3974,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3969,7 +3986,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3981,7 +3998,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3993,7 +4010,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4001,7 +4018,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4009,7 +4026,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4017,7 +4034,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4025,7 +4042,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="17" spans="10:11" x14ac:dyDescent="0.3">
@@ -4033,7 +4050,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.3">
@@ -4041,7 +4058,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="19" spans="10:11" x14ac:dyDescent="0.3">
@@ -4049,7 +4066,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.3">
@@ -4057,7 +4074,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.3">
@@ -4065,7 +4082,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.3">
@@ -4073,7 +4090,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -5150,9 +5167,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12FA702-3FDA-4873-9476-2B23FDC79A93}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -5195,8 +5212,8 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
+      <c r="E2" s="1" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -5204,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -5212,8 +5229,8 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
+      <c r="E3" s="1" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -5229,8 +5246,8 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
+      <c r="E4" s="1" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -5246,25 +5263,8 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
+      <c r="E5" s="1" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -5297,10 +5297,10 @@
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>774</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>27</v>
@@ -5435,7 +5435,7 @@
         <v>시작</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>VLOOKUP(D6,TextTag!$A:$B,2,0)</f>
@@ -5462,7 +5462,7 @@
         <v>시작</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>VLOOKUP(D7,TextTag!$A:$B,2,0)</f>
@@ -5516,7 +5516,7 @@
         <v>시작</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>VLOOKUP(D9,TextTag!$A:$B,2,0)</f>
@@ -5597,7 +5597,7 @@
         <v>시작</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>VLOOKUP(D12,TextTag!$A:$B,2,0)</f>
@@ -5624,7 +5624,7 @@
         <v>시작</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>VLOOKUP(D13,TextTag!$A:$B,2,0)</f>
@@ -5678,7 +5678,7 @@
         <v>시작</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>VLOOKUP(D15,TextTag!$A:$B,2,0)</f>
@@ -5706,7 +5706,7 @@
         <v>시작</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP(D16,TextTag!$A:$B,2,0)</f>
@@ -5733,7 +5733,7 @@
         <v>시작</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>VLOOKUP(D17,TextTag!$A:$B,2,0)</f>
@@ -5787,7 +5787,7 @@
         <v>시작</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>VLOOKUP(D19,TextTag!$A:$B,2,0)</f>
@@ -5814,7 +5814,7 @@
         <v>시작</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>VLOOKUP(D20,TextTag!$A:$B,2,0)</f>
@@ -5841,7 +5841,7 @@
         <v>머지 창 진입</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>VLOOKUP(D21,TextTag!$A:$B,2,0)</f>
@@ -5868,7 +5868,7 @@
         <v>아이템 꺼내기</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>VLOOKUP(D22,TextTag!$A:$B,2,0)</f>
@@ -5895,7 +5895,7 @@
         <v>아이템 머지</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E23" s="1" t="str">
         <f>VLOOKUP(D23,TextTag!$A:$B,2,0)</f>
@@ -5922,7 +5922,7 @@
         <v>퀘스트 건물 건설</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E24" s="1" t="str">
         <f>VLOOKUP(D24,TextTag!$A:$B,2,0)</f>
@@ -5949,7 +5949,7 @@
         <v>퀘스트 건물 건설</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>VLOOKUP(D25,TextTag!$A:$B,2,0)</f>
@@ -5976,7 +5976,7 @@
         <v>퀘스트 건물 건설</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>VLOOKUP(D26,TextTag!$A:$B,2,0)</f>
@@ -6003,7 +6003,7 @@
         <v>퀘스트 건물 건설</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>VLOOKUP(D27,TextTag!$A:$B,2,0)</f>
@@ -6030,7 +6030,7 @@
         <v>퀘스트 건물 건설</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>VLOOKUP(D28,TextTag!$A:$B,2,0)</f>
@@ -6057,7 +6057,7 @@
         <v>퀘스트 창 진입</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E29" s="1" t="str">
         <f>VLOOKUP(D29,TextTag!$A:$B,2,0)</f>
@@ -6084,7 +6084,7 @@
         <v>상인 클릭</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E30" s="1" t="str">
         <f>VLOOKUP(D30,TextTag!$A:$B,2,0)</f>
@@ -6111,7 +6111,7 @@
         <v>퀘스트 클릭</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E31" s="1" t="str">
         <f>VLOOKUP(D31,TextTag!$A:$B,2,0)</f>
@@ -6138,7 +6138,7 @@
         <v>퀘스트 수락</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E32" s="1" t="str">
         <f>VLOOKUP(D32,TextTag!$A:$B,2,0)</f>
@@ -6165,7 +6165,7 @@
         <v>퀘스트 제출</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>VLOOKUP(D33,TextTag!$A:$B,2,0)</f>
@@ -6192,7 +6192,7 @@
         <v>보상 획득</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>VLOOKUP(D34,TextTag!$A:$B,2,0)</f>
@@ -6219,7 +6219,7 @@
         <v>보상 획득</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E35" s="1" t="str">
         <f>VLOOKUP(D35,TextTag!$A:$B,2,0)</f>
@@ -6246,7 +6246,7 @@
         <v>보상 획득</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E36" s="1" t="str">
         <f>VLOOKUP(D36,TextTag!$A:$B,2,0)</f>
@@ -6273,7 +6273,7 @@
         <v>보상 획득</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E37" s="1" t="str">
         <f>VLOOKUP(D37,TextTag!$A:$B,2,0)</f>
@@ -6300,7 +6300,7 @@
         <v>여관 건설</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E38" s="1" t="str">
         <f>VLOOKUP(D38,TextTag!$A:$B,2,0)</f>
@@ -6327,7 +6327,7 @@
         <v>여관 건설</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E39" s="1" t="str">
         <f>VLOOKUP(D39,TextTag!$A:$B,2,0)</f>
@@ -6354,7 +6354,7 @@
         <v>여관 건설</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E40" s="1" t="str">
         <f>VLOOKUP(D40,TextTag!$A:$B,2,0)</f>
@@ -6381,7 +6381,7 @@
         <v>여관 건설</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E41" s="1" t="str">
         <f>VLOOKUP(D41,TextTag!$A:$B,2,0)</f>
@@ -6408,7 +6408,7 @@
         <v>여관 진입</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E42" s="1" t="str">
         <f>VLOOKUP(D42,TextTag!$A:$B,2,0)</f>
@@ -6435,7 +6435,7 @@
         <v>여관 진입</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>VLOOKUP(D43,TextTag!$A:$B,2,0)</f>
@@ -6462,7 +6462,7 @@
         <v>여관 진입</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E44" s="1" t="str">
         <f>VLOOKUP(D44,TextTag!$A:$B,2,0)</f>
@@ -6489,7 +6489,7 @@
         <v>여관 진입</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E45" s="1" t="str">
         <f>VLOOKUP(D45,TextTag!$A:$B,2,0)</f>
@@ -6516,7 +6516,7 @@
         <v>고용</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E46" s="1" t="str">
         <f>VLOOKUP(D46,TextTag!$A:$B,2,0)</f>
@@ -6543,7 +6543,7 @@
         <v>고용</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E47" s="1" t="str">
         <f>VLOOKUP(D47,TextTag!$A:$B,2,0)</f>
@@ -6570,7 +6570,7 @@
         <v>고용</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E48" s="1" t="str">
         <f>VLOOKUP(D48,TextTag!$A:$B,2,0)</f>
@@ -6597,7 +6597,7 @@
         <v>고용</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E49" s="1" t="str">
         <f>VLOOKUP(D49,TextTag!$A:$B,2,0)</f>
@@ -6624,7 +6624,7 @@
         <v>고용</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E50" s="1" t="str">
         <f>VLOOKUP(D50,TextTag!$A:$B,2,0)</f>
@@ -6651,7 +6651,7 @@
         <v>고용</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E51" s="1" t="str">
         <f>VLOOKUP(D51,TextTag!$A:$B,2,0)</f>
@@ -6678,7 +6678,7 @@
         <v>고용</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E52" s="1" t="str">
         <f>VLOOKUP(D52,TextTag!$A:$B,2,0)</f>
@@ -6705,7 +6705,7 @@
         <v>고용</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E53" s="1" t="str">
         <f>VLOOKUP(D53,TextTag!$A:$B,2,0)</f>
@@ -6732,7 +6732,7 @@
         <v>고용</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E54" s="1" t="str">
         <f>VLOOKUP(D54,TextTag!$A:$B,2,0)</f>
@@ -6759,7 +6759,7 @@
         <v>캠프 건설</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E55" s="1" t="str">
         <f>VLOOKUP(D55,TextTag!$A:$B,2,0)</f>
@@ -6786,7 +6786,7 @@
         <v>캠프 건설</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E56" s="1" t="str">
         <f>VLOOKUP(D56,TextTag!$A:$B,2,0)</f>
@@ -6813,7 +6813,7 @@
         <v>캠프 건설</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E57" s="1" t="str">
         <f>VLOOKUP(D57,TextTag!$A:$B,2,0)</f>
@@ -6840,7 +6840,7 @@
         <v>캠프 진입</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E58" s="1" t="str">
         <f>VLOOKUP(D58,TextTag!$A:$B,2,0)</f>
@@ -6867,7 +6867,7 @@
         <v>원정 멤버로 이동</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E59" s="1" t="str">
         <f>VLOOKUP(D59,TextTag!$A:$B,2,0)</f>
@@ -6894,7 +6894,7 @@
         <v>원정 멤버로 이동</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E60" s="1" t="str">
         <f>VLOOKUP(D60,TextTag!$A:$B,2,0)</f>
@@ -6921,7 +6921,7 @@
         <v>원정 멤버로 이동</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E61" s="1" t="str">
         <f>VLOOKUP(D61,TextTag!$A:$B,2,0)</f>
@@ -6948,7 +6948,7 @@
         <v>원정 멤버로 이동</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E62" s="1" t="str">
         <f>VLOOKUP(D62,TextTag!$A:$B,2,0)</f>
@@ -6975,7 +6975,7 @@
         <v>원정 멤버로 이동</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E63" s="1" t="str">
         <f>VLOOKUP(D63,TextTag!$A:$B,2,0)</f>
@@ -7002,7 +7002,7 @@
         <v>원정 멤버로 이동</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E64" s="1" t="str">
         <f>VLOOKUP(D64,TextTag!$A:$B,2,0)</f>
@@ -7029,7 +7029,7 @@
         <v>원정 멤버로 이동</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E65" s="1" t="str">
         <f>VLOOKUP(D65,TextTag!$A:$B,2,0)</f>
@@ -7056,7 +7056,7 @@
         <v>원정 멤버로 이동</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E66" s="1" t="str">
         <f>VLOOKUP(D66,TextTag!$A:$B,2,0)</f>
@@ -7083,7 +7083,7 @@
         <v>원정 멤버로 이동</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E67" s="1" t="str">
         <f>VLOOKUP(D67,TextTag!$A:$B,2,0)</f>
@@ -7110,7 +7110,7 @@
         <v>원정 멤버 선택</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E68" s="1" t="str">
         <f>VLOOKUP(D68,TextTag!$A:$B,2,0)</f>
@@ -7137,7 +7137,7 @@
         <v>원정 시작</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>VLOOKUP(D69,TextTag!$A:$B,2,0)</f>
@@ -7164,7 +7164,7 @@
         <v>원정 보상</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E70" s="1" t="str">
         <f>VLOOKUP(D70,TextTag!$A:$B,2,0)</f>
@@ -7191,7 +7191,7 @@
         <v>원정 보상</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E71" s="1" t="str">
         <f>VLOOKUP(D71,TextTag!$A:$B,2,0)</f>
@@ -7218,7 +7218,7 @@
         <v>튜토리얼 종료</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E72" s="1" t="str">
         <f>VLOOKUP(D72,TextTag!$A:$B,2,0)</f>
@@ -7245,7 +7245,7 @@
         <v>튜토리얼 종료</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E73" s="1" t="str">
         <f>VLOOKUP(D73,TextTag!$A:$B,2,0)</f>
@@ -7272,7 +7272,7 @@
         <v>튜토리얼 종료</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E74" s="1" t="str">
         <f>VLOOKUP(D74,TextTag!$A:$B,2,0)</f>
@@ -7299,7 +7299,7 @@
         <v>튜토리얼 종료</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E75" s="1" t="str">
         <f>VLOOKUP(D75,TextTag!$A:$B,2,0)</f>
@@ -7353,7 +7353,7 @@
         <v>튜토리얼 종료</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E77" s="1" t="str">
         <f>VLOOKUP(D77,TextTag!$A:$B,2,0)</f>
@@ -7423,22 +7423,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7724,8 +7724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375FEDA8-0451-4789-BF9C-DBB1721B45C7}">
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7759,10 +7759,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>78</v>
@@ -7850,7 +7850,7 @@
         <v>154</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>1</v>
@@ -7982,7 +7982,7 @@
         <v>186</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1</v>
@@ -8356,7 +8356,7 @@
         <v>343</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>1</v>
@@ -8364,7 +8364,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>341</v>
@@ -8375,10 +8375,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>713</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>714</v>
       </c>
       <c r="C59" s="6"/>
     </row>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>241</v>
@@ -8756,24 +8756,24 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>359</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>693</v>
-      </c>
       <c r="C101" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -8792,7 +8792,7 @@
         <v>18</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>11</v>
@@ -9199,7 +9199,7 @@
         <v>539</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>11</v>
@@ -9210,7 +9210,7 @@
         <v>540</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>11</v>
@@ -9265,7 +9265,7 @@
         <v>545</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>11</v>
@@ -9276,7 +9276,7 @@
         <v>546</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>11</v>
@@ -9287,7 +9287,7 @@
         <v>547</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>11</v>
@@ -9298,7 +9298,7 @@
         <v>548</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>11</v>
@@ -9309,7 +9309,7 @@
         <v>549</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>11</v>
@@ -9320,7 +9320,7 @@
         <v>550</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>11</v>
@@ -9331,7 +9331,7 @@
         <v>655</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>11</v>
@@ -9342,7 +9342,7 @@
         <v>656</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>11</v>
@@ -9350,10 +9350,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>11</v>
@@ -9361,10 +9361,10 @@
     </row>
     <row r="155" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>11</v>
@@ -9372,10 +9372,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>11</v>
@@ -9383,10 +9383,10 @@
     </row>
     <row r="157" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>11</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>651</v>
@@ -9405,10 +9405,10 @@
     </row>
     <row r="159" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>11</v>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>657</v>
@@ -9425,12 +9425,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>658</v>
+        <v>897</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>11</v>
@@ -9603,28 +9603,28 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C177" s="6"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>749</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>750</v>
       </c>
       <c r="C178" s="6"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>252</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>589</v>
@@ -9643,7 +9643,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>590</v>
@@ -9654,7 +9654,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>591</v>
@@ -9665,10 +9665,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>252</v>
@@ -9676,7 +9676,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>592</v>
@@ -9687,7 +9687,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>593</v>
@@ -9698,7 +9698,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>594</v>
@@ -9709,7 +9709,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>595</v>
@@ -9720,7 +9720,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>596</v>
@@ -9731,7 +9731,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>597</v>
@@ -9742,7 +9742,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>598</v>
@@ -9753,10 +9753,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>252</v>
@@ -9764,7 +9764,7 @@
     </row>
     <row r="192" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>599</v>
@@ -9775,7 +9775,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>600</v>
@@ -9786,7 +9786,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B194" s="9" t="s">
         <v>601</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>602</v>
@@ -9808,7 +9808,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>603</v>
@@ -9819,7 +9819,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>604</v>
@@ -9830,10 +9830,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>252</v>
@@ -9841,10 +9841,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>252</v>
@@ -9852,10 +9852,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>252</v>
@@ -9863,10 +9863,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>252</v>
@@ -9874,10 +9874,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>252</v>
@@ -9885,10 +9885,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>252</v>
@@ -9896,10 +9896,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>252</v>
@@ -9907,10 +9907,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>252</v>
@@ -9918,10 +9918,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>252</v>
@@ -9929,10 +9929,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>252</v>
@@ -9940,10 +9940,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>252</v>
@@ -9951,10 +9951,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>252</v>
@@ -9962,10 +9962,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>252</v>
@@ -9973,10 +9973,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>252</v>
@@ -9984,10 +9984,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>252</v>
@@ -9995,10 +9995,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>252</v>
@@ -10006,10 +10006,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>252</v>
@@ -10017,10 +10017,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>252</v>
@@ -10028,10 +10028,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>252</v>
@@ -10039,10 +10039,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>252</v>
@@ -10050,10 +10050,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>252</v>
@@ -10061,10 +10061,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>252</v>
@@ -10072,10 +10072,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>252</v>
@@ -10083,10 +10083,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>252</v>
@@ -10094,10 +10094,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>252</v>
@@ -10105,10 +10105,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>252</v>
@@ -10116,10 +10116,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>252</v>
@@ -10127,10 +10127,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>252</v>
@@ -10138,10 +10138,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>252</v>
@@ -10149,10 +10149,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>252</v>
@@ -10160,10 +10160,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>252</v>
@@ -10171,10 +10171,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>252</v>
@@ -10182,10 +10182,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>252</v>
@@ -10193,10 +10193,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>252</v>
@@ -10204,10 +10204,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>252</v>
@@ -10215,10 +10215,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>252</v>
@@ -10226,10 +10226,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>252</v>
@@ -10237,10 +10237,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>252</v>
@@ -10248,10 +10248,10 @@
     </row>
     <row r="236" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>252</v>
@@ -10259,10 +10259,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>252</v>
@@ -10270,10 +10270,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>252</v>
@@ -10281,10 +10281,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>252</v>
@@ -10292,10 +10292,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>252</v>
@@ -10303,10 +10303,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>252</v>
@@ -10314,10 +10314,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>252</v>
@@ -10325,10 +10325,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>252</v>
@@ -10336,10 +10336,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>252</v>
@@ -10347,10 +10347,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>252</v>
@@ -10358,10 +10358,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>252</v>
@@ -10369,10 +10369,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>252</v>
@@ -10380,10 +10380,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>252</v>
@@ -10391,10 +10391,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>252</v>
@@ -10402,10 +10402,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>252</v>
@@ -10413,10 +10413,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>252</v>
@@ -10424,10 +10424,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>252</v>
@@ -10435,10 +10435,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>252</v>
@@ -10446,10 +10446,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>252</v>
@@ -10457,10 +10457,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>252</v>
@@ -10476,21 +10476,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEAE22-5922-41C3-8363-1D72AEC2DD20}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
-    <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -10544,7 +10544,7 @@
         <v>금화</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>VLOOKUP(G2,TextTag!$A:$B,2,0)</f>
@@ -13655,7 +13655,7 @@
         <v>용병의 경험치를 조금 올려주는 전투 기록이다.</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -13687,7 +13687,7 @@
         <v>용병의 경험치를 적당히 올려주는 전투 기록이다.</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -13719,7 +13719,7 @@
         <v>용병의 경험치를 많이 올려주는 전투 기록이다.</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -13751,7 +13751,7 @@
         <v>금이 담긴 자루다.</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -13783,7 +13783,7 @@
         <v>금이 많이 담긴 자루다.</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -13815,7 +13815,7 @@
         <v>금이 꽉찬 자루다.</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -13833,21 +13833,21 @@
         <v>퀘스트 아이템</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>324</v>
+        <v>711</v>
       </c>
       <c r="F105" s="1" t="str">
         <f>VLOOKUP(E105,TextTag!$A:$B,2,0)</f>
-        <v>큰 금화 주머니</v>
+        <v>왕국의 문장</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>483</v>
+        <v>712</v>
       </c>
       <c r="H105" s="1" t="str">
         <f>VLOOKUP(G105,TextTag!$A:$B,2,0)</f>
-        <v>금이 꽉찬 자루다.</v>
+        <v>건물을 건설하기 위해 필요한 왕국의 문장이다.</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -13860,8 +13860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5F6F4D-65E2-42F1-89B1-3A28518D62CE}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13920,7 +13920,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -13938,7 +13938,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -13956,7 +13956,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>400</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -13974,7 +13974,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>500</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -13992,7 +13992,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -14010,7 +14010,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1">
-        <v>700</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -14028,7 +14028,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>800</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -14046,7 +14046,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="1">
-        <v>900</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -14064,7 +14064,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="1">
-        <v>1000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -14118,7 +14118,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>1300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -14136,7 +14136,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>1400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -14154,7 +14154,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>1500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -14172,7 +14172,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>1600</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -14190,7 +14190,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="1">
-        <v>1700</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -14208,7 +14208,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1">
-        <v>1800</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -14334,7 +14334,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>2500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -14352,7 +14352,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>2600</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -14370,7 +14370,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>2700</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -14388,7 +14388,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="1">
-        <v>2800</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -14406,7 +14406,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>2900</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -14424,7 +14424,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="1">
-        <v>3000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -14550,7 +14550,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>3700</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -14568,7 +14568,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1">
-        <v>3800</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -14586,7 +14586,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="1">
-        <v>3900</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -14604,7 +14604,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="1">
-        <v>4000</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -14622,7 +14622,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="1">
-        <v>4100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -14640,7 +14640,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="1">
-        <v>4200</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -15733,8 +15733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA3DF29-7E31-401A-BBF8-E5BBCFA00E79}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15830,16 +15830,16 @@
         <v>49</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>892</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -15917,7 +15917,7 @@
         <v>3</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="Y2" s="1">
         <v>-1</v>
@@ -15980,10 +15980,10 @@
         <v>-1</v>
       </c>
       <c r="Q3" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="R3" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S3" s="1">
         <v>-1</v>
@@ -16001,7 +16001,7 @@
         <v>4</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="Y3" s="1">
         <v>-1</v>
@@ -16064,10 +16064,10 @@
         <v>-1</v>
       </c>
       <c r="Q4" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="R4" s="1">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="S4" s="1">
         <v>-1</v>
@@ -16085,7 +16085,7 @@
         <v>5</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="Y4" s="1">
         <v>-1</v>
@@ -16169,7 +16169,7 @@
         <v>32</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="Y5" s="1">
         <v>-1</v>
@@ -16232,10 +16232,10 @@
         <v>-1</v>
       </c>
       <c r="Q6" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="R6" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S6" s="1">
         <v>-1</v>
@@ -16253,7 +16253,7 @@
         <v>48</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="Y6" s="1">
         <v>-1</v>
@@ -16316,10 +16316,10 @@
         <v>-1</v>
       </c>
       <c r="Q7" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="R7" s="1">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="S7" s="1">
         <v>-1</v>
@@ -16337,7 +16337,7 @@
         <v>64</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="Y7" s="1">
         <v>-1</v>
@@ -16354,7 +16354,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(C8,TextTag!$A:$B,2,0)</f>
@@ -16438,7 +16438,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(C9,TextTag!$A:$B,2,0)</f>
@@ -16484,10 +16484,10 @@
         <v>-1</v>
       </c>
       <c r="Q9" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="R9" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S9" s="1">
         <v>-1</v>
@@ -16522,7 +16522,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP(C10,TextTag!$A:$B,2,0)</f>
@@ -16568,10 +16568,10 @@
         <v>-1</v>
       </c>
       <c r="Q10" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="R10" s="1">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="S10" s="1">
         <v>-1</v>
@@ -16606,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>VLOOKUP(C11,TextTag!$A:$B,2,0)</f>
@@ -16673,13 +16673,13 @@
         <v>4</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -16690,7 +16690,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>VLOOKUP(C12,TextTag!$A:$B,2,0)</f>
@@ -16736,10 +16736,10 @@
         <v>-1</v>
       </c>
       <c r="Q12" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="R12" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S12" s="1">
         <v>-1</v>
@@ -16757,13 +16757,13 @@
         <v>6</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Y12" s="1">
         <v>0.1</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -16774,7 +16774,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(C13,TextTag!$A:$B,2,0)</f>
@@ -16820,10 +16820,10 @@
         <v>-1</v>
       </c>
       <c r="Q13" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="R13" s="1">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="S13" s="1">
         <v>-1</v>
@@ -16841,13 +16841,13 @@
         <v>8</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Y13" s="1">
         <v>0.2</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -16858,7 +16858,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>VLOOKUP(C14,TextTag!$A:$B,2,0)</f>
@@ -16942,7 +16942,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>VLOOKUP(C15,TextTag!$A:$B,2,0)</f>
@@ -16988,10 +16988,10 @@
         <v>-1</v>
       </c>
       <c r="Q15" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="R15" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S15" s="1">
         <v>-1</v>
@@ -17026,7 +17026,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>VLOOKUP(C16,TextTag!$A:$B,2,0)</f>
@@ -17072,10 +17072,10 @@
         <v>-1</v>
       </c>
       <c r="Q16" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="R16" s="1">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="S16" s="1">
         <v>-1</v>
@@ -17203,7 +17203,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,TextTag!$A:$B,2,0)</f>
@@ -17217,7 +17217,7 @@
         <v>#N/A</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H2" s="1">
         <v>-1</v>
@@ -17267,7 +17267,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,TextTag!$A:$B,2,0)</f>
@@ -17281,7 +17281,7 @@
         <v>#N/A</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -17331,7 +17331,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,TextTag!$A:$B,2,0)</f>
@@ -17345,7 +17345,7 @@
         <v>#N/A</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -17395,7 +17395,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(C5,TextTag!$A:$B,2,0)</f>
@@ -17409,7 +17409,7 @@
         <v>#N/A</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -17459,7 +17459,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(C6,TextTag!$A:$B,2,0)</f>
@@ -17473,7 +17473,7 @@
         <v>#N/A</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -17526,8 +17526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF15104-731A-4C98-BA74-8497E4F21D42}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17567,7 +17567,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>27</v>
@@ -20602,7 +20602,8 @@
       </c>
       <c r="F31" s="1" t="str">
         <f>VLOOKUP(E31,TextTag!$A:$B,2,0)</f>
-        <v>내가 보내준 검을 보고 마음에 들었나보더군. 몇 자루 더 요청하던데 가능한가?</v>
+        <v>내가 보내준 검을 보고 마음에 들었나보더군. 몇 자루 더 요청하던데 가능한가?
+(DEMO 마지막 임무입니다)</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
@@ -20749,7 +20750,7 @@
         <v>243</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>195</v>

--- a/Sheet/DEM_Data.xlsx
+++ b/Sheet/DEM_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy05\OneDrive\문서\GitHub\DesktopEquipmentMerge\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFD0C29-533F-4A55-84AF-F16063DFE0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EE29AC-A822-42D1-8CF2-9260AFD5C501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="5280" windowWidth="28800" windowHeight="15345" tabRatio="684" activeTab="2" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
+    <workbookView xWindow="1740" yWindow="5280" windowWidth="28800" windowHeight="15345" tabRatio="684" firstSheet="2" activeTab="7" xr2:uid="{285DE2B3-C00B-4EAF-B1DF-19A1C54A570F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1140">
   <si>
     <t>녹슨 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4074,6 +4074,10 @@
   </si>
   <si>
     <t>Res_Emblem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingLv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11329,7 +11333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEAE22-5922-41C3-8363-1D72AEC2DD20}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
@@ -18379,8 +18383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF15104-731A-4C98-BA74-8497E4F21D42}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC22" sqref="F22:AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18696,10 +18700,10 @@
         <v>100</v>
       </c>
       <c r="AA3" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB3" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="1">
         <v>-1</v>
@@ -18798,10 +18802,10 @@
         <v>100</v>
       </c>
       <c r="AA4" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB4" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1">
         <v>-1</v>
@@ -18900,10 +18904,10 @@
         <v>100</v>
       </c>
       <c r="AA5" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB5" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="1">
         <v>-1</v>
@@ -19001,10 +19005,10 @@
         <v>100</v>
       </c>
       <c r="AA6" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB6" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="1">
         <v>-1</v>
@@ -19102,10 +19106,10 @@
         <v>100</v>
       </c>
       <c r="AA7" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="1">
         <v>-1</v>
@@ -19202,10 +19206,10 @@
         <v>100</v>
       </c>
       <c r="AA8" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
         <v>-1</v>
@@ -19303,10 +19307,10 @@
         <v>100</v>
       </c>
       <c r="AA9" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="1">
         <v>-1</v>
@@ -19404,10 +19408,10 @@
         <v>100</v>
       </c>
       <c r="AA10" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="1">
         <v>-1</v>
@@ -19505,10 +19509,10 @@
         <v>100</v>
       </c>
       <c r="AA11" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="1">
         <v>-1</v>
@@ -19606,10 +19610,10 @@
         <v>100</v>
       </c>
       <c r="AA12" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="1">
         <v>-1</v>
@@ -19706,10 +19710,10 @@
         <v>100</v>
       </c>
       <c r="AA13" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB13" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="1">
         <v>-1</v>
@@ -19806,10 +19810,10 @@
         <v>100</v>
       </c>
       <c r="AA14" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB14" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="1">
         <v>-1</v>
@@ -19906,10 +19910,10 @@
         <v>100</v>
       </c>
       <c r="AA15" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB15" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="1">
         <v>-1</v>
@@ -20006,10 +20010,10 @@
         <v>100</v>
       </c>
       <c r="AA16" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB16" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="1">
         <v>-1</v>
@@ -20106,10 +20110,10 @@
         <v>100</v>
       </c>
       <c r="AA17" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="1">
         <v>-1</v>
@@ -20206,10 +20210,10 @@
         <v>100</v>
       </c>
       <c r="AA18" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="1">
         <v>-1</v>
@@ -20307,10 +20311,10 @@
         <v>100</v>
       </c>
       <c r="AA19" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB19" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="1">
         <v>-1</v>
@@ -20407,10 +20411,10 @@
         <v>100</v>
       </c>
       <c r="AA20" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB20" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="1">
         <v>-1</v>
@@ -20509,10 +20513,10 @@
         <v>100</v>
       </c>
       <c r="AA21" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB21" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="1">
         <v>-1</v>
@@ -20610,10 +20614,10 @@
         <v>100</v>
       </c>
       <c r="AA22" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB22" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="1">
         <v>-1</v>
@@ -20711,10 +20715,10 @@
         <v>100</v>
       </c>
       <c r="AA23" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB23" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="1">
         <v>-1</v>
@@ -20813,10 +20817,10 @@
         <v>100</v>
       </c>
       <c r="AA24" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB24" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="1">
         <v>-1</v>
@@ -20914,10 +20918,10 @@
         <v>100</v>
       </c>
       <c r="AA25" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB25" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="1">
         <v>-1</v>
@@ -21015,10 +21019,10 @@
         <v>100</v>
       </c>
       <c r="AA26" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB26" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="1">
         <v>-1</v>
@@ -21116,10 +21120,10 @@
         <v>100</v>
       </c>
       <c r="AA27" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB27" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="1">
         <v>-1</v>
@@ -21218,10 +21222,10 @@
         <v>100</v>
       </c>
       <c r="AA28" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB28" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="1">
         <v>-1</v>
@@ -21319,10 +21323,10 @@
         <v>100</v>
       </c>
       <c r="AA29" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB29" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC29" s="1">
         <v>-1</v>
@@ -21421,10 +21425,10 @@
         <v>100</v>
       </c>
       <c r="AA30" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB30" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="1">
         <v>-1</v>
@@ -21522,10 +21526,10 @@
         <v>100</v>
       </c>
       <c r="AA31" s="1">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="AB31" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="1">
         <v>-1</v>
@@ -21545,10 +21549,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D9C64-0131-485B-B804-97154A8E94F6}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21560,21 +21564,22 @@
     <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -21597,52 +21602,55 @@
         <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -21666,55 +21674,58 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
         <v>10</v>
       </c>
-      <c r="J2" s="1">
-        <v>-1</v>
-      </c>
       <c r="K2" s="1">
         <v>-1</v>
       </c>
-      <c r="L2" s="1" t="str">
-        <f>VLOOKUP(K2,Reference!$G:$H,2,0)</f>
+      <c r="L2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f>VLOOKUP(L2,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="M2" s="1">
-        <v>-1</v>
-      </c>
       <c r="N2" s="1">
         <v>-1</v>
       </c>
       <c r="O2" s="1">
         <v>-1</v>
       </c>
-      <c r="P2" s="1" t="str">
-        <f>VLOOKUP(O2,Reference!$G:$H,2,0)</f>
+      <c r="P2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <f>VLOOKUP(P2,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
       <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
         <v>1000</v>
       </c>
-      <c r="S2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T2" s="1" t="str">
-        <f>VLOOKUP(S2,Reference!$G:$H,2,0)</f>
+      <c r="T2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U2" s="1" t="str">
+        <f>VLOOKUP(T2,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="U2" s="1">
-        <v>-1</v>
-      </c>
       <c r="V2" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -21738,55 +21749,58 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>20</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>3</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <f>VLOOKUP(K3,Reference!$G:$H,2,0)</f>
-        <v>직업</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f>VLOOKUP(L3,Reference!$G:$H,2,0)</f>
+        <v>없음</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P3" s="1" t="str">
-        <f>VLOOKUP(O3,Reference!$G:$H,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f>VLOOKUP(P3,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
       <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
         <v>1000</v>
       </c>
-      <c r="S3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T3" s="1" t="str">
-        <f>VLOOKUP(S3,Reference!$G:$H,2,0)</f>
+      <c r="T3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="1" t="str">
+        <f>VLOOKUP(T3,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="U3" s="1">
-        <v>-1</v>
-      </c>
       <c r="V3" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -21813,52 +21827,55 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
         <v>30</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>6</v>
       </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="str">
-        <f>VLOOKUP(K4,Reference!$G:$H,2,0)</f>
-        <v>레벨</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
+      <c r="L4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f>VLOOKUP(L4,Reference!$G:$H,2,0)</f>
+        <v>없음</v>
       </c>
       <c r="N4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="1">
         <v>3</v>
       </c>
-      <c r="O4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P4" s="1" t="str">
-        <f>VLOOKUP(O4,Reference!$G:$H,2,0)</f>
+      <c r="P4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f>VLOOKUP(P4,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
       <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
         <v>1000</v>
       </c>
-      <c r="S4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T4" s="1" t="str">
-        <f>VLOOKUP(S4,Reference!$G:$H,2,0)</f>
+      <c r="T4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f>VLOOKUP(T4,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="U4" s="1">
-        <v>-1</v>
-      </c>
       <c r="V4" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -21885,52 +21902,55 @@
         <v>2</v>
       </c>
       <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
         <v>40</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>9</v>
       </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="e">
-        <f>VLOOKUP(K5,Reference!$G:$H,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2</v>
+      <c r="L5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>VLOOKUP(L5,Reference!$G:$H,2,0)</f>
+        <v>없음</v>
       </c>
       <c r="N5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="1">
         <v>5</v>
       </c>
-      <c r="O5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P5" s="1" t="str">
-        <f>VLOOKUP(O5,Reference!$G:$H,2,0)</f>
+      <c r="P5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f>VLOOKUP(P5,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
       <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
         <v>1000</v>
       </c>
-      <c r="S5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T5" s="1" t="str">
-        <f>VLOOKUP(S5,Reference!$G:$H,2,0)</f>
+      <c r="T5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f>VLOOKUP(T5,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="U5" s="1">
-        <v>-1</v>
-      </c>
       <c r="V5" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -21954,55 +21974,58 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
         <v>50</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>12</v>
       </c>
-      <c r="K6" s="1">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1" t="e">
-        <f>VLOOKUP(K6,Reference!$G:$H,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3</v>
+      <c r="L6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f>VLOOKUP(L6,Reference!$G:$H,2,0)</f>
+        <v>없음</v>
       </c>
       <c r="N6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="1">
         <v>7</v>
       </c>
-      <c r="O6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P6" s="1" t="str">
-        <f>VLOOKUP(O6,Reference!$G:$H,2,0)</f>
+      <c r="P6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f>VLOOKUP(P6,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
       <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
         <v>1000</v>
       </c>
-      <c r="S6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T6" s="1" t="str">
-        <f>VLOOKUP(S6,Reference!$G:$H,2,0)</f>
+      <c r="T6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="1" t="str">
+        <f>VLOOKUP(T6,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="U6" s="1">
-        <v>-1</v>
-      </c>
       <c r="V6" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -22026,55 +22049,58 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1">
         <v>60</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>15</v>
       </c>
-      <c r="K7" s="1">
-        <v>4</v>
-      </c>
-      <c r="L7" s="1" t="e">
-        <f>VLOOKUP(K7,Reference!$G:$H,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M7" s="1">
-        <v>4</v>
+      <c r="L7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f>VLOOKUP(L7,Reference!$G:$H,2,0)</f>
+        <v>없음</v>
       </c>
       <c r="N7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="1">
         <v>9</v>
       </c>
-      <c r="O7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="1" t="str">
-        <f>VLOOKUP(O7,Reference!$G:$H,2,0)</f>
+      <c r="P7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f>VLOOKUP(P7,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
       <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
         <v>1000</v>
       </c>
-      <c r="S7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T7" s="1" t="str">
-        <f>VLOOKUP(S7,Reference!$G:$H,2,0)</f>
+      <c r="T7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="1" t="str">
+        <f>VLOOKUP(T7,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="U7" s="1">
-        <v>-1</v>
-      </c>
       <c r="V7" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -22098,55 +22124,58 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1">
         <v>70</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>18</v>
       </c>
-      <c r="K8" s="1">
-        <v>5</v>
-      </c>
-      <c r="L8" s="1" t="e">
-        <f>VLOOKUP(K8,Reference!$G:$H,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" s="1">
-        <v>5</v>
+      <c r="L8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f>VLOOKUP(L8,Reference!$G:$H,2,0)</f>
+        <v>없음</v>
       </c>
       <c r="N8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="1">
         <v>11</v>
       </c>
-      <c r="O8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="1" t="str">
-        <f>VLOOKUP(O8,Reference!$G:$H,2,0)</f>
+      <c r="P8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f>VLOOKUP(P8,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
       <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
         <v>1000</v>
       </c>
-      <c r="S8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T8" s="1" t="str">
-        <f>VLOOKUP(S8,Reference!$G:$H,2,0)</f>
+      <c r="T8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="1" t="str">
+        <f>VLOOKUP(T8,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="U8" s="1">
-        <v>-1</v>
-      </c>
       <c r="V8" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -22170,55 +22199,58 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1">
         <v>80</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>21</v>
       </c>
-      <c r="K9" s="1">
-        <v>6</v>
-      </c>
-      <c r="L9" s="1" t="e">
-        <f>VLOOKUP(K9,Reference!$G:$H,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" s="1">
-        <v>6</v>
+      <c r="L9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f>VLOOKUP(L9,Reference!$G:$H,2,0)</f>
+        <v>없음</v>
       </c>
       <c r="N9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="1">
         <v>13</v>
       </c>
-      <c r="O9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P9" s="1" t="str">
-        <f>VLOOKUP(O9,Reference!$G:$H,2,0)</f>
+      <c r="P9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f>VLOOKUP(P9,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
       <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
         <v>1000</v>
       </c>
-      <c r="S9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T9" s="1" t="str">
-        <f>VLOOKUP(S9,Reference!$G:$H,2,0)</f>
+      <c r="T9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="1" t="str">
+        <f>VLOOKUP(T9,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="U9" s="1">
-        <v>-1</v>
-      </c>
       <c r="V9" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -22242,55 +22274,58 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1">
         <v>90</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>24</v>
       </c>
-      <c r="K10" s="1">
-        <v>7</v>
-      </c>
-      <c r="L10" s="1" t="e">
-        <f>VLOOKUP(K10,Reference!$G:$H,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M10" s="1">
-        <v>7</v>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f>VLOOKUP(L10,Reference!$G:$H,2,0)</f>
+        <v>없음</v>
       </c>
       <c r="N10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="1">
         <v>15</v>
       </c>
-      <c r="O10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="1" t="str">
-        <f>VLOOKUP(O10,Reference!$G:$H,2,0)</f>
+      <c r="P10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f>VLOOKUP(P10,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
       <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
         <v>1000</v>
       </c>
-      <c r="S10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T10" s="1" t="str">
-        <f>VLOOKUP(S10,Reference!$G:$H,2,0)</f>
+      <c r="T10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="1" t="str">
+        <f>VLOOKUP(T10,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="U10" s="1">
-        <v>-1</v>
-      </c>
       <c r="V10" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -22314,51 +22349,54 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I11" s="1">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1">
         <v>100</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>27</v>
       </c>
-      <c r="K11" s="1">
-        <v>8</v>
-      </c>
-      <c r="L11" s="1" t="e">
-        <f>VLOOKUP(K11,Reference!$G:$H,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M11" s="1">
-        <v>8</v>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f>VLOOKUP(L11,Reference!$G:$H,2,0)</f>
+        <v>없음</v>
       </c>
       <c r="N11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="1">
         <v>17</v>
       </c>
-      <c r="O11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="1" t="str">
-        <f>VLOOKUP(O11,Reference!$G:$H,2,0)</f>
+      <c r="P11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f>VLOOKUP(P11,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
       <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
         <v>1000</v>
       </c>
-      <c r="S11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="1" t="str">
-        <f>VLOOKUP(S11,Reference!$G:$H,2,0)</f>
+      <c r="T11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="1" t="str">
+        <f>VLOOKUP(T11,Reference!$G:$H,2,0)</f>
         <v>없음</v>
       </c>
-      <c r="U11" s="1">
-        <v>-1</v>
-      </c>
       <c r="V11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W11" s="1">
         <v>-1</v>
       </c>
     </row>
